--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91474094-98D6-4931-97B4-CFC949B7775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E9788-341B-4AF7-A3CC-29B0F555C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E9788-341B-4AF7-A3CC-29B0F555C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929BF1F-4EEE-4E74-BBF0-511F2A26749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,15 @@
     <t>Cost (current year's prices, million DKK)</t>
   </si>
   <si>
+    <t>Cost (preceding year's prices, million DKK)</t>
+  </si>
+  <si>
+    <t>Investment value (current year's prices, million DKK)</t>
+  </si>
+  <si>
+    <t>Investment value (preceding year's prices, million DKK)</t>
+  </si>
+  <si>
     <t>coastal</t>
   </si>
   <si>
@@ -33,22 +42,21 @@
   <si>
     <t>streams</t>
   </si>
-  <si>
-    <t>Cost (preceding year's prices, million DKK)</t>
-  </si>
-  <si>
-    <t>Investment value (current year's prices, million DKK)</t>
-  </si>
-  <si>
-    <t>Investment value (preceding year's prices, million DKK)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,12 +80,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -388,61 +420,71 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1717,6 +1759,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEDBDD9-A2B3-4996-B8E4-A359B8671E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,13 +113,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,37 +410,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -460,1275 +481,1275 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>957.18256466640833</v>
+      </c>
+      <c r="C3">
+        <v>707.35168850494563</v>
+      </c>
+      <c r="D3">
+        <v>960.00834027818132</v>
+      </c>
+      <c r="E3">
+        <v>932.36097465885155</v>
+      </c>
+      <c r="F3">
+        <v>689.0086949618676</v>
+      </c>
+      <c r="G3">
+        <v>935.113472458974</v>
+      </c>
+      <c r="H3">
+        <v>4793.7524905705777</v>
+      </c>
+      <c r="I3">
+        <v>-1933.297276857629</v>
+      </c>
+      <c r="J3">
+        <v>3992.656904893799</v>
+      </c>
+      <c r="K3">
+        <v>4669.4412428410324</v>
+      </c>
+      <c r="L3">
+        <v>-1883.163149743008</v>
+      </c>
+      <c r="M3">
+        <v>3889.119610763652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B4">
-        <v>957.1825646664083</v>
+        <v>1066.039251007677</v>
       </c>
       <c r="C4">
-        <v>707.3516885049456</v>
+        <v>781.2552494596722</v>
       </c>
       <c r="D4">
-        <v>960.0083402781813</v>
+        <v>1036.2477469635689</v>
       </c>
       <c r="E4">
-        <v>932.3609746588515</v>
+        <v>1040.737686505913</v>
       </c>
       <c r="F4">
-        <v>689.0086949618676</v>
+        <v>762.71279891869904</v>
       </c>
       <c r="G4">
-        <v>935.113472458974</v>
+        <v>1011.653259298295</v>
       </c>
       <c r="H4">
-        <v>4793.752490570578</v>
+        <v>-4879.313677559785</v>
       </c>
       <c r="I4">
-        <v>-1933.297276857629</v>
+        <v>-10386.06817831712</v>
       </c>
       <c r="J4">
-        <v>3992.656904893799</v>
+        <v>-12656.53959905716</v>
       </c>
       <c r="K4">
-        <v>4669.441242841032</v>
+        <v>-4763.5071820480816</v>
       </c>
       <c r="L4">
-        <v>-1883.163149743007</v>
+        <v>-10139.5633956039</v>
       </c>
       <c r="M4">
-        <v>3889.119610763652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-12356.14704528207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B5">
-        <v>1066.039251007677</v>
+        <v>1248.354224032038</v>
       </c>
       <c r="C5">
-        <v>781.2552494596723</v>
+        <v>814.83805694393072</v>
       </c>
       <c r="D5">
-        <v>1036.247746963569</v>
+        <v>1081.8514325644121</v>
       </c>
       <c r="E5">
-        <v>1040.737686505913</v>
+        <v>1223.19359626085</v>
       </c>
       <c r="F5">
-        <v>762.712798918699</v>
+        <v>798.41496432335543</v>
       </c>
       <c r="G5">
-        <v>1011.653259298295</v>
+        <v>1060.0466750088499</v>
       </c>
       <c r="H5">
-        <v>-4879.313677559789</v>
+        <v>-21784.30046371065</v>
       </c>
       <c r="I5">
-        <v>-10386.06817831712</v>
+        <v>-1581.8062794511991</v>
       </c>
       <c r="J5">
-        <v>-12656.53959905716</v>
+        <v>-7199.3088226909058</v>
       </c>
       <c r="K5">
-        <v>-4763.507182048085</v>
+        <v>-21345.237043511828</v>
       </c>
       <c r="L5">
-        <v>-10139.5633956039</v>
+        <v>-1549.9249125785391</v>
       </c>
       <c r="M5">
-        <v>-12356.14704528207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-7054.2064743265937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B6">
-        <v>1248.354224032038</v>
+        <v>1018.358264250062</v>
       </c>
       <c r="C6">
-        <v>814.8380569439307</v>
+        <v>772.83272220219362</v>
       </c>
       <c r="D6">
-        <v>1081.851432564412</v>
+        <v>1095.7145073805091</v>
       </c>
       <c r="E6">
-        <v>1223.19359626085</v>
+        <v>1005.882205882527</v>
       </c>
       <c r="F6">
-        <v>798.4149643233554</v>
+        <v>763.36463372192179</v>
       </c>
       <c r="G6">
-        <v>1060.04667500885</v>
+        <v>1082.2907461874861</v>
       </c>
       <c r="H6">
-        <v>-21784.30046371065</v>
+        <v>37507.49082515949</v>
       </c>
       <c r="I6">
-        <v>-1581.8062794512</v>
+        <v>14922.666389964939</v>
       </c>
       <c r="J6">
-        <v>-7199.308822690907</v>
+        <v>4504.5373975507318</v>
       </c>
       <c r="K6">
-        <v>-21345.23704351183</v>
+        <v>37047.980983503643</v>
       </c>
       <c r="L6">
-        <v>-1549.92491257854</v>
+        <v>14739.846587331371</v>
       </c>
       <c r="M6">
-        <v>-7054.206474326595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4449.3516407660363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B7">
-        <v>1018.358264250062</v>
+        <v>1248.8741942396241</v>
       </c>
       <c r="C7">
-        <v>772.8327222021936</v>
+        <v>890.45490097034406</v>
       </c>
       <c r="D7">
-        <v>1095.714507380509</v>
+        <v>1163.9950676362321</v>
       </c>
       <c r="E7">
-        <v>1005.882205882527</v>
+        <v>1224.4967700277391</v>
       </c>
       <c r="F7">
-        <v>763.3646337219218</v>
+        <v>873.07364914960169</v>
       </c>
       <c r="G7">
-        <v>1082.290746187486</v>
+        <v>1141.274443192882</v>
       </c>
       <c r="H7">
-        <v>37507.49082515949</v>
+        <v>-22706.047688856499</v>
       </c>
       <c r="I7">
-        <v>14922.66638996494</v>
+        <v>-17333.63052848565</v>
       </c>
       <c r="J7">
-        <v>4504.537397550732</v>
+        <v>2486.79356328731</v>
       </c>
       <c r="K7">
-        <v>37047.98098350364</v>
+        <v>-22262.836547782721</v>
       </c>
       <c r="L7">
-        <v>14739.84658733137</v>
+        <v>-16995.286389040739</v>
       </c>
       <c r="M7">
-        <v>4449.351640766036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2438.252547787708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B8">
-        <v>1248.874194239624</v>
+        <v>1239.9369664572901</v>
       </c>
       <c r="C8">
-        <v>890.4549009703441</v>
+        <v>857.44309823360993</v>
       </c>
       <c r="D8">
-        <v>1163.995067636232</v>
+        <v>1165.716674918333</v>
       </c>
       <c r="E8">
-        <v>1224.496770027739</v>
+        <v>1214.4088524419931</v>
       </c>
       <c r="F8">
-        <v>873.0736491496017</v>
+        <v>839.78985797585915</v>
       </c>
       <c r="G8">
-        <v>1141.274443192882</v>
+        <v>1141.716625728837</v>
       </c>
       <c r="H8">
-        <v>-22706.0476888565</v>
+        <v>13114.25664867418</v>
       </c>
       <c r="I8">
-        <v>-17333.63052848565</v>
+        <v>19925.915228553731</v>
       </c>
       <c r="J8">
-        <v>2486.79356328731</v>
+        <v>17553.984328457129</v>
       </c>
       <c r="K8">
-        <v>-22262.83654778272</v>
+        <v>12844.25724708382</v>
       </c>
       <c r="L8">
-        <v>-16995.28638904074</v>
+        <v>19515.675797377618</v>
       </c>
       <c r="M8">
-        <v>2438.252547787708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17192.578768753599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B9">
-        <v>1239.93696645729</v>
+        <v>1229.834925748268</v>
       </c>
       <c r="C9">
-        <v>857.4430982336099</v>
+        <v>798.64477853491496</v>
       </c>
       <c r="D9">
-        <v>1165.716674918333</v>
+        <v>1249.382224510701</v>
       </c>
       <c r="E9">
-        <v>1214.408852441993</v>
+        <v>1203.2917259119749</v>
       </c>
       <c r="F9">
-        <v>839.7898579758591</v>
+        <v>781.40784086869382</v>
       </c>
       <c r="G9">
-        <v>1141.716625728837</v>
+        <v>1222.417140528456</v>
       </c>
       <c r="H9">
-        <v>13114.25664867417</v>
+        <v>7995.5336833502324</v>
       </c>
       <c r="I9">
-        <v>19925.91522855373</v>
+        <v>21140.548686382259</v>
       </c>
       <c r="J9">
-        <v>17553.98432845713</v>
+        <v>-16273.73063476839</v>
       </c>
       <c r="K9">
-        <v>12844.25724708382</v>
+        <v>7822.9682081700103</v>
       </c>
       <c r="L9">
-        <v>19515.67579737762</v>
+        <v>20684.277851424369</v>
       </c>
       <c r="M9">
-        <v>17192.5787687536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-15922.499038334539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B10">
-        <v>1229.834925748268</v>
+        <v>1305.6680224007259</v>
       </c>
       <c r="C10">
-        <v>798.644778534915</v>
+        <v>953.21378975856385</v>
       </c>
       <c r="D10">
-        <v>1249.382224510701</v>
+        <v>1298.700453600969</v>
       </c>
       <c r="E10">
-        <v>1203.291725911975</v>
+        <v>1278.083486716203</v>
       </c>
       <c r="F10">
-        <v>781.4078408686938</v>
+        <v>933.07547025662234</v>
       </c>
       <c r="G10">
-        <v>1222.417140528456</v>
+        <v>1271.263120074188</v>
       </c>
       <c r="H10">
-        <v>7995.533683350232</v>
+        <v>-5058.3063764520411</v>
       </c>
       <c r="I10">
-        <v>21140.54868638226</v>
+        <v>-27279.54078218143</v>
       </c>
       <c r="J10">
-        <v>-16273.73063476839</v>
+        <v>3451.651744877352</v>
       </c>
       <c r="K10">
-        <v>7822.96820817001</v>
+        <v>-4951.4407487805202</v>
       </c>
       <c r="L10">
-        <v>20684.27785142438</v>
+        <v>-26703.212455797311</v>
       </c>
       <c r="M10">
-        <v>-15922.49903833454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3378.7295249151539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B11">
-        <v>1305.668022400726</v>
+        <v>1315.6677739967481</v>
       </c>
       <c r="C11">
-        <v>953.2137897585638</v>
+        <v>863.47828625996874</v>
       </c>
       <c r="D11">
-        <v>1298.700453600969</v>
+        <v>1363.283200512401</v>
       </c>
       <c r="E11">
-        <v>1278.083486716203</v>
+        <v>1292.0112303425881</v>
       </c>
       <c r="F11">
-        <v>933.0754702566223</v>
+        <v>847.95239729540504</v>
       </c>
       <c r="G11">
-        <v>1271.263120074188</v>
+        <v>1338.770501194751</v>
       </c>
       <c r="H11">
-        <v>-5058.306376452041</v>
+        <v>8360.4224477714852</v>
       </c>
       <c r="I11">
-        <v>-27279.54078218143</v>
+        <v>30141.53839694916</v>
       </c>
       <c r="J11">
-        <v>3451.651744877351</v>
+        <v>-2888.139720677993</v>
       </c>
       <c r="K11">
-        <v>-4951.44074878052</v>
+        <v>8210.0967329429532</v>
       </c>
       <c r="L11">
-        <v>-26703.21245579732</v>
+        <v>29599.57435938299</v>
       </c>
       <c r="M11">
-        <v>3378.729524915154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>-2836.2091309562602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B12">
-        <v>1315.667773996748</v>
+        <v>1422.9049154726249</v>
       </c>
       <c r="C12">
-        <v>863.4782862599689</v>
+        <v>907.89586788069255</v>
       </c>
       <c r="D12">
-        <v>1363.283200512401</v>
+        <v>1340.9646168196939</v>
       </c>
       <c r="E12">
-        <v>1292.011230342588</v>
+        <v>1388.340423598796</v>
       </c>
       <c r="F12">
-        <v>847.952397295405</v>
+        <v>885.84171724391467</v>
       </c>
       <c r="G12">
-        <v>1338.770501194751</v>
+        <v>1308.390577544722</v>
       </c>
       <c r="H12">
-        <v>8360.422447771487</v>
+        <v>-4251.887959058613</v>
       </c>
       <c r="I12">
-        <v>30141.53839694916</v>
+        <v>-1368.8660466213471</v>
       </c>
       <c r="J12">
-        <v>-2888.139720677993</v>
+        <v>7334.6194935794429</v>
       </c>
       <c r="K12">
-        <v>8210.096732942953</v>
+        <v>-4148.6032313082014</v>
       </c>
       <c r="L12">
-        <v>29599.57435938299</v>
+        <v>-1335.6142398208281</v>
       </c>
       <c r="M12">
-        <v>-2836.209130956259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7156.4505989985664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B13">
-        <v>1422.904915472625</v>
+        <v>1330.0334657517001</v>
       </c>
       <c r="C13">
-        <v>907.8958678806927</v>
+        <v>918.41566841281713</v>
       </c>
       <c r="D13">
-        <v>1340.964616819694</v>
+        <v>1301.814201141992</v>
       </c>
       <c r="E13">
-        <v>1388.340423598796</v>
+        <v>1293.379000160118</v>
       </c>
       <c r="F13">
-        <v>885.8417172439147</v>
+        <v>893.10500038569216</v>
       </c>
       <c r="G13">
-        <v>1308.390577544722</v>
+        <v>1265.937431819181</v>
       </c>
       <c r="H13">
-        <v>-4251.887959058612</v>
+        <v>9228.4525257806417</v>
       </c>
       <c r="I13">
-        <v>-1368.866046621347</v>
+        <v>3554.3254154836491</v>
       </c>
       <c r="J13">
-        <v>7334.619493579443</v>
+        <v>8834.9420094527668</v>
       </c>
       <c r="K13">
-        <v>-4148.603231308201</v>
+        <v>8974.1250939677884</v>
       </c>
       <c r="L13">
-        <v>-1335.614239820828</v>
+        <v>3456.3715654506341</v>
       </c>
       <c r="M13">
-        <v>7156.450598998566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8591.459355648949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>1330.0334657517</v>
+        <v>1421.125475921204</v>
       </c>
       <c r="C14">
-        <v>918.4156684128171</v>
+        <v>979.06932876119674</v>
       </c>
       <c r="D14">
-        <v>1301.814201141992</v>
+        <v>1346.1756350976721</v>
       </c>
       <c r="E14">
-        <v>1293.379000160118</v>
+        <v>1388.3302726307149</v>
       </c>
       <c r="F14">
-        <v>893.1050003856923</v>
+        <v>956.47542117439991</v>
       </c>
       <c r="G14">
-        <v>1265.937431819181</v>
+        <v>1315.1100435184951</v>
       </c>
       <c r="H14">
-        <v>9228.452525780642</v>
+        <v>-1447.1207324744739</v>
       </c>
       <c r="I14">
-        <v>3554.325415483648</v>
+        <v>-2557.40633715066</v>
       </c>
       <c r="J14">
-        <v>8834.942009452767</v>
+        <v>140.1923962645055</v>
       </c>
       <c r="K14">
-        <v>8974.125093967788</v>
+        <v>-1413.7256386481411</v>
       </c>
       <c r="L14">
-        <v>3456.371565450634</v>
+        <v>-2498.389267831798</v>
       </c>
       <c r="M14">
-        <v>8591.459355648949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>136.9571871199399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>1421.125475921204</v>
+        <v>1474.687114888505</v>
       </c>
       <c r="C15">
-        <v>979.0693287611967</v>
+        <v>1209.200937993646</v>
       </c>
       <c r="D15">
-        <v>1346.175635097672</v>
+        <v>1318.728466284829</v>
       </c>
       <c r="E15">
-        <v>1388.330272630715</v>
+        <v>1439.6194613429709</v>
       </c>
       <c r="F15">
-        <v>956.4754211743999</v>
+        <v>1180.446472634598</v>
       </c>
       <c r="G15">
-        <v>1315.110043518495</v>
+        <v>1287.369466460784</v>
       </c>
       <c r="H15">
-        <v>-1447.120732474474</v>
+        <v>984.72857819420392</v>
       </c>
       <c r="I15">
-        <v>-2557.40633715066</v>
+        <v>-13225.75865519101</v>
       </c>
       <c r="J15">
-        <v>140.1923962645058</v>
+        <v>6470.0405894952801</v>
       </c>
       <c r="K15">
-        <v>-1413.725638648141</v>
+        <v>961.31200374402863</v>
       </c>
       <c r="L15">
-        <v>-2498.389267831798</v>
+        <v>-12911.253756006239</v>
       </c>
       <c r="M15">
-        <v>136.9571871199401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6316.1848057651041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B16">
-        <v>1474.687114888505</v>
+        <v>1445.91389654355</v>
       </c>
       <c r="C16">
-        <v>1209.200937993646</v>
+        <v>1029.420841415259</v>
       </c>
       <c r="D16">
-        <v>1318.728466284829</v>
+        <v>1297.598640512924</v>
       </c>
       <c r="E16">
-        <v>1439.619461342971</v>
+        <v>1415.7906903655601</v>
       </c>
       <c r="F16">
-        <v>1180.446472634598</v>
+        <v>1007.974573885774</v>
       </c>
       <c r="G16">
-        <v>1287.369466460785</v>
+        <v>1270.5653355022389</v>
       </c>
       <c r="H16">
-        <v>984.728578194204</v>
+        <v>2647.0094940392228</v>
       </c>
       <c r="I16">
-        <v>-13225.75865519101</v>
+        <v>13369.9459558488</v>
       </c>
       <c r="J16">
-        <v>6470.04058949528</v>
+        <v>4370.2189836704538</v>
       </c>
       <c r="K16">
-        <v>961.3120037440289</v>
+        <v>2591.8634629134058</v>
       </c>
       <c r="L16">
-        <v>-12911.25375600624</v>
+        <v>13091.40541510195</v>
       </c>
       <c r="M16">
-        <v>6316.184805765104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4279.1727548439858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
-        <v>1445.91389654355</v>
+        <v>1625.535351544873</v>
       </c>
       <c r="C17">
-        <v>1029.420841415259</v>
+        <v>964.03388373914379</v>
       </c>
       <c r="D17">
-        <v>1297.598640512924</v>
+        <v>1443.113348075959</v>
       </c>
       <c r="E17">
-        <v>1415.790690365559</v>
+        <v>1607.8022386189291</v>
       </c>
       <c r="F17">
-        <v>1007.974573885775</v>
+        <v>953.51715046198944</v>
       </c>
       <c r="G17">
-        <v>1270.565335502239</v>
+        <v>1427.370293369675</v>
       </c>
       <c r="H17">
-        <v>2647.009494039224</v>
+        <v>-4182.4507176034203</v>
       </c>
       <c r="I17">
-        <v>13369.9459558488</v>
+        <v>6858.2314029250019</v>
       </c>
       <c r="J17">
-        <v>4370.218983670453</v>
+        <v>-8197.9252165877515</v>
       </c>
       <c r="K17">
-        <v>2591.863462913407</v>
+        <v>-4136.823982502292</v>
       </c>
       <c r="L17">
-        <v>13091.40541510195</v>
+        <v>6783.4143330749102</v>
       </c>
       <c r="M17">
-        <v>4279.172754843986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>-8108.4933051340668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B18">
-        <v>1625.535351544873</v>
+        <v>1150.8529700235861</v>
       </c>
       <c r="C18">
-        <v>964.0338837391438</v>
+        <v>981.4218903004471</v>
       </c>
       <c r="D18">
-        <v>1443.113348075959</v>
+        <v>1401.041286557183</v>
       </c>
       <c r="E18">
-        <v>1607.802238618929</v>
+        <v>1130.302024130307</v>
       </c>
       <c r="F18">
-        <v>953.5171504619894</v>
+        <v>963.89649940222489</v>
       </c>
       <c r="G18">
-        <v>1427.370293369675</v>
+        <v>1376.022692154377</v>
       </c>
       <c r="H18">
-        <v>-4182.450717603422</v>
+        <v>17824.32800504491</v>
       </c>
       <c r="I18">
-        <v>6858.231402925002</v>
+        <v>1290.740129299634</v>
       </c>
       <c r="J18">
-        <v>-8197.925216587751</v>
+        <v>8628.1012077057785</v>
       </c>
       <c r="K18">
-        <v>-4136.823982502293</v>
+        <v>17506.036433526249</v>
       </c>
       <c r="L18">
-        <v>6783.41433307491</v>
+        <v>1267.6911984192841</v>
       </c>
       <c r="M18">
-        <v>-8108.493305134068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8474.0279718538895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19">
-        <v>1150.852970023586</v>
+        <v>1774.0120215530651</v>
       </c>
       <c r="C19">
-        <v>981.4218903004472</v>
+        <v>1133.5189541859729</v>
       </c>
       <c r="D19">
-        <v>1401.041286557183</v>
+        <v>1440.410385409853</v>
       </c>
       <c r="E19">
-        <v>1130.302024130307</v>
+        <v>1740.852918346465</v>
       </c>
       <c r="F19">
-        <v>963.896499402225</v>
+        <v>1112.331684014272</v>
       </c>
       <c r="G19">
-        <v>1376.022692154377</v>
+        <v>1413.4868268040609</v>
       </c>
       <c r="H19">
-        <v>17824.32800504491</v>
+        <v>-14844.790646106339</v>
       </c>
       <c r="I19">
-        <v>1290.740129299634</v>
+        <v>-7177.2908193393832</v>
       </c>
       <c r="J19">
-        <v>8628.101207705779</v>
+        <v>4224.4718808033467</v>
       </c>
       <c r="K19">
-        <v>17506.03643352626</v>
+        <v>-14567.31792374921</v>
       </c>
       <c r="L19">
-        <v>1267.691198419284</v>
+        <v>-7043.1358507536006</v>
       </c>
       <c r="M19">
-        <v>8474.02797185389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4145.5097895733779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B20">
-        <v>1774.012021553065</v>
+        <v>1732.5986948911359</v>
       </c>
       <c r="C20">
-        <v>1133.518954185973</v>
+        <v>1147.633226008011</v>
       </c>
       <c r="D20">
-        <v>1440.410385409853</v>
+        <v>1555.7604310743991</v>
       </c>
       <c r="E20">
-        <v>1740.852918346465</v>
+        <v>1702.760600260405</v>
       </c>
       <c r="F20">
-        <v>1112.331684014272</v>
+        <v>1127.8691635624079</v>
       </c>
       <c r="G20">
-        <v>1413.486826804061</v>
+        <v>1528.96777152662</v>
       </c>
       <c r="H20">
-        <v>-14844.79064610634</v>
+        <v>5873.7632920513352</v>
       </c>
       <c r="I20">
-        <v>-7177.290819339383</v>
+        <v>3658.0197646019569</v>
       </c>
       <c r="J20">
-        <v>4224.471880803346</v>
+        <v>-3835.20485774387</v>
       </c>
       <c r="K20">
-        <v>-14567.31792374921</v>
+        <v>5772.6077818552731</v>
       </c>
       <c r="L20">
-        <v>-7043.135850753601</v>
+        <v>3595.0228685410739</v>
       </c>
       <c r="M20">
-        <v>4145.509789573377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>-3769.156553649545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B21">
-        <v>1732.598694891136</v>
+        <v>1833.717316615287</v>
       </c>
       <c r="C21">
-        <v>1147.633226008011</v>
+        <v>1098.412451938558</v>
       </c>
       <c r="D21">
-        <v>1555.760431074399</v>
+        <v>1518.9605890113569</v>
       </c>
       <c r="E21">
-        <v>1702.760600260404</v>
+        <v>1772.661246139751</v>
       </c>
       <c r="F21">
-        <v>1127.869163562408</v>
+        <v>1061.8393403312809</v>
       </c>
       <c r="G21">
-        <v>1528.96777152662</v>
+        <v>1468.3847647379489</v>
       </c>
       <c r="H21">
-        <v>5873.763292051336</v>
+        <v>-1135.303848006894</v>
       </c>
       <c r="I21">
-        <v>3658.019764601957</v>
+        <v>5562.7208033617126</v>
       </c>
       <c r="J21">
-        <v>-3835.20485774387</v>
+        <v>4151.6570972420895</v>
       </c>
       <c r="K21">
-        <v>5772.607781855273</v>
+        <v>-1097.502388028862</v>
       </c>
       <c r="L21">
-        <v>3595.022868541074</v>
+        <v>5377.5025746149313</v>
       </c>
       <c r="M21">
-        <v>-3769.156553649545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4013.4221217512331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>1833.717316615287</v>
+        <v>1618.493519516581</v>
       </c>
       <c r="C22">
-        <v>1098.412451938558</v>
+        <v>984.02624935958886</v>
       </c>
       <c r="D22">
-        <v>1518.960589011357</v>
+        <v>1529.959617948891</v>
       </c>
       <c r="E22">
-        <v>1772.661246139751</v>
+        <v>1598.972216101359</v>
       </c>
       <c r="F22">
-        <v>1061.839340331281</v>
+        <v>972.15751170283932</v>
       </c>
       <c r="G22">
-        <v>1468.384764737949</v>
+        <v>1511.5061576446819</v>
       </c>
       <c r="H22">
-        <v>-1135.303848006895</v>
+        <v>14044.57073257969</v>
       </c>
       <c r="I22">
-        <v>5562.720803361713</v>
+        <v>6536.5326298249347</v>
       </c>
       <c r="J22">
-        <v>4151.657097242091</v>
+        <v>-4632.7539624403134</v>
       </c>
       <c r="K22">
-        <v>-1097.502388028863</v>
+        <v>13875.173497866561</v>
       </c>
       <c r="L22">
-        <v>5377.502574614931</v>
+        <v>6457.692872228361</v>
       </c>
       <c r="M22">
-        <v>4013.422121751234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>-4576.8764475424578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B23">
-        <v>1618.493519516581</v>
+        <v>1804.772095888894</v>
       </c>
       <c r="C23">
-        <v>984.026249359589</v>
+        <v>1063.1470429970229</v>
       </c>
       <c r="D23">
-        <v>1529.959617948891</v>
+        <v>1643.190885563188</v>
       </c>
       <c r="E23">
-        <v>1598.972216101359</v>
+        <v>1764.150215917118</v>
       </c>
       <c r="F23">
-        <v>972.1575117028394</v>
+        <v>1039.2176883314951</v>
       </c>
       <c r="G23">
-        <v>1511.506157644682</v>
+        <v>1606.2058817080681</v>
       </c>
       <c r="H23">
-        <v>14044.57073257969</v>
+        <v>-5249.5715789028018</v>
       </c>
       <c r="I23">
-        <v>6536.532629824936</v>
+        <v>-3976.1302397877898</v>
       </c>
       <c r="J23">
-        <v>-4632.753962440313</v>
+        <v>-1756.7850605212479</v>
       </c>
       <c r="K23">
-        <v>13875.17349786656</v>
+        <v>-5131.4140192490413</v>
       </c>
       <c r="L23">
-        <v>6457.692872228361</v>
+        <v>-3886.635346930831</v>
       </c>
       <c r="M23">
-        <v>-4576.876447542458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>-1717.2432745931169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B24">
-        <v>1804.772095888894</v>
+        <v>1990.8788072282939</v>
       </c>
       <c r="C24">
-        <v>1063.147042997023</v>
+        <v>1146.501287881799</v>
       </c>
       <c r="D24">
-        <v>1643.190885563188</v>
+        <v>1677.561705140703</v>
       </c>
       <c r="E24">
-        <v>1764.150215917118</v>
+        <v>1936.9029480125109</v>
       </c>
       <c r="F24">
-        <v>1039.217688331495</v>
+        <v>1115.41783273589</v>
       </c>
       <c r="G24">
-        <v>1606.205881708068</v>
+        <v>1632.0803658980969</v>
       </c>
       <c r="H24">
-        <v>-5249.571578902802</v>
+        <v>-4095.1769303806632</v>
       </c>
       <c r="I24">
-        <v>-3976.130239787789</v>
+        <v>-5796.7949828199407</v>
       </c>
       <c r="J24">
-        <v>-1756.785060521247</v>
+        <v>-1021.166929551641</v>
       </c>
       <c r="K24">
-        <v>-5131.414019249041</v>
+        <v>-3984.1502357092381</v>
       </c>
       <c r="L24">
-        <v>-3886.63534693083</v>
+        <v>-5639.6347434525596</v>
       </c>
       <c r="M24">
-        <v>-1717.243274593116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-993.4814862061321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25">
-        <v>1990.878807228294</v>
+        <v>1084.282756224329</v>
       </c>
       <c r="C25">
-        <v>1146.501287881799</v>
+        <v>1154.9307449860539</v>
       </c>
       <c r="D25">
-        <v>1677.561705140703</v>
+        <v>1644.715823304999</v>
       </c>
       <c r="E25">
-        <v>1936.902948012511</v>
+        <v>1058.88713158771</v>
       </c>
       <c r="F25">
-        <v>1115.41783273589</v>
+        <v>1127.8804322216149</v>
       </c>
       <c r="G25">
-        <v>1632.080365898097</v>
+        <v>1606.1939659363479</v>
       </c>
       <c r="H25">
-        <v>-4095.176930380665</v>
+        <v>40728.078725561907</v>
       </c>
       <c r="I25">
-        <v>-5796.794982819942</v>
+        <v>956.28419957940184</v>
       </c>
       <c r="J25">
-        <v>-1021.166929551641</v>
+        <v>10188.395783865149</v>
       </c>
       <c r="K25">
-        <v>-3984.15023570924</v>
+        <v>39774.162421399058</v>
       </c>
       <c r="L25">
-        <v>-5639.63474345256</v>
+        <v>933.88650447723671</v>
       </c>
       <c r="M25">
-        <v>-993.4814862061318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9949.767369375435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26">
-        <v>1084.282756224329</v>
+        <v>1875.3413172396611</v>
       </c>
       <c r="C26">
-        <v>1154.930744986054</v>
+        <v>1361.8165995988229</v>
       </c>
       <c r="D26">
-        <v>1644.715823304999</v>
+        <v>1739.616546170123</v>
       </c>
       <c r="E26">
-        <v>1058.88713158771</v>
+        <v>1860.1870439690381</v>
       </c>
       <c r="F26">
-        <v>1127.880432221615</v>
+        <v>1350.812021016206</v>
       </c>
       <c r="G26">
-        <v>1606.193965936348</v>
+        <v>1725.5590387263239</v>
       </c>
       <c r="H26">
-        <v>40728.07872556191</v>
+        <v>-22369.193221620451</v>
       </c>
       <c r="I26">
-        <v>956.284199579402</v>
+        <v>-15305.188234108909</v>
       </c>
       <c r="J26">
-        <v>10188.39578386515</v>
+        <v>-8167.6156354274708</v>
       </c>
       <c r="K26">
-        <v>39774.16242139906</v>
+        <v>-22188.43206427402</v>
       </c>
       <c r="L26">
-        <v>933.8865044772363</v>
+        <v>-15181.509945348431</v>
       </c>
       <c r="M26">
-        <v>9949.767369375435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>-8101.614700999773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27">
-        <v>1875.341317239661</v>
+        <v>1798.976483120701</v>
       </c>
       <c r="C27">
-        <v>1361.816599598823</v>
+        <v>1337.760832684414</v>
       </c>
       <c r="D27">
-        <v>1739.616546170123</v>
+        <v>1680.7768326342421</v>
       </c>
       <c r="E27">
-        <v>1860.187043969038</v>
+        <v>1788.1392753910579</v>
       </c>
       <c r="F27">
-        <v>1350.812021016207</v>
+        <v>1329.70203248752</v>
       </c>
       <c r="G27">
-        <v>1725.559038726324</v>
+        <v>1670.6516709918669</v>
       </c>
       <c r="H27">
-        <v>-22369.19322162045</v>
+        <v>45088.197729613748</v>
       </c>
       <c r="I27">
-        <v>-15305.18823410891</v>
+        <v>38132.635437281293</v>
       </c>
       <c r="J27">
-        <v>-8167.615635427471</v>
+        <v>96133.847355210863</v>
       </c>
       <c r="K27">
-        <v>-22188.43206427402</v>
+        <v>44816.582080640183</v>
       </c>
       <c r="L27">
-        <v>-15181.50994534843</v>
+        <v>37902.920765972369</v>
       </c>
       <c r="M27">
-        <v>-8101.614700999774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>95554.72779283009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28">
-        <v>1798.976483120701</v>
+        <v>1820.651997755225</v>
       </c>
       <c r="C28">
-        <v>1337.760832684414</v>
+        <v>1268.2933458566911</v>
       </c>
       <c r="D28">
-        <v>1680.776832634242</v>
+        <v>1766.083834774355</v>
       </c>
       <c r="E28">
-        <v>1788.139275391058</v>
+        <v>1813.369389764204</v>
       </c>
       <c r="F28">
-        <v>1329.70203248752</v>
+        <v>1263.220172473264</v>
       </c>
       <c r="G28">
-        <v>1670.651670991867</v>
+        <v>1759.0194994352571</v>
       </c>
       <c r="H28">
-        <v>45088.19772961375</v>
+        <v>28403.41875117477</v>
       </c>
       <c r="I28">
-        <v>38132.63543728129</v>
+        <v>125027.7435062986</v>
       </c>
       <c r="J28">
-        <v>96133.84735521088</v>
+        <v>19365.34540972743</v>
       </c>
       <c r="K28">
-        <v>44816.58208064018</v>
+        <v>28289.80507617008</v>
       </c>
       <c r="L28">
-        <v>37902.92076597236</v>
+        <v>124527.6325322734</v>
       </c>
       <c r="M28">
-        <v>95554.72779283009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19287.88402808852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B29">
-        <v>1820.651997755225</v>
+        <v>2582.1889104486868</v>
       </c>
       <c r="C29">
-        <v>1268.293345856691</v>
+        <v>1277.2454391687511</v>
       </c>
       <c r="D29">
-        <v>1766.083834774355</v>
+        <v>1769.0226486356289</v>
       </c>
       <c r="E29">
-        <v>1813.369389764204</v>
+        <v>2574.465513906966</v>
       </c>
       <c r="F29">
-        <v>1263.220172473264</v>
+        <v>1273.425163677718</v>
       </c>
       <c r="G29">
-        <v>1759.019499435257</v>
+        <v>1763.7314542728111</v>
       </c>
       <c r="H29">
-        <v>28403.41875117477</v>
+        <v>-280137.24138823297</v>
       </c>
       <c r="I29">
-        <v>125027.7435062986</v>
+        <v>-11818.25290112131</v>
       </c>
       <c r="J29">
-        <v>19365.34540972743</v>
+        <v>44703.692041526578</v>
       </c>
       <c r="K29">
-        <v>28289.80507617007</v>
+        <v>-279299.34335815848</v>
       </c>
       <c r="L29">
-        <v>124527.6325322734</v>
+        <v>-11782.90418855564</v>
       </c>
       <c r="M29">
-        <v>19287.88402808852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>44569.98209524087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30">
-        <v>2582.188910448687</v>
+        <v>1491.5680454104629</v>
       </c>
       <c r="C30">
-        <v>1277.245439168751</v>
+        <v>1424.606575457803</v>
       </c>
       <c r="D30">
-        <v>1769.022648635629</v>
+        <v>1880.0268260206451</v>
       </c>
       <c r="E30">
-        <v>2574.465513906966</v>
+        <v>1475.387326969126</v>
       </c>
       <c r="F30">
-        <v>1273.425163677718</v>
+        <v>1409.152263495243</v>
       </c>
       <c r="G30">
-        <v>1763.731454272811</v>
+        <v>1859.632057691033</v>
       </c>
       <c r="H30">
-        <v>-280137.241388233</v>
+        <v>396137.02602846088</v>
       </c>
       <c r="I30">
-        <v>-11818.25290112131</v>
+        <v>-65890.644571038079</v>
       </c>
       <c r="J30">
-        <v>44703.69204152658</v>
+        <v>-35133.106710757049</v>
       </c>
       <c r="K30">
-        <v>-279299.3433581585</v>
+        <v>391839.68156464142</v>
       </c>
       <c r="L30">
-        <v>-11782.90418855565</v>
+        <v>-65175.854541174747</v>
       </c>
       <c r="M30">
-        <v>44569.98209524087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>-34751.978334210369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B31">
-        <v>1491.568045410463</v>
+        <v>1873.0431001205391</v>
       </c>
       <c r="C31">
-        <v>1424.606575457803</v>
+        <v>1518.039925645777</v>
       </c>
       <c r="D31">
-        <v>1880.026826020645</v>
+        <v>1868.510061625235</v>
       </c>
       <c r="E31">
-        <v>1475.387326969126</v>
+        <v>1858.3813146010041</v>
       </c>
       <c r="F31">
-        <v>1409.152263495243</v>
+        <v>1506.1570299460061</v>
       </c>
       <c r="G31">
-        <v>1859.632057691033</v>
+        <v>1853.883759772983</v>
       </c>
       <c r="H31">
-        <v>396137.0260284609</v>
+        <v>-116217.11662294529</v>
       </c>
       <c r="I31">
-        <v>-65890.64457103808</v>
+        <v>-55238.150439291538</v>
       </c>
       <c r="J31">
-        <v>-35133.10671075706</v>
+        <v>62732.395662813673</v>
       </c>
       <c r="K31">
-        <v>391839.6815646414</v>
+        <v>-115307.39359654261</v>
       </c>
       <c r="L31">
-        <v>-65175.85454117475</v>
+        <v>-54805.757872252078</v>
       </c>
       <c r="M31">
-        <v>-34751.97833421037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>62241.339728075407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32">
-        <v>1873.043100120539</v>
+        <v>1818.087250004867</v>
       </c>
       <c r="C32">
-        <v>1518.039925645777</v>
+        <v>1518.6347715204699</v>
       </c>
       <c r="D32">
-        <v>1868.510061625235</v>
+        <v>1826.2550944479849</v>
       </c>
       <c r="E32">
-        <v>1858.381314601004</v>
+        <v>1803.9661839854109</v>
       </c>
       <c r="F32">
-        <v>1506.157029946006</v>
+        <v>1506.839549994098</v>
       </c>
       <c r="G32">
-        <v>1853.883759772983</v>
+        <v>1812.0705888600401</v>
       </c>
       <c r="H32">
-        <v>-116217.1166229453</v>
+        <v>40550.025340088832</v>
       </c>
       <c r="I32">
-        <v>-55238.15043929154</v>
+        <v>48139.837359256468</v>
       </c>
       <c r="J32">
-        <v>62732.39566281368</v>
+        <v>46103.16979828442</v>
       </c>
       <c r="K32">
-        <v>-115307.3935965426</v>
+        <v>40235.073686961907</v>
       </c>
       <c r="L32">
-        <v>-54805.75787225208</v>
+        <v>47765.935709864178</v>
       </c>
       <c r="M32">
-        <v>62241.33972807541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>45745.086926064738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33">
-        <v>1818.087250004866</v>
+        <v>2703.1999013382169</v>
       </c>
       <c r="C33">
-        <v>1518.63477152047</v>
+        <v>1335.7248130551779</v>
       </c>
       <c r="D33">
-        <v>1826.255094447985</v>
+        <v>1718.237804182831</v>
       </c>
       <c r="E33">
-        <v>1803.966183985411</v>
+        <v>2692.7426483349741</v>
       </c>
       <c r="F33">
-        <v>1506.839549994098</v>
+        <v>1330.5575990781749</v>
       </c>
       <c r="G33">
-        <v>1812.07058886004</v>
+        <v>1711.5908494277719</v>
       </c>
       <c r="H33">
-        <v>40550.02534008881</v>
+        <v>-219461.1576787137</v>
       </c>
       <c r="I33">
-        <v>48139.83735925647</v>
+        <v>135700.1323767603</v>
       </c>
       <c r="J33">
-        <v>46103.16979828442</v>
+        <v>122172.5103960592</v>
       </c>
       <c r="K33">
-        <v>40235.07368696191</v>
+        <v>-218612.17834533381</v>
       </c>
       <c r="L33">
-        <v>47765.93570986418</v>
+        <v>135175.1802205639</v>
       </c>
       <c r="M33">
-        <v>45745.08692606474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B34">
-        <v>2703.199901338217</v>
-      </c>
-      <c r="C34">
-        <v>1335.724813055178</v>
-      </c>
-      <c r="D34">
-        <v>1718.237804182831</v>
-      </c>
-      <c r="E34">
-        <v>2692.742648334974</v>
-      </c>
-      <c r="F34">
-        <v>1330.557599078175</v>
-      </c>
-      <c r="G34">
-        <v>1711.590849427772</v>
-      </c>
-      <c r="H34">
-        <v>-219461.1576787137</v>
-      </c>
-      <c r="I34">
-        <v>135700.1323767603</v>
-      </c>
-      <c r="J34">
-        <v>122172.5103960592</v>
-      </c>
-      <c r="K34">
-        <v>-218612.1783453338</v>
-      </c>
-      <c r="L34">
-        <v>135175.1802205639</v>
-      </c>
-      <c r="M34">
-        <v>121699.8894660938</v>
+        <v>121699.88946609379</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEDBDD9-A2B3-4996-B8E4-A359B8671E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AD0467-210B-4BBE-B338-F9551F4620D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,13 +99,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,33 +420,33 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -486,40 +492,40 @@
         <v>1990</v>
       </c>
       <c r="B3">
-        <v>957.18256466640833</v>
+        <v>981.52660778409472</v>
       </c>
       <c r="C3">
-        <v>707.35168850494563</v>
+        <v>707.69266014228435</v>
       </c>
       <c r="D3">
-        <v>960.00834027818132</v>
+        <v>980.86439303237444</v>
       </c>
       <c r="E3">
-        <v>932.36097465885155</v>
+        <v>956.07372978645208</v>
       </c>
       <c r="F3">
-        <v>689.0086949618676</v>
+        <v>689.34082454702241</v>
       </c>
       <c r="G3">
-        <v>935.113472458974</v>
+        <v>955.42868754044912</v>
       </c>
       <c r="H3">
-        <v>4793.7524905705777</v>
+        <v>4989.6598967194795</v>
       </c>
       <c r="I3">
-        <v>-1933.297276857629</v>
+        <v>-5282.4570773448759</v>
       </c>
       <c r="J3">
-        <v>3992.656904893799</v>
+        <v>-6188.768178684496</v>
       </c>
       <c r="K3">
-        <v>4669.4412428410324</v>
+        <v>4860.2683921043872</v>
       </c>
       <c r="L3">
-        <v>-1883.163149743008</v>
+        <v>-5145.4727771219941</v>
       </c>
       <c r="M3">
-        <v>3889.119610763652</v>
+        <v>-6028.281483613262</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -527,40 +533,40 @@
         <v>1991</v>
       </c>
       <c r="B4">
-        <v>1066.039251007677</v>
+        <v>1043.413232033012</v>
       </c>
       <c r="C4">
-        <v>781.2552494596722</v>
+        <v>771.56522381500929</v>
       </c>
       <c r="D4">
-        <v>1036.2477469635689</v>
+        <v>1031.664682253986</v>
       </c>
       <c r="E4">
-        <v>1040.737686505913</v>
+        <v>1018.648677475267</v>
       </c>
       <c r="F4">
-        <v>762.71279891869904</v>
+        <v>753.25275805990634</v>
       </c>
       <c r="G4">
-        <v>1011.653259298295</v>
+        <v>1007.178969858717</v>
       </c>
       <c r="H4">
-        <v>-4879.313677559785</v>
+        <v>-1907.9109457743259</v>
       </c>
       <c r="I4">
-        <v>-10386.06817831712</v>
+        <v>-12047.643689575891</v>
       </c>
       <c r="J4">
-        <v>-12656.53959905716</v>
+        <v>-6076.0433668630003</v>
       </c>
       <c r="K4">
-        <v>-4763.5071820480816</v>
+        <v>-1862.628249276517</v>
       </c>
       <c r="L4">
-        <v>-10139.5633956039</v>
+        <v>-11761.702779222031</v>
       </c>
       <c r="M4">
-        <v>-12356.14704528207</v>
+        <v>-5931.833476826695</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -568,40 +574,40 @@
         <v>1992</v>
       </c>
       <c r="B5">
-        <v>1248.354224032038</v>
+        <v>1077.082877436801</v>
       </c>
       <c r="C5">
-        <v>814.83805694393072</v>
+        <v>787.99872259568531</v>
       </c>
       <c r="D5">
-        <v>1081.8514325644121</v>
+        <v>1070.363623370147</v>
       </c>
       <c r="E5">
-        <v>1223.19359626085</v>
+        <v>1055.374230294665</v>
       </c>
       <c r="F5">
-        <v>798.41496432335543</v>
+        <v>772.11657779918312</v>
       </c>
       <c r="G5">
-        <v>1060.0466750088499</v>
+        <v>1048.790403054159</v>
       </c>
       <c r="H5">
-        <v>-21784.30046371065</v>
+        <v>645.85901460797982</v>
       </c>
       <c r="I5">
-        <v>-1581.8062794511991</v>
+        <v>1729.1038760471631</v>
       </c>
       <c r="J5">
-        <v>-7199.3088226909058</v>
+        <v>-3790.6920631570429</v>
       </c>
       <c r="K5">
-        <v>-21345.237043511828</v>
+        <v>632.84170113526056</v>
       </c>
       <c r="L5">
-        <v>-1549.9249125785391</v>
+        <v>1694.253720405904</v>
       </c>
       <c r="M5">
-        <v>-7054.2064743265937</v>
+        <v>-3714.2905176980639</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -609,40 +615,40 @@
         <v>1993</v>
       </c>
       <c r="B6">
-        <v>1018.358264250062</v>
+        <v>1086.579601355158</v>
       </c>
       <c r="C6">
-        <v>772.83272220219362</v>
+        <v>809.72481146216739</v>
       </c>
       <c r="D6">
-        <v>1095.7145073805091</v>
+        <v>1092.4493661615861</v>
       </c>
       <c r="E6">
-        <v>1005.882205882527</v>
+        <v>1073.267753252798</v>
       </c>
       <c r="F6">
-        <v>763.36463372192179</v>
+        <v>799.80475251622966</v>
       </c>
       <c r="G6">
-        <v>1082.2907461874861</v>
+        <v>1079.0656066986569</v>
       </c>
       <c r="H6">
-        <v>37507.49082515949</v>
+        <v>1626.5732711923181</v>
       </c>
       <c r="I6">
-        <v>14922.666389964939</v>
+        <v>-1608.0323568547569</v>
       </c>
       <c r="J6">
-        <v>4504.5373975507318</v>
+        <v>-305.36741283336607</v>
       </c>
       <c r="K6">
-        <v>37047.980983503643</v>
+        <v>1606.6458804273279</v>
       </c>
       <c r="L6">
-        <v>14739.846587331371</v>
+        <v>-1588.3321135854801</v>
       </c>
       <c r="M6">
-        <v>4449.3516407660363</v>
+        <v>-301.62631129788809</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -650,40 +656,40 @@
         <v>1994</v>
       </c>
       <c r="B7">
-        <v>1248.8741942396241</v>
+        <v>1188.414581929427</v>
       </c>
       <c r="C7">
-        <v>890.45490097034406</v>
+        <v>834.99538337185436</v>
       </c>
       <c r="D7">
-        <v>1163.9950676362321</v>
+        <v>1144.5861627074671</v>
       </c>
       <c r="E7">
-        <v>1224.4967700277391</v>
+        <v>1165.217300300174</v>
       </c>
       <c r="F7">
-        <v>873.07364914960169</v>
+        <v>818.69667468741886</v>
       </c>
       <c r="G7">
-        <v>1141.274443192882</v>
+        <v>1122.2443907627271</v>
       </c>
       <c r="H7">
-        <v>-22706.047688856499</v>
+        <v>-4123.8901655385698</v>
       </c>
       <c r="I7">
-        <v>-17333.63052848565</v>
+        <v>9863.3175066409931</v>
       </c>
       <c r="J7">
-        <v>2486.79356328731</v>
+        <v>9729.3541540073838</v>
       </c>
       <c r="K7">
-        <v>-22262.836547782721</v>
+        <v>-4043.3938109559849</v>
       </c>
       <c r="L7">
-        <v>-16995.286389040739</v>
+        <v>9670.7902880428956</v>
       </c>
       <c r="M7">
-        <v>2438.252547787708</v>
+        <v>9539.4418356859187</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -691,40 +697,40 @@
         <v>1995</v>
       </c>
       <c r="B8">
-        <v>1239.9369664572901</v>
+        <v>1250.691483359785</v>
       </c>
       <c r="C8">
-        <v>857.44309823360993</v>
+        <v>883.77692884696626</v>
       </c>
       <c r="D8">
-        <v>1165.716674918333</v>
+        <v>1197.5802228003929</v>
       </c>
       <c r="E8">
-        <v>1214.4088524419931</v>
+        <v>1224.9419528200251</v>
       </c>
       <c r="F8">
-        <v>839.78985797585915</v>
+        <v>865.58152148835222</v>
       </c>
       <c r="G8">
-        <v>1141.716625728837</v>
+        <v>1172.9241593897971</v>
       </c>
       <c r="H8">
-        <v>13114.25664867418</v>
+        <v>1559.700908511951</v>
       </c>
       <c r="I8">
-        <v>19925.915228553731</v>
+        <v>-4763.3318271940507</v>
       </c>
       <c r="J8">
-        <v>17553.984328457129</v>
+        <v>-3314.3101373068621</v>
       </c>
       <c r="K8">
-        <v>12844.25724708382</v>
+        <v>1527.5894192190569</v>
       </c>
       <c r="L8">
-        <v>19515.675797377618</v>
+        <v>-4665.2632307518197</v>
       </c>
       <c r="M8">
-        <v>17192.578768753599</v>
+        <v>-3246.0743403623092</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -732,40 +738,40 @@
         <v>1996</v>
       </c>
       <c r="B9">
-        <v>1229.834925748268</v>
+        <v>1289.104019450752</v>
       </c>
       <c r="C9">
-        <v>798.64477853491496</v>
+        <v>865.85166686120408</v>
       </c>
       <c r="D9">
-        <v>1249.382224510701</v>
+        <v>1234.015244600912</v>
       </c>
       <c r="E9">
-        <v>1203.2917259119749</v>
+        <v>1261.281630541743</v>
       </c>
       <c r="F9">
-        <v>781.40784086869382</v>
+        <v>847.16422081383996</v>
       </c>
       <c r="G9">
-        <v>1222.417140528456</v>
+        <v>1207.3818220555679</v>
       </c>
       <c r="H9">
-        <v>7995.5336833502324</v>
+        <v>1946.0038666892401</v>
       </c>
       <c r="I9">
-        <v>21140.548686382259</v>
+        <v>16103.146920781281</v>
       </c>
       <c r="J9">
-        <v>-16273.73063476839</v>
+        <v>5644.1305689058809</v>
       </c>
       <c r="K9">
-        <v>7822.9682081700103</v>
+        <v>1904.0037832355149</v>
       </c>
       <c r="L9">
-        <v>20684.277851424369</v>
+        <v>15755.59698723924</v>
       </c>
       <c r="M9">
-        <v>-15922.499038334539</v>
+        <v>5522.3148012316524</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -773,40 +779,40 @@
         <v>1997</v>
       </c>
       <c r="B10">
-        <v>1305.6680224007259</v>
+        <v>1309.4592244652149</v>
       </c>
       <c r="C10">
-        <v>953.21378975856385</v>
+        <v>882.43183319800994</v>
       </c>
       <c r="D10">
-        <v>1298.700453600969</v>
+        <v>1300.593279619158</v>
       </c>
       <c r="E10">
-        <v>1278.083486716203</v>
+        <v>1281.7945929624279</v>
       </c>
       <c r="F10">
-        <v>933.07547025662234</v>
+        <v>863.78890714453087</v>
       </c>
       <c r="G10">
-        <v>1271.263120074188</v>
+        <v>1273.1159568103019</v>
       </c>
       <c r="H10">
-        <v>-5058.3063764520411</v>
+        <v>4548.936060319129</v>
       </c>
       <c r="I10">
-        <v>-27279.54078218143</v>
+        <v>7394.7270946240669</v>
       </c>
       <c r="J10">
-        <v>3451.651744877352</v>
+        <v>-7208.4253953106709</v>
       </c>
       <c r="K10">
-        <v>-4951.4407487805202</v>
+        <v>4452.8317773546414</v>
       </c>
       <c r="L10">
-        <v>-26703.212455797311</v>
+        <v>7238.5004658644029</v>
       </c>
       <c r="M10">
-        <v>3378.7295249151539</v>
+        <v>-7056.1347179449531</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -814,40 +820,40 @@
         <v>1998</v>
       </c>
       <c r="B11">
-        <v>1315.6677739967481</v>
+        <v>1327.1481328095799</v>
       </c>
       <c r="C11">
-        <v>863.47828625996874</v>
+        <v>885.59670623297427</v>
       </c>
       <c r="D11">
-        <v>1363.283200512401</v>
+        <v>1334.93139394286</v>
       </c>
       <c r="E11">
-        <v>1292.0112303425881</v>
+        <v>1303.285164999726</v>
       </c>
       <c r="F11">
-        <v>847.95239729540504</v>
+        <v>869.67311400471885</v>
       </c>
       <c r="G11">
-        <v>1338.770501194751</v>
+        <v>1310.9284781458241</v>
       </c>
       <c r="H11">
-        <v>8360.4224477714852</v>
+        <v>5948.9777612696771</v>
       </c>
       <c r="I11">
-        <v>30141.53839694916</v>
+        <v>12399.64548719344</v>
       </c>
       <c r="J11">
-        <v>-2888.139720677993</v>
+        <v>7730.4941272141295</v>
       </c>
       <c r="K11">
-        <v>8210.0967329429532</v>
+        <v>5842.0113561569451</v>
       </c>
       <c r="L11">
-        <v>29599.57435938299</v>
+        <v>12176.691972209321</v>
       </c>
       <c r="M11">
-        <v>-2836.2091309562602</v>
+        <v>7591.4949243734891</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -855,40 +861,40 @@
         <v>1999</v>
       </c>
       <c r="B12">
-        <v>1422.9049154726249</v>
+        <v>1312.608412301041</v>
       </c>
       <c r="C12">
-        <v>907.89586788069255</v>
+        <v>879.66186932045434</v>
       </c>
       <c r="D12">
-        <v>1340.9646168196939</v>
+        <v>1340.187526205699</v>
       </c>
       <c r="E12">
-        <v>1388.340423598796</v>
+        <v>1280.7231877107331</v>
       </c>
       <c r="F12">
-        <v>885.84171724391467</v>
+        <v>858.29356480254864</v>
       </c>
       <c r="G12">
-        <v>1308.390577544722</v>
+        <v>1307.6323636258039</v>
       </c>
       <c r="H12">
-        <v>-4251.887959058613</v>
+        <v>2874.1962916222492</v>
       </c>
       <c r="I12">
-        <v>-1368.8660466213471</v>
+        <v>3798.323925375144</v>
       </c>
       <c r="J12">
-        <v>7334.6194935794429</v>
+        <v>5359.8921004053736</v>
       </c>
       <c r="K12">
-        <v>-4148.6032313082014</v>
+        <v>2804.3777582225189</v>
       </c>
       <c r="L12">
-        <v>-1335.6142398208281</v>
+        <v>3706.056947430809</v>
       </c>
       <c r="M12">
-        <v>7156.4505989985664</v>
+        <v>5229.6922922983604</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -896,40 +902,40 @@
         <v>2000</v>
       </c>
       <c r="B13">
-        <v>1330.0334657517001</v>
+        <v>1373.3468519905059</v>
       </c>
       <c r="C13">
-        <v>918.41566841281713</v>
+        <v>948.52142674809068</v>
       </c>
       <c r="D13">
-        <v>1301.814201141992</v>
+        <v>1340.568658981796</v>
       </c>
       <c r="E13">
-        <v>1293.379000160118</v>
+        <v>1335.4987104002159</v>
       </c>
       <c r="F13">
-        <v>893.10500038569216</v>
+        <v>922.38107246763138</v>
       </c>
       <c r="G13">
-        <v>1265.937431819181</v>
+        <v>1303.6238534193051</v>
       </c>
       <c r="H13">
-        <v>9228.4525257806417</v>
+        <v>-505.80903454866382</v>
       </c>
       <c r="I13">
-        <v>3554.3254154836491</v>
+        <v>-2804.85733433013</v>
       </c>
       <c r="J13">
-        <v>8834.9420094527668</v>
+        <v>6246.8715327677637</v>
       </c>
       <c r="K13">
-        <v>8974.1250939677884</v>
+        <v>-491.86941548629909</v>
       </c>
       <c r="L13">
-        <v>3456.3715654506341</v>
+        <v>-2727.5581164548889</v>
       </c>
       <c r="M13">
-        <v>8591.459355648949</v>
+        <v>6074.7136558804623</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -937,40 +943,40 @@
         <v>2001</v>
       </c>
       <c r="B14">
-        <v>1421.125475921204</v>
+        <v>1394.6607662265119</v>
       </c>
       <c r="C14">
-        <v>979.06932876119674</v>
+        <v>1008.591839875064</v>
       </c>
       <c r="D14">
-        <v>1346.1756350976721</v>
+        <v>1327.076796682521</v>
       </c>
       <c r="E14">
-        <v>1388.3302726307149</v>
+        <v>1362.476287005901</v>
       </c>
       <c r="F14">
-        <v>956.47542117439991</v>
+        <v>985.31664357025454</v>
       </c>
       <c r="G14">
-        <v>1315.1100435184951</v>
+        <v>1296.4519475283089</v>
       </c>
       <c r="H14">
-        <v>-1447.1207324744739</v>
+        <v>2391.4565981151418</v>
       </c>
       <c r="I14">
-        <v>-2557.40633715066</v>
+        <v>-2716.9878645316162</v>
       </c>
       <c r="J14">
-        <v>140.1923962645055</v>
+        <v>7280.7211703921284</v>
       </c>
       <c r="K14">
-        <v>-1413.7256386481411</v>
+        <v>2336.2691381586392</v>
       </c>
       <c r="L14">
-        <v>-2498.389267831798</v>
+        <v>-2654.2881445808871</v>
       </c>
       <c r="M14">
-        <v>136.9571871199399</v>
+        <v>7112.7045279984641</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -978,40 +984,40 @@
         <v>2002</v>
       </c>
       <c r="B15">
-        <v>1474.687114888505</v>
+        <v>1392.77772105237</v>
       </c>
       <c r="C15">
-        <v>1209.200937993646</v>
+        <v>1042.887884040475</v>
       </c>
       <c r="D15">
-        <v>1318.728466284829</v>
+        <v>1343.2145885845739</v>
       </c>
       <c r="E15">
-        <v>1439.6194613429709</v>
+        <v>1359.657850338984</v>
       </c>
       <c r="F15">
-        <v>1180.446472634598</v>
+        <v>1018.088297311102</v>
       </c>
       <c r="G15">
-        <v>1287.369466460784</v>
+        <v>1311.2733155143519</v>
       </c>
       <c r="H15">
-        <v>984.72857819420392</v>
+        <v>1569.507537587042</v>
       </c>
       <c r="I15">
-        <v>-13225.75865519101</v>
+        <v>236.1163491254832</v>
       </c>
       <c r="J15">
-        <v>6470.0405894952801</v>
+        <v>1628.491041619651</v>
       </c>
       <c r="K15">
-        <v>961.31200374402863</v>
+        <v>1532.1850804979881</v>
       </c>
       <c r="L15">
-        <v>-12911.253756006239</v>
+        <v>230.5015673565417</v>
       </c>
       <c r="M15">
-        <v>6316.1848057651041</v>
+        <v>1589.765973045467</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1019,40 +1025,40 @@
         <v>2003</v>
       </c>
       <c r="B16">
-        <v>1445.91389654355</v>
+        <v>1414.821452457855</v>
       </c>
       <c r="C16">
-        <v>1029.420841415259</v>
+        <v>1045.895354362789</v>
       </c>
       <c r="D16">
-        <v>1297.598640512924</v>
+        <v>1330.037151697044</v>
       </c>
       <c r="E16">
-        <v>1415.7906903655601</v>
+        <v>1385.34600553165</v>
       </c>
       <c r="F16">
-        <v>1007.974573885774</v>
+        <v>1024.1058678135639</v>
       </c>
       <c r="G16">
-        <v>1270.5653355022389</v>
+        <v>1302.328044370023</v>
       </c>
       <c r="H16">
-        <v>2647.0094940392228</v>
+        <v>251.72122864557491</v>
       </c>
       <c r="I16">
-        <v>13369.9459558488</v>
+        <v>2374.1541057740592</v>
       </c>
       <c r="J16">
-        <v>4370.2189836704538</v>
+        <v>4173.3337516642714</v>
       </c>
       <c r="K16">
-        <v>2591.8634629134058</v>
+        <v>246.47703638212539</v>
       </c>
       <c r="L16">
-        <v>13091.40541510195</v>
+        <v>2324.6925619037661</v>
       </c>
       <c r="M16">
-        <v>4279.1727548439858</v>
+        <v>4086.3892985046</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1060,40 +1066,40 @@
         <v>2004</v>
       </c>
       <c r="B17">
-        <v>1625.535351544873</v>
+        <v>1037.545601531898</v>
       </c>
       <c r="C17">
-        <v>964.03388373914379</v>
+        <v>991.23392339310283</v>
       </c>
       <c r="D17">
-        <v>1443.113348075959</v>
+        <v>1364.1671388549059</v>
       </c>
       <c r="E17">
-        <v>1607.8022386189291</v>
+        <v>1026.2269222424591</v>
       </c>
       <c r="F17">
-        <v>953.51715046198944</v>
+        <v>980.42046241063258</v>
       </c>
       <c r="G17">
-        <v>1427.370293369675</v>
+        <v>1349.2853155219429</v>
       </c>
       <c r="H17">
-        <v>-4182.4507176034203</v>
+        <v>12313.943344033059</v>
       </c>
       <c r="I17">
-        <v>6858.2314029250019</v>
+        <v>8095.0584061294594</v>
       </c>
       <c r="J17">
-        <v>-8197.9252165877515</v>
+        <v>1870.2373364767509</v>
       </c>
       <c r="K17">
-        <v>-4136.823982502292</v>
+        <v>12179.609416643611</v>
       </c>
       <c r="L17">
-        <v>6783.4143330749102</v>
+        <v>8006.7486780625914</v>
       </c>
       <c r="M17">
-        <v>-8108.4933051340668</v>
+        <v>1849.83474735155</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1101,40 +1107,40 @@
         <v>2005</v>
       </c>
       <c r="B18">
-        <v>1150.8529700235861</v>
+        <v>1185.2930838011821</v>
       </c>
       <c r="C18">
-        <v>981.4218903004471</v>
+        <v>1035.4217486846619</v>
       </c>
       <c r="D18">
-        <v>1401.041286557183</v>
+        <v>1410.2235678251971</v>
       </c>
       <c r="E18">
-        <v>1130.302024130307</v>
+        <v>1164.127135876161</v>
       </c>
       <c r="F18">
-        <v>963.89649940222489</v>
+        <v>1016.932074601008</v>
       </c>
       <c r="G18">
-        <v>1376.022692154377</v>
+        <v>1385.0410041140331</v>
       </c>
       <c r="H18">
-        <v>17824.32800504491</v>
+        <v>-2592.275184204208</v>
       </c>
       <c r="I18">
-        <v>1290.740129299634</v>
+        <v>1222.318411758275</v>
       </c>
       <c r="J18">
-        <v>8628.1012077057785</v>
+        <v>2482.1511329131858</v>
       </c>
       <c r="K18">
-        <v>17506.036433526249</v>
+        <v>-2545.9845559148471</v>
       </c>
       <c r="L18">
-        <v>1267.6911984192841</v>
+        <v>1200.4912972625921</v>
       </c>
       <c r="M18">
-        <v>8474.0279718538895</v>
+        <v>2437.827005539737</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1142,40 +1148,40 @@
         <v>2006</v>
       </c>
       <c r="B19">
-        <v>1774.0120215530651</v>
+        <v>1259.461079203121</v>
       </c>
       <c r="C19">
-        <v>1133.5189541859729</v>
+        <v>1084.694759200514</v>
       </c>
       <c r="D19">
-        <v>1440.410385409853</v>
+        <v>1462.978075981687</v>
       </c>
       <c r="E19">
-        <v>1740.852918346465</v>
+        <v>1235.919750619885</v>
       </c>
       <c r="F19">
-        <v>1112.331684014272</v>
+        <v>1064.4200908042419</v>
       </c>
       <c r="G19">
-        <v>1413.4868268040609</v>
+        <v>1435.632691383898</v>
       </c>
       <c r="H19">
-        <v>-14844.790646106339</v>
+        <v>-586.79324237674837</v>
       </c>
       <c r="I19">
-        <v>-7177.2908193393832</v>
+        <v>-734.46020553217841</v>
       </c>
       <c r="J19">
-        <v>4224.4718808033467</v>
+        <v>1538.9901339331241</v>
       </c>
       <c r="K19">
-        <v>-14567.31792374921</v>
+        <v>-575.82514438839792</v>
       </c>
       <c r="L19">
-        <v>-7043.1358507536006</v>
+        <v>-720.73197739139005</v>
       </c>
       <c r="M19">
-        <v>4145.5097895733779</v>
+        <v>1510.223963205402</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1183,40 +1189,40 @@
         <v>2007</v>
       </c>
       <c r="B20">
-        <v>1732.5986948911359</v>
+        <v>1832.34852208492</v>
       </c>
       <c r="C20">
-        <v>1147.633226008011</v>
+        <v>1144.4056022002319</v>
       </c>
       <c r="D20">
-        <v>1555.7604310743991</v>
+        <v>1530.1158845157599</v>
       </c>
       <c r="E20">
-        <v>1702.760600260405</v>
+        <v>1800.792577387705</v>
       </c>
       <c r="F20">
-        <v>1127.8691635624079</v>
+        <v>1124.6971245504001</v>
       </c>
       <c r="G20">
-        <v>1528.96777152662</v>
+        <v>1503.764864690575</v>
       </c>
       <c r="H20">
-        <v>5873.7632920513352</v>
+        <v>-11229.36114692613</v>
       </c>
       <c r="I20">
-        <v>3658.0197646019569</v>
+        <v>58.910212458942283</v>
       </c>
       <c r="J20">
-        <v>-3835.20485774387</v>
+        <v>172.22363138473989</v>
       </c>
       <c r="K20">
-        <v>5772.6077818552731</v>
+        <v>-11035.97375633613</v>
       </c>
       <c r="L20">
-        <v>3595.0228685410739</v>
+        <v>57.895685263897519</v>
       </c>
       <c r="M20">
-        <v>-3769.156553649545</v>
+        <v>169.25766758362519</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1224,40 +1230,40 @@
         <v>2008</v>
       </c>
       <c r="B21">
-        <v>1833.717316615287</v>
+        <v>1782.93893265269</v>
       </c>
       <c r="C21">
-        <v>1098.412451938558</v>
+        <v>1098.862045729654</v>
       </c>
       <c r="D21">
-        <v>1518.9605890113569</v>
+        <v>1539.4705459263901</v>
       </c>
       <c r="E21">
-        <v>1772.661246139751</v>
+        <v>1723.5735963823449</v>
       </c>
       <c r="F21">
-        <v>1061.8393403312809</v>
+        <v>1062.2739642958149</v>
       </c>
       <c r="G21">
-        <v>1468.3847647379489</v>
+        <v>1488.2118152074199</v>
       </c>
       <c r="H21">
-        <v>-1135.303848006894</v>
+        <v>4119.3014634177152</v>
       </c>
       <c r="I21">
-        <v>5562.7208033617126</v>
+        <v>6345.5848170709887</v>
       </c>
       <c r="J21">
-        <v>4151.6570972420895</v>
+        <v>1411.787993289212</v>
       </c>
       <c r="K21">
-        <v>-1097.502388028862</v>
+        <v>3982.1438120275579</v>
       </c>
       <c r="L21">
-        <v>5377.5025746149313</v>
+        <v>6134.3000839831648</v>
       </c>
       <c r="M21">
-        <v>4013.4221217512331</v>
+        <v>1364.7806239233121</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1265,40 +1271,40 @@
         <v>2009</v>
       </c>
       <c r="B22">
-        <v>1618.493519516581</v>
+        <v>1684.0833324696309</v>
       </c>
       <c r="C22">
-        <v>984.02624935958886</v>
+        <v>1054.1935138375829</v>
       </c>
       <c r="D22">
-        <v>1529.959617948891</v>
+        <v>1520.1431255302241</v>
       </c>
       <c r="E22">
-        <v>1598.972216101359</v>
+        <v>1663.7709238543171</v>
       </c>
       <c r="F22">
-        <v>972.15751170283932</v>
+        <v>1041.478460490858</v>
       </c>
       <c r="G22">
-        <v>1511.5061576446819</v>
+        <v>1501.808065902118</v>
       </c>
       <c r="H22">
-        <v>14044.57073257969</v>
+        <v>4922.2417591615585</v>
       </c>
       <c r="I22">
-        <v>6536.5326298249347</v>
+        <v>3774.4531009538991</v>
       </c>
       <c r="J22">
-        <v>-4632.7539624403134</v>
+        <v>2497.6273573098028</v>
       </c>
       <c r="K22">
-        <v>13875.173497866561</v>
+        <v>4862.8726151365836</v>
       </c>
       <c r="L22">
-        <v>6457.692872228361</v>
+        <v>3728.9278990783582</v>
       </c>
       <c r="M22">
-        <v>-4576.8764475424578</v>
+        <v>2467.5024659387409</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1306,40 +1312,40 @@
         <v>2010</v>
       </c>
       <c r="B23">
-        <v>1804.772095888894</v>
+        <v>1803.627155620756</v>
       </c>
       <c r="C23">
-        <v>1063.1470429970229</v>
+        <v>1022.729318332918</v>
       </c>
       <c r="D23">
-        <v>1643.190885563188</v>
+        <v>1619.8721916406409</v>
       </c>
       <c r="E23">
-        <v>1764.150215917118</v>
+        <v>1763.0310460087139</v>
       </c>
       <c r="F23">
-        <v>1039.2176883314951</v>
+        <v>999.70968737365615</v>
       </c>
       <c r="G23">
-        <v>1606.2058817080681</v>
+        <v>1583.4120458480861</v>
       </c>
       <c r="H23">
-        <v>-5249.5715789028018</v>
+        <v>164.14155115761471</v>
       </c>
       <c r="I23">
-        <v>-3976.1302397877898</v>
+        <v>7921.2853519292521</v>
       </c>
       <c r="J23">
-        <v>-1756.7850605212479</v>
+        <v>-1889.6146512307821</v>
       </c>
       <c r="K23">
-        <v>-5131.4140192490413</v>
+        <v>160.44704679072311</v>
       </c>
       <c r="L23">
-        <v>-3886.635346930831</v>
+        <v>7742.9927555835766</v>
       </c>
       <c r="M23">
-        <v>-1717.2432745931169</v>
+        <v>-1847.0831317497029</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1347,40 +1353,40 @@
         <v>2011</v>
       </c>
       <c r="B24">
-        <v>1990.8788072282939</v>
+        <v>1763.719113884762</v>
       </c>
       <c r="C24">
-        <v>1146.501287881799</v>
+        <v>1109.883541445015</v>
       </c>
       <c r="D24">
-        <v>1677.561705140703</v>
+        <v>1653.265413570582</v>
       </c>
       <c r="E24">
-        <v>1936.9029480125109</v>
+        <v>1715.9019116313691</v>
       </c>
       <c r="F24">
-        <v>1115.41783273589</v>
+        <v>1079.7928510617301</v>
       </c>
       <c r="G24">
-        <v>1632.0803658980969</v>
+        <v>1608.4427850483351</v>
       </c>
       <c r="H24">
-        <v>-4095.1769303806632</v>
+        <v>4527.1899941898928</v>
       </c>
       <c r="I24">
-        <v>-5796.7949828199407</v>
+        <v>-5371.3375456038711</v>
       </c>
       <c r="J24">
-        <v>-1021.166929551641</v>
+        <v>-1109.4293637864059</v>
       </c>
       <c r="K24">
-        <v>-3984.1502357092381</v>
+        <v>4404.4507451294776</v>
       </c>
       <c r="L24">
-        <v>-5639.6347434525596</v>
+        <v>-5225.7121272663298</v>
       </c>
       <c r="M24">
-        <v>-993.4814862061321</v>
+        <v>-1079.3509868745739</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1388,40 +1394,40 @@
         <v>2012</v>
       </c>
       <c r="B25">
-        <v>1084.282756224329</v>
+        <v>1784.18473387941</v>
       </c>
       <c r="C25">
-        <v>1154.9307449860539</v>
+        <v>1209.0907195617549</v>
       </c>
       <c r="D25">
-        <v>1644.715823304999</v>
+        <v>1682.6961551517479</v>
       </c>
       <c r="E25">
-        <v>1058.88713158771</v>
+        <v>1742.3962930655341</v>
       </c>
       <c r="F25">
-        <v>1127.8804322216149</v>
+        <v>1180.7718941545049</v>
       </c>
       <c r="G25">
-        <v>1606.1939659363479</v>
+        <v>1643.2847380758919</v>
       </c>
       <c r="H25">
-        <v>40728.078725561907</v>
+        <v>1893.090802602183</v>
       </c>
       <c r="I25">
-        <v>956.28419957940184</v>
+        <v>-7341.0658864235502</v>
       </c>
       <c r="J25">
-        <v>10188.395783865149</v>
+        <v>2972.5248870051719</v>
       </c>
       <c r="K25">
-        <v>39774.162421399058</v>
+        <v>1848.751608651216</v>
       </c>
       <c r="L25">
-        <v>933.88650447723671</v>
+        <v>-7169.1264613851172</v>
       </c>
       <c r="M25">
-        <v>9949.767369375435</v>
+        <v>2902.9036320142159</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1429,40 +1435,40 @@
         <v>2013</v>
       </c>
       <c r="B26">
-        <v>1875.3413172396611</v>
+        <v>1687.610704155926</v>
       </c>
       <c r="C26">
-        <v>1361.8165995988229</v>
+        <v>1292.6343241548091</v>
       </c>
       <c r="D26">
-        <v>1739.616546170123</v>
+        <v>1682.2604280359069</v>
       </c>
       <c r="E26">
-        <v>1860.1870439690381</v>
+        <v>1673.9734459405249</v>
       </c>
       <c r="F26">
-        <v>1350.812021016206</v>
+        <v>1282.188794262649</v>
       </c>
       <c r="G26">
-        <v>1725.5590387263239</v>
+        <v>1668.6664043750111</v>
       </c>
       <c r="H26">
-        <v>-22369.193221620451</v>
+        <v>6748.1516684559747</v>
       </c>
       <c r="I26">
-        <v>-15305.188234108909</v>
+        <v>-6677.6181870108721</v>
       </c>
       <c r="J26">
-        <v>-8167.6156354274708</v>
+        <v>3825.076483858023</v>
       </c>
       <c r="K26">
-        <v>-22188.43206427402</v>
+        <v>6693.6211499229967</v>
       </c>
       <c r="L26">
-        <v>-15181.509945348431</v>
+        <v>-6623.6576360047229</v>
       </c>
       <c r="M26">
-        <v>-8101.614700999773</v>
+        <v>3794.1667748975542</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1470,40 +1476,40 @@
         <v>2014</v>
       </c>
       <c r="B27">
-        <v>1798.976483120701</v>
+        <v>1674.0813989315541</v>
       </c>
       <c r="C27">
-        <v>1337.760832684414</v>
+        <v>1287.592856844198</v>
       </c>
       <c r="D27">
-        <v>1680.7768326342421</v>
+        <v>1718.069906649094</v>
       </c>
       <c r="E27">
-        <v>1788.1392753910579</v>
+        <v>1663.9965712271469</v>
       </c>
       <c r="F27">
-        <v>1329.70203248752</v>
+        <v>1279.8362733692329</v>
       </c>
       <c r="G27">
-        <v>1670.6516709918669</v>
+        <v>1707.7200879343411</v>
       </c>
       <c r="H27">
-        <v>45088.197729613748</v>
+        <v>16052.90917855167</v>
       </c>
       <c r="I27">
-        <v>38132.635437281293</v>
+        <v>59905.273075462617</v>
       </c>
       <c r="J27">
-        <v>96133.847355210863</v>
+        <v>24123.97558202334</v>
       </c>
       <c r="K27">
-        <v>44816.582080640183</v>
+        <v>15956.204906391729</v>
       </c>
       <c r="L27">
-        <v>37902.920765972369</v>
+        <v>59544.397936453803</v>
       </c>
       <c r="M27">
-        <v>95554.72779283009</v>
+        <v>23978.65042791477</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -1511,40 +1517,40 @@
         <v>2015</v>
       </c>
       <c r="B28">
-        <v>1820.651997755225</v>
+        <v>1866.1042690392551</v>
       </c>
       <c r="C28">
-        <v>1268.2933458566911</v>
+        <v>1244.6938790280569</v>
       </c>
       <c r="D28">
-        <v>1766.083834774355</v>
+        <v>1711.346218577783</v>
       </c>
       <c r="E28">
-        <v>1813.369389764204</v>
+        <v>1858.639851963097</v>
       </c>
       <c r="F28">
-        <v>1263.220172473264</v>
+        <v>1239.715103511945</v>
       </c>
       <c r="G28">
-        <v>1759.0194994352571</v>
+        <v>1704.5008337034719</v>
       </c>
       <c r="H28">
-        <v>28403.41875117477</v>
+        <v>-47843.993349553137</v>
       </c>
       <c r="I28">
-        <v>125027.7435062986</v>
+        <v>74942.515856657672</v>
       </c>
       <c r="J28">
-        <v>19365.34540972743</v>
+        <v>79244.621088079672</v>
       </c>
       <c r="K28">
-        <v>28289.80507617008</v>
+        <v>-47652.617376154943</v>
       </c>
       <c r="L28">
-        <v>124527.6325322734</v>
+        <v>74642.745793231035</v>
       </c>
       <c r="M28">
-        <v>19287.88402808852</v>
+        <v>78927.642603727349</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -1552,40 +1558,40 @@
         <v>2016</v>
       </c>
       <c r="B29">
-        <v>2582.1889104486868</v>
+        <v>1963.702343115729</v>
       </c>
       <c r="C29">
-        <v>1277.2454391687511</v>
+        <v>1280.813690201777</v>
       </c>
       <c r="D29">
-        <v>1769.0226486356289</v>
+        <v>1757.462295682953</v>
       </c>
       <c r="E29">
-        <v>2574.465513906966</v>
+        <v>1957.8288565460909</v>
       </c>
       <c r="F29">
-        <v>1273.425163677718</v>
+        <v>1276.982741975849</v>
       </c>
       <c r="G29">
-        <v>1763.7314542728111</v>
+        <v>1752.2056786470121</v>
       </c>
       <c r="H29">
-        <v>-280137.24138823297</v>
+        <v>-1736.886761052114</v>
       </c>
       <c r="I29">
-        <v>-11818.25290112131</v>
+        <v>337.59232489060162</v>
       </c>
       <c r="J29">
-        <v>44703.692041526578</v>
+        <v>13849.11171186566</v>
       </c>
       <c r="K29">
-        <v>-279299.34335815848</v>
+        <v>-1731.6916859941341</v>
       </c>
       <c r="L29">
-        <v>-11782.90418855564</v>
+        <v>336.58257715912328</v>
       </c>
       <c r="M29">
-        <v>44569.98209524087</v>
+        <v>13807.688645927879</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1593,40 +1599,40 @@
         <v>2017</v>
       </c>
       <c r="B30">
-        <v>1491.5680454104629</v>
+        <v>2290.1821334722799</v>
       </c>
       <c r="C30">
-        <v>1424.606575457803</v>
+        <v>1364.6428377303041</v>
       </c>
       <c r="D30">
-        <v>1880.0268260206451</v>
+        <v>1833.9325241322699</v>
       </c>
       <c r="E30">
-        <v>1475.387326969126</v>
+        <v>2265.3379485924029</v>
       </c>
       <c r="F30">
-        <v>1409.152263495243</v>
+        <v>1349.8390199639989</v>
       </c>
       <c r="G30">
-        <v>1859.632057691033</v>
+        <v>1814.037792608153</v>
       </c>
       <c r="H30">
-        <v>396137.02602846088</v>
+        <v>-80725.49192282185</v>
       </c>
       <c r="I30">
-        <v>-65890.644571038079</v>
+        <v>-39148.855189342292</v>
       </c>
       <c r="J30">
-        <v>-35133.106710757049</v>
+        <v>4962.154831911952</v>
       </c>
       <c r="K30">
-        <v>391839.68156464142</v>
+        <v>-79849.771596242907</v>
       </c>
       <c r="L30">
-        <v>-65175.854541174747</v>
+        <v>-38724.163466380989</v>
       </c>
       <c r="M30">
-        <v>-34751.978334210369</v>
+        <v>4908.324749908963</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -1634,40 +1640,40 @@
         <v>2018</v>
       </c>
       <c r="B31">
-        <v>1873.0431001205391</v>
+        <v>1687.4536660845499</v>
       </c>
       <c r="C31">
-        <v>1518.039925645777</v>
+        <v>1426.178822497393</v>
       </c>
       <c r="D31">
-        <v>1868.510061625235</v>
+        <v>1839.2358107813491</v>
       </c>
       <c r="E31">
-        <v>1858.3813146010041</v>
+        <v>1674.2446354302681</v>
       </c>
       <c r="F31">
-        <v>1506.1570299460061</v>
+        <v>1415.014996098196</v>
       </c>
       <c r="G31">
-        <v>1853.883759772983</v>
+        <v>1824.838661577581</v>
       </c>
       <c r="H31">
-        <v>-116217.11662294529</v>
+        <v>219392.07245587921</v>
       </c>
       <c r="I31">
-        <v>-55238.150439291538</v>
+        <v>-25602.26520247398</v>
       </c>
       <c r="J31">
-        <v>62732.395662813673</v>
+        <v>63695.085461437702</v>
       </c>
       <c r="K31">
-        <v>-115307.39359654261</v>
+        <v>217674.7176812735</v>
       </c>
       <c r="L31">
-        <v>-54805.757872252078</v>
+        <v>-25401.85608151527</v>
       </c>
       <c r="M31">
-        <v>62241.339728075407</v>
+        <v>63196.493794420581</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -1675,40 +1681,40 @@
         <v>2019</v>
       </c>
       <c r="B32">
-        <v>1818.087250004867</v>
+        <v>1852.4110836688201</v>
       </c>
       <c r="C32">
-        <v>1518.6347715204699</v>
+        <v>1405.7092317260531</v>
       </c>
       <c r="D32">
-        <v>1826.2550944479849</v>
+        <v>1811.606640587557</v>
       </c>
       <c r="E32">
-        <v>1803.9661839854109</v>
+        <v>1838.023424766538</v>
       </c>
       <c r="F32">
-        <v>1506.839549994098</v>
+        <v>1394.7911017709</v>
       </c>
       <c r="G32">
-        <v>1812.0705888600401</v>
+        <v>1797.5359093985271</v>
       </c>
       <c r="H32">
-        <v>40550.025340088832</v>
+        <v>-49220.411452828819</v>
       </c>
       <c r="I32">
-        <v>48139.837359256468</v>
+        <v>64623.262130677867</v>
       </c>
       <c r="J32">
-        <v>46103.16979828442</v>
+        <v>83402.626049035927</v>
       </c>
       <c r="K32">
-        <v>40235.073686961907</v>
+        <v>-48838.116994942771</v>
       </c>
       <c r="L32">
-        <v>47765.935709864178</v>
+        <v>64121.333881119222</v>
       </c>
       <c r="M32">
-        <v>45745.086926064738</v>
+        <v>82754.838662247304</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -1716,40 +1722,40 @@
         <v>2020</v>
       </c>
       <c r="B33">
-        <v>2703.1999013382169</v>
+        <v>2583.2166828508271</v>
       </c>
       <c r="C33">
-        <v>1335.7248130551779</v>
+        <v>1463.655663831835</v>
       </c>
       <c r="D33">
-        <v>1718.237804182831</v>
+        <v>1831.19566935544</v>
       </c>
       <c r="E33">
-        <v>2692.7426483349741</v>
+        <v>2573.223581563203</v>
       </c>
       <c r="F33">
-        <v>1330.5575990781749</v>
+        <v>1457.9935529466061</v>
       </c>
       <c r="G33">
-        <v>1711.5908494277719</v>
+        <v>1824.111740267025</v>
       </c>
       <c r="H33">
-        <v>-219461.1576787137</v>
+        <v>-158469.81948915811</v>
       </c>
       <c r="I33">
-        <v>135700.1323767603</v>
+        <v>-2688.0599173402102</v>
       </c>
       <c r="J33">
-        <v>122172.5103960592</v>
+        <v>19460.05928861141</v>
       </c>
       <c r="K33">
-        <v>-218612.17834533381</v>
+        <v>-157856.78343697559</v>
       </c>
       <c r="L33">
-        <v>135175.1802205639</v>
+        <v>-2677.6612329404411</v>
       </c>
       <c r="M33">
-        <v>121699.88946609379</v>
+        <v>19384.77859503845</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1043.634102143072</v>
+        <v>1092.713504107778</v>
       </c>
       <c r="C4">
-        <v>702.4673992950857</v>
+        <v>705.6090056722269</v>
       </c>
       <c r="D4">
-        <v>987.2450770145125</v>
+        <v>968.6687975404402</v>
       </c>
       <c r="E4">
-        <v>1016.570657030772</v>
+        <v>1064.377335443719</v>
       </c>
       <c r="F4">
-        <v>684.2510647914854</v>
+        <v>687.3112032560914</v>
       </c>
       <c r="G4">
-        <v>961.6439080805867</v>
+        <v>943.5493473611094</v>
       </c>
       <c r="H4">
-        <v>265.9119789794119</v>
+        <v>5476.532586100249</v>
       </c>
       <c r="I4">
-        <v>-3941.922476787385</v>
+        <v>-7956.306695629161</v>
       </c>
       <c r="J4">
-        <v>-14113.05243834091</v>
+        <v>-15728.39099325112</v>
       </c>
       <c r="K4">
-        <v>259.0163685034466</v>
+        <v>5334.515533624392</v>
       </c>
       <c r="L4">
-        <v>-3839.700824228879</v>
+        <v>-7749.984317784646</v>
       </c>
       <c r="M4">
-        <v>-13747.0737689512</v>
+        <v>-15320.5234796498</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1056.135914141084</v>
+        <v>1072.510222107881</v>
       </c>
       <c r="C5">
-        <v>753.1217758831203</v>
+        <v>741.1198398321509</v>
       </c>
       <c r="D5">
-        <v>1027.592362983207</v>
+        <v>1023.545406885618</v>
       </c>
       <c r="E5">
-        <v>1031.069397191533</v>
+        <v>1047.05507443127</v>
       </c>
       <c r="F5">
-        <v>735.2470501896919</v>
+        <v>723.5299702158816</v>
       </c>
       <c r="G5">
-        <v>1003.203303735188</v>
+        <v>999.2523988108011</v>
       </c>
       <c r="H5">
-        <v>3317.432890955881</v>
+        <v>18330.50287680008</v>
       </c>
       <c r="I5">
-        <v>-6972.630495817393</v>
+        <v>-3344.565969450498</v>
       </c>
       <c r="J5">
-        <v>-883.1815803460585</v>
+        <v>-9776.120390609762</v>
       </c>
       <c r="K5">
-        <v>3238.696350822434</v>
+        <v>17895.44347307856</v>
       </c>
       <c r="L5">
-        <v>-6807.140847973626</v>
+        <v>-3265.185448023667</v>
       </c>
       <c r="M5">
-        <v>-862.2199922049336</v>
+        <v>-9544.092216781997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1091.240621213677</v>
+        <v>1122.647551039252</v>
       </c>
       <c r="C6">
-        <v>800.2617616716157</v>
+        <v>776.4348395141352</v>
       </c>
       <c r="D6">
-        <v>1068.396624157209</v>
+        <v>1065.9905879738</v>
       </c>
       <c r="E6">
-        <v>1069.246624196967</v>
+        <v>1100.020546134585</v>
       </c>
       <c r="F6">
-        <v>784.1324548472265</v>
+        <v>760.7857652293542</v>
       </c>
       <c r="G6">
-        <v>1046.863048786599</v>
+        <v>1044.505506355724</v>
       </c>
       <c r="H6">
-        <v>471.9473661701297</v>
+        <v>-5212.647240182126</v>
       </c>
       <c r="I6">
-        <v>-9350.989463572849</v>
+        <v>-6305.229700629602</v>
       </c>
       <c r="J6">
-        <v>-5258.888453580033</v>
+        <v>-6396.798480267351</v>
       </c>
       <c r="K6">
-        <v>462.4352487124369</v>
+        <v>-5107.586133015665</v>
       </c>
       <c r="L6">
-        <v>-9162.519908493085</v>
+        <v>-6178.147551624665</v>
       </c>
       <c r="M6">
-        <v>-5152.895352965242</v>
+        <v>-6267.870758959638</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1114.118443940771</v>
+        <v>1161.158865793272</v>
       </c>
       <c r="C7">
-        <v>816.1661146050699</v>
+        <v>784.7537177972674</v>
       </c>
       <c r="D7">
-        <v>1082.362858536305</v>
+        <v>1085.835199158126</v>
       </c>
       <c r="E7">
-        <v>1100.469213387132</v>
+        <v>1146.933336043891</v>
       </c>
       <c r="F7">
-        <v>806.1671422975039</v>
+        <v>775.139583429154</v>
       </c>
       <c r="G7">
-        <v>1069.102670376596</v>
+        <v>1072.53247083766</v>
       </c>
       <c r="H7">
-        <v>1923.360453285898</v>
+        <v>-1403.711809511375</v>
       </c>
       <c r="I7">
-        <v>1221.499176765957</v>
+        <v>3374.785644076263</v>
       </c>
       <c r="J7">
-        <v>2796.358478745857</v>
+        <v>542.6800842627391</v>
       </c>
       <c r="K7">
-        <v>1899.797078666775</v>
+        <v>-1386.514727618434</v>
       </c>
       <c r="L7">
-        <v>1206.534408903587</v>
+        <v>3333.440643842557</v>
       </c>
       <c r="M7">
-        <v>2762.099875637179</v>
+        <v>536.0316299379275</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1183.697899857955</v>
+        <v>1228.639018239526</v>
       </c>
       <c r="C8">
-        <v>844.780756518599</v>
+        <v>821.6642672512497</v>
       </c>
       <c r="D8">
-        <v>1152.569576866875</v>
+        <v>1160.800011486192</v>
       </c>
       <c r="E8">
-        <v>1160.592685596464</v>
+        <v>1204.656574940556</v>
       </c>
       <c r="F8">
-        <v>828.2910420520197</v>
+        <v>805.6257755481473</v>
       </c>
       <c r="G8">
-        <v>1130.071972513617</v>
+        <v>1138.141753003729</v>
       </c>
       <c r="H8">
-        <v>922.358227787596</v>
+        <v>3631.504556909597</v>
       </c>
       <c r="I8">
-        <v>8490.744118228593</v>
+        <v>8012.090885410757</v>
       </c>
       <c r="J8">
-        <v>-1825.282254514039</v>
+        <v>-3345.129440208427</v>
       </c>
       <c r="K8">
-        <v>904.3542383563065</v>
+        <v>3560.619332825776</v>
       </c>
       <c r="L8">
-        <v>8325.008872677585</v>
+        <v>7855.698720980818</v>
       </c>
       <c r="M8">
-        <v>-1789.653621918419</v>
+        <v>-3279.834120804959</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1250.206622000583</v>
+        <v>1241.826903655891</v>
       </c>
       <c r="C9">
-        <v>862.9319272409783</v>
+        <v>849.4422100940131</v>
       </c>
       <c r="D9">
-        <v>1200.442364503777</v>
+        <v>1207.98433359563</v>
       </c>
       <c r="E9">
-        <v>1224.467073900571</v>
+        <v>1216.259879168858</v>
       </c>
       <c r="F9">
-        <v>845.1656816801345</v>
+        <v>831.9536940038422</v>
       </c>
       <c r="G9">
-        <v>1175.727374646346</v>
+        <v>1183.114067903956</v>
       </c>
       <c r="H9">
-        <v>-2023.56918630201</v>
+        <v>11760.75484535145</v>
       </c>
       <c r="I9">
-        <v>6963.788783124455</v>
+        <v>2702.811942217993</v>
       </c>
       <c r="J9">
-        <v>-331.6147430119597</v>
+        <v>1389.510414759553</v>
       </c>
       <c r="K9">
-        <v>-1981.907467760498</v>
+        <v>11518.62165735892</v>
       </c>
       <c r="L9">
-        <v>6820.416661118951</v>
+        <v>2647.165813995858</v>
       </c>
       <c r="M9">
-        <v>-324.7873806558313</v>
+        <v>1360.902847396856</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1284.68675753245</v>
+        <v>1291.59493341298</v>
       </c>
       <c r="C10">
-        <v>872.8439866376875</v>
+        <v>864.2484980035196</v>
       </c>
       <c r="D10">
-        <v>1237.839683160562</v>
+        <v>1247.860729228119</v>
       </c>
       <c r="E10">
-        <v>1256.959705211606</v>
+        <v>1263.718783770973</v>
       </c>
       <c r="F10">
-        <v>854.0056272138524</v>
+        <v>845.5956527228681</v>
       </c>
       <c r="G10">
-        <v>1211.123718775802</v>
+        <v>1220.928483273555</v>
       </c>
       <c r="H10">
-        <v>2393.059525163079</v>
+        <v>-747.7949802427933</v>
       </c>
       <c r="I10">
-        <v>8391.728370549958</v>
+        <v>8104.388554253152</v>
       </c>
       <c r="J10">
-        <v>4178.587508062484</v>
+        <v>4898.874236257442</v>
       </c>
       <c r="K10">
-        <v>2341.41075843294</v>
+        <v>-731.655520237553</v>
       </c>
       <c r="L10">
-        <v>8210.6119308978</v>
+        <v>7929.47369336999</v>
       </c>
       <c r="M10">
-        <v>4088.402166161855</v>
+        <v>4793.143137633181</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1293.577641132945</v>
+        <v>1328.661574731266</v>
       </c>
       <c r="C11">
-        <v>848.1116435798726</v>
+        <v>876.1535598006349</v>
       </c>
       <c r="D11">
-        <v>1273.1909542422</v>
+        <v>1287.541432572276</v>
       </c>
       <c r="E11">
-        <v>1266.248536038587</v>
+        <v>1300.591259772155</v>
       </c>
       <c r="F11">
-        <v>830.1937919549458</v>
+        <v>857.6432733259736</v>
       </c>
       <c r="G11">
-        <v>1246.292553800463</v>
+        <v>1260.33985301089</v>
       </c>
       <c r="H11">
-        <v>6517.714776236279</v>
+        <v>4295.524822741007</v>
       </c>
       <c r="I11">
-        <v>17565.04557443324</v>
+        <v>12306.63215313025</v>
       </c>
       <c r="J11">
-        <v>9200.742127251635</v>
+        <v>7865.745202946969</v>
       </c>
       <c r="K11">
-        <v>6380.01657673833</v>
+        <v>4204.774298316902</v>
       </c>
       <c r="L11">
-        <v>17193.95306229733</v>
+        <v>12046.63288228947</v>
       </c>
       <c r="M11">
-        <v>9006.360251323782</v>
+        <v>7699.567487391751</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1318.166337113757</v>
+        <v>1356.850157953317</v>
       </c>
       <c r="C12">
-        <v>882.9687933294996</v>
+        <v>896.797306104387</v>
       </c>
       <c r="D12">
-        <v>1320.244037514604</v>
+        <v>1330.978848280545</v>
       </c>
       <c r="E12">
-        <v>1294.464867705073</v>
+        <v>1332.453128833824</v>
       </c>
       <c r="F12">
-        <v>867.0924526472264</v>
+        <v>880.6723199641975</v>
       </c>
       <c r="G12">
-        <v>1296.505209730801</v>
+        <v>1307.047001769277</v>
       </c>
       <c r="H12">
-        <v>5552.843300264927</v>
+        <v>7932.166058657683</v>
       </c>
       <c r="I12">
-        <v>718.7192342223487</v>
+        <v>9541.223719591577</v>
       </c>
       <c r="J12">
-        <v>5095.98358024798</v>
+        <v>9218.045451347582</v>
       </c>
       <c r="K12">
-        <v>5452.999644796816</v>
+        <v>7789.540666178361</v>
       </c>
       <c r="L12">
-        <v>705.796205114616</v>
+        <v>9369.6664466252</v>
       </c>
       <c r="M12">
-        <v>5004.354553217242</v>
+        <v>9052.299129262494</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1362.550643604331</v>
+        <v>1379.926782684055</v>
       </c>
       <c r="C13">
-        <v>907.7256573208994</v>
+        <v>927.799006847113</v>
       </c>
       <c r="D13">
-        <v>1340.653834831276</v>
+        <v>1352.051704378833</v>
       </c>
       <c r="E13">
-        <v>1329.452247403416</v>
+        <v>1346.406294035859</v>
       </c>
       <c r="F13">
-        <v>885.6756413535901</v>
+        <v>905.261379150422</v>
       </c>
       <c r="G13">
-        <v>1308.087344916346</v>
+        <v>1319.208343138862</v>
       </c>
       <c r="H13">
-        <v>-265.8304906133647</v>
+        <v>1054.504070454911</v>
       </c>
       <c r="I13">
-        <v>1619.376922006833</v>
+        <v>530.9918806636119</v>
       </c>
       <c r="J13">
-        <v>2848.934015633616</v>
+        <v>4897.929427152615</v>
       </c>
       <c r="K13">
-        <v>-259.3730697887485</v>
+        <v>1028.88858696208</v>
       </c>
       <c r="L13">
-        <v>1580.039830783995</v>
+        <v>518.0932924693542</v>
       </c>
       <c r="M13">
-        <v>2779.729140759925</v>
+        <v>4778.951384387775</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1375.584888063283</v>
+        <v>1410.079588272315</v>
       </c>
       <c r="C14">
-        <v>958.6381764026105</v>
+        <v>977.7387625159472</v>
       </c>
       <c r="D14">
-        <v>1355.261592081317</v>
+        <v>1379.708854886883</v>
       </c>
       <c r="E14">
-        <v>1337.675068313507</v>
+        <v>1371.219127178196</v>
       </c>
       <c r="F14">
-        <v>932.2190140608061</v>
+        <v>950.7932060686572</v>
       </c>
       <c r="G14">
-        <v>1317.91186316569</v>
+        <v>1341.685382508111</v>
       </c>
       <c r="H14">
-        <v>2302.41076801778</v>
+        <v>2432.908463536613</v>
       </c>
       <c r="I14">
-        <v>-878.0740549156269</v>
+        <v>-47.06478708139856</v>
       </c>
       <c r="J14">
-        <v>6540.167959822355</v>
+        <v>6221.831225617775</v>
       </c>
       <c r="K14">
-        <v>2238.958502757448</v>
+        <v>2365.85980509269</v>
       </c>
       <c r="L14">
-        <v>-853.8751636384244</v>
+        <v>-45.76772602010008</v>
       </c>
       <c r="M14">
-        <v>6359.927110535911</v>
+        <v>6050.363435935395</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1430.933142239107</v>
+        <v>1437.359963536943</v>
       </c>
       <c r="C15">
-        <v>994.7568642976109</v>
+        <v>1016.755174088279</v>
       </c>
       <c r="D15">
-        <v>1322.726754185711</v>
+        <v>1389.466541998437</v>
       </c>
       <c r="E15">
-        <v>1397.911608187435</v>
+        <v>1404.190118224552</v>
       </c>
       <c r="F15">
-        <v>971.8009366599738</v>
+        <v>993.2915931477806</v>
       </c>
       <c r="G15">
-        <v>1292.202290627579</v>
+        <v>1357.401929490781</v>
       </c>
       <c r="H15">
-        <v>689.3907135337757</v>
+        <v>1184.584917513357</v>
       </c>
       <c r="I15">
-        <v>1272.215785158952</v>
+        <v>740.6911394719305</v>
       </c>
       <c r="J15">
-        <v>7727.814695504073</v>
+        <v>6796.494906740973</v>
       </c>
       <c r="K15">
-        <v>673.4816970676115</v>
+        <v>1157.248342493818</v>
       </c>
       <c r="L15">
-        <v>1242.856959347592</v>
+        <v>723.5982670225782</v>
       </c>
       <c r="M15">
-        <v>7549.480510223209</v>
+        <v>6639.652716585412</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1473.196060695208</v>
+        <v>1431.67219271487</v>
       </c>
       <c r="C16">
-        <v>1011.770237171884</v>
+        <v>1032.547962182847</v>
       </c>
       <c r="D16">
-        <v>1333.573278584944</v>
+        <v>1413.28832003798</v>
       </c>
       <c r="E16">
-        <v>1438.163864007838</v>
+        <v>1397.627422174717</v>
       </c>
       <c r="F16">
-        <v>987.7106195169835</v>
+        <v>1007.994255948211</v>
       </c>
       <c r="G16">
-        <v>1301.861273211835</v>
+        <v>1379.68071292819</v>
       </c>
       <c r="H16">
-        <v>105.1223769145618</v>
+        <v>4767.301749717494</v>
       </c>
       <c r="I16">
-        <v>1973.841718072064</v>
+        <v>2092.05257743581</v>
       </c>
       <c r="J16">
-        <v>3955.897369093715</v>
+        <v>3867.03377236488</v>
       </c>
       <c r="K16">
-        <v>102.6225957363682</v>
+        <v>4653.936626758004</v>
       </c>
       <c r="L16">
-        <v>1926.90430550214</v>
+        <v>2042.304143178889</v>
       </c>
       <c r="M16">
-        <v>3861.827218889984</v>
+        <v>3775.076774023287</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1495.863960863639</v>
+        <v>1379.49828038563</v>
       </c>
       <c r="C17">
-        <v>1023.378466312492</v>
+        <v>1038.481744679115</v>
       </c>
       <c r="D17">
-        <v>1324.703775943372</v>
+        <v>1428.262138445808</v>
       </c>
       <c r="E17">
-        <v>1464.700128345646</v>
+        <v>1350.758732877596</v>
       </c>
       <c r="F17">
-        <v>1002.058081597648</v>
+        <v>1016.846708331633</v>
       </c>
       <c r="G17">
-        <v>1297.105780611219</v>
+        <v>1398.506677228188</v>
       </c>
       <c r="H17">
-        <v>59.74133903207134</v>
+        <v>5081.726337338825</v>
       </c>
       <c r="I17">
-        <v>1811.595442183882</v>
+        <v>2538.923650619273</v>
       </c>
       <c r="J17">
-        <v>3816.426366839951</v>
+        <v>2807.672468873507</v>
       </c>
       <c r="K17">
-        <v>58.49672780223644</v>
+        <v>4975.857038644268</v>
       </c>
       <c r="L17">
-        <v>1773.853870471718</v>
+        <v>2486.029407898038</v>
       </c>
       <c r="M17">
-        <v>3736.917484197452</v>
+        <v>2749.179292438642</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1564.394695719477</v>
+        <v>1436.609257102033</v>
       </c>
       <c r="C18">
-        <v>1031.245969780641</v>
+        <v>1077.892541647423</v>
       </c>
       <c r="D18">
-        <v>1346.996833547176</v>
+        <v>1451.681459951399</v>
       </c>
       <c r="E18">
-        <v>1547.328571766174</v>
+        <v>1420.937156115465</v>
       </c>
       <c r="F18">
-        <v>1019.99601374667</v>
+        <v>1066.13371392036</v>
       </c>
       <c r="G18">
-        <v>1332.302322635752</v>
+        <v>1435.844934933748</v>
       </c>
       <c r="H18">
-        <v>-353.9321463174891</v>
+        <v>-202.9477772410985</v>
       </c>
       <c r="I18">
-        <v>3389.302418965805</v>
+        <v>-384.9544131832736</v>
       </c>
       <c r="J18">
-        <v>3167.952169981047</v>
+        <v>4658.253227720526</v>
       </c>
       <c r="K18">
-        <v>-350.0710683576619</v>
+        <v>-200.7338014893774</v>
       </c>
       <c r="L18">
-        <v>3352.328210758905</v>
+        <v>-380.7549104940015</v>
       </c>
       <c r="M18">
-        <v>3133.392691763072</v>
+        <v>4607.435919781756</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1535.500037787553</v>
+        <v>1495.068008493476</v>
       </c>
       <c r="C19">
-        <v>1062.753120834729</v>
+        <v>1083.240668402103</v>
       </c>
       <c r="D19">
-        <v>1404.428548313621</v>
+        <v>1512.866557706417</v>
       </c>
       <c r="E19">
-        <v>1508.080394255632</v>
+        <v>1468.370365484664</v>
       </c>
       <c r="F19">
-        <v>1043.775386534109</v>
+        <v>1063.89708503778</v>
       </c>
       <c r="G19">
-        <v>1379.349467093735</v>
+        <v>1485.851083461659</v>
       </c>
       <c r="H19">
-        <v>3482.572789493572</v>
+        <v>346.6746315161158</v>
       </c>
       <c r="I19">
-        <v>2246.434786821117</v>
+        <v>5534.555421995956</v>
       </c>
       <c r="J19">
-        <v>1186.922771538827</v>
+        <v>1321.785782807429</v>
       </c>
       <c r="K19">
-        <v>3420.383989681186</v>
+        <v>340.4840130961853</v>
       </c>
       <c r="L19">
-        <v>2206.319879913597</v>
+        <v>5435.724075174599</v>
       </c>
       <c r="M19">
-        <v>1165.727722047062</v>
+        <v>1298.182465257297</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1730.975149813241</v>
+        <v>1624.34984123404</v>
       </c>
       <c r="C20">
-        <v>1057.574664910012</v>
+        <v>1122.463827257997</v>
       </c>
       <c r="D20">
-        <v>1466.525113386069</v>
+        <v>1581.548744089476</v>
       </c>
       <c r="E20">
-        <v>1698.620474115797</v>
+        <v>1593.988161958638</v>
       </c>
       <c r="F20">
-        <v>1037.806914164031</v>
+        <v>1101.483194972801</v>
       </c>
       <c r="G20">
-        <v>1439.113429023712</v>
+        <v>1551.987085321449</v>
       </c>
       <c r="H20">
-        <v>-3065.321160448262</v>
+        <v>-1715.360326688995</v>
       </c>
       <c r="I20">
-        <v>5117.311901279654</v>
+        <v>2959.757093634054</v>
       </c>
       <c r="J20">
-        <v>1020.442060120027</v>
+        <v>1566.13307526996</v>
       </c>
       <c r="K20">
-        <v>-3008.025437823061</v>
+        <v>-1683.297516844342</v>
       </c>
       <c r="L20">
-        <v>5021.661211536109</v>
+        <v>2904.434531136222</v>
       </c>
       <c r="M20">
-        <v>1001.368376753297</v>
+        <v>1536.859559844354</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1764.758728676951</v>
+        <v>1660.749815366196</v>
       </c>
       <c r="C21">
-        <v>1074.283089866372</v>
+        <v>1127.882121725805</v>
       </c>
       <c r="D21">
-        <v>1514.203125101063</v>
+        <v>1643.12164226552</v>
       </c>
       <c r="E21">
-        <v>1734.366787310528</v>
+        <v>1632.149072277226</v>
       </c>
       <c r="F21">
-        <v>1055.782232980039</v>
+        <v>1108.45820458931</v>
       </c>
       <c r="G21">
-        <v>1488.126148204948</v>
+        <v>1614.82448424717</v>
       </c>
       <c r="H21">
-        <v>2745.624065588519</v>
+        <v>3946.347032507273</v>
       </c>
       <c r="I21">
-        <v>4376.258217135276</v>
+        <v>5872.454989020696</v>
       </c>
       <c r="J21">
-        <v>2450.338074660531</v>
+        <v>3157.66245650753</v>
       </c>
       <c r="K21">
-        <v>2698.340069051404</v>
+        <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>4300.892116954989</v>
+        <v>5771.322009875677</v>
       </c>
       <c r="M21">
-        <v>2408.139370734116</v>
+        <v>3103.282506051029</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1767.69071409531</v>
+        <v>1756.170835786003</v>
       </c>
       <c r="C22">
-        <v>1122.116657017772</v>
+        <v>1133.734419999832</v>
       </c>
       <c r="D22">
-        <v>1536.788406993621</v>
+        <v>1659.410735708221</v>
       </c>
       <c r="E22">
-        <v>1708.833087654845</v>
+        <v>1697.696779100565</v>
       </c>
       <c r="F22">
-        <v>1084.75428220031</v>
+        <v>1095.985216226252</v>
       </c>
       <c r="G22">
-        <v>1485.618981677518</v>
+        <v>1604.158435962109</v>
       </c>
       <c r="H22">
-        <v>1346.672965188811</v>
+        <v>-2860.158721377456</v>
       </c>
       <c r="I22">
-        <v>-3553.647167108381</v>
+        <v>2018.795876448947</v>
       </c>
       <c r="J22">
-        <v>-86.20280046649502</v>
+        <v>2549.124062421964</v>
       </c>
       <c r="K22">
-        <v>1301.83368776854</v>
+        <v>-2764.925911564666</v>
       </c>
       <c r="L22">
-        <v>-3435.323732021531</v>
+        <v>1951.577367799148</v>
       </c>
       <c r="M22">
-        <v>-83.33256293708898</v>
+        <v>2464.247567557748</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1794.709744116753</v>
+        <v>1743.803354772767</v>
       </c>
       <c r="C23">
-        <v>1064.166512581393</v>
+        <v>1083.801851316354</v>
       </c>
       <c r="D23">
-        <v>1529.871897978038</v>
+        <v>1656.492441415829</v>
       </c>
       <c r="E23">
-        <v>1773.063025711836</v>
+        <v>1722.770638870902</v>
       </c>
       <c r="F23">
-        <v>1051.331170872626</v>
+        <v>1070.729679864073</v>
       </c>
       <c r="G23">
-        <v>1511.419495699794</v>
+        <v>1636.512817670682</v>
       </c>
       <c r="H23">
-        <v>-910.5998381672537</v>
+        <v>2037.138608400395</v>
       </c>
       <c r="I23">
-        <v>5673.723229343687</v>
+        <v>6637.372279616602</v>
       </c>
       <c r="J23">
-        <v>-837.7908452174872</v>
+        <v>-1877.325485096247</v>
       </c>
       <c r="K23">
-        <v>-899.6167260840961</v>
+        <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>5605.29016407748</v>
+        <v>6557.316254314208</v>
       </c>
       <c r="M23">
-        <v>-827.6859117773638</v>
+        <v>-1854.6823049032</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1765.480476832563</v>
+        <v>1703.610536103614</v>
       </c>
       <c r="C24">
-        <v>1084.879775849223</v>
+        <v>1115.133612501509</v>
       </c>
       <c r="D24">
-        <v>1604.251744677224</v>
+        <v>1721.140746184434</v>
       </c>
       <c r="E24">
-        <v>1725.742974138582</v>
+        <v>1665.265604422825</v>
       </c>
       <c r="F24">
-        <v>1060.461259994096</v>
+        <v>1090.034142123662</v>
       </c>
       <c r="G24">
-        <v>1568.14318450764</v>
+        <v>1682.401243858739</v>
       </c>
       <c r="H24">
-        <v>7741.657152491347</v>
+        <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>4053.116549914262</v>
+        <v>5935.042597037314</v>
       </c>
       <c r="J24">
-        <v>1211.755157502927</v>
+        <v>6270.092774846669</v>
       </c>
       <c r="K24">
-        <v>7567.407634589613</v>
+        <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>3961.888846218442</v>
+        <v>5801.45642925834</v>
       </c>
       <c r="M24">
-        <v>1184.480925662025</v>
+        <v>6128.96528473758</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1752.74693284783</v>
+        <v>1733.199337948999</v>
       </c>
       <c r="C25">
-        <v>1109.975970281377</v>
+        <v>1150.353251832997</v>
       </c>
       <c r="D25">
-        <v>1630.555399068507</v>
+        <v>1751.360179481851</v>
       </c>
       <c r="E25">
-        <v>1705.227203698671</v>
+        <v>1686.209574876346</v>
       </c>
       <c r="F25">
-        <v>1079.882774006804</v>
+        <v>1119.165363879235</v>
       </c>
       <c r="G25">
-        <v>1586.348474797619</v>
+        <v>1703.878047399966</v>
       </c>
       <c r="H25">
-        <v>1940.91620309945</v>
+        <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-1565.092578931754</v>
+        <v>-2933.256528618304</v>
       </c>
       <c r="J25">
-        <v>-976.6156573082176</v>
+        <v>-87.98953514172715</v>
       </c>
       <c r="K25">
-        <v>1888.294908750559</v>
+        <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-1522.660454789704</v>
+        <v>-2853.73132554836</v>
       </c>
       <c r="M25">
-        <v>-950.1380691017382</v>
+        <v>-85.60400029951123</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1800.299346720074</v>
+        <v>1757.913207544652</v>
       </c>
       <c r="C26">
-        <v>1218.095707243476</v>
+        <v>1232.588625155828</v>
       </c>
       <c r="D26">
-        <v>1670.357082327397</v>
+        <v>1781.569049125755</v>
       </c>
       <c r="E26">
-        <v>1758.133476073881</v>
+        <v>1716.740087612344</v>
       </c>
       <c r="F26">
-        <v>1189.565970719443</v>
+        <v>1203.719441470916</v>
       </c>
       <c r="G26">
-        <v>1631.234665938873</v>
+        <v>1739.841871804072</v>
       </c>
       <c r="H26">
-        <v>800.0398014477274</v>
+        <v>4480.717875175961</v>
       </c>
       <c r="I26">
-        <v>-7721.307158576532</v>
+        <v>-7196.490575759425</v>
       </c>
       <c r="J26">
-        <v>3138.760696229797</v>
+        <v>7277.192652156793</v>
       </c>
       <c r="K26">
-        <v>781.3015983588294</v>
+        <v>4375.772344494651</v>
       </c>
       <c r="L26">
-        <v>-7540.461878895005</v>
+        <v>-7027.937334168319</v>
       </c>
       <c r="M26">
-        <v>3065.245934505474</v>
+        <v>7106.749239733568</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1793.345698732267</v>
+        <v>1802.327185987571</v>
       </c>
       <c r="C27">
-        <v>1220.308718389518</v>
+        <v>1254.595957363876</v>
       </c>
       <c r="D27">
-        <v>1693.402950093033</v>
+        <v>1798.488929014958</v>
       </c>
       <c r="E27">
-        <v>1778.854016318269</v>
+        <v>1787.762925898783</v>
       </c>
       <c r="F27">
-        <v>1210.447637836876</v>
+        <v>1244.457808213461</v>
       </c>
       <c r="G27">
-        <v>1679.718885849857</v>
+        <v>1783.95568514413</v>
       </c>
       <c r="H27">
-        <v>2949.533903627681</v>
+        <v>-417.8830837027346</v>
       </c>
       <c r="I27">
-        <v>1967.590232627452</v>
+        <v>3429.481599935249</v>
       </c>
       <c r="J27">
-        <v>2682.049537670268</v>
+        <v>7000.520111537654</v>
       </c>
       <c r="K27">
-        <v>2925.69928622463</v>
+        <v>-414.5062507031166</v>
       </c>
       <c r="L27">
-        <v>1951.690513575917</v>
+        <v>3401.768617309509</v>
       </c>
       <c r="M27">
-        <v>2660.376410093135</v>
+        <v>6943.950252050481</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1790.399645857645</v>
+        <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1244.151580212779</v>
+        <v>1275.995410961211</v>
       </c>
       <c r="D28">
-        <v>1727.509176629564</v>
+        <v>1812.219630380784</v>
       </c>
       <c r="E28">
-        <v>1779.614105822358</v>
+        <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1236.656691175353</v>
+        <v>1268.308691618071</v>
       </c>
       <c r="G28">
-        <v>1717.102494842639</v>
+        <v>1801.302644655599</v>
       </c>
       <c r="H28">
-        <v>20336.08654182166</v>
+        <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>8031.755124088473</v>
+        <v>16624.44770061</v>
       </c>
       <c r="J28">
-        <v>6734.180358717151</v>
+        <v>62904.50020975203</v>
       </c>
       <c r="K28">
-        <v>20213.57999638901</v>
+        <v>-21079.36215818927</v>
       </c>
       <c r="L28">
-        <v>7983.371057075892</v>
+        <v>16524.30042530513</v>
       </c>
       <c r="M28">
-        <v>6693.613007158614</v>
+        <v>62525.55743740413</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1998.11876399931</v>
+        <v>1977.848634148981</v>
       </c>
       <c r="C29">
-        <v>1289.118692236644</v>
+        <v>1340.235653618177</v>
       </c>
       <c r="D29">
-        <v>1758.210329503783</v>
+        <v>1887.391186803412</v>
       </c>
       <c r="E29">
-        <v>1990.126288943312</v>
+        <v>1969.937239612385</v>
       </c>
       <c r="F29">
-        <v>1283.962217467697</v>
+        <v>1334.874711003704</v>
       </c>
       <c r="G29">
-        <v>1751.177488185768</v>
+        <v>1879.841622056198</v>
       </c>
       <c r="H29">
-        <v>-52902.12797504198</v>
+        <v>-65379.65642872985</v>
       </c>
       <c r="I29">
-        <v>20411.13723207109</v>
+        <v>-7496.842405753193</v>
       </c>
       <c r="J29">
-        <v>62321.87549401294</v>
+        <v>30837.07602877312</v>
       </c>
       <c r="K29">
-        <v>-52690.51946314181</v>
+        <v>-65118.13780301492</v>
       </c>
       <c r="L29">
-        <v>20329.49268314281</v>
+        <v>-7466.855036130181</v>
       </c>
       <c r="M29">
-        <v>62072.58799203688</v>
+        <v>30713.72772465803</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2105.64004796579</v>
+        <v>2004.662663447054</v>
       </c>
       <c r="C30">
-        <v>1298.903175025547</v>
+        <v>1357.591786714642</v>
       </c>
       <c r="D30">
-        <v>1755.293811404483</v>
+        <v>1902.995921373818</v>
       </c>
       <c r="E30">
-        <v>2099.342021900089</v>
+        <v>1998.666663456684</v>
       </c>
       <c r="F30">
-        <v>1295.018120663557</v>
+        <v>1353.531193135236</v>
       </c>
       <c r="G30">
-        <v>1750.043680363392</v>
+        <v>1897.30400934578</v>
       </c>
       <c r="H30">
-        <v>-13330.1820063079</v>
+        <v>33114.5778157629</v>
       </c>
       <c r="I30">
-        <v>26250.67203490299</v>
+        <v>25139.81124761319</v>
       </c>
       <c r="J30">
-        <v>54519.50934372466</v>
+        <v>58980.31295093821</v>
       </c>
       <c r="K30">
-        <v>-13290.31107308864</v>
+        <v>33015.5312220966</v>
       </c>
       <c r="L30">
-        <v>26172.1555681984</v>
+        <v>25064.61739542691</v>
       </c>
       <c r="M30">
-        <v>54356.44002365371</v>
+        <v>58803.90124719663</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2336.096242090082</v>
+        <v>2162.422569030822</v>
       </c>
       <c r="C31">
-        <v>1290.255572361539</v>
+        <v>1391.565837439019</v>
       </c>
       <c r="D31">
-        <v>1802.776854186386</v>
+        <v>1962.836711869235</v>
       </c>
       <c r="E31">
-        <v>2310.753975164056</v>
+        <v>2138.964336033446</v>
       </c>
       <c r="F31">
-        <v>1276.258717040062</v>
+        <v>1376.469955573309</v>
       </c>
       <c r="G31">
-        <v>1783.220103302707</v>
+        <v>1941.543611444618</v>
       </c>
       <c r="H31">
-        <v>-34700.97398657471</v>
+        <v>-4087.57242481546</v>
       </c>
       <c r="I31">
-        <v>47618.05230377172</v>
+        <v>27023.79793555914</v>
       </c>
       <c r="J31">
-        <v>44774.77580873197</v>
+        <v>53397.04109561403</v>
       </c>
       <c r="K31">
-        <v>-34324.53344036926</v>
+        <v>-4043.229923165584</v>
       </c>
       <c r="L31">
-        <v>47101.4856614231</v>
+        <v>26730.6403642661</v>
       </c>
       <c r="M31">
-        <v>44289.05338871613</v>
+        <v>52817.78325335391</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2485.260880319477</v>
+        <v>2264.3349012785</v>
       </c>
       <c r="C32">
-        <v>1324.835482985214</v>
+        <v>1424.830362599564</v>
       </c>
       <c r="D32">
-        <v>1823.915796159786</v>
+        <v>1979.955252535686</v>
       </c>
       <c r="E32">
-        <v>2465.806783408953</v>
+        <v>2246.610166239138</v>
       </c>
       <c r="F32">
-        <v>1314.464950828774</v>
+        <v>1413.67709165945</v>
       </c>
       <c r="G32">
-        <v>1809.638568792586</v>
+        <v>1964.456581282961</v>
       </c>
       <c r="H32">
-        <v>-40263.35861503883</v>
+        <v>-12883.96389704428</v>
       </c>
       <c r="I32">
-        <v>-2278.830312679007</v>
+        <v>-219.0280688211937</v>
       </c>
       <c r="J32">
-        <v>49508.06826327219</v>
+        <v>74362.66256109212</v>
       </c>
       <c r="K32">
-        <v>-39948.18555347297</v>
+        <v>-12783.11095068776</v>
       </c>
       <c r="L32">
-        <v>-2260.992110622813</v>
+        <v>-217.3135633901121</v>
       </c>
       <c r="M32">
-        <v>49120.52956845205</v>
+        <v>73780.56735513445</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>1797.495622244819</v>
+        <v>2337.774020699288</v>
       </c>
       <c r="C33">
-        <v>1390.351375137456</v>
+        <v>1474.132956453719</v>
       </c>
       <c r="D33">
-        <v>1833.970936073239</v>
+        <v>2011.396255561551</v>
       </c>
       <c r="E33">
-        <v>1783.534491198257</v>
+        <v>2319.616552577351</v>
       </c>
       <c r="F33">
-        <v>1379.55252950532</v>
+        <v>1462.683380092913</v>
       </c>
       <c r="G33">
-        <v>1819.726501618301</v>
+        <v>1995.773760372724</v>
       </c>
       <c r="H33">
-        <v>236102.6226121681</v>
+        <v>18371.93812848614</v>
       </c>
       <c r="I33">
-        <v>-6298.919259607398</v>
+        <v>11948.67676229018</v>
       </c>
       <c r="J33">
-        <v>47043.30136737795</v>
+        <v>54693.99914492117</v>
       </c>
       <c r="K33">
-        <v>234268.8158345979</v>
+        <v>18229.24346341053</v>
       </c>
       <c r="L33">
-        <v>-6249.995614872584</v>
+        <v>11855.87150588405</v>
       </c>
       <c r="M33">
-        <v>46677.91650238861</v>
+        <v>54269.19138457227</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2608.781839110742</v>
+        <v>2562.047400837334</v>
       </c>
       <c r="C34">
-        <v>1454.253893958723</v>
+        <v>1527.789179726788</v>
       </c>
       <c r="D34">
-        <v>1821.419738449685</v>
+        <v>2051.810378510799</v>
       </c>
       <c r="E34">
-        <v>2598.689839733138</v>
+        <v>2552.136192323457</v>
       </c>
       <c r="F34">
-        <v>1448.628153556562</v>
+        <v>1521.878970134035</v>
       </c>
       <c r="G34">
-        <v>1814.373627275799</v>
+        <v>2043.873007607469</v>
       </c>
       <c r="H34">
-        <v>-199631.611376099</v>
+        <v>-112500.2619696322</v>
       </c>
       <c r="I34">
-        <v>-14072.22330738187</v>
+        <v>-8026.359054137948</v>
       </c>
       <c r="J34">
-        <v>86162.72231114318</v>
+        <v>48700.59869349665</v>
       </c>
       <c r="K34">
-        <v>-198859.3420864429</v>
+        <v>-112065.0578614325</v>
       </c>
       <c r="L34">
-        <v>-14017.78530619277</v>
+        <v>-7995.309309247666</v>
       </c>
       <c r="M34">
-        <v>85829.40423643855</v>
+        <v>48512.20179332838</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B50F59-89F6-43FA-A048-EECE3FC7CF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,10 +99,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,13 +119,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,37 +416,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -460,1275 +487,1275 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>1224.8059812546719</v>
+      </c>
+      <c r="C3">
+        <v>803.00477551311189</v>
+      </c>
+      <c r="D3">
+        <v>1188.546836650112</v>
+      </c>
+      <c r="E3">
+        <v>1193.0443998931239</v>
+      </c>
+      <c r="F3">
+        <v>782.18131293902798</v>
+      </c>
+      <c r="G3">
+        <v>1157.7255248407091</v>
+      </c>
+      <c r="H3">
+        <v>6146.6297304543023</v>
+      </c>
+      <c r="I3">
+        <v>-8364.6943032985546</v>
+      </c>
+      <c r="J3">
+        <v>-18281.43418440297</v>
+      </c>
+      <c r="K3">
+        <v>5987.2357666175612</v>
+      </c>
+      <c r="L3">
+        <v>-8147.7816471352226</v>
+      </c>
+      <c r="M3">
+        <v>-17807.361336833361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B4">
-        <v>1092.713504107778</v>
+        <v>1241.862947628754</v>
       </c>
       <c r="C4">
-        <v>705.6090056722269</v>
+        <v>834.54650943813715</v>
       </c>
       <c r="D4">
-        <v>968.6687975404402</v>
+        <v>1269.5549714821329</v>
       </c>
       <c r="E4">
-        <v>1064.377335443719</v>
+        <v>1212.388352352755</v>
       </c>
       <c r="F4">
-        <v>687.3112032560914</v>
+        <v>814.73923468881424</v>
       </c>
       <c r="G4">
-        <v>943.5493473611094</v>
+        <v>1239.423128804551</v>
       </c>
       <c r="H4">
-        <v>5476.532586100249</v>
+        <v>6144.0334452976767</v>
       </c>
       <c r="I4">
-        <v>-7956.306695629161</v>
+        <v>-765.9369651708746</v>
       </c>
       <c r="J4">
-        <v>-15728.39099325112</v>
+        <v>-15127.626282308031</v>
       </c>
       <c r="K4">
-        <v>5334.515533624392</v>
+        <v>5998.2098666909287</v>
       </c>
       <c r="L4">
-        <v>-7749.984317784646</v>
+        <v>-747.75808150384421</v>
       </c>
       <c r="M4">
-        <v>-15320.5234796498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-14768.58451927856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B5">
-        <v>1072.510222107881</v>
+        <v>1307.3278945690661</v>
       </c>
       <c r="C5">
-        <v>741.1198398321509</v>
+        <v>859.22241661066369</v>
       </c>
       <c r="D5">
-        <v>1023.545406885618</v>
+        <v>1315.242030315829</v>
       </c>
       <c r="E5">
-        <v>1047.05507443127</v>
+        <v>1280.9786501824019</v>
       </c>
       <c r="F5">
-        <v>723.5299702158816</v>
+        <v>841.90475550068129</v>
       </c>
       <c r="G5">
-        <v>999.2523988108011</v>
+        <v>1288.733276216441</v>
       </c>
       <c r="H5">
-        <v>18330.50287680008</v>
+        <v>-5245.4444035197612</v>
       </c>
       <c r="I5">
-        <v>-3344.565969450498</v>
+        <v>1103.06097622226</v>
       </c>
       <c r="J5">
-        <v>-9776.120390609762</v>
+        <v>-1975.0888710325521</v>
       </c>
       <c r="K5">
-        <v>17895.44347307856</v>
+        <v>-5139.7222682550218</v>
       </c>
       <c r="L5">
-        <v>-3265.185448023667</v>
+        <v>1080.828739492199</v>
       </c>
       <c r="M5">
-        <v>-9544.092216781997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-1935.2808782830591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B6">
-        <v>1122.647551039252</v>
+        <v>1349.562470869032</v>
       </c>
       <c r="C6">
-        <v>776.4348395141352</v>
+        <v>869.61899638136845</v>
       </c>
       <c r="D6">
-        <v>1065.9905879738</v>
+        <v>1336.835251178783</v>
       </c>
       <c r="E6">
-        <v>1100.020546134585</v>
+        <v>1333.0287805674211</v>
       </c>
       <c r="F6">
-        <v>760.7857652293542</v>
+        <v>858.96516487899339</v>
       </c>
       <c r="G6">
-        <v>1044.505506355724</v>
+        <v>1320.457483936164</v>
       </c>
       <c r="H6">
-        <v>-5212.647240182126</v>
+        <v>-2267.3613761719239</v>
       </c>
       <c r="I6">
-        <v>-6305.229700629602</v>
+        <v>1832.553896965811</v>
       </c>
       <c r="J6">
-        <v>-6396.798480267351</v>
+        <v>3946.748410795049</v>
       </c>
       <c r="K6">
-        <v>-5107.586133015665</v>
+        <v>-2239.5835951468471</v>
       </c>
       <c r="L6">
-        <v>-6178.147551624665</v>
+        <v>1810.1030069570411</v>
       </c>
       <c r="M6">
-        <v>-6267.870758959638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3898.3962097439612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B7">
-        <v>1161.158865793272</v>
+        <v>1436.4042435330771</v>
       </c>
       <c r="C7">
-        <v>784.7537177972674</v>
+        <v>911.63103728229373</v>
       </c>
       <c r="D7">
-        <v>1085.835199158126</v>
+        <v>1433.8477176130159</v>
       </c>
       <c r="E7">
-        <v>1146.933336043891</v>
+        <v>1408.366322863513</v>
       </c>
       <c r="F7">
-        <v>775.139583429154</v>
+        <v>893.83643745546226</v>
       </c>
       <c r="G7">
-        <v>1072.53247083766</v>
+        <v>1405.85969910105</v>
       </c>
       <c r="H7">
-        <v>-1403.711809511375</v>
+        <v>274.06323941435619</v>
       </c>
       <c r="I7">
-        <v>3374.785644076263</v>
+        <v>5866.0205653618796</v>
       </c>
       <c r="J7">
-        <v>542.6800842627391</v>
+        <v>-6157.3397609909689</v>
       </c>
       <c r="K7">
-        <v>-1386.514727618434</v>
+        <v>268.71365666302489</v>
       </c>
       <c r="L7">
-        <v>3333.440643842557</v>
+        <v>5751.518662434396</v>
       </c>
       <c r="M7">
-        <v>536.0316299379275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-6037.1514473379921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B8">
-        <v>1228.639018239526</v>
+        <v>1349.2944330797329</v>
       </c>
       <c r="C8">
-        <v>821.6642672512497</v>
+        <v>953.69629525626237</v>
       </c>
       <c r="D8">
-        <v>1160.800011486192</v>
+        <v>1500.0386949622571</v>
       </c>
       <c r="E8">
-        <v>1204.656574940556</v>
+        <v>1321.514841810445</v>
       </c>
       <c r="F8">
-        <v>805.6257755481473</v>
+        <v>934.06137153039811</v>
       </c>
       <c r="G8">
-        <v>1138.141753003729</v>
+        <v>1469.155545360092</v>
       </c>
       <c r="H8">
-        <v>3631.504556909597</v>
+        <v>23907.553374472689</v>
       </c>
       <c r="I8">
-        <v>8012.090885410757</v>
+        <v>-1905.790294271877</v>
       </c>
       <c r="J8">
-        <v>-3345.129440208427</v>
+        <v>-3879.4400245776228</v>
       </c>
       <c r="K8">
-        <v>3560.619332825776</v>
+        <v>23415.339040292369</v>
       </c>
       <c r="L8">
-        <v>7855.698720980818</v>
+        <v>-1866.5534352721611</v>
       </c>
       <c r="M8">
-        <v>-3279.834120804959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>-3799.569200542202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B9">
-        <v>1241.826903655891</v>
+        <v>1402.2256021903479</v>
       </c>
       <c r="C9">
-        <v>849.4422100940131</v>
+        <v>972.77502898292448</v>
       </c>
       <c r="D9">
-        <v>1207.98433359563</v>
+        <v>1560.1827637267811</v>
       </c>
       <c r="E9">
-        <v>1216.259879168858</v>
+        <v>1371.961740272571</v>
       </c>
       <c r="F9">
-        <v>831.9536940038422</v>
+        <v>951.77988447250164</v>
       </c>
       <c r="G9">
-        <v>1183.114067903956</v>
+        <v>1526.509754437714</v>
       </c>
       <c r="H9">
-        <v>11760.75484535145</v>
+        <v>157.0214496357743</v>
       </c>
       <c r="I9">
-        <v>2702.811942217993</v>
+        <v>6176.865771777123</v>
       </c>
       <c r="J9">
-        <v>1389.510414759553</v>
+        <v>-3631.461597407827</v>
       </c>
       <c r="K9">
-        <v>11518.62165735892</v>
+        <v>153.63249748536239</v>
       </c>
       <c r="L9">
-        <v>2647.165813995858</v>
+        <v>6043.5521220265373</v>
       </c>
       <c r="M9">
-        <v>1360.902847396856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-3553.0847283990261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B10">
-        <v>1291.59493341298</v>
+        <v>1472.140135774107</v>
       </c>
       <c r="C10">
-        <v>864.2484980035196</v>
+        <v>1007.598500669806</v>
       </c>
       <c r="D10">
-        <v>1247.860729228119</v>
+        <v>1599.2954844193339</v>
       </c>
       <c r="E10">
-        <v>1263.718783770973</v>
+        <v>1441.0385836098651</v>
       </c>
       <c r="F10">
-        <v>845.5956527228681</v>
+        <v>986.31120840213441</v>
       </c>
       <c r="G10">
-        <v>1220.928483273555</v>
+        <v>1565.5075516499121</v>
       </c>
       <c r="H10">
-        <v>-747.7949802427933</v>
+        <v>-1977.5530510391141</v>
       </c>
       <c r="I10">
-        <v>8104.388554253152</v>
+        <v>4306.1506267058994</v>
       </c>
       <c r="J10">
-        <v>4898.874236257442</v>
+        <v>16049.487763038251</v>
       </c>
       <c r="K10">
-        <v>-731.655520237553</v>
+        <v>-1935.77376122843</v>
       </c>
       <c r="L10">
-        <v>7929.47369336999</v>
+        <v>4215.1756134656343</v>
       </c>
       <c r="M10">
-        <v>4793.143137633181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15710.414077903641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B11">
-        <v>1328.661574731266</v>
+        <v>1488.1028834443459</v>
       </c>
       <c r="C11">
-        <v>876.1535598006349</v>
+        <v>1038.3356015855211</v>
       </c>
       <c r="D11">
-        <v>1287.541432572276</v>
+        <v>1630.9264575689581</v>
       </c>
       <c r="E11">
-        <v>1300.591259772155</v>
+        <v>1461.3458468125671</v>
       </c>
       <c r="F11">
-        <v>857.6432733259736</v>
+        <v>1019.6656668405529</v>
       </c>
       <c r="G11">
-        <v>1260.33985301089</v>
+        <v>1601.6013622046471</v>
       </c>
       <c r="H11">
-        <v>4295.524822741007</v>
+        <v>8424.3585249659063</v>
       </c>
       <c r="I11">
-        <v>12306.63215313025</v>
+        <v>8276.8813658403924</v>
       </c>
       <c r="J11">
-        <v>7865.745202946969</v>
+        <v>19124.970425868942</v>
       </c>
       <c r="K11">
-        <v>4204.774298316902</v>
+        <v>8272.8831987908634</v>
       </c>
       <c r="L11">
-        <v>12046.63288228947</v>
+        <v>8128.0577728169837</v>
       </c>
       <c r="M11">
-        <v>7699.567487391751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18781.09128958084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B12">
-        <v>1356.850157953317</v>
+        <v>1542.312371200572</v>
       </c>
       <c r="C12">
-        <v>896.797306104387</v>
+        <v>1069.6251174470999</v>
       </c>
       <c r="D12">
-        <v>1330.978848280545</v>
+        <v>1649.3064133562559</v>
       </c>
       <c r="E12">
-        <v>1332.453128833824</v>
+        <v>1504.8472933576429</v>
       </c>
       <c r="F12">
-        <v>880.6723199641975</v>
+        <v>1043.6423210718669</v>
       </c>
       <c r="G12">
-        <v>1307.047001769277</v>
+        <v>1609.242289954889</v>
       </c>
       <c r="H12">
-        <v>7932.166058657683</v>
+        <v>-428.72644339746068</v>
       </c>
       <c r="I12">
-        <v>9541.223719591577</v>
+        <v>1674.256335651784</v>
       </c>
       <c r="J12">
-        <v>9218.045451347582</v>
+        <v>6603.6920083816131</v>
       </c>
       <c r="K12">
-        <v>7789.540666178361</v>
+        <v>-418.31203586553858</v>
       </c>
       <c r="L12">
-        <v>9369.6664466252</v>
+        <v>1633.586141263482</v>
       </c>
       <c r="M12">
-        <v>9052.299129262494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6443.2784373278082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B13">
-        <v>1379.926782684055</v>
+        <v>1551.6736231313801</v>
       </c>
       <c r="C13">
-        <v>927.799006847113</v>
+        <v>1128.3455668848151</v>
       </c>
       <c r="D13">
-        <v>1352.051704378833</v>
+        <v>1696.6956460936869</v>
       </c>
       <c r="E13">
-        <v>1346.406294035859</v>
+        <v>1508.910964226184</v>
       </c>
       <c r="F13">
-        <v>905.261379150422</v>
+        <v>1097.249429214761</v>
       </c>
       <c r="G13">
-        <v>1319.208343138862</v>
+        <v>1649.936317264333</v>
       </c>
       <c r="H13">
-        <v>1054.504070454911</v>
+        <v>2964.5036329052559</v>
       </c>
       <c r="I13">
-        <v>530.9918806636119</v>
+        <v>-557.81336360554531</v>
       </c>
       <c r="J13">
-        <v>4897.929427152615</v>
+        <v>5816.1861913003404</v>
       </c>
       <c r="K13">
-        <v>1028.88858696208</v>
+        <v>2882.8047138881821</v>
       </c>
       <c r="L13">
-        <v>518.0932924693542</v>
+        <v>-542.44055437232157</v>
       </c>
       <c r="M13">
-        <v>4778.951384387775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5655.8975954771022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>1410.079588272315</v>
+        <v>1582.188953850585</v>
       </c>
       <c r="C14">
-        <v>977.7387625159472</v>
+        <v>1178.0955821585931</v>
       </c>
       <c r="D14">
-        <v>1379.708854886883</v>
+        <v>1680.863041188323</v>
       </c>
       <c r="E14">
-        <v>1371.219127178196</v>
+        <v>1545.6769010694179</v>
       </c>
       <c r="F14">
-        <v>950.7932060686572</v>
+        <v>1150.908761031857</v>
       </c>
       <c r="G14">
-        <v>1341.685382508111</v>
+        <v>1642.0738940839769</v>
       </c>
       <c r="H14">
-        <v>2432.908463536613</v>
+        <v>1811.686710491382</v>
       </c>
       <c r="I14">
-        <v>-47.06478708139856</v>
+        <v>45.948282962538727</v>
       </c>
       <c r="J14">
-        <v>6221.831225617775</v>
+        <v>9866.6478288169565</v>
       </c>
       <c r="K14">
-        <v>2365.85980509269</v>
+        <v>1769.878555633888</v>
       </c>
       <c r="L14">
-        <v>-45.76772602010008</v>
+        <v>44.887937971095567</v>
       </c>
       <c r="M14">
-        <v>6050.363435935395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9638.9559558442561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>1437.359963536943</v>
+        <v>1561.1679092107479</v>
       </c>
       <c r="C15">
-        <v>1016.755174088279</v>
+        <v>1203.1093321594931</v>
       </c>
       <c r="D15">
-        <v>1389.466541998437</v>
+        <v>1731.323716693041</v>
       </c>
       <c r="E15">
-        <v>1404.190118224552</v>
+        <v>1524.043766188214</v>
       </c>
       <c r="F15">
-        <v>993.2915931477806</v>
+        <v>1174.4997235098931</v>
       </c>
       <c r="G15">
-        <v>1357.401929490781</v>
+        <v>1690.153315419989</v>
       </c>
       <c r="H15">
-        <v>1184.584917513357</v>
+        <v>3761.6354619226822</v>
       </c>
       <c r="I15">
-        <v>740.6911394719305</v>
+        <v>1470.624450217912</v>
       </c>
       <c r="J15">
-        <v>6796.494906740973</v>
+        <v>1205.666006941889</v>
       </c>
       <c r="K15">
-        <v>1157.248342493818</v>
+        <v>3672.1848063825928</v>
       </c>
       <c r="L15">
-        <v>723.5982670225782</v>
+        <v>1435.6534057196141</v>
       </c>
       <c r="M15">
-        <v>6639.652716585412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1176.9956012699299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B16">
-        <v>1431.67219271487</v>
+        <v>1654.344264229087</v>
       </c>
       <c r="C16">
-        <v>1032.547962182847</v>
+        <v>1218.648997668083</v>
       </c>
       <c r="D16">
-        <v>1413.28832003798</v>
+        <v>1787.0528270449661</v>
       </c>
       <c r="E16">
-        <v>1397.627422174717</v>
+        <v>1619.878758724315</v>
       </c>
       <c r="F16">
-        <v>1007.994255948211</v>
+        <v>1193.2604768833321</v>
       </c>
       <c r="G16">
-        <v>1379.68071292819</v>
+        <v>1749.822559814862</v>
       </c>
       <c r="H16">
-        <v>4767.301749717494</v>
+        <v>-1783.4393442479709</v>
       </c>
       <c r="I16">
-        <v>2092.05257743581</v>
+        <v>1773.6940870704</v>
       </c>
       <c r="J16">
-        <v>3867.03377236488</v>
+        <v>-2319.8662729453358</v>
       </c>
       <c r="K16">
-        <v>4653.936626758004</v>
+        <v>-1746.284357909472</v>
       </c>
       <c r="L16">
-        <v>2042.304143178889</v>
+        <v>1736.7421269230999</v>
       </c>
       <c r="M16">
-        <v>3775.076774023287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>-2271.5357255923082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
-        <v>1379.49828038563</v>
+        <v>1709.618203797588</v>
       </c>
       <c r="C17">
-        <v>1038.481744679115</v>
+        <v>1270.447501137478</v>
       </c>
       <c r="D17">
-        <v>1428.262138445808</v>
+        <v>1827.0297265447491</v>
       </c>
       <c r="E17">
-        <v>1350.758732877596</v>
+        <v>1690.967823392524</v>
       </c>
       <c r="F17">
-        <v>1016.846708331633</v>
+        <v>1256.5880738523419</v>
       </c>
       <c r="G17">
-        <v>1398.506677228188</v>
+        <v>1807.0984931642611</v>
       </c>
       <c r="H17">
-        <v>5081.726337338825</v>
+        <v>252.41811731609661</v>
       </c>
       <c r="I17">
-        <v>2538.923650619273</v>
+        <v>-1800.385756996882</v>
       </c>
       <c r="J17">
-        <v>2807.672468873507</v>
+        <v>3989.663140879994</v>
       </c>
       <c r="K17">
-        <v>4975.857038644268</v>
+        <v>249.66446512719381</v>
       </c>
       <c r="L17">
-        <v>2486.029407898038</v>
+        <v>-1780.7451851023709</v>
       </c>
       <c r="M17">
-        <v>2749.179292438642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3946.1395429794838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B18">
-        <v>1436.609257102033</v>
+        <v>1783.3530240188411</v>
       </c>
       <c r="C18">
-        <v>1077.892541647423</v>
+        <v>1290.1997056918501</v>
       </c>
       <c r="D18">
-        <v>1451.681459951399</v>
+        <v>1924.3105974800469</v>
       </c>
       <c r="E18">
-        <v>1420.937156115465</v>
+        <v>1751.507434304219</v>
       </c>
       <c r="F18">
-        <v>1066.13371392036</v>
+        <v>1267.1604252330669</v>
       </c>
       <c r="G18">
-        <v>1435.844934933748</v>
+        <v>1889.947908239332</v>
       </c>
       <c r="H18">
-        <v>-202.9477772410985</v>
+        <v>1370.38142388403</v>
       </c>
       <c r="I18">
-        <v>-384.9544131832736</v>
+        <v>4998.8686564486334</v>
       </c>
       <c r="J18">
-        <v>4658.253227720526</v>
+        <v>-2318.8002131822318</v>
       </c>
       <c r="K18">
-        <v>-200.7338014893774</v>
+        <v>1345.9103270289579</v>
       </c>
       <c r="L18">
-        <v>-380.7549104940015</v>
+        <v>4909.6031447263358</v>
       </c>
       <c r="M18">
-        <v>4607.435919781756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>-2277.3930665182638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19">
-        <v>1495.068008493476</v>
+        <v>1949.034669620876</v>
       </c>
       <c r="C19">
-        <v>1083.240668402103</v>
+        <v>1365.761445068903</v>
       </c>
       <c r="D19">
-        <v>1512.866557706417</v>
+        <v>2016.648387832659</v>
       </c>
       <c r="E19">
-        <v>1468.370365484664</v>
+        <v>1912.604115048523</v>
       </c>
       <c r="F19">
-        <v>1063.89708503778</v>
+        <v>1340.233193759203</v>
       </c>
       <c r="G19">
-        <v>1485.851083461659</v>
+        <v>1978.9540254432641</v>
       </c>
       <c r="H19">
-        <v>346.6746315161158</v>
+        <v>-2352.53665832448</v>
       </c>
       <c r="I19">
-        <v>5534.555421995956</v>
+        <v>-1216.917587719905</v>
       </c>
       <c r="J19">
-        <v>1321.785782807429</v>
+        <v>1083.179720392988</v>
       </c>
       <c r="K19">
-        <v>340.4840130961853</v>
+        <v>-2308.5640105053312</v>
       </c>
       <c r="L19">
-        <v>5435.724075174599</v>
+        <v>-1194.1714645849529</v>
       </c>
       <c r="M19">
-        <v>1298.182465257297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1062.9333704790999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B20">
-        <v>1624.34984123404</v>
+        <v>1978.7769043229171</v>
       </c>
       <c r="C20">
-        <v>1122.463827257997</v>
+        <v>1401.2692346438821</v>
       </c>
       <c r="D20">
-        <v>1581.548744089476</v>
+        <v>2108.4964384636819</v>
       </c>
       <c r="E20">
-        <v>1593.988161958638</v>
+        <v>1944.6992308845199</v>
       </c>
       <c r="F20">
-        <v>1101.483194972801</v>
+        <v>1377.1371582722879</v>
       </c>
       <c r="G20">
-        <v>1551.987085321449</v>
+        <v>2072.184789121598</v>
       </c>
       <c r="H20">
-        <v>-1715.360326688995</v>
+        <v>3530.51510682259</v>
       </c>
       <c r="I20">
-        <v>2959.757093634054</v>
+        <v>3943.0079295407818</v>
       </c>
       <c r="J20">
-        <v>1566.13307526996</v>
+        <v>1692.504556771933</v>
       </c>
       <c r="K20">
-        <v>-1683.297516844342</v>
+        <v>3469.714042985232</v>
       </c>
       <c r="L20">
-        <v>2904.434531136222</v>
+        <v>3875.103085748462</v>
       </c>
       <c r="M20">
-        <v>1536.859559844354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1663.356946724196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B21">
-        <v>1660.749815366196</v>
+        <v>1987.999880289201</v>
       </c>
       <c r="C21">
-        <v>1127.882121725805</v>
+        <v>1373.0381961026931</v>
       </c>
       <c r="D21">
-        <v>1643.12164226552</v>
+        <v>2126.171435401588</v>
       </c>
       <c r="E21">
-        <v>1632.149072277226</v>
+        <v>1921.806765518196</v>
       </c>
       <c r="F21">
-        <v>1108.45820458931</v>
+        <v>1327.321053058208</v>
       </c>
       <c r="G21">
-        <v>1614.82448424717</v>
+        <v>2055.377713912078</v>
       </c>
       <c r="H21">
-        <v>3946.347032507273</v>
+        <v>2532.009817866629</v>
       </c>
       <c r="I21">
-        <v>5872.454989020696</v>
+        <v>6134.863430456443</v>
       </c>
       <c r="J21">
-        <v>3157.66245650753</v>
+        <v>2475.9510860364521</v>
       </c>
       <c r="K21">
-        <v>3878.384684071441</v>
+        <v>2447.7031646635228</v>
       </c>
       <c r="L21">
-        <v>5771.322009875677</v>
+        <v>5930.5949477553404</v>
       </c>
       <c r="M21">
-        <v>3103.282506051029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2393.510983282742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>1756.170835786003</v>
+        <v>1961.498624941393</v>
       </c>
       <c r="C22">
-        <v>1133.734419999832</v>
+        <v>1323.3396652367439</v>
       </c>
       <c r="D22">
-        <v>1659.410735708221</v>
+        <v>2131.526239306882</v>
       </c>
       <c r="E22">
-        <v>1697.696779100565</v>
+        <v>1937.840198544073</v>
       </c>
       <c r="F22">
-        <v>1095.985216226252</v>
+        <v>1307.37833155516</v>
       </c>
       <c r="G22">
-        <v>1604.158435962109</v>
+        <v>2105.8170412450668</v>
       </c>
       <c r="H22">
-        <v>-2860.158721377456</v>
+        <v>786.03598543752639</v>
       </c>
       <c r="I22">
-        <v>2018.795876448947</v>
+        <v>6181.7056371527979</v>
       </c>
       <c r="J22">
-        <v>2549.124062421964</v>
+        <v>-3814.3824140225488</v>
       </c>
       <c r="K22">
-        <v>-2764.925911564666</v>
+        <v>776.55528824474902</v>
       </c>
       <c r="L22">
-        <v>1951.577367799148</v>
+        <v>6107.145591090647</v>
       </c>
       <c r="M22">
-        <v>2464.247567557748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>-3768.3756085902592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B23">
-        <v>1743.803354772767</v>
+        <v>1981.8461599165589</v>
       </c>
       <c r="C23">
-        <v>1083.801851316354</v>
+        <v>1384.3702664259699</v>
       </c>
       <c r="D23">
-        <v>1656.492441415829</v>
+        <v>2213.2140365925311</v>
       </c>
       <c r="E23">
-        <v>1722.770638870902</v>
+        <v>1937.2386900792089</v>
       </c>
       <c r="F23">
-        <v>1070.729679864073</v>
+        <v>1353.2108070530389</v>
       </c>
       <c r="G23">
-        <v>1636.512817670682</v>
+        <v>2163.3989296595801</v>
       </c>
       <c r="H23">
-        <v>2037.138608400395</v>
+        <v>4677.9991748494131</v>
       </c>
       <c r="I23">
-        <v>6637.372279616602</v>
+        <v>2061.9582346736538</v>
       </c>
       <c r="J23">
-        <v>-1877.325485096247</v>
+        <v>7806.5694067653749</v>
       </c>
       <c r="K23">
-        <v>2012.56785764118</v>
+        <v>4572.7065889203268</v>
       </c>
       <c r="L23">
-        <v>6557.316254314208</v>
+        <v>2015.5475991665301</v>
       </c>
       <c r="M23">
-        <v>-1854.6823049032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7630.8588413397883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B24">
-        <v>1703.610536103614</v>
+        <v>1994.097451309596</v>
       </c>
       <c r="C24">
-        <v>1115.133612501509</v>
+        <v>1441.081755277713</v>
       </c>
       <c r="D24">
-        <v>1721.140746184434</v>
+        <v>2246.2357249254028</v>
       </c>
       <c r="E24">
-        <v>1665.265604422825</v>
+        <v>1940.0343295848311</v>
       </c>
       <c r="F24">
-        <v>1090.034142123662</v>
+        <v>1402.011759827014</v>
       </c>
       <c r="G24">
-        <v>1682.401243858739</v>
+        <v>2185.3367375968719</v>
       </c>
       <c r="H24">
-        <v>11771.11757410767</v>
+        <v>3956.3903010060608</v>
       </c>
       <c r="I24">
-        <v>5935.042597037314</v>
+        <v>-4392.4111276500807</v>
       </c>
       <c r="J24">
-        <v>6270.092774846669</v>
+        <v>3091.379145881268</v>
       </c>
       <c r="K24">
-        <v>11506.17280555862</v>
+        <v>3849.1263303844148</v>
       </c>
       <c r="L24">
-        <v>5801.45642925834</v>
+        <v>-4273.3259458785451</v>
       </c>
       <c r="M24">
-        <v>6128.96528473758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3007.5669896842778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25">
-        <v>1733.199337948999</v>
+        <v>2083.1462682308402</v>
       </c>
       <c r="C25">
-        <v>1150.353251832997</v>
+        <v>1521.343026674846</v>
       </c>
       <c r="D25">
-        <v>1751.360179481851</v>
+        <v>2298.984644541707</v>
       </c>
       <c r="E25">
-        <v>1686.209574876346</v>
+        <v>2034.355673353743</v>
       </c>
       <c r="F25">
-        <v>1119.165363879235</v>
+        <v>1485.710756192645</v>
       </c>
       <c r="G25">
-        <v>1703.878047399966</v>
+        <v>2245.1387720117082</v>
       </c>
       <c r="H25">
-        <v>1143.627556650225</v>
+        <v>-1001.054831952529</v>
       </c>
       <c r="I25">
-        <v>-2933.256528618304</v>
+        <v>-5656.6057980942223</v>
       </c>
       <c r="J25">
-        <v>-87.98953514172715</v>
+        <v>7322.5283843244506</v>
       </c>
       <c r="K25">
-        <v>1112.622012882857</v>
+        <v>-977.60853751779541</v>
       </c>
       <c r="L25">
-        <v>-2853.73132554836</v>
+        <v>-5524.1191042488381</v>
       </c>
       <c r="M25">
-        <v>-85.60400029951123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7151.0231370337569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26">
-        <v>1757.913207544652</v>
+        <v>2118.6561275901731</v>
       </c>
       <c r="C26">
-        <v>1232.588625155828</v>
+        <v>1539.2941808441831</v>
       </c>
       <c r="D26">
-        <v>1781.569049125755</v>
+        <v>2320.401122224936</v>
       </c>
       <c r="E26">
-        <v>1716.740087612344</v>
+        <v>2101.5356740338889</v>
       </c>
       <c r="F26">
-        <v>1203.719441470916</v>
+        <v>1526.8554399888769</v>
       </c>
       <c r="G26">
-        <v>1739.841871804072</v>
+        <v>2301.6504060857451</v>
       </c>
       <c r="H26">
-        <v>4480.717875175961</v>
+        <v>2514.37369060539</v>
       </c>
       <c r="I26">
-        <v>-7196.490575759425</v>
+        <v>4818.4181576522988</v>
       </c>
       <c r="J26">
-        <v>7277.192652156793</v>
+        <v>8984.5289388078563</v>
       </c>
       <c r="K26">
-        <v>4375.772344494651</v>
+        <v>2494.0555193681739</v>
       </c>
       <c r="L26">
-        <v>-7027.937334168319</v>
+        <v>4779.4814452672299</v>
       </c>
       <c r="M26">
-        <v>7106.749239733568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8911.9266847568833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27">
-        <v>1802.327185987571</v>
+        <v>2152.1298738237419</v>
       </c>
       <c r="C27">
-        <v>1254.595957363876</v>
+        <v>1576.2967641704629</v>
       </c>
       <c r="D27">
-        <v>1798.488929014958</v>
+        <v>2348.8537170754871</v>
       </c>
       <c r="E27">
-        <v>1787.762925898783</v>
+        <v>2139.165236029623</v>
       </c>
       <c r="F27">
-        <v>1244.457808213461</v>
+        <v>1566.801000530882</v>
       </c>
       <c r="G27">
-        <v>1783.95568514413</v>
+        <v>2334.703995888286</v>
       </c>
       <c r="H27">
-        <v>-417.8830837027346</v>
+        <v>16475.965135165148</v>
       </c>
       <c r="I27">
-        <v>3429.481599935249</v>
+        <v>4060.7774953515432</v>
       </c>
       <c r="J27">
-        <v>7000.520111537654</v>
+        <v>63145.337546392053</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031166</v>
+        <v>16376.712333146081</v>
       </c>
       <c r="L27">
-        <v>3401.768617309509</v>
+        <v>4036.3149803193041</v>
       </c>
       <c r="M27">
-        <v>6943.950252050481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>62764.943946714993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28">
-        <v>1836.814605783257</v>
+        <v>2263.062106196644</v>
       </c>
       <c r="C28">
-        <v>1275.995410961211</v>
+        <v>1669.3732303951699</v>
       </c>
       <c r="D28">
-        <v>1812.219630380784</v>
+        <v>2440.5561103888322</v>
       </c>
       <c r="E28">
-        <v>1825.749457555647</v>
+        <v>2254.0098577718582</v>
       </c>
       <c r="F28">
-        <v>1268.308691618071</v>
+        <v>1662.6957374735889</v>
       </c>
       <c r="G28">
-        <v>1801.302644655599</v>
+        <v>2430.793885947277</v>
       </c>
       <c r="H28">
-        <v>-21207.11586823891</v>
+        <v>-7531.3670918075577</v>
       </c>
       <c r="I28">
-        <v>16624.44770061</v>
+        <v>-36629.917194619848</v>
       </c>
       <c r="J28">
-        <v>62904.50020975203</v>
+        <v>40543.226618534733</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818927</v>
+        <v>-7501.2416234403272</v>
       </c>
       <c r="L28">
-        <v>16524.30042530513</v>
+        <v>-36483.397525841363</v>
       </c>
       <c r="M28">
-        <v>62525.55743740413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>40381.05371206058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B29">
-        <v>1977.848634148981</v>
+        <v>2379.8115401062869</v>
       </c>
       <c r="C29">
-        <v>1340.235653618177</v>
+        <v>1687.8290986835379</v>
       </c>
       <c r="D29">
-        <v>1887.391186803412</v>
+        <v>2453.8281610533281</v>
       </c>
       <c r="E29">
-        <v>1969.937239612385</v>
+        <v>2372.6934597271061</v>
       </c>
       <c r="F29">
-        <v>1334.874711003704</v>
+        <v>1682.780756414295</v>
       </c>
       <c r="G29">
-        <v>1879.841622056198</v>
+        <v>2446.4886949684219</v>
       </c>
       <c r="H29">
-        <v>-65379.65642872985</v>
+        <v>-9970.877336623209</v>
       </c>
       <c r="I29">
-        <v>-7496.842405753193</v>
+        <v>30822.01896715528</v>
       </c>
       <c r="J29">
-        <v>30837.07602877312</v>
+        <v>83233.704236405974</v>
       </c>
       <c r="K29">
-        <v>-65118.13780301492</v>
+        <v>-9941.0541741009074</v>
       </c>
       <c r="L29">
-        <v>-7466.855036130181</v>
+        <v>30729.82947871913</v>
       </c>
       <c r="M29">
-        <v>30713.72772465803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>82984.749986446637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30">
-        <v>2004.662663447054</v>
+        <v>2561.5033841270479</v>
       </c>
       <c r="C30">
-        <v>1357.591786714642</v>
+        <v>1732.383579065933</v>
       </c>
       <c r="D30">
-        <v>1902.995921373818</v>
+        <v>2554.035878839677</v>
       </c>
       <c r="E30">
-        <v>1998.666663456684</v>
+        <v>2533.7158720704429</v>
       </c>
       <c r="F30">
-        <v>1353.531193135236</v>
+        <v>1713.590463316697</v>
       </c>
       <c r="G30">
-        <v>1897.30400934578</v>
+        <v>2526.3293752230729</v>
       </c>
       <c r="H30">
-        <v>33114.5778157629</v>
+        <v>-13307.41670394671</v>
       </c>
       <c r="I30">
-        <v>25139.81124761319</v>
+        <v>27366.85186921521</v>
       </c>
       <c r="J30">
-        <v>58980.31295093821</v>
+        <v>18297.718695848569</v>
       </c>
       <c r="K30">
-        <v>33015.5312220966</v>
+        <v>-13163.0561677106</v>
       </c>
       <c r="L30">
-        <v>25064.61739542691</v>
+        <v>27069.972805545229</v>
       </c>
       <c r="M30">
-        <v>58803.90124719663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>18099.22273366481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B31">
-        <v>2162.422569030822</v>
+        <v>2774.1718616736339</v>
       </c>
       <c r="C31">
-        <v>1391.565837439019</v>
+        <v>1779.8337262081579</v>
       </c>
       <c r="D31">
-        <v>1962.836711869235</v>
+        <v>2598.8227107834919</v>
       </c>
       <c r="E31">
-        <v>2138.964336033446</v>
+        <v>2752.4562306624898</v>
       </c>
       <c r="F31">
-        <v>1376.469955573309</v>
+        <v>1765.90156396778</v>
       </c>
       <c r="G31">
-        <v>1941.543611444618</v>
+        <v>2578.479675865422</v>
       </c>
       <c r="H31">
-        <v>-4087.57242481546</v>
+        <v>-78274.236369524413</v>
       </c>
       <c r="I31">
-        <v>27023.79793555914</v>
+        <v>-4497.501470171549</v>
       </c>
       <c r="J31">
-        <v>53397.04109561403</v>
+        <v>43344.759957418457</v>
       </c>
       <c r="K31">
-        <v>-4043.229923165584</v>
+        <v>-77661.522190506599</v>
       </c>
       <c r="L31">
-        <v>26730.6403642661</v>
+        <v>-4462.2959792113024</v>
       </c>
       <c r="M31">
-        <v>52817.78325335391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>43005.466337399528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32">
-        <v>2264.3349012785</v>
+        <v>2856.0250824706059</v>
       </c>
       <c r="C32">
-        <v>1424.830362599564</v>
+        <v>1861.1720255102209</v>
       </c>
       <c r="D32">
-        <v>1979.955252535686</v>
+        <v>2701.031152210895</v>
       </c>
       <c r="E32">
-        <v>2246.610166239138</v>
+        <v>2833.8423633834559</v>
       </c>
       <c r="F32">
-        <v>1413.67709165945</v>
+        <v>1846.716320457715</v>
       </c>
       <c r="G32">
-        <v>1964.456581282961</v>
+        <v>2680.0522694752772</v>
       </c>
       <c r="H32">
-        <v>-12883.96389704428</v>
+        <v>3247.4218912795591</v>
       </c>
       <c r="I32">
-        <v>-219.0280688211937</v>
+        <v>-17570.53486871619</v>
       </c>
       <c r="J32">
-        <v>74362.66256109212</v>
+        <v>-39163.175595402703</v>
       </c>
       <c r="K32">
-        <v>-12783.11095068776</v>
+        <v>3222.199196978358</v>
       </c>
       <c r="L32">
-        <v>-217.3135633901121</v>
+        <v>-17434.064694978591</v>
       </c>
       <c r="M32">
-        <v>73780.56735513445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>-38858.995590778213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33">
-        <v>2337.774020699288</v>
+        <v>3049.401805629032</v>
       </c>
       <c r="C33">
-        <v>1474.132956453719</v>
+        <v>1942.1193584505229</v>
       </c>
       <c r="D33">
-        <v>2011.396255561551</v>
+        <v>2783.786740309672</v>
       </c>
       <c r="E33">
-        <v>2319.616552577351</v>
+        <v>3037.6052802687641</v>
       </c>
       <c r="F33">
-        <v>1462.683380092913</v>
+        <v>1934.6063241818549</v>
       </c>
       <c r="G33">
-        <v>1995.773760372724</v>
+        <v>2773.0177393800409</v>
       </c>
       <c r="H33">
-        <v>18371.93812848614</v>
+        <v>-45518.525197548792</v>
       </c>
       <c r="I33">
-        <v>11948.67676229018</v>
+        <v>-28030.50075904484</v>
       </c>
       <c r="J33">
-        <v>54693.99914492117</v>
+        <v>-9147.3190099493222</v>
       </c>
       <c r="K33">
-        <v>18229.24346341053</v>
+        <v>-45342.438059453823</v>
       </c>
       <c r="L33">
-        <v>11855.87150588405</v>
+        <v>-27922.065553013719</v>
       </c>
       <c r="M33">
-        <v>54269.19138457227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B34">
-        <v>2562.047400837334</v>
-      </c>
-      <c r="C34">
-        <v>1527.789179726788</v>
-      </c>
-      <c r="D34">
-        <v>2051.810378510799</v>
-      </c>
-      <c r="E34">
-        <v>2552.136192323457</v>
-      </c>
-      <c r="F34">
-        <v>1521.878970134035</v>
-      </c>
-      <c r="G34">
-        <v>2043.873007607469</v>
-      </c>
-      <c r="H34">
-        <v>-112500.2619696322</v>
-      </c>
-      <c r="I34">
-        <v>-8026.359054137948</v>
-      </c>
-      <c r="J34">
-        <v>48700.59869349665</v>
-      </c>
-      <c r="K34">
-        <v>-112065.0578614325</v>
-      </c>
-      <c r="L34">
-        <v>-7995.309309247666</v>
-      </c>
-      <c r="M34">
-        <v>48512.20179332838</v>
+        <v>-9111.9328629088977</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1043.634102143072</v>
+        <v>1092.713504107778</v>
       </c>
       <c r="C4">
-        <v>702.4673992950857</v>
+        <v>705.6090056722269</v>
       </c>
       <c r="D4">
-        <v>976.9468615835441</v>
+        <v>969.6478214201652</v>
       </c>
       <c r="E4">
-        <v>1016.570657030772</v>
+        <v>1064.377335443719</v>
       </c>
       <c r="F4">
-        <v>684.2510647914854</v>
+        <v>687.3112032560914</v>
       </c>
       <c r="G4">
-        <v>951.6127452377794</v>
+        <v>944.5029832634024</v>
       </c>
       <c r="H4">
-        <v>265.9119789794119</v>
+        <v>5476.532586100251</v>
       </c>
       <c r="I4">
-        <v>-3941.922476787385</v>
+        <v>-7956.306695629158</v>
       </c>
       <c r="J4">
-        <v>-9689.123228074983</v>
+        <v>-15777.42989649253</v>
       </c>
       <c r="K4">
-        <v>259.0163685034466</v>
+        <v>5334.515533624393</v>
       </c>
       <c r="L4">
-        <v>-3839.700824228879</v>
+        <v>-7749.984317784641</v>
       </c>
       <c r="M4">
-        <v>-9437.865575483087</v>
+        <v>-15368.29070954945</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1056.135914141084</v>
+        <v>1072.510222107881</v>
       </c>
       <c r="C5">
-        <v>753.1217758831203</v>
+        <v>741.1198398321509</v>
       </c>
       <c r="D5">
-        <v>1024.164656885799</v>
+        <v>1024.186410321986</v>
       </c>
       <c r="E5">
-        <v>1031.069397191533</v>
+        <v>1047.05507443127</v>
       </c>
       <c r="F5">
-        <v>735.2470501896919</v>
+        <v>723.5299702158816</v>
       </c>
       <c r="G5">
-        <v>999.8569514217371</v>
+        <v>999.8781885580147</v>
       </c>
       <c r="H5">
-        <v>3317.432890955881</v>
+        <v>18330.50287680008</v>
       </c>
       <c r="I5">
-        <v>-6972.630495817393</v>
+        <v>-3344.5659694505</v>
       </c>
       <c r="J5">
-        <v>-6248.668236038552</v>
+        <v>-9665.631517556349</v>
       </c>
       <c r="K5">
-        <v>3238.696350822434</v>
+        <v>17895.44347307856</v>
       </c>
       <c r="L5">
-        <v>-6807.140847973626</v>
+        <v>-3265.185448023668</v>
       </c>
       <c r="M5">
-        <v>-6100.361236765485</v>
+        <v>-9436.225706221941</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1091.240621213677</v>
+        <v>1122.647551039252</v>
       </c>
       <c r="C6">
-        <v>800.2617616716157</v>
+        <v>776.4348395141352</v>
       </c>
       <c r="D6">
-        <v>1066.71946086061</v>
+        <v>1066.843114212644</v>
       </c>
       <c r="E6">
-        <v>1069.246624196967</v>
+        <v>1100.020546134585</v>
       </c>
       <c r="F6">
-        <v>784.1324548472265</v>
+        <v>760.7857652293542</v>
       </c>
       <c r="G6">
-        <v>1045.219688781249</v>
+        <v>1045.34084989518</v>
       </c>
       <c r="H6">
-        <v>471.9473661701297</v>
+        <v>-5212.647240182126</v>
       </c>
       <c r="I6">
-        <v>-9350.989463572849</v>
+        <v>-6305.229700629601</v>
       </c>
       <c r="J6">
-        <v>-5779.871316995939</v>
+        <v>-6524.741663134935</v>
       </c>
       <c r="K6">
-        <v>462.4352487124369</v>
+        <v>-5107.586133015664</v>
       </c>
       <c r="L6">
-        <v>-9162.519908493085</v>
+        <v>-6178.147551624664</v>
       </c>
       <c r="M6">
-        <v>-5663.377786575867</v>
+        <v>-6393.235242017488</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1114.118443940771</v>
+        <v>1161.158865793272</v>
       </c>
       <c r="C7">
-        <v>816.1661146050699</v>
+        <v>784.7537177972674</v>
       </c>
       <c r="D7">
-        <v>1080.940181722027</v>
+        <v>1085.40028483191</v>
       </c>
       <c r="E7">
-        <v>1100.469213387132</v>
+        <v>1146.933336043891</v>
       </c>
       <c r="F7">
-        <v>806.1671422975039</v>
+        <v>775.139583429154</v>
       </c>
       <c r="G7">
-        <v>1067.697422987301</v>
+        <v>1072.102884711458</v>
       </c>
       <c r="H7">
-        <v>1923.360453285898</v>
+        <v>-1403.711809511375</v>
       </c>
       <c r="I7">
-        <v>1221.499176765957</v>
+        <v>3374.785644076253</v>
       </c>
       <c r="J7">
-        <v>2530.406209467699</v>
+        <v>1480.027369907737</v>
       </c>
       <c r="K7">
-        <v>1899.797078666775</v>
+        <v>-1386.514727618434</v>
       </c>
       <c r="L7">
-        <v>1206.534408903587</v>
+        <v>3333.440643842547</v>
       </c>
       <c r="M7">
-        <v>2499.405827115875</v>
+        <v>1461.895334748071</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1183.697899857955</v>
+        <v>1228.639018239526</v>
       </c>
       <c r="C8">
-        <v>844.780756518599</v>
+        <v>821.6642672512497</v>
       </c>
       <c r="D8">
-        <v>1154.100077609992</v>
+        <v>1159.822519579082</v>
       </c>
       <c r="E8">
-        <v>1160.592685596464</v>
+        <v>1204.656574940556</v>
       </c>
       <c r="F8">
-        <v>828.2910420520197</v>
+        <v>805.6257755481473</v>
       </c>
       <c r="G8">
-        <v>1131.572598617605</v>
+        <v>1137.18334126898</v>
       </c>
       <c r="H8">
-        <v>922.358227787596</v>
+        <v>3631.504556909598</v>
       </c>
       <c r="I8">
-        <v>8490.744118228593</v>
+        <v>8012.090885410757</v>
       </c>
       <c r="J8">
-        <v>-3080.842846054185</v>
+        <v>-3073.374754749608</v>
       </c>
       <c r="K8">
-        <v>904.3542383563065</v>
+        <v>3560.619332825778</v>
       </c>
       <c r="L8">
-        <v>8325.008872677585</v>
+        <v>7855.698720980817</v>
       </c>
       <c r="M8">
-        <v>-3020.706273984058</v>
+        <v>-3013.383956233475</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1250.206622000583</v>
+        <v>1241.826903655891</v>
       </c>
       <c r="C9">
-        <v>862.9319272409783</v>
+        <v>849.4422100940131</v>
       </c>
       <c r="D9">
-        <v>1199.820909367911</v>
+        <v>1207.335968068651</v>
       </c>
       <c r="E9">
-        <v>1224.467073900571</v>
+        <v>1216.259879168858</v>
       </c>
       <c r="F9">
-        <v>845.1656816801345</v>
+        <v>831.9536940038422</v>
       </c>
       <c r="G9">
-        <v>1175.118714175042</v>
+        <v>1182.479051079002</v>
       </c>
       <c r="H9">
-        <v>-2023.56918630201</v>
+        <v>11760.75484535145</v>
       </c>
       <c r="I9">
-        <v>6963.788783124455</v>
+        <v>2702.811942217993</v>
       </c>
       <c r="J9">
-        <v>778.1671961246988</v>
+        <v>966.6319601626374</v>
       </c>
       <c r="K9">
-        <v>-1981.907467760498</v>
+        <v>11518.62165735892</v>
       </c>
       <c r="L9">
-        <v>6820.416661118951</v>
+        <v>2647.165813995858</v>
       </c>
       <c r="M9">
-        <v>762.1461067927199</v>
+        <v>946.7307139239945</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1284.68675753245</v>
+        <v>1291.59493341298</v>
       </c>
       <c r="C10">
-        <v>872.8439866376875</v>
+        <v>864.2484980035196</v>
       </c>
       <c r="D10">
-        <v>1240.505114842149</v>
+        <v>1247.178018010227</v>
       </c>
       <c r="E10">
-        <v>1256.959705211606</v>
+        <v>1263.718783770973</v>
       </c>
       <c r="F10">
-        <v>854.0056272138524</v>
+        <v>845.595652722868</v>
       </c>
       <c r="G10">
-        <v>1213.731623154908</v>
+        <v>1220.26050683015</v>
       </c>
       <c r="H10">
-        <v>2393.059525163079</v>
+        <v>-747.7949802427933</v>
       </c>
       <c r="I10">
-        <v>8391.728370549958</v>
+        <v>8104.388554253152</v>
       </c>
       <c r="J10">
-        <v>2792.097404148242</v>
+        <v>4866.887478254263</v>
       </c>
       <c r="K10">
-        <v>2341.41075843294</v>
+        <v>-731.6555202375531</v>
       </c>
       <c r="L10">
-        <v>8210.6119308978</v>
+        <v>7929.47369336999</v>
       </c>
       <c r="M10">
-        <v>2731.836309094684</v>
+        <v>4761.846741313524</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1293.577641132945</v>
+        <v>1328.661574731266</v>
       </c>
       <c r="C11">
-        <v>848.1116435798726</v>
+        <v>876.1535598006349</v>
       </c>
       <c r="D11">
-        <v>1280.417563988777</v>
+        <v>1286.716439640725</v>
       </c>
       <c r="E11">
-        <v>1266.248536038587</v>
+        <v>1300.591259772155</v>
       </c>
       <c r="F11">
-        <v>830.1937919549458</v>
+        <v>857.6432733259736</v>
       </c>
       <c r="G11">
-        <v>1253.366488693239</v>
+        <v>1259.53228950747</v>
       </c>
       <c r="H11">
-        <v>6517.714776236279</v>
+        <v>4295.524822741007</v>
       </c>
       <c r="I11">
-        <v>17565.04557443324</v>
+        <v>12306.63215313024</v>
       </c>
       <c r="J11">
-        <v>5154.928045263685</v>
+        <v>7832.306137384286</v>
       </c>
       <c r="K11">
-        <v>6380.01657673833</v>
+        <v>4204.774298316902</v>
       </c>
       <c r="L11">
-        <v>17193.95306229733</v>
+        <v>12046.63288228946</v>
       </c>
       <c r="M11">
-        <v>5046.021114729945</v>
+        <v>7666.834880960674</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1318.166337113757</v>
+        <v>1356.850157953317</v>
       </c>
       <c r="C12">
-        <v>882.9687933294996</v>
+        <v>896.797306104387</v>
       </c>
       <c r="D12">
-        <v>1315.96094013743</v>
+        <v>1329.998069233815</v>
       </c>
       <c r="E12">
-        <v>1294.464867705073</v>
+        <v>1332.453128833824</v>
       </c>
       <c r="F12">
-        <v>867.0924526472264</v>
+        <v>880.6723199641975</v>
       </c>
       <c r="G12">
-        <v>1292.299125169537</v>
+        <v>1306.083857753816</v>
       </c>
       <c r="H12">
-        <v>5552.843300264927</v>
+        <v>7932.166058657684</v>
       </c>
       <c r="I12">
-        <v>718.7192342223487</v>
+        <v>9541.223719591584</v>
       </c>
       <c r="J12">
-        <v>9376.979339365167</v>
+        <v>9451.746628803847</v>
       </c>
       <c r="K12">
-        <v>5452.999644796816</v>
+        <v>7789.540666178361</v>
       </c>
       <c r="L12">
-        <v>705.796205114616</v>
+        <v>9369.66644662521</v>
       </c>
       <c r="M12">
-        <v>9208.375284853761</v>
+        <v>9281.798210858551</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1362.550643604331</v>
+        <v>1379.926782684055</v>
       </c>
       <c r="C13">
-        <v>907.7256573208994</v>
+        <v>927.799006847113</v>
       </c>
       <c r="D13">
-        <v>1355.407309274322</v>
+        <v>1351.90824000776</v>
       </c>
       <c r="E13">
-        <v>1329.452247403416</v>
+        <v>1346.406294035859</v>
       </c>
       <c r="F13">
-        <v>885.6756413535901</v>
+        <v>905.261379150422</v>
       </c>
       <c r="G13">
-        <v>1322.482435364824</v>
+        <v>1319.068363732268</v>
       </c>
       <c r="H13">
-        <v>-265.8304906133647</v>
+        <v>1054.504070454912</v>
       </c>
       <c r="I13">
-        <v>1619.376922006833</v>
+        <v>530.9918806636111</v>
       </c>
       <c r="J13">
-        <v>1183.512656022697</v>
+        <v>4774.869465317054</v>
       </c>
       <c r="K13">
-        <v>-259.3730697887485</v>
+        <v>1028.88858696208</v>
       </c>
       <c r="L13">
-        <v>1580.039830783995</v>
+        <v>518.0932924693533</v>
       </c>
       <c r="M13">
-        <v>1154.763360734696</v>
+        <v>4658.880733366033</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1375.584888063283</v>
+        <v>1410.079588272315</v>
       </c>
       <c r="C14">
-        <v>958.6381764026105</v>
+        <v>977.7387625159472</v>
       </c>
       <c r="D14">
-        <v>1384.30777339959</v>
+        <v>1379.639399982502</v>
       </c>
       <c r="E14">
-        <v>1337.675068313507</v>
+        <v>1371.219127178196</v>
       </c>
       <c r="F14">
-        <v>932.2190140608061</v>
+        <v>950.7932060686572</v>
       </c>
       <c r="G14">
-        <v>1346.157559172042</v>
+        <v>1341.617841715268</v>
       </c>
       <c r="H14">
-        <v>2302.41076801778</v>
+        <v>2432.908463536613</v>
       </c>
       <c r="I14">
-        <v>-878.0740549156269</v>
+        <v>-47.06478708140307</v>
       </c>
       <c r="J14">
-        <v>5499.935933873363</v>
+        <v>6219.226938130596</v>
       </c>
       <c r="K14">
-        <v>2238.958502757448</v>
+        <v>2365.85980509269</v>
       </c>
       <c r="L14">
-        <v>-853.8751636384244</v>
+        <v>-45.7677260201045</v>
       </c>
       <c r="M14">
-        <v>5348.362896325671</v>
+        <v>6047.830920150619</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1430.933142239107</v>
+        <v>1437.359963536943</v>
       </c>
       <c r="C15">
-        <v>994.7568642976109</v>
+        <v>1016.755174088279</v>
       </c>
       <c r="D15">
-        <v>1400.835536252049</v>
+        <v>1389.374507953756</v>
       </c>
       <c r="E15">
-        <v>1397.911608187435</v>
+        <v>1404.190118224552</v>
       </c>
       <c r="F15">
-        <v>971.8009366599738</v>
+        <v>993.2915931477806</v>
       </c>
       <c r="G15">
-        <v>1368.508562338541</v>
+        <v>1357.31201930867</v>
       </c>
       <c r="H15">
-        <v>689.3907135337757</v>
+        <v>1184.584917513357</v>
       </c>
       <c r="I15">
-        <v>1272.215785158952</v>
+        <v>740.6911394719318</v>
       </c>
       <c r="J15">
-        <v>5872.777328033087</v>
+        <v>6799.845143595578</v>
       </c>
       <c r="K15">
-        <v>673.4816970676115</v>
+        <v>1157.248342493818</v>
       </c>
       <c r="L15">
-        <v>1242.856959347592</v>
+        <v>723.5982670225798</v>
       </c>
       <c r="M15">
-        <v>5737.25169738617</v>
+        <v>6642.925640281834</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1473.196060695208</v>
+        <v>1431.67219271487</v>
       </c>
       <c r="C16">
-        <v>1011.770237171884</v>
+        <v>1032.547962182847</v>
       </c>
       <c r="D16">
-        <v>1411.936402421542</v>
+        <v>1413.320307499732</v>
       </c>
       <c r="E16">
-        <v>1438.163864007838</v>
+        <v>1397.627422174717</v>
       </c>
       <c r="F16">
-        <v>987.7106195169835</v>
+        <v>1007.994255948211</v>
       </c>
       <c r="G16">
-        <v>1378.360943540429</v>
+        <v>1379.711939736909</v>
       </c>
       <c r="H16">
-        <v>105.1223769145618</v>
+        <v>4767.301749717494</v>
       </c>
       <c r="I16">
-        <v>1973.841718072064</v>
+        <v>2092.052577435809</v>
       </c>
       <c r="J16">
-        <v>4202.404351480697</v>
+        <v>3854.988687500129</v>
       </c>
       <c r="K16">
-        <v>102.6225957363682</v>
+        <v>4653.936626758004</v>
       </c>
       <c r="L16">
-        <v>1926.90430550214</v>
+        <v>2042.304143178887</v>
       </c>
       <c r="M16">
-        <v>4102.472333110067</v>
+        <v>3763.318117960076</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1495.863960863639</v>
+        <v>1379.49828038563</v>
       </c>
       <c r="C17">
-        <v>1023.378466312492</v>
+        <v>1038.481744679115</v>
       </c>
       <c r="D17">
-        <v>1426.552593527362</v>
+        <v>1427.775185717202</v>
       </c>
       <c r="E17">
-        <v>1464.700128345646</v>
+        <v>1350.758732877596</v>
       </c>
       <c r="F17">
-        <v>1002.058081597648</v>
+        <v>1016.846708331633</v>
       </c>
       <c r="G17">
-        <v>1396.832747828875</v>
+        <v>1398.029869348094</v>
       </c>
       <c r="H17">
-        <v>59.74133903207134</v>
+        <v>5081.726337338826</v>
       </c>
       <c r="I17">
-        <v>1811.595442183882</v>
+        <v>2538.923650619273</v>
       </c>
       <c r="J17">
-        <v>626.2879968801515</v>
+        <v>2968.848886287207</v>
       </c>
       <c r="K17">
-        <v>58.49672780223644</v>
+        <v>4975.857038644268</v>
       </c>
       <c r="L17">
-        <v>1773.853870471718</v>
+        <v>2486.029407898039</v>
       </c>
       <c r="M17">
-        <v>613.2403302784817</v>
+        <v>2906.99786782289</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1564.394695719477</v>
+        <v>1436.609257102033</v>
       </c>
       <c r="C18">
-        <v>1031.245969780641</v>
+        <v>1077.892541647423</v>
       </c>
       <c r="D18">
-        <v>1419.356835139737</v>
+        <v>1451.355685142057</v>
       </c>
       <c r="E18">
-        <v>1547.328571766174</v>
+        <v>1420.937156115465</v>
       </c>
       <c r="F18">
-        <v>1019.99601374667</v>
+        <v>1066.13371392036</v>
       </c>
       <c r="G18">
-        <v>1403.872942392758</v>
+        <v>1435.522714031417</v>
       </c>
       <c r="H18">
-        <v>-353.9321463174891</v>
+        <v>-202.9477772410985</v>
       </c>
       <c r="I18">
-        <v>3389.302418965805</v>
+        <v>-384.9544131832632</v>
       </c>
       <c r="J18">
-        <v>5996.710263494592</v>
+        <v>4633.579087862107</v>
       </c>
       <c r="K18">
-        <v>-350.0710683576619</v>
+        <v>-200.7338014893774</v>
       </c>
       <c r="L18">
-        <v>3352.328210758905</v>
+        <v>-380.7549104939912</v>
       </c>
       <c r="M18">
-        <v>5931.291606074651</v>
+        <v>4583.030952358156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1535.500037787553</v>
+        <v>1495.068008493476</v>
       </c>
       <c r="C19">
-        <v>1062.753120834729</v>
+        <v>1083.240668402103</v>
       </c>
       <c r="D19">
-        <v>1467.304725308963</v>
+        <v>1511.967174012434</v>
       </c>
       <c r="E19">
-        <v>1508.080394255632</v>
+        <v>1468.370365484664</v>
       </c>
       <c r="F19">
-        <v>1043.775386534109</v>
+        <v>1063.89708503778</v>
       </c>
       <c r="G19">
-        <v>1441.10285521416</v>
+        <v>1484.967760190783</v>
       </c>
       <c r="H19">
-        <v>3482.572789493572</v>
+        <v>346.6746315161155</v>
       </c>
       <c r="I19">
-        <v>2246.434786821117</v>
+        <v>5534.555421995951</v>
       </c>
       <c r="J19">
-        <v>1662.914367035196</v>
+        <v>1476.459748765226</v>
       </c>
       <c r="K19">
-        <v>3420.383989681186</v>
+        <v>340.484013096185</v>
       </c>
       <c r="L19">
-        <v>2206.319879913597</v>
+        <v>5435.724075174595</v>
       </c>
       <c r="M19">
-        <v>1633.219467623853</v>
+        <v>1450.094396108704</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1730.975149813241</v>
+        <v>1624.34984123404</v>
       </c>
       <c r="C20">
-        <v>1057.574664910012</v>
+        <v>1122.463827257997</v>
       </c>
       <c r="D20">
-        <v>1529.312068778881</v>
+        <v>1580.823111019289</v>
       </c>
       <c r="E20">
-        <v>1698.620474115797</v>
+        <v>1593.988161958638</v>
       </c>
       <c r="F20">
-        <v>1037.806914164031</v>
+        <v>1101.483194972801</v>
       </c>
       <c r="G20">
-        <v>1500.726796465257</v>
+        <v>1551.275015486218</v>
       </c>
       <c r="H20">
-        <v>-3065.321160448262</v>
+        <v>-1715.360326688995</v>
       </c>
       <c r="I20">
-        <v>5117.311901279654</v>
+        <v>2959.757093634057</v>
       </c>
       <c r="J20">
-        <v>1285.489872234519</v>
+        <v>1540.051494007114</v>
       </c>
       <c r="K20">
-        <v>-3008.025437823061</v>
+        <v>-1683.297516844342</v>
       </c>
       <c r="L20">
-        <v>5021.661211536109</v>
+        <v>2904.434531136224</v>
       </c>
       <c r="M20">
-        <v>1261.462024155369</v>
+        <v>1511.265484773336</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1764.758728676951</v>
+        <v>1660.749815366196</v>
       </c>
       <c r="C21">
-        <v>1074.283089866372</v>
+        <v>1127.882121725805</v>
       </c>
       <c r="D21">
-        <v>1587.477435261815</v>
+        <v>1642.208055943625</v>
       </c>
       <c r="E21">
-        <v>1734.366787310528</v>
+        <v>1632.149072277226</v>
       </c>
       <c r="F21">
-        <v>1055.782232980039</v>
+        <v>1108.45820458931</v>
       </c>
       <c r="G21">
-        <v>1560.138558649958</v>
+        <v>1613.926631329212</v>
       </c>
       <c r="H21">
-        <v>2745.624065588519</v>
+        <v>3946.347032507272</v>
       </c>
       <c r="I21">
-        <v>4376.258217135276</v>
+        <v>5872.45498902069</v>
       </c>
       <c r="J21">
-        <v>2019.001213833027</v>
+        <v>3174.119026685436</v>
       </c>
       <c r="K21">
-        <v>2698.340069051404</v>
+        <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>4300.892116954989</v>
+        <v>5771.322009875673</v>
       </c>
       <c r="M21">
-        <v>1984.230814054042</v>
+        <v>3119.455668016915</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1767.69071409531</v>
+        <v>1756.170835786003</v>
       </c>
       <c r="C22">
-        <v>1122.116657017772</v>
+        <v>1133.734419999832</v>
       </c>
       <c r="D22">
-        <v>1601.089726960429</v>
+        <v>1659.306526926012</v>
       </c>
       <c r="E22">
-        <v>1708.833087654845</v>
+        <v>1697.696779100565</v>
       </c>
       <c r="F22">
-        <v>1084.75428220031</v>
+        <v>1095.985216226252</v>
       </c>
       <c r="G22">
-        <v>1547.77930319926</v>
+        <v>1604.057696950674</v>
       </c>
       <c r="H22">
-        <v>1346.672965188811</v>
+        <v>-2860.158721377454</v>
       </c>
       <c r="I22">
-        <v>-3553.647167108381</v>
+        <v>2018.795876448953</v>
       </c>
       <c r="J22">
-        <v>1881.475312182045</v>
+        <v>2406.011969250478</v>
       </c>
       <c r="K22">
-        <v>1301.83368776854</v>
+        <v>-2764.925911564665</v>
       </c>
       <c r="L22">
-        <v>-3435.323732021531</v>
+        <v>1951.577367799154</v>
       </c>
       <c r="M22">
-        <v>1818.829075372432</v>
+        <v>2325.900582926933</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1794.709744116753</v>
+        <v>1743.803354772767</v>
       </c>
       <c r="C23">
-        <v>1064.166512581393</v>
+        <v>1083.801851316354</v>
       </c>
       <c r="D23">
-        <v>1598.419238018969</v>
+        <v>1657.040225953047</v>
       </c>
       <c r="E23">
-        <v>1773.063025711836</v>
+        <v>1722.770638870902</v>
       </c>
       <c r="F23">
-        <v>1051.331170872626</v>
+        <v>1070.729679864073</v>
       </c>
       <c r="G23">
-        <v>1579.140058613038</v>
+        <v>1637.053995157561</v>
       </c>
       <c r="H23">
-        <v>-910.5998381672537</v>
+        <v>2037.138608400395</v>
       </c>
       <c r="I23">
-        <v>5673.723229343687</v>
+        <v>6637.372279616597</v>
       </c>
       <c r="J23">
-        <v>-993.4763175980776</v>
+        <v>-2025.279341275164</v>
       </c>
       <c r="K23">
-        <v>-899.6167260840961</v>
+        <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>5605.29016407748</v>
+        <v>6557.316254314203</v>
       </c>
       <c r="M23">
-        <v>-981.4935988551183</v>
+        <v>-2000.851629922064</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1765.480476832563</v>
+        <v>1703.610536103614</v>
       </c>
       <c r="C24">
-        <v>1084.879775849223</v>
+        <v>1115.133612501509</v>
       </c>
       <c r="D24">
-        <v>1640.16710918077</v>
+        <v>1722.315438850125</v>
       </c>
       <c r="E24">
-        <v>1725.742974138582</v>
+        <v>1665.265604422825</v>
       </c>
       <c r="F24">
-        <v>1060.461259994096</v>
+        <v>1090.034142123662</v>
       </c>
       <c r="G24">
-        <v>1603.250164601139</v>
+        <v>1683.549496496585</v>
       </c>
       <c r="H24">
-        <v>7741.657152491347</v>
+        <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>4053.116549914262</v>
+        <v>5935.042597037328</v>
       </c>
       <c r="J24">
-        <v>7066.347242729337</v>
+        <v>6111.795104486363</v>
       </c>
       <c r="K24">
-        <v>7567.407634589613</v>
+        <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>3961.888846218442</v>
+        <v>5801.456429258353</v>
       </c>
       <c r="M24">
-        <v>6907.297626333501</v>
+        <v>5974.230584449693</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1752.74693284783</v>
+        <v>1733.199337948998</v>
       </c>
       <c r="C25">
-        <v>1109.975970281377</v>
+        <v>1150.353251832997</v>
       </c>
       <c r="D25">
-        <v>1667.231141713495</v>
+        <v>1752.232666435855</v>
       </c>
       <c r="E25">
-        <v>1705.227203698671</v>
+        <v>1686.209574876346</v>
       </c>
       <c r="F25">
-        <v>1079.882774006804</v>
+        <v>1119.165363879235</v>
       </c>
       <c r="G25">
-        <v>1622.02988031146</v>
+        <v>1704.726879858867</v>
       </c>
       <c r="H25">
-        <v>1940.91620309945</v>
+        <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-1565.092578931754</v>
+        <v>-2933.256528618303</v>
       </c>
       <c r="J25">
-        <v>624.2829930544127</v>
+        <v>-49.81198962800153</v>
       </c>
       <c r="K25">
-        <v>1888.294908750559</v>
+        <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-1522.660454789704</v>
+        <v>-2853.731325548359</v>
       </c>
       <c r="M25">
-        <v>607.357698143657</v>
+        <v>-48.46150815737786</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1800.299346720074</v>
+        <v>1757.913207544652</v>
       </c>
       <c r="C26">
-        <v>1218.095707243476</v>
+        <v>1232.588625155828</v>
       </c>
       <c r="D26">
-        <v>1702.596832369217</v>
+        <v>1782.682676262326</v>
       </c>
       <c r="E26">
-        <v>1758.133476073881</v>
+        <v>1716.740087612344</v>
       </c>
       <c r="F26">
-        <v>1189.565970719443</v>
+        <v>1203.719441470916</v>
       </c>
       <c r="G26">
-        <v>1662.719309818818</v>
+        <v>1740.929416024003</v>
       </c>
       <c r="H26">
-        <v>800.0398014477274</v>
+        <v>4480.71787517596</v>
       </c>
       <c r="I26">
-        <v>-7721.307158576532</v>
+        <v>-7196.490575759423</v>
       </c>
       <c r="J26">
-        <v>1605.330589753882</v>
+        <v>7230.133526358925</v>
       </c>
       <c r="K26">
-        <v>781.3015983588294</v>
+        <v>4375.77234449465</v>
       </c>
       <c r="L26">
-        <v>-7540.461878895005</v>
+        <v>-7027.937334168317</v>
       </c>
       <c r="M26">
-        <v>1567.731197122172</v>
+        <v>7060.792313419765</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1793.345698732267</v>
+        <v>1802.327185987571</v>
       </c>
       <c r="C27">
-        <v>1220.308718389518</v>
+        <v>1254.595957363876</v>
       </c>
       <c r="D27">
-        <v>1720.462887317049</v>
+        <v>1798.600886287158</v>
       </c>
       <c r="E27">
-        <v>1778.854016318269</v>
+        <v>1787.762925898783</v>
       </c>
       <c r="F27">
-        <v>1210.447637836876</v>
+        <v>1244.457808213461</v>
       </c>
       <c r="G27">
-        <v>1706.560156914487</v>
+        <v>1784.0667377111</v>
       </c>
       <c r="H27">
-        <v>2949.533903627681</v>
+        <v>-417.883083702734</v>
       </c>
       <c r="I27">
-        <v>1967.590232627452</v>
+        <v>3429.481599935254</v>
       </c>
       <c r="J27">
-        <v>5107.938233999892</v>
+        <v>7217.373248504132</v>
       </c>
       <c r="K27">
-        <v>2925.69928622463</v>
+        <v>-414.5062507031165</v>
       </c>
       <c r="L27">
-        <v>1951.690513575917</v>
+        <v>3401.768617309515</v>
       </c>
       <c r="M27">
-        <v>5066.661965442318</v>
+        <v>7159.051040435412</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1790.399645857645</v>
+        <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1244.151580212779</v>
+        <v>1275.995410961211</v>
       </c>
       <c r="D28">
-        <v>1759.637005099255</v>
+        <v>1811.385833033834</v>
       </c>
       <c r="E28">
-        <v>1779.614105822358</v>
+        <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1236.656691175353</v>
+        <v>1268.308691618071</v>
       </c>
       <c r="G28">
-        <v>1749.03678217697</v>
+        <v>1800.473870184233</v>
       </c>
       <c r="H28">
-        <v>20336.08654182166</v>
+        <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>8031.755124088473</v>
+        <v>16624.44770061</v>
       </c>
       <c r="J28">
-        <v>1365.192611383203</v>
+        <v>64612.91653140328</v>
       </c>
       <c r="K28">
-        <v>20213.57999638901</v>
+        <v>-21079.36215818927</v>
       </c>
       <c r="L28">
-        <v>7983.371057075892</v>
+        <v>16524.30042530512</v>
       </c>
       <c r="M28">
-        <v>1356.968559507399</v>
+        <v>64223.68209446712</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1998.11876399931</v>
+        <v>1977.848634148981</v>
       </c>
       <c r="C29">
-        <v>1289.118692236644</v>
+        <v>1340.235653618177</v>
       </c>
       <c r="D29">
-        <v>1843.48373410837</v>
+        <v>1886.164279961067</v>
       </c>
       <c r="E29">
-        <v>1990.126288943312</v>
+        <v>1969.937239612385</v>
       </c>
       <c r="F29">
-        <v>1283.962217467697</v>
+        <v>1334.874711003704</v>
       </c>
       <c r="G29">
-        <v>1836.109799171936</v>
+        <v>1878.619622841222</v>
       </c>
       <c r="H29">
-        <v>-52902.12797504198</v>
+        <v>-65379.65642872985</v>
       </c>
       <c r="I29">
-        <v>20411.13723207109</v>
+        <v>-7496.842405753261</v>
       </c>
       <c r="J29">
-        <v>11894.57421303758</v>
+        <v>31952.63119336948</v>
       </c>
       <c r="K29">
-        <v>-52690.51946314181</v>
+        <v>-65118.13780301492</v>
       </c>
       <c r="L29">
-        <v>20329.49268314281</v>
+        <v>-7466.855036130248</v>
       </c>
       <c r="M29">
-        <v>11846.99591618543</v>
+        <v>31824.820668596</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2105.64004796579</v>
+        <v>2004.662663447054</v>
       </c>
       <c r="C30">
-        <v>1298.903175025547</v>
+        <v>1357.591786714642</v>
       </c>
       <c r="D30">
-        <v>1896.98415980042</v>
+        <v>1902.148783732506</v>
       </c>
       <c r="E30">
-        <v>2099.342021900089</v>
+        <v>1998.666663456684</v>
       </c>
       <c r="F30">
-        <v>1295.018120663557</v>
+        <v>1353.531193135236</v>
       </c>
       <c r="G30">
-        <v>1891.310229113081</v>
+        <v>1896.459405515958</v>
       </c>
       <c r="H30">
-        <v>-13330.1820063079</v>
+        <v>33114.57781576289</v>
       </c>
       <c r="I30">
-        <v>26250.67203490299</v>
+        <v>25139.81124761326</v>
       </c>
       <c r="J30">
-        <v>-4736.298362490263</v>
+        <v>59911.5626073447</v>
       </c>
       <c r="K30">
-        <v>-13290.31107308864</v>
+        <v>33015.53122209659</v>
       </c>
       <c r="L30">
-        <v>26172.1555681984</v>
+        <v>25064.61739542698</v>
       </c>
       <c r="M30">
-        <v>-4722.13196659049</v>
+        <v>59732.36551081226</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2336.096242090082</v>
+        <v>2162.422569030822</v>
       </c>
       <c r="C31">
-        <v>1290.255572361539</v>
+        <v>1391.565837439019</v>
       </c>
       <c r="D31">
-        <v>1938.130035128706</v>
+        <v>1960.624234081546</v>
       </c>
       <c r="E31">
-        <v>2310.753975164056</v>
+        <v>2138.964336033446</v>
       </c>
       <c r="F31">
-        <v>1276.258717040062</v>
+        <v>1376.469955573309</v>
       </c>
       <c r="G31">
-        <v>1917.104955852162</v>
+        <v>1939.355134895257</v>
       </c>
       <c r="H31">
-        <v>-34700.97398657471</v>
+        <v>-4087.572424815462</v>
       </c>
       <c r="I31">
-        <v>47618.05230377172</v>
+        <v>27023.79793555907</v>
       </c>
       <c r="J31">
-        <v>60128.39810003512</v>
+        <v>53619.55080636678</v>
       </c>
       <c r="K31">
-        <v>-34324.53344036926</v>
+        <v>-4043.229923165587</v>
       </c>
       <c r="L31">
-        <v>47101.4856614231</v>
+        <v>26730.64036426602</v>
       </c>
       <c r="M31">
-        <v>59476.11764727339</v>
+        <v>53037.8791506764</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2485.260880319477</v>
+        <v>2264.3349012785</v>
       </c>
       <c r="C32">
-        <v>1324.835482985214</v>
+        <v>1424.830362599564</v>
       </c>
       <c r="D32">
-        <v>1964.516820046765</v>
+        <v>1977.624003536699</v>
       </c>
       <c r="E32">
-        <v>2465.806783408953</v>
+        <v>2246.610166239138</v>
       </c>
       <c r="F32">
-        <v>1314.464950828774</v>
+        <v>1413.67709165945</v>
       </c>
       <c r="G32">
-        <v>1949.138997580645</v>
+        <v>1962.143580808428</v>
       </c>
       <c r="H32">
-        <v>-40263.35861503883</v>
+        <v>-12883.96389704428</v>
       </c>
       <c r="I32">
-        <v>-2278.830312679007</v>
+        <v>-219.0280688212023</v>
       </c>
       <c r="J32">
-        <v>54679.69138007174</v>
+        <v>74017.0388441033</v>
       </c>
       <c r="K32">
-        <v>-39948.18555347297</v>
+        <v>-12783.11095068776</v>
       </c>
       <c r="L32">
-        <v>-2260.992110622813</v>
+        <v>-217.3135633901205</v>
       </c>
       <c r="M32">
-        <v>54251.67031251736</v>
+        <v>73437.64910755453</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>1797.495622244819</v>
+        <v>2337.774020699288</v>
       </c>
       <c r="C33">
-        <v>1390.351375137456</v>
+        <v>1474.132956453719</v>
       </c>
       <c r="D33">
-        <v>1951.946034789389</v>
+        <v>2009.029574024837</v>
       </c>
       <c r="E33">
-        <v>1783.534491198257</v>
+        <v>2319.616552577351</v>
       </c>
       <c r="F33">
-        <v>1379.55252950532</v>
+        <v>1462.683380092913</v>
       </c>
       <c r="G33">
-        <v>1936.785288888112</v>
+        <v>1993.425460828527</v>
       </c>
       <c r="H33">
-        <v>236102.6226121681</v>
+        <v>18371.93812848614</v>
       </c>
       <c r="I33">
-        <v>-6298.919259607398</v>
+        <v>11948.67676229028</v>
       </c>
       <c r="J33">
-        <v>92349.94014794711</v>
+        <v>54944.71402189336</v>
       </c>
       <c r="K33">
-        <v>234268.8158345979</v>
+        <v>18229.24346341052</v>
       </c>
       <c r="L33">
-        <v>-6249.995614872584</v>
+        <v>11855.87150588414</v>
       </c>
       <c r="M33">
-        <v>91632.65905941938</v>
+        <v>54517.95896152914</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2608.781839110742</v>
+        <v>2562.047400837334</v>
       </c>
       <c r="C34">
-        <v>1454.253893958723</v>
+        <v>1527.789179726788</v>
       </c>
       <c r="D34">
-        <v>1983.385928689446</v>
+        <v>2050.309527872628</v>
       </c>
       <c r="E34">
-        <v>2598.689839733138</v>
+        <v>2552.136192323457</v>
       </c>
       <c r="F34">
-        <v>1448.628153556562</v>
+        <v>1521.878970134035</v>
       </c>
       <c r="G34">
-        <v>1975.713255851188</v>
+        <v>2042.377962967898</v>
       </c>
       <c r="H34">
-        <v>-199631.611376099</v>
+        <v>-112500.2619696322</v>
       </c>
       <c r="I34">
-        <v>-14072.22330738187</v>
+        <v>-8026.359054137939</v>
       </c>
       <c r="J34">
-        <v>34258.36578362309</v>
+        <v>47076.40982649913</v>
       </c>
       <c r="K34">
-        <v>-198859.3420864429</v>
+        <v>-112065.0578614325</v>
       </c>
       <c r="L34">
-        <v>-14017.78530619277</v>
+        <v>-7995.309309247656</v>
       </c>
       <c r="M34">
-        <v>34125.83825641371</v>
+        <v>46894.29605541016</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,37 +465,37 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1092.713504107778</v>
+        <v>1092.973660516295</v>
       </c>
       <c r="C4">
-        <v>705.6090056722269</v>
+        <v>705.6631624283294</v>
       </c>
       <c r="D4">
         <v>969.6478214201652</v>
       </c>
       <c r="E4">
-        <v>1064.377335443719</v>
+        <v>1064.630745494803</v>
       </c>
       <c r="F4">
-        <v>687.3112032560914</v>
+        <v>687.3639556230568</v>
       </c>
       <c r="G4">
         <v>944.5029832634024</v>
       </c>
       <c r="H4">
-        <v>5476.532586100251</v>
+        <v>5406.459987083211</v>
       </c>
       <c r="I4">
-        <v>-7956.306695629158</v>
+        <v>-7856.969397403166</v>
       </c>
       <c r="J4">
         <v>-15777.42989649253</v>
       </c>
       <c r="K4">
-        <v>5334.515533624393</v>
+        <v>5266.26005224799</v>
       </c>
       <c r="L4">
-        <v>-7749.984317784641</v>
+        <v>-7653.223027292225</v>
       </c>
       <c r="M4">
         <v>-15368.29070954945</v>
@@ -506,37 +506,37 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1072.510222107881</v>
+        <v>1072.823104767439</v>
       </c>
       <c r="C5">
-        <v>741.1198398321509</v>
+        <v>741.1539467840439</v>
       </c>
       <c r="D5">
         <v>1024.186410321986</v>
       </c>
       <c r="E5">
-        <v>1047.05507443127</v>
+        <v>1047.360531078338</v>
       </c>
       <c r="F5">
-        <v>723.5299702158816</v>
+        <v>723.563267667334</v>
       </c>
       <c r="G5">
         <v>999.8781885580147</v>
       </c>
       <c r="H5">
-        <v>18330.50287680008</v>
+        <v>18281.38013386884</v>
       </c>
       <c r="I5">
-        <v>-3344.5659694505</v>
+        <v>-3336.176179187504</v>
       </c>
       <c r="J5">
         <v>-9665.631517556349</v>
       </c>
       <c r="K5">
-        <v>17895.44347307856</v>
+        <v>17847.48661803334</v>
       </c>
       <c r="L5">
-        <v>-3265.185448023668</v>
+        <v>-3256.994782529573</v>
       </c>
       <c r="M5">
         <v>-9436.225706221941</v>
@@ -547,37 +547,37 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1122.647551039252</v>
+        <v>1122.945185744329</v>
       </c>
       <c r="C6">
-        <v>776.4348395141352</v>
+        <v>776.4472268867185</v>
       </c>
       <c r="D6">
         <v>1066.843114212644</v>
       </c>
       <c r="E6">
-        <v>1100.020546134585</v>
+        <v>1100.312182000645</v>
       </c>
       <c r="F6">
-        <v>760.7857652293542</v>
+        <v>760.7979029339629</v>
       </c>
       <c r="G6">
         <v>1045.34084989518</v>
       </c>
       <c r="H6">
-        <v>-5212.647240182126</v>
+        <v>-5212.48952575091</v>
       </c>
       <c r="I6">
-        <v>-6305.229700629601</v>
+        <v>-6293.668479227716</v>
       </c>
       <c r="J6">
         <v>-6524.741663134935</v>
       </c>
       <c r="K6">
-        <v>-5107.586133015664</v>
+        <v>-5107.431597324922</v>
       </c>
       <c r="L6">
-        <v>-6178.147551624664</v>
+        <v>-6166.819347088243</v>
       </c>
       <c r="M6">
         <v>-6393.235242017488</v>
@@ -588,7 +588,7 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1161.158865793272</v>
+        <v>1161.42676726013</v>
       </c>
       <c r="C7">
         <v>784.7537177972674</v>
@@ -597,7 +597,7 @@
         <v>1085.40028483191</v>
       </c>
       <c r="E7">
-        <v>1146.933336043891</v>
+        <v>1147.197955410083</v>
       </c>
       <c r="F7">
         <v>775.139583429154</v>
@@ -606,19 +606,19 @@
         <v>1072.102884711458</v>
       </c>
       <c r="H7">
-        <v>-1403.711809511375</v>
+        <v>-1372.013402947064</v>
       </c>
       <c r="I7">
-        <v>3374.785644076253</v>
+        <v>3377.3291418111</v>
       </c>
       <c r="J7">
         <v>1480.027369907737</v>
       </c>
       <c r="K7">
-        <v>-1386.514727618434</v>
+        <v>-1355.204662941588</v>
       </c>
       <c r="L7">
-        <v>3333.440643842547</v>
+        <v>3335.95298080882</v>
       </c>
       <c r="M7">
         <v>1461.895334748071</v>
@@ -629,7 +629,7 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1228.639018239526</v>
+        <v>1228.939317628728</v>
       </c>
       <c r="C8">
         <v>821.6642672512497</v>
@@ -638,7 +638,7 @@
         <v>1159.822519579082</v>
       </c>
       <c r="E8">
-        <v>1204.656574940556</v>
+        <v>1204.951012629969</v>
       </c>
       <c r="F8">
         <v>805.6257755481473</v>
@@ -647,7 +647,7 @@
         <v>1137.18334126898</v>
       </c>
       <c r="H8">
-        <v>3631.504556909598</v>
+        <v>3626.932597626273</v>
       </c>
       <c r="I8">
         <v>8012.090885410757</v>
@@ -656,10 +656,10 @@
         <v>-3073.374754749608</v>
       </c>
       <c r="K8">
-        <v>3560.619332825778</v>
+        <v>3556.136615990925</v>
       </c>
       <c r="L8">
-        <v>7855.698720980817</v>
+        <v>7855.698720980818</v>
       </c>
       <c r="M8">
         <v>-3013.383956233475</v>
@@ -670,7 +670,7 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1241.826903655891</v>
+        <v>1241.983034744396</v>
       </c>
       <c r="C9">
         <v>849.4422100940131</v>
@@ -679,7 +679,7 @@
         <v>1207.335968068651</v>
       </c>
       <c r="E9">
-        <v>1216.259879168858</v>
+        <v>1216.412795793776</v>
       </c>
       <c r="F9">
         <v>831.9536940038422</v>
@@ -688,7 +688,7 @@
         <v>1182.479051079002</v>
       </c>
       <c r="H9">
-        <v>11760.75484535145</v>
+        <v>11862.07720938639</v>
       </c>
       <c r="I9">
         <v>2702.811942217993</v>
@@ -697,7 +697,7 @@
         <v>966.6319601626374</v>
       </c>
       <c r="K9">
-        <v>11518.62165735892</v>
+        <v>11617.85797272255</v>
       </c>
       <c r="L9">
         <v>2647.165813995858</v>
@@ -711,37 +711,37 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1291.59493341298</v>
+        <v>1291.695686808804</v>
       </c>
       <c r="C10">
-        <v>864.2484980035196</v>
+        <v>864.2881894583994</v>
       </c>
       <c r="D10">
         <v>1247.178018010227</v>
       </c>
       <c r="E10">
-        <v>1263.718783770973</v>
+        <v>1263.817362633074</v>
       </c>
       <c r="F10">
-        <v>845.595652722868</v>
+        <v>845.6344875276426</v>
       </c>
       <c r="G10">
         <v>1220.26050683015</v>
       </c>
       <c r="H10">
-        <v>-747.7949802427933</v>
+        <v>-695.9946047902878</v>
       </c>
       <c r="I10">
-        <v>8104.388554253152</v>
+        <v>8054.743594229935</v>
       </c>
       <c r="J10">
         <v>4866.887478254263</v>
       </c>
       <c r="K10">
-        <v>-731.6555202375531</v>
+        <v>-680.9731384998501</v>
       </c>
       <c r="L10">
-        <v>7929.47369336999</v>
+        <v>7880.900207304109</v>
       </c>
       <c r="M10">
         <v>4761.846741313524</v>
@@ -752,34 +752,34 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1328.661574731266</v>
+        <v>1328.840646499237</v>
       </c>
       <c r="C11">
-        <v>876.1535598006349</v>
+        <v>876.1957412919363</v>
       </c>
       <c r="D11">
         <v>1286.716439640725</v>
       </c>
       <c r="E11">
-        <v>1300.591259772155</v>
+        <v>1300.76654833376</v>
       </c>
       <c r="F11">
-        <v>857.6432733259736</v>
+        <v>857.6845636590081</v>
       </c>
       <c r="G11">
         <v>1259.53228950747</v>
       </c>
       <c r="H11">
-        <v>4295.524822741007</v>
+        <v>4237.826026832106</v>
       </c>
       <c r="I11">
-        <v>12306.63215313024</v>
+        <v>12306.63215313025</v>
       </c>
       <c r="J11">
         <v>7832.306137384286</v>
       </c>
       <c r="K11">
-        <v>4204.774298316902</v>
+        <v>4148.294491053963</v>
       </c>
       <c r="L11">
         <v>12046.63288228946</v>
@@ -793,37 +793,37 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1356.850157953317</v>
+        <v>1356.983635130188</v>
       </c>
       <c r="C12">
-        <v>896.797306104387</v>
+        <v>897.0089928108279</v>
       </c>
       <c r="D12">
         <v>1329.998069233815</v>
       </c>
       <c r="E12">
-        <v>1332.453128833824</v>
+        <v>1332.584206006132</v>
       </c>
       <c r="F12">
-        <v>880.6723199641975</v>
+        <v>880.8802004089735</v>
       </c>
       <c r="G12">
         <v>1306.083857753816</v>
       </c>
       <c r="H12">
-        <v>7932.166058657684</v>
+        <v>7961.36568925124</v>
       </c>
       <c r="I12">
-        <v>9541.223719591584</v>
+        <v>9265.033577043803</v>
       </c>
       <c r="J12">
         <v>9451.746628803847</v>
       </c>
       <c r="K12">
-        <v>7789.540666178361</v>
+        <v>7818.215268835934</v>
       </c>
       <c r="L12">
-        <v>9369.66644662521</v>
+        <v>9098.442378563072</v>
       </c>
       <c r="M12">
         <v>9281.798210858551</v>
@@ -834,25 +834,25 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1379.926782684055</v>
+        <v>1380.02653438157</v>
       </c>
       <c r="C13">
-        <v>927.799006847113</v>
+        <v>928.0191736066439</v>
       </c>
       <c r="D13">
         <v>1351.90824000776</v>
       </c>
       <c r="E13">
-        <v>1346.406294035859</v>
+        <v>1346.503622615216</v>
       </c>
       <c r="F13">
-        <v>905.261379150422</v>
+        <v>905.4761977295595</v>
       </c>
       <c r="G13">
         <v>1319.068363732268</v>
       </c>
       <c r="H13">
-        <v>1054.504070454912</v>
+        <v>1063.717865721435</v>
       </c>
       <c r="I13">
         <v>530.9918806636111</v>
@@ -861,7 +861,7 @@
         <v>4774.869465317054</v>
       </c>
       <c r="K13">
-        <v>1028.88858696208</v>
+        <v>1037.878565339538</v>
       </c>
       <c r="L13">
         <v>518.0932924693533</v>
@@ -875,16 +875,16 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1410.079588272315</v>
+        <v>1410.223745343304</v>
       </c>
       <c r="C14">
-        <v>977.7387625159472</v>
+        <v>977.7387625159473</v>
       </c>
       <c r="D14">
         <v>1379.639399982502</v>
       </c>
       <c r="E14">
-        <v>1371.219127178196</v>
+        <v>1371.35931141652</v>
       </c>
       <c r="F14">
         <v>950.7932060686572</v>
@@ -893,19 +893,19 @@
         <v>1341.617841715268</v>
       </c>
       <c r="H14">
-        <v>2432.908463536613</v>
+        <v>2418.986690553135</v>
       </c>
       <c r="I14">
-        <v>-47.06478708140307</v>
+        <v>-9.210108352817198</v>
       </c>
       <c r="J14">
         <v>6219.226938130596</v>
       </c>
       <c r="K14">
-        <v>2365.85980509269</v>
+        <v>2352.321703018205</v>
       </c>
       <c r="L14">
-        <v>-45.7677260201045</v>
+        <v>-8.956286469078098</v>
       </c>
       <c r="M14">
         <v>6047.830920150619</v>
@@ -916,25 +916,25 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1437.359963536943</v>
+        <v>1437.540742594801</v>
       </c>
       <c r="C15">
-        <v>1016.755174088279</v>
+        <v>1016.75517408828</v>
       </c>
       <c r="D15">
         <v>1389.374507953756</v>
       </c>
       <c r="E15">
-        <v>1404.190118224552</v>
+        <v>1404.366725457998</v>
       </c>
       <c r="F15">
-        <v>993.2915931477806</v>
+        <v>993.2915931477808</v>
       </c>
       <c r="G15">
         <v>1357.31201930867</v>
       </c>
       <c r="H15">
-        <v>1184.584917513357</v>
+        <v>1172.280285956864</v>
       </c>
       <c r="I15">
         <v>740.6911394719318</v>
@@ -943,7 +943,7 @@
         <v>6799.845143595578</v>
       </c>
       <c r="K15">
-        <v>1157.248342493818</v>
+        <v>1145.227663973244</v>
       </c>
       <c r="L15">
         <v>723.5982670225798</v>
@@ -957,7 +957,7 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1431.67219271487</v>
+        <v>1431.717501623342</v>
       </c>
       <c r="C16">
         <v>1032.547962182847</v>
@@ -966,7 +966,7 @@
         <v>1413.320307499732</v>
       </c>
       <c r="E16">
-        <v>1397.627422174717</v>
+        <v>1397.67165364982</v>
       </c>
       <c r="F16">
         <v>1007.994255948211</v>
@@ -975,7 +975,7 @@
         <v>1379.711939736909</v>
       </c>
       <c r="H16">
-        <v>4767.301749717494</v>
+        <v>4796.398125545883</v>
       </c>
       <c r="I16">
         <v>2092.052577435809</v>
@@ -984,7 +984,7 @@
         <v>3854.988687500129</v>
       </c>
       <c r="K16">
-        <v>4653.936626758004</v>
+        <v>4682.341098780711</v>
       </c>
       <c r="L16">
         <v>2042.304143178887</v>
@@ -998,7 +998,7 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1379.49828038563</v>
+        <v>1379.566194147015</v>
       </c>
       <c r="C17">
         <v>1038.481744679115</v>
@@ -1007,7 +1007,7 @@
         <v>1427.775185717202</v>
       </c>
       <c r="E17">
-        <v>1350.758732877596</v>
+        <v>1350.825231768952</v>
       </c>
       <c r="F17">
         <v>1016.846708331633</v>
@@ -1016,7 +1016,7 @@
         <v>1398.029869348094</v>
       </c>
       <c r="H17">
-        <v>5081.726337338826</v>
+        <v>5072.929216640558</v>
       </c>
       <c r="I17">
         <v>2538.923650619273</v>
@@ -1025,7 +1025,7 @@
         <v>2968.848886287207</v>
       </c>
       <c r="K17">
-        <v>4975.857038644268</v>
+        <v>4967.243191293881</v>
       </c>
       <c r="L17">
         <v>2486.029407898039</v>
@@ -1039,7 +1039,7 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1436.609257102033</v>
+        <v>1436.633804050452</v>
       </c>
       <c r="C18">
         <v>1077.892541647423</v>
@@ -1048,7 +1048,7 @@
         <v>1451.355685142057</v>
       </c>
       <c r="E18">
-        <v>1420.937156115465</v>
+        <v>1420.961435278992</v>
       </c>
       <c r="F18">
         <v>1066.13371392036</v>
@@ -1057,7 +1057,7 @@
         <v>1435.522714031417</v>
       </c>
       <c r="H18">
-        <v>-202.9477772410985</v>
+        <v>-195.2571690426774</v>
       </c>
       <c r="I18">
         <v>-384.9544131832632</v>
@@ -1066,7 +1066,7 @@
         <v>4633.579087862107</v>
       </c>
       <c r="K18">
-        <v>-200.7338014893774</v>
+        <v>-193.1270908349391</v>
       </c>
       <c r="L18">
         <v>-380.7549104939912</v>
@@ -1080,7 +1080,7 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1495.068008493476</v>
+        <v>1495.201260388764</v>
       </c>
       <c r="C19">
         <v>1083.240668402103</v>
@@ -1089,7 +1089,7 @@
         <v>1511.967174012434</v>
       </c>
       <c r="E19">
-        <v>1468.370365484664</v>
+        <v>1468.501237881822</v>
       </c>
       <c r="F19">
         <v>1063.89708503778</v>
@@ -1098,7 +1098,7 @@
         <v>1484.967760190783</v>
       </c>
       <c r="H19">
-        <v>346.6746315161155</v>
+        <v>314.8766443917867</v>
       </c>
       <c r="I19">
         <v>5534.555421995951</v>
@@ -1107,7 +1107,7 @@
         <v>1476.459748765226</v>
       </c>
       <c r="K19">
-        <v>340.484013096185</v>
+        <v>309.2538471705049</v>
       </c>
       <c r="L19">
         <v>5435.724075174595</v>
@@ -1139,7 +1139,7 @@
         <v>1551.275015486218</v>
       </c>
       <c r="H20">
-        <v>-1715.360326688995</v>
+        <v>-1699.222855510247</v>
       </c>
       <c r="I20">
         <v>2959.757093634057</v>
@@ -1148,7 +1148,7 @@
         <v>1540.051494007114</v>
       </c>
       <c r="K20">
-        <v>-1683.297516844342</v>
+        <v>-1667.461680640897</v>
       </c>
       <c r="L20">
         <v>2904.434531136224</v>
@@ -1180,7 +1180,7 @@
         <v>1613.926631329212</v>
       </c>
       <c r="H21">
-        <v>3946.347032507272</v>
+        <v>3946.347032507273</v>
       </c>
       <c r="I21">
         <v>5872.45498902069</v>
@@ -1426,7 +1426,7 @@
         <v>1784.0667377111</v>
       </c>
       <c r="H27">
-        <v>-417.883083702734</v>
+        <v>-417.8830837027341</v>
       </c>
       <c r="I27">
         <v>3429.481599935254</v>
@@ -1435,7 +1435,7 @@
         <v>7217.373248504132</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031165</v>
+        <v>-414.5062507031166</v>
       </c>
       <c r="L27">
         <v>3401.768617309515</v>
@@ -1452,7 +1452,7 @@
         <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1275.995410961211</v>
+        <v>1275.999624889278</v>
       </c>
       <c r="D28">
         <v>1811.385833033834</v>
@@ -1461,7 +1461,7 @@
         <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1268.308691618071</v>
+        <v>1268.312880161029</v>
       </c>
       <c r="G28">
         <v>1800.473870184233</v>
@@ -1470,16 +1470,16 @@
         <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>16624.44770061</v>
+        <v>16620.81295423352</v>
       </c>
       <c r="J28">
         <v>64612.91653140328</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818927</v>
+        <v>-21079.36215818928</v>
       </c>
       <c r="L28">
-        <v>16524.30042530512</v>
+        <v>16520.68757499116</v>
       </c>
       <c r="M28">
         <v>64223.68209446712</v>
@@ -1490,37 +1490,37 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1977.848634148981</v>
+        <v>1977.856746520409</v>
       </c>
       <c r="C29">
-        <v>1340.235653618177</v>
+        <v>1340.832055915711</v>
       </c>
       <c r="D29">
         <v>1886.164279961067</v>
       </c>
       <c r="E29">
-        <v>1969.937239612385</v>
+        <v>1969.945319534327</v>
       </c>
       <c r="F29">
-        <v>1334.874711003704</v>
+        <v>1335.468727692048</v>
       </c>
       <c r="G29">
         <v>1878.619622841222</v>
       </c>
       <c r="H29">
-        <v>-65379.65642872985</v>
+        <v>-65405.66105671858</v>
       </c>
       <c r="I29">
-        <v>-7496.842405753261</v>
+        <v>-8064.863141473237</v>
       </c>
       <c r="J29">
         <v>31952.63119336948</v>
       </c>
       <c r="K29">
-        <v>-65118.13780301492</v>
+        <v>-65144.0384124917</v>
       </c>
       <c r="L29">
-        <v>-7466.855036130248</v>
+        <v>-8032.603688907345</v>
       </c>
       <c r="M29">
         <v>31824.820668596</v>
@@ -1531,37 +1531,37 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2004.662663447054</v>
+        <v>2004.679136249755</v>
       </c>
       <c r="C30">
-        <v>1357.591786714642</v>
+        <v>1358.533511390568</v>
       </c>
       <c r="D30">
         <v>1902.148783732506</v>
       </c>
       <c r="E30">
-        <v>1998.666663456684</v>
+        <v>1998.683086988789</v>
       </c>
       <c r="F30">
-        <v>1353.531193135236</v>
+        <v>1354.470101087306</v>
       </c>
       <c r="G30">
         <v>1896.459405515958</v>
       </c>
       <c r="H30">
-        <v>33114.57781576289</v>
+        <v>33088.01454274101</v>
       </c>
       <c r="I30">
-        <v>25139.81124761326</v>
+        <v>24851.20897358424</v>
       </c>
       <c r="J30">
         <v>59911.5626073447</v>
       </c>
       <c r="K30">
-        <v>33015.53122209659</v>
+        <v>32989.04740053939</v>
       </c>
       <c r="L30">
-        <v>25064.61739542698</v>
+        <v>24776.87833856853</v>
       </c>
       <c r="M30">
         <v>59732.36551081226</v>
@@ -1572,37 +1572,37 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2162.422569030822</v>
+        <v>2163.076362360478</v>
       </c>
       <c r="C31">
-        <v>1391.565837439019</v>
+        <v>1391.586771850942</v>
       </c>
       <c r="D31">
         <v>1960.624234081546</v>
       </c>
       <c r="E31">
-        <v>2138.964336033446</v>
+        <v>2139.611036930532</v>
       </c>
       <c r="F31">
-        <v>1376.469955573309</v>
+        <v>1376.490662886089</v>
       </c>
       <c r="G31">
         <v>1939.355134895257</v>
       </c>
       <c r="H31">
-        <v>-4087.572424815462</v>
+        <v>-4785.884914582191</v>
       </c>
       <c r="I31">
-        <v>27023.79793555907</v>
+        <v>27611.55247994559</v>
       </c>
       <c r="J31">
         <v>53619.55080636678</v>
       </c>
       <c r="K31">
-        <v>-4043.229923165587</v>
+        <v>-4733.967030893426</v>
       </c>
       <c r="L31">
-        <v>26730.64036426602</v>
+        <v>27312.01887316117</v>
       </c>
       <c r="M31">
         <v>53037.8791506764</v>
@@ -1613,37 +1613,37 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2264.3349012785</v>
+        <v>2264.818651424481</v>
       </c>
       <c r="C32">
-        <v>1424.830362599564</v>
+        <v>1426.23134600604</v>
       </c>
       <c r="D32">
         <v>1977.624003536699</v>
       </c>
       <c r="E32">
-        <v>2246.610166239138</v>
+        <v>2247.090129691217</v>
       </c>
       <c r="F32">
-        <v>1413.67709165945</v>
+        <v>1415.067108463919</v>
       </c>
       <c r="G32">
         <v>1962.143580808428</v>
       </c>
       <c r="H32">
-        <v>-12883.96389704428</v>
+        <v>-12395.46097991469</v>
       </c>
       <c r="I32">
-        <v>-219.0280688212023</v>
+        <v>-1508.481369139732</v>
       </c>
       <c r="J32">
         <v>74017.0388441033</v>
       </c>
       <c r="K32">
-        <v>-12783.11095068776</v>
+        <v>-12298.43193114823</v>
       </c>
       <c r="L32">
-        <v>-217.3135633901205</v>
+        <v>-1496.673295800087</v>
       </c>
       <c r="M32">
         <v>73437.64910755453</v>
@@ -1654,7 +1654,7 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2337.774020699288</v>
+        <v>2338.88712824519</v>
       </c>
       <c r="C33">
         <v>1474.132956453719</v>
@@ -1663,7 +1663,7 @@
         <v>2009.029574024837</v>
       </c>
       <c r="E33">
-        <v>2319.616552577351</v>
+        <v>2320.721014627751</v>
       </c>
       <c r="F33">
         <v>1462.683380092913</v>
@@ -1672,19 +1672,19 @@
         <v>1993.425460828527</v>
       </c>
       <c r="H33">
-        <v>18371.93812848614</v>
+        <v>17738.8371778313</v>
       </c>
       <c r="I33">
-        <v>11948.67676229028</v>
+        <v>13380.58956559972</v>
       </c>
       <c r="J33">
         <v>54944.71402189336</v>
       </c>
       <c r="K33">
-        <v>18229.24346341052</v>
+        <v>17601.05980169281</v>
       </c>
       <c r="L33">
-        <v>11855.87150588414</v>
+        <v>13276.66265635235</v>
       </c>
       <c r="M33">
         <v>54517.95896152914</v>
@@ -1695,37 +1695,37 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2562.047400837334</v>
+        <v>2563.019377976294</v>
       </c>
       <c r="C34">
-        <v>1527.789179726788</v>
+        <v>1528.969550360073</v>
       </c>
       <c r="D34">
         <v>2050.309527872628</v>
       </c>
       <c r="E34">
-        <v>2552.136192323457</v>
+        <v>2553.104409396115</v>
       </c>
       <c r="F34">
-        <v>1521.878970134035</v>
+        <v>1523.05477453663</v>
       </c>
       <c r="G34">
         <v>2042.377962967898</v>
       </c>
       <c r="H34">
-        <v>-112500.2619696322</v>
+        <v>-111753.1690086223</v>
       </c>
       <c r="I34">
-        <v>-8026.359054137939</v>
+        <v>-9043.980006151982</v>
       </c>
       <c r="J34">
         <v>47076.40982649913</v>
       </c>
       <c r="K34">
-        <v>-112065.0578614325</v>
+        <v>-111320.855008589</v>
       </c>
       <c r="L34">
-        <v>-7995.309309247656</v>
+        <v>-9008.993623149458</v>
       </c>
       <c r="M34">
         <v>46894.29605541016</v>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1092.973660516295</v>
+        <v>1043.634102143072</v>
       </c>
       <c r="C4">
-        <v>705.6631624283294</v>
+        <v>702.4673992950858</v>
       </c>
       <c r="D4">
-        <v>969.6478214201652</v>
+        <v>976.946861583544</v>
       </c>
       <c r="E4">
-        <v>1064.630745494803</v>
+        <v>1016.570657030772</v>
       </c>
       <c r="F4">
-        <v>687.3639556230568</v>
+        <v>684.2510647914855</v>
       </c>
       <c r="G4">
-        <v>944.5029832634024</v>
+        <v>951.6127452377794</v>
       </c>
       <c r="H4">
-        <v>5406.459987083211</v>
+        <v>265.9119789794119</v>
       </c>
       <c r="I4">
-        <v>-7856.969397403166</v>
+        <v>-3941.922476787426</v>
       </c>
       <c r="J4">
-        <v>-15777.42989649253</v>
+        <v>-9689.123228074977</v>
       </c>
       <c r="K4">
-        <v>5266.26005224799</v>
+        <v>259.0163685034466</v>
       </c>
       <c r="L4">
-        <v>-7653.223027292225</v>
+        <v>-3839.700824228919</v>
       </c>
       <c r="M4">
-        <v>-15368.29070954945</v>
+        <v>-9437.865575483082</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1072.823104767439</v>
+        <v>1056.135914141084</v>
       </c>
       <c r="C5">
-        <v>741.1539467840439</v>
+        <v>753.1217758831207</v>
       </c>
       <c r="D5">
-        <v>1024.186410321986</v>
+        <v>1024.164656885799</v>
       </c>
       <c r="E5">
-        <v>1047.360531078338</v>
+        <v>1031.069397191533</v>
       </c>
       <c r="F5">
-        <v>723.563267667334</v>
+        <v>735.2470501896921</v>
       </c>
       <c r="G5">
-        <v>999.8781885580147</v>
+        <v>999.8569514217373</v>
       </c>
       <c r="H5">
-        <v>18281.38013386884</v>
+        <v>3317.432890955881</v>
       </c>
       <c r="I5">
-        <v>-3336.176179187504</v>
+        <v>-6972.630495817394</v>
       </c>
       <c r="J5">
-        <v>-9665.631517556349</v>
+        <v>-6248.66823603856</v>
       </c>
       <c r="K5">
-        <v>17847.48661803334</v>
+        <v>3238.696350822434</v>
       </c>
       <c r="L5">
-        <v>-3256.994782529573</v>
+        <v>-6807.140847973627</v>
       </c>
       <c r="M5">
-        <v>-9436.225706221941</v>
+        <v>-6100.361236765493</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1122.945185744329</v>
+        <v>1091.240621213677</v>
       </c>
       <c r="C6">
-        <v>776.4472268867185</v>
+        <v>800.2617616716159</v>
       </c>
       <c r="D6">
-        <v>1066.843114212644</v>
+        <v>1066.71946086061</v>
       </c>
       <c r="E6">
-        <v>1100.312182000645</v>
+        <v>1069.246624196967</v>
       </c>
       <c r="F6">
-        <v>760.7979029339629</v>
+        <v>784.1324548472268</v>
       </c>
       <c r="G6">
-        <v>1045.34084989518</v>
+        <v>1045.219688781249</v>
       </c>
       <c r="H6">
-        <v>-5212.48952575091</v>
+        <v>471.9473661701297</v>
       </c>
       <c r="I6">
-        <v>-6293.668479227716</v>
+        <v>-9350.989463572849</v>
       </c>
       <c r="J6">
-        <v>-6524.741663134935</v>
+        <v>-5779.871316995936</v>
       </c>
       <c r="K6">
-        <v>-5107.431597324922</v>
+        <v>462.4352487124369</v>
       </c>
       <c r="L6">
-        <v>-6166.819347088243</v>
+        <v>-9162.519908493085</v>
       </c>
       <c r="M6">
-        <v>-6393.235242017488</v>
+        <v>-5663.377786575863</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1161.42676726013</v>
+        <v>1114.118443940771</v>
       </c>
       <c r="C7">
-        <v>784.7537177972674</v>
+        <v>816.1661146050701</v>
       </c>
       <c r="D7">
-        <v>1085.40028483191</v>
+        <v>1080.940181722027</v>
       </c>
       <c r="E7">
-        <v>1147.197955410083</v>
+        <v>1100.469213387132</v>
       </c>
       <c r="F7">
-        <v>775.139583429154</v>
+        <v>806.1671422975041</v>
       </c>
       <c r="G7">
-        <v>1072.102884711458</v>
+        <v>1067.697422987301</v>
       </c>
       <c r="H7">
-        <v>-1372.013402947064</v>
+        <v>1923.360453285898</v>
       </c>
       <c r="I7">
-        <v>3377.3291418111</v>
+        <v>1221.499176765957</v>
       </c>
       <c r="J7">
-        <v>1480.027369907737</v>
+        <v>2530.406209467698</v>
       </c>
       <c r="K7">
-        <v>-1355.204662941588</v>
+        <v>1899.797078666775</v>
       </c>
       <c r="L7">
-        <v>3335.95298080882</v>
+        <v>1206.534408903587</v>
       </c>
       <c r="M7">
-        <v>1461.895334748071</v>
+        <v>2499.405827115874</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1228.939317628728</v>
+        <v>1183.697899857955</v>
       </c>
       <c r="C8">
-        <v>821.6642672512497</v>
+        <v>844.7807565185992</v>
       </c>
       <c r="D8">
-        <v>1159.822519579082</v>
+        <v>1154.100077609992</v>
       </c>
       <c r="E8">
-        <v>1204.951012629969</v>
+        <v>1160.592685596464</v>
       </c>
       <c r="F8">
-        <v>805.6257755481473</v>
+        <v>828.29104205202</v>
       </c>
       <c r="G8">
-        <v>1137.18334126898</v>
+        <v>1131.572598617605</v>
       </c>
       <c r="H8">
-        <v>3626.932597626273</v>
+        <v>922.358227787596</v>
       </c>
       <c r="I8">
-        <v>8012.090885410757</v>
+        <v>8490.744118228593</v>
       </c>
       <c r="J8">
-        <v>-3073.374754749608</v>
+        <v>-3080.842846054197</v>
       </c>
       <c r="K8">
-        <v>3556.136615990925</v>
+        <v>904.3542383563065</v>
       </c>
       <c r="L8">
-        <v>7855.698720980818</v>
+        <v>8325.008872677585</v>
       </c>
       <c r="M8">
-        <v>-3013.383956233475</v>
+        <v>-3020.70627398407</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1241.983034744396</v>
+        <v>1250.206622000583</v>
       </c>
       <c r="C9">
-        <v>849.4422100940131</v>
+        <v>862.9319272409786</v>
       </c>
       <c r="D9">
-        <v>1207.335968068651</v>
+        <v>1199.820909367911</v>
       </c>
       <c r="E9">
-        <v>1216.412795793776</v>
+        <v>1224.467073900571</v>
       </c>
       <c r="F9">
-        <v>831.9536940038422</v>
+        <v>845.1656816801348</v>
       </c>
       <c r="G9">
-        <v>1182.479051079002</v>
+        <v>1175.118714175042</v>
       </c>
       <c r="H9">
-        <v>11862.07720938639</v>
+        <v>-2023.56918630201</v>
       </c>
       <c r="I9">
-        <v>2702.811942217993</v>
+        <v>6963.788783124456</v>
       </c>
       <c r="J9">
-        <v>966.6319601626374</v>
+        <v>778.1671961246934</v>
       </c>
       <c r="K9">
-        <v>11617.85797272255</v>
+        <v>-1981.907467760498</v>
       </c>
       <c r="L9">
-        <v>2647.165813995858</v>
+        <v>6820.416661118952</v>
       </c>
       <c r="M9">
-        <v>946.7307139239945</v>
+        <v>762.1461067927144</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1291.695686808804</v>
+        <v>1284.68675753245</v>
       </c>
       <c r="C10">
-        <v>864.2881894583994</v>
+        <v>872.8439866376877</v>
       </c>
       <c r="D10">
-        <v>1247.178018010227</v>
+        <v>1240.505114842149</v>
       </c>
       <c r="E10">
-        <v>1263.817362633074</v>
+        <v>1256.959705211606</v>
       </c>
       <c r="F10">
-        <v>845.6344875276426</v>
+        <v>854.0056272138528</v>
       </c>
       <c r="G10">
-        <v>1220.26050683015</v>
+        <v>1213.731623154908</v>
       </c>
       <c r="H10">
-        <v>-695.9946047902878</v>
+        <v>2393.059525163079</v>
       </c>
       <c r="I10">
-        <v>8054.743594229935</v>
+        <v>8391.728370549956</v>
       </c>
       <c r="J10">
-        <v>4866.887478254263</v>
+        <v>2792.097404148238</v>
       </c>
       <c r="K10">
-        <v>-680.9731384998501</v>
+        <v>2341.41075843294</v>
       </c>
       <c r="L10">
-        <v>7880.900207304109</v>
+        <v>8210.6119308978</v>
       </c>
       <c r="M10">
-        <v>4761.846741313524</v>
+        <v>2731.83630909468</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1328.840646499237</v>
+        <v>1293.577641132945</v>
       </c>
       <c r="C11">
-        <v>876.1957412919363</v>
+        <v>848.1116435798729</v>
       </c>
       <c r="D11">
-        <v>1286.716439640725</v>
+        <v>1280.417563988777</v>
       </c>
       <c r="E11">
-        <v>1300.76654833376</v>
+        <v>1266.248536038587</v>
       </c>
       <c r="F11">
-        <v>857.6845636590081</v>
+        <v>830.1937919549459</v>
       </c>
       <c r="G11">
-        <v>1259.53228950747</v>
+        <v>1253.366488693239</v>
       </c>
       <c r="H11">
-        <v>4237.826026832106</v>
+        <v>6517.714776236279</v>
       </c>
       <c r="I11">
-        <v>12306.63215313025</v>
+        <v>17565.04557443324</v>
       </c>
       <c r="J11">
-        <v>7832.306137384286</v>
+        <v>5154.928045263693</v>
       </c>
       <c r="K11">
-        <v>4148.294491053963</v>
+        <v>6380.01657673833</v>
       </c>
       <c r="L11">
-        <v>12046.63288228946</v>
+        <v>17193.95306229733</v>
       </c>
       <c r="M11">
-        <v>7666.834880960674</v>
+        <v>5046.021114729952</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1356.983635130188</v>
+        <v>1318.166337113757</v>
       </c>
       <c r="C12">
-        <v>897.0089928108279</v>
+        <v>882.9687933294998</v>
       </c>
       <c r="D12">
-        <v>1329.998069233815</v>
+        <v>1315.960940137429</v>
       </c>
       <c r="E12">
-        <v>1332.584206006132</v>
+        <v>1294.464867705073</v>
       </c>
       <c r="F12">
-        <v>880.8802004089735</v>
+        <v>867.0924526472267</v>
       </c>
       <c r="G12">
-        <v>1306.083857753816</v>
+        <v>1292.299125169537</v>
       </c>
       <c r="H12">
-        <v>7961.36568925124</v>
+        <v>5552.843300264927</v>
       </c>
       <c r="I12">
-        <v>9265.033577043803</v>
+        <v>718.7192342223494</v>
       </c>
       <c r="J12">
-        <v>9451.746628803847</v>
+        <v>9376.979339365171</v>
       </c>
       <c r="K12">
-        <v>7818.215268835934</v>
+        <v>5452.999644796816</v>
       </c>
       <c r="L12">
-        <v>9098.442378563072</v>
+        <v>705.7962051146168</v>
       </c>
       <c r="M12">
-        <v>9281.798210858551</v>
+        <v>9208.375284853764</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1380.02653438157</v>
+        <v>1362.550643604331</v>
       </c>
       <c r="C13">
-        <v>928.0191736066439</v>
+        <v>907.7256573208996</v>
       </c>
       <c r="D13">
-        <v>1351.90824000776</v>
+        <v>1355.407309274322</v>
       </c>
       <c r="E13">
-        <v>1346.503622615216</v>
+        <v>1329.452247403416</v>
       </c>
       <c r="F13">
-        <v>905.4761977295595</v>
+        <v>885.6756413535903</v>
       </c>
       <c r="G13">
-        <v>1319.068363732268</v>
+        <v>1322.482435364824</v>
       </c>
       <c r="H13">
-        <v>1063.717865721435</v>
+        <v>-265.8304906133647</v>
       </c>
       <c r="I13">
-        <v>530.9918806636111</v>
+        <v>1619.376922006833</v>
       </c>
       <c r="J13">
-        <v>4774.869465317054</v>
+        <v>1183.512656022699</v>
       </c>
       <c r="K13">
-        <v>1037.878565339538</v>
+        <v>-259.3730697887485</v>
       </c>
       <c r="L13">
-        <v>518.0932924693533</v>
+        <v>1580.039830783995</v>
       </c>
       <c r="M13">
-        <v>4658.880733366033</v>
+        <v>1154.763360734698</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1410.223745343304</v>
+        <v>1375.584888063283</v>
       </c>
       <c r="C14">
-        <v>977.7387625159473</v>
+        <v>958.6381764026108</v>
       </c>
       <c r="D14">
-        <v>1379.639399982502</v>
+        <v>1384.30777339959</v>
       </c>
       <c r="E14">
-        <v>1371.35931141652</v>
+        <v>1337.675068313507</v>
       </c>
       <c r="F14">
-        <v>950.7932060686572</v>
+        <v>932.2190140608066</v>
       </c>
       <c r="G14">
-        <v>1341.617841715268</v>
+        <v>1346.157559172042</v>
       </c>
       <c r="H14">
-        <v>2418.986690553135</v>
+        <v>2302.41076801778</v>
       </c>
       <c r="I14">
-        <v>-9.210108352817198</v>
+        <v>-878.0740549156269</v>
       </c>
       <c r="J14">
-        <v>6219.226938130596</v>
+        <v>5499.935933873364</v>
       </c>
       <c r="K14">
-        <v>2352.321703018205</v>
+        <v>2238.958502757448</v>
       </c>
       <c r="L14">
-        <v>-8.956286469078098</v>
+        <v>-853.8751636384245</v>
       </c>
       <c r="M14">
-        <v>6047.830920150619</v>
+        <v>5348.362896325672</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1437.540742594801</v>
+        <v>1430.933142239107</v>
       </c>
       <c r="C15">
-        <v>1016.75517408828</v>
+        <v>994.7568642976113</v>
       </c>
       <c r="D15">
-        <v>1389.374507953756</v>
+        <v>1400.835536252049</v>
       </c>
       <c r="E15">
-        <v>1404.366725457998</v>
+        <v>1397.911608187435</v>
       </c>
       <c r="F15">
-        <v>993.2915931477808</v>
+        <v>971.8009366599741</v>
       </c>
       <c r="G15">
-        <v>1357.31201930867</v>
+        <v>1368.50856233854</v>
       </c>
       <c r="H15">
-        <v>1172.280285956864</v>
+        <v>689.3907135337757</v>
       </c>
       <c r="I15">
-        <v>740.6911394719318</v>
+        <v>1272.215785158953</v>
       </c>
       <c r="J15">
-        <v>6799.845143595578</v>
+        <v>5872.777328033082</v>
       </c>
       <c r="K15">
-        <v>1145.227663973244</v>
+        <v>673.4816970676115</v>
       </c>
       <c r="L15">
-        <v>723.5982670225798</v>
+        <v>1242.856959347592</v>
       </c>
       <c r="M15">
-        <v>6642.925640281834</v>
+        <v>5737.251697386165</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1431.717501623342</v>
+        <v>1473.196060695208</v>
       </c>
       <c r="C16">
-        <v>1032.547962182847</v>
+        <v>1011.770237171885</v>
       </c>
       <c r="D16">
-        <v>1413.320307499732</v>
+        <v>1411.936402421542</v>
       </c>
       <c r="E16">
-        <v>1397.67165364982</v>
+        <v>1438.163864007838</v>
       </c>
       <c r="F16">
-        <v>1007.994255948211</v>
+        <v>987.7106195169837</v>
       </c>
       <c r="G16">
-        <v>1379.711939736909</v>
+        <v>1378.360943540429</v>
       </c>
       <c r="H16">
-        <v>4796.398125545883</v>
+        <v>105.1223769145618</v>
       </c>
       <c r="I16">
-        <v>2092.052577435809</v>
+        <v>1973.841718072064</v>
       </c>
       <c r="J16">
-        <v>3854.988687500129</v>
+        <v>4202.404351480696</v>
       </c>
       <c r="K16">
-        <v>4682.341098780711</v>
+        <v>102.6225957363682</v>
       </c>
       <c r="L16">
-        <v>2042.304143178887</v>
+        <v>1926.90430550214</v>
       </c>
       <c r="M16">
-        <v>3763.318117960076</v>
+        <v>4102.472333110066</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1379.566194147015</v>
+        <v>1495.863960863639</v>
       </c>
       <c r="C17">
-        <v>1038.481744679115</v>
+        <v>1023.378466312492</v>
       </c>
       <c r="D17">
-        <v>1427.775185717202</v>
+        <v>1426.552593527362</v>
       </c>
       <c r="E17">
-        <v>1350.825231768952</v>
+        <v>1464.700128345646</v>
       </c>
       <c r="F17">
-        <v>1016.846708331633</v>
+        <v>1002.058081597649</v>
       </c>
       <c r="G17">
-        <v>1398.029869348094</v>
+        <v>1396.832747828875</v>
       </c>
       <c r="H17">
-        <v>5072.929216640558</v>
+        <v>59.74133903207134</v>
       </c>
       <c r="I17">
-        <v>2538.923650619273</v>
+        <v>1811.595442183879</v>
       </c>
       <c r="J17">
-        <v>2968.848886287207</v>
+        <v>626.2879968801548</v>
       </c>
       <c r="K17">
-        <v>4967.243191293881</v>
+        <v>58.49672780223644</v>
       </c>
       <c r="L17">
-        <v>2486.029407898039</v>
+        <v>1773.853870471715</v>
       </c>
       <c r="M17">
-        <v>2906.99786782289</v>
+        <v>613.2403302784847</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1436.633804050452</v>
+        <v>1564.394695719477</v>
       </c>
       <c r="C18">
-        <v>1077.892541647423</v>
+        <v>1031.245969780641</v>
       </c>
       <c r="D18">
-        <v>1451.355685142057</v>
+        <v>1419.356835139737</v>
       </c>
       <c r="E18">
-        <v>1420.961435278992</v>
+        <v>1547.328571766174</v>
       </c>
       <c r="F18">
-        <v>1066.13371392036</v>
+        <v>1019.996013746671</v>
       </c>
       <c r="G18">
-        <v>1435.522714031417</v>
+        <v>1403.872942392758</v>
       </c>
       <c r="H18">
-        <v>-195.2571690426774</v>
+        <v>-353.9321463174891</v>
       </c>
       <c r="I18">
-        <v>-384.9544131832632</v>
+        <v>3389.302418965806</v>
       </c>
       <c r="J18">
-        <v>4633.579087862107</v>
+        <v>5996.710263494591</v>
       </c>
       <c r="K18">
-        <v>-193.1270908349391</v>
+        <v>-350.0710683576619</v>
       </c>
       <c r="L18">
-        <v>-380.7549104939912</v>
+        <v>3352.328210758906</v>
       </c>
       <c r="M18">
-        <v>4583.030952358156</v>
+        <v>5931.291606074649</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1495.201260388764</v>
+        <v>1535.500037787553</v>
       </c>
       <c r="C19">
-        <v>1083.240668402103</v>
+        <v>1062.75312083473</v>
       </c>
       <c r="D19">
-        <v>1511.967174012434</v>
+        <v>1467.304725308963</v>
       </c>
       <c r="E19">
-        <v>1468.501237881822</v>
+        <v>1508.080394255632</v>
       </c>
       <c r="F19">
-        <v>1063.89708503778</v>
+        <v>1043.775386534109</v>
       </c>
       <c r="G19">
-        <v>1484.967760190783</v>
+        <v>1441.10285521416</v>
       </c>
       <c r="H19">
-        <v>314.8766443917867</v>
+        <v>3482.572789493572</v>
       </c>
       <c r="I19">
-        <v>5534.555421995951</v>
+        <v>2246.434786821126</v>
       </c>
       <c r="J19">
-        <v>1476.459748765226</v>
+        <v>1662.914367035199</v>
       </c>
       <c r="K19">
-        <v>309.2538471705049</v>
+        <v>3420.383989681186</v>
       </c>
       <c r="L19">
-        <v>5435.724075174595</v>
+        <v>2206.319879913606</v>
       </c>
       <c r="M19">
-        <v>1450.094396108704</v>
+        <v>1633.219467623856</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1624.34984123404</v>
+        <v>1730.975149813241</v>
       </c>
       <c r="C20">
-        <v>1122.463827257997</v>
+        <v>1057.574664910012</v>
       </c>
       <c r="D20">
-        <v>1580.823111019289</v>
+        <v>1529.312068778881</v>
       </c>
       <c r="E20">
-        <v>1593.988161958638</v>
+        <v>1698.620474115797</v>
       </c>
       <c r="F20">
-        <v>1101.483194972801</v>
+        <v>1037.806914164031</v>
       </c>
       <c r="G20">
-        <v>1551.275015486218</v>
+        <v>1500.726796465257</v>
       </c>
       <c r="H20">
-        <v>-1699.222855510247</v>
+        <v>-3065.321160448262</v>
       </c>
       <c r="I20">
-        <v>2959.757093634057</v>
+        <v>5117.311901279651</v>
       </c>
       <c r="J20">
-        <v>1540.051494007114</v>
+        <v>1285.489872234516</v>
       </c>
       <c r="K20">
-        <v>-1667.461680640897</v>
+        <v>-3008.025437823061</v>
       </c>
       <c r="L20">
-        <v>2904.434531136224</v>
+        <v>5021.661211536107</v>
       </c>
       <c r="M20">
-        <v>1511.265484773336</v>
+        <v>1261.462024155367</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1660.749815366196</v>
+        <v>1764.758728676951</v>
       </c>
       <c r="C21">
-        <v>1127.882121725805</v>
+        <v>1074.283089866372</v>
       </c>
       <c r="D21">
-        <v>1642.208055943625</v>
+        <v>1587.477435261815</v>
       </c>
       <c r="E21">
-        <v>1632.149072277226</v>
+        <v>1734.366787310528</v>
       </c>
       <c r="F21">
-        <v>1108.45820458931</v>
+        <v>1055.782232980039</v>
       </c>
       <c r="G21">
-        <v>1613.926631329212</v>
+        <v>1560.138558649958</v>
       </c>
       <c r="H21">
-        <v>3946.347032507273</v>
+        <v>2745.624065588519</v>
       </c>
       <c r="I21">
-        <v>5872.45498902069</v>
+        <v>4376.258217135281</v>
       </c>
       <c r="J21">
-        <v>3174.119026685436</v>
+        <v>2019.001213833032</v>
       </c>
       <c r="K21">
-        <v>3878.384684071441</v>
+        <v>2698.340069051404</v>
       </c>
       <c r="L21">
-        <v>5771.322009875673</v>
+        <v>4300.892116954996</v>
       </c>
       <c r="M21">
-        <v>3119.455668016915</v>
+        <v>1984.230814054047</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1756.170835786003</v>
+        <v>1767.69071409531</v>
       </c>
       <c r="C22">
-        <v>1133.734419999832</v>
+        <v>1122.116657017772</v>
       </c>
       <c r="D22">
-        <v>1659.306526926012</v>
+        <v>1601.089726960429</v>
       </c>
       <c r="E22">
-        <v>1697.696779100565</v>
+        <v>1708.833087654845</v>
       </c>
       <c r="F22">
-        <v>1095.985216226252</v>
+        <v>1084.75428220031</v>
       </c>
       <c r="G22">
-        <v>1604.057696950674</v>
+        <v>1547.77930319926</v>
       </c>
       <c r="H22">
-        <v>-2860.158721377454</v>
+        <v>1346.672965188811</v>
       </c>
       <c r="I22">
-        <v>2018.795876448953</v>
+        <v>-3553.647167108387</v>
       </c>
       <c r="J22">
-        <v>2406.011969250478</v>
+        <v>1881.475312182044</v>
       </c>
       <c r="K22">
-        <v>-2764.925911564665</v>
+        <v>1301.83368776854</v>
       </c>
       <c r="L22">
-        <v>1951.577367799154</v>
+        <v>-3435.323732021538</v>
       </c>
       <c r="M22">
-        <v>2325.900582926933</v>
+        <v>1818.829075372431</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1743.803354772767</v>
+        <v>1794.709744116753</v>
       </c>
       <c r="C23">
-        <v>1083.801851316354</v>
+        <v>1064.166512581393</v>
       </c>
       <c r="D23">
-        <v>1657.040225953047</v>
+        <v>1598.419238018968</v>
       </c>
       <c r="E23">
-        <v>1722.770638870902</v>
+        <v>1773.063025711835</v>
       </c>
       <c r="F23">
-        <v>1070.729679864073</v>
+        <v>1051.331170872626</v>
       </c>
       <c r="G23">
-        <v>1637.053995157561</v>
+        <v>1579.140058613038</v>
       </c>
       <c r="H23">
-        <v>2037.138608400395</v>
+        <v>-910.5998381672537</v>
       </c>
       <c r="I23">
-        <v>6637.372279616597</v>
+        <v>5673.723229343688</v>
       </c>
       <c r="J23">
-        <v>-2025.279341275164</v>
+        <v>-993.4763175980801</v>
       </c>
       <c r="K23">
-        <v>2012.56785764118</v>
+        <v>-899.6167260840961</v>
       </c>
       <c r="L23">
-        <v>6557.316254314203</v>
+        <v>5605.290164077481</v>
       </c>
       <c r="M23">
-        <v>-2000.851629922064</v>
+        <v>-981.4935988551207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1703.610536103614</v>
+        <v>1765.480476832563</v>
       </c>
       <c r="C24">
-        <v>1115.133612501509</v>
+        <v>1084.879775849224</v>
       </c>
       <c r="D24">
-        <v>1722.315438850125</v>
+        <v>1640.16710918077</v>
       </c>
       <c r="E24">
-        <v>1665.265604422825</v>
+        <v>1725.742974138582</v>
       </c>
       <c r="F24">
-        <v>1090.034142123662</v>
+        <v>1060.461259994096</v>
       </c>
       <c r="G24">
-        <v>1683.549496496585</v>
+        <v>1603.250164601139</v>
       </c>
       <c r="H24">
-        <v>11771.11757410767</v>
+        <v>7741.657152491347</v>
       </c>
       <c r="I24">
-        <v>5935.042597037328</v>
+        <v>4053.11654991427</v>
       </c>
       <c r="J24">
-        <v>6111.795104486363</v>
+        <v>7066.347242729336</v>
       </c>
       <c r="K24">
-        <v>11506.17280555862</v>
+        <v>7567.407634589613</v>
       </c>
       <c r="L24">
-        <v>5801.456429258353</v>
+        <v>3961.888846218451</v>
       </c>
       <c r="M24">
-        <v>5974.230584449693</v>
+        <v>6907.297626333499</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1733.199337948998</v>
+        <v>1752.74693284783</v>
       </c>
       <c r="C25">
-        <v>1150.353251832997</v>
+        <v>1109.975970281377</v>
       </c>
       <c r="D25">
-        <v>1752.232666435855</v>
+        <v>1667.231141713494</v>
       </c>
       <c r="E25">
-        <v>1686.209574876346</v>
+        <v>1705.227203698671</v>
       </c>
       <c r="F25">
-        <v>1119.165363879235</v>
+        <v>1079.882774006804</v>
       </c>
       <c r="G25">
-        <v>1704.726879858867</v>
+        <v>1622.02988031146</v>
       </c>
       <c r="H25">
-        <v>1143.627556650225</v>
+        <v>1940.91620309945</v>
       </c>
       <c r="I25">
-        <v>-2933.256528618303</v>
+        <v>-1565.092578931754</v>
       </c>
       <c r="J25">
-        <v>-49.81198962800153</v>
+        <v>624.2829930544069</v>
       </c>
       <c r="K25">
-        <v>1112.622012882857</v>
+        <v>1888.294908750559</v>
       </c>
       <c r="L25">
-        <v>-2853.731325548359</v>
+        <v>-1522.660454789705</v>
       </c>
       <c r="M25">
-        <v>-48.46150815737786</v>
+        <v>607.3576981436513</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1757.913207544652</v>
+        <v>1800.299346720074</v>
       </c>
       <c r="C26">
-        <v>1232.588625155828</v>
+        <v>1218.095707243476</v>
       </c>
       <c r="D26">
-        <v>1782.682676262326</v>
+        <v>1702.596832369217</v>
       </c>
       <c r="E26">
-        <v>1716.740087612344</v>
+        <v>1758.133476073881</v>
       </c>
       <c r="F26">
-        <v>1203.719441470916</v>
+        <v>1189.565970719443</v>
       </c>
       <c r="G26">
-        <v>1740.929416024003</v>
+        <v>1662.719309818818</v>
       </c>
       <c r="H26">
-        <v>4480.71787517596</v>
+        <v>800.0398014477272</v>
       </c>
       <c r="I26">
-        <v>-7196.490575759423</v>
+        <v>-7721.307158576531</v>
       </c>
       <c r="J26">
-        <v>7230.133526358925</v>
+        <v>1605.33058975389</v>
       </c>
       <c r="K26">
-        <v>4375.77234449465</v>
+        <v>781.3015983588292</v>
       </c>
       <c r="L26">
-        <v>-7027.937334168317</v>
+        <v>-7540.461878895004</v>
       </c>
       <c r="M26">
-        <v>7060.792313419765</v>
+        <v>1567.73119712218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1802.327185987571</v>
+        <v>1793.345698732267</v>
       </c>
       <c r="C27">
-        <v>1254.595957363876</v>
+        <v>1220.308718389518</v>
       </c>
       <c r="D27">
-        <v>1798.600886287158</v>
+        <v>1720.462887317049</v>
       </c>
       <c r="E27">
-        <v>1787.762925898783</v>
+        <v>1778.854016318269</v>
       </c>
       <c r="F27">
-        <v>1244.457808213461</v>
+        <v>1210.447637836876</v>
       </c>
       <c r="G27">
-        <v>1784.0667377111</v>
+        <v>1706.560156914487</v>
       </c>
       <c r="H27">
-        <v>-417.8830837027341</v>
+        <v>2949.533903627681</v>
       </c>
       <c r="I27">
-        <v>3429.481599935254</v>
+        <v>1967.590232627452</v>
       </c>
       <c r="J27">
-        <v>7217.373248504132</v>
+        <v>5107.938233999887</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031166</v>
+        <v>2925.69928622463</v>
       </c>
       <c r="L27">
-        <v>3401.768617309515</v>
+        <v>1951.690513575917</v>
       </c>
       <c r="M27">
-        <v>7159.051040435412</v>
+        <v>5066.661965442312</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1836.814605783257</v>
+        <v>1790.399645857645</v>
       </c>
       <c r="C28">
-        <v>1275.999624889278</v>
+        <v>1244.151580212779</v>
       </c>
       <c r="D28">
-        <v>1811.385833033834</v>
+        <v>1759.637005099255</v>
       </c>
       <c r="E28">
-        <v>1825.749457555647</v>
+        <v>1779.614105822358</v>
       </c>
       <c r="F28">
-        <v>1268.312880161029</v>
+        <v>1236.656691175353</v>
       </c>
       <c r="G28">
-        <v>1800.473870184233</v>
+        <v>1749.03678217697</v>
       </c>
       <c r="H28">
-        <v>-21207.11586823891</v>
+        <v>20336.08654182166</v>
       </c>
       <c r="I28">
-        <v>16620.81295423352</v>
+        <v>8031.75512408848</v>
       </c>
       <c r="J28">
-        <v>64612.91653140328</v>
+        <v>1365.192611383197</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818928</v>
+        <v>20213.57999638901</v>
       </c>
       <c r="L28">
-        <v>16520.68757499116</v>
+        <v>7983.371057075899</v>
       </c>
       <c r="M28">
-        <v>64223.68209446712</v>
+        <v>1356.968559507394</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1977.856746520409</v>
+        <v>1998.11876399931</v>
       </c>
       <c r="C29">
-        <v>1340.832055915711</v>
+        <v>1289.118692236644</v>
       </c>
       <c r="D29">
-        <v>1886.164279961067</v>
+        <v>1843.48373410837</v>
       </c>
       <c r="E29">
-        <v>1969.945319534327</v>
+        <v>1990.126288943312</v>
       </c>
       <c r="F29">
-        <v>1335.468727692048</v>
+        <v>1283.962217467698</v>
       </c>
       <c r="G29">
-        <v>1878.619622841222</v>
+        <v>1836.109799171936</v>
       </c>
       <c r="H29">
-        <v>-65405.66105671858</v>
+        <v>-52902.12797504198</v>
       </c>
       <c r="I29">
-        <v>-8064.863141473237</v>
+        <v>20411.13723207099</v>
       </c>
       <c r="J29">
-        <v>31952.63119336948</v>
+        <v>11894.57421303775</v>
       </c>
       <c r="K29">
-        <v>-65144.0384124917</v>
+        <v>-52690.51946314181</v>
       </c>
       <c r="L29">
-        <v>-8032.603688907345</v>
+        <v>20329.49268314271</v>
       </c>
       <c r="M29">
-        <v>31824.820668596</v>
+        <v>11846.9959161856</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2004.679136249755</v>
+        <v>2105.64004796579</v>
       </c>
       <c r="C30">
-        <v>1358.533511390568</v>
+        <v>1298.903175025548</v>
       </c>
       <c r="D30">
-        <v>1902.148783732506</v>
+        <v>1896.98415980042</v>
       </c>
       <c r="E30">
-        <v>1998.683086988789</v>
+        <v>2099.342021900089</v>
       </c>
       <c r="F30">
-        <v>1354.470101087306</v>
+        <v>1295.018120663557</v>
       </c>
       <c r="G30">
-        <v>1896.459405515958</v>
+        <v>1891.310229113081</v>
       </c>
       <c r="H30">
-        <v>33088.01454274101</v>
+        <v>-13330.1820063079</v>
       </c>
       <c r="I30">
-        <v>24851.20897358424</v>
+        <v>26250.67203490306</v>
       </c>
       <c r="J30">
-        <v>59911.5626073447</v>
+        <v>-4736.298362490253</v>
       </c>
       <c r="K30">
-        <v>32989.04740053939</v>
+        <v>-13290.31107308864</v>
       </c>
       <c r="L30">
-        <v>24776.87833856853</v>
+        <v>26172.15556819846</v>
       </c>
       <c r="M30">
-        <v>59732.36551081226</v>
+        <v>-4722.131966590481</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2163.076362360478</v>
+        <v>2336.096242090082</v>
       </c>
       <c r="C31">
-        <v>1391.586771850942</v>
+        <v>1290.255572361539</v>
       </c>
       <c r="D31">
-        <v>1960.624234081546</v>
+        <v>1938.130035128706</v>
       </c>
       <c r="E31">
-        <v>2139.611036930532</v>
+        <v>2310.753975164056</v>
       </c>
       <c r="F31">
-        <v>1376.490662886089</v>
+        <v>1276.258717040063</v>
       </c>
       <c r="G31">
-        <v>1939.355134895257</v>
+        <v>1917.104955852162</v>
       </c>
       <c r="H31">
-        <v>-4785.884914582191</v>
+        <v>-34700.97398657471</v>
       </c>
       <c r="I31">
-        <v>27611.55247994559</v>
+        <v>47618.05230377171</v>
       </c>
       <c r="J31">
-        <v>53619.55080636678</v>
+        <v>60128.39810003478</v>
       </c>
       <c r="K31">
-        <v>-4733.967030893426</v>
+        <v>-34324.53344036926</v>
       </c>
       <c r="L31">
-        <v>27312.01887316117</v>
+        <v>47101.48566142309</v>
       </c>
       <c r="M31">
-        <v>53037.8791506764</v>
+        <v>59476.11764727306</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2264.818651424481</v>
+        <v>2485.260880319477</v>
       </c>
       <c r="C32">
-        <v>1426.23134600604</v>
+        <v>1324.835482985214</v>
       </c>
       <c r="D32">
-        <v>1977.624003536699</v>
+        <v>1964.516820046765</v>
       </c>
       <c r="E32">
-        <v>2247.090129691217</v>
+        <v>2465.806783408953</v>
       </c>
       <c r="F32">
-        <v>1415.067108463919</v>
+        <v>1314.464950828774</v>
       </c>
       <c r="G32">
-        <v>1962.143580808428</v>
+        <v>1949.138997580645</v>
       </c>
       <c r="H32">
-        <v>-12395.46097991469</v>
+        <v>-40263.35861503883</v>
       </c>
       <c r="I32">
-        <v>-1508.481369139732</v>
+        <v>-2278.830312679033</v>
       </c>
       <c r="J32">
-        <v>74017.0388441033</v>
+        <v>54679.69138007175</v>
       </c>
       <c r="K32">
-        <v>-12298.43193114823</v>
+        <v>-39948.18555347297</v>
       </c>
       <c r="L32">
-        <v>-1496.673295800087</v>
+        <v>-2260.992110622838</v>
       </c>
       <c r="M32">
-        <v>73437.64910755453</v>
+        <v>54251.67031251738</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2338.88712824519</v>
+        <v>1797.495622244819</v>
       </c>
       <c r="C33">
-        <v>1474.132956453719</v>
+        <v>1390.351375137456</v>
       </c>
       <c r="D33">
-        <v>2009.029574024837</v>
+        <v>1951.946034789389</v>
       </c>
       <c r="E33">
-        <v>2320.721014627751</v>
+        <v>1783.534491198257</v>
       </c>
       <c r="F33">
-        <v>1462.683380092913</v>
+        <v>1379.552529505321</v>
       </c>
       <c r="G33">
-        <v>1993.425460828527</v>
+        <v>1936.785288888112</v>
       </c>
       <c r="H33">
-        <v>17738.8371778313</v>
+        <v>236102.6226121681</v>
       </c>
       <c r="I33">
-        <v>13380.58956559972</v>
+        <v>-6298.919259607384</v>
       </c>
       <c r="J33">
-        <v>54944.71402189336</v>
+        <v>92349.94014794713</v>
       </c>
       <c r="K33">
-        <v>17601.05980169281</v>
+        <v>234268.8158345979</v>
       </c>
       <c r="L33">
-        <v>13276.66265635235</v>
+        <v>-6249.995614872571</v>
       </c>
       <c r="M33">
-        <v>54517.95896152914</v>
+        <v>91632.6590594194</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2563.019377976294</v>
+        <v>2608.781839110742</v>
       </c>
       <c r="C34">
-        <v>1528.969550360073</v>
+        <v>1454.253893958723</v>
       </c>
       <c r="D34">
-        <v>2050.309527872628</v>
+        <v>1983.385928689446</v>
       </c>
       <c r="E34">
-        <v>2553.104409396115</v>
+        <v>2598.689839733138</v>
       </c>
       <c r="F34">
-        <v>1523.05477453663</v>
+        <v>1448.628153556562</v>
       </c>
       <c r="G34">
-        <v>2042.377962967898</v>
+        <v>1975.713255851188</v>
       </c>
       <c r="H34">
-        <v>-111753.1690086223</v>
+        <v>-199631.611376099</v>
       </c>
       <c r="I34">
-        <v>-9043.980006151982</v>
+        <v>-14072.22330738175</v>
       </c>
       <c r="J34">
-        <v>47076.40982649913</v>
+        <v>34258.36578362302</v>
       </c>
       <c r="K34">
-        <v>-111320.855008589</v>
+        <v>-198859.3420864429</v>
       </c>
       <c r="L34">
-        <v>-9008.993623149458</v>
+        <v>-14017.78530619265</v>
       </c>
       <c r="M34">
-        <v>46894.29605541016</v>
+        <v>34125.83825641365</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1043.634102143072</v>
+        <v>1224.805981254672</v>
       </c>
       <c r="C4">
-        <v>702.4673992950858</v>
+        <v>803.0047755131119</v>
       </c>
       <c r="D4">
-        <v>976.946861583544</v>
+        <v>1188.546836650112</v>
       </c>
       <c r="E4">
-        <v>1016.570657030772</v>
+        <v>1193.044399893124</v>
       </c>
       <c r="F4">
-        <v>684.2510647914855</v>
+        <v>782.181312939028</v>
       </c>
       <c r="G4">
-        <v>951.6127452377794</v>
+        <v>1157.725524840709</v>
       </c>
       <c r="H4">
-        <v>265.9119789794119</v>
+        <v>6146.629730454302</v>
       </c>
       <c r="I4">
-        <v>-3941.922476787426</v>
+        <v>-8364.694303298549</v>
       </c>
       <c r="J4">
-        <v>-9689.123228074977</v>
+        <v>-18281.43418440297</v>
       </c>
       <c r="K4">
-        <v>259.0163685034466</v>
+        <v>5987.235766617561</v>
       </c>
       <c r="L4">
-        <v>-3839.700824228919</v>
+        <v>-8147.781647135215</v>
       </c>
       <c r="M4">
-        <v>-9437.865575483082</v>
+        <v>-17807.36133683336</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1056.135914141084</v>
+        <v>1241.862947628754</v>
       </c>
       <c r="C5">
-        <v>753.1217758831207</v>
+        <v>834.5465094381372</v>
       </c>
       <c r="D5">
-        <v>1024.164656885799</v>
+        <v>1269.554971482133</v>
       </c>
       <c r="E5">
-        <v>1031.069397191533</v>
+        <v>1212.388352352755</v>
       </c>
       <c r="F5">
-        <v>735.2470501896921</v>
+        <v>814.7392346888142</v>
       </c>
       <c r="G5">
-        <v>999.8569514217373</v>
+        <v>1239.423128804551</v>
       </c>
       <c r="H5">
-        <v>3317.432890955881</v>
+        <v>6144.033445297677</v>
       </c>
       <c r="I5">
-        <v>-6972.630495817394</v>
+        <v>-765.9369651708796</v>
       </c>
       <c r="J5">
-        <v>-6248.66823603856</v>
+        <v>-15127.62628230802</v>
       </c>
       <c r="K5">
-        <v>3238.696350822434</v>
+        <v>5998.209866690929</v>
       </c>
       <c r="L5">
-        <v>-6807.140847973627</v>
+        <v>-747.7580815038491</v>
       </c>
       <c r="M5">
-        <v>-6100.361236765493</v>
+        <v>-14768.58451927856</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1091.240621213677</v>
+        <v>1307.327894569066</v>
       </c>
       <c r="C6">
-        <v>800.2617616716159</v>
+        <v>859.2224166106637</v>
       </c>
       <c r="D6">
-        <v>1066.71946086061</v>
+        <v>1315.242030315829</v>
       </c>
       <c r="E6">
-        <v>1069.246624196967</v>
+        <v>1280.978650182402</v>
       </c>
       <c r="F6">
-        <v>784.1324548472268</v>
+        <v>841.9047555006813</v>
       </c>
       <c r="G6">
-        <v>1045.219688781249</v>
+        <v>1288.733276216441</v>
       </c>
       <c r="H6">
-        <v>471.9473661701297</v>
+        <v>-5245.444403519761</v>
       </c>
       <c r="I6">
-        <v>-9350.989463572849</v>
+        <v>1103.060976222261</v>
       </c>
       <c r="J6">
-        <v>-5779.871316995936</v>
+        <v>-1975.088871032549</v>
       </c>
       <c r="K6">
-        <v>462.4352487124369</v>
+        <v>-5139.722268255022</v>
       </c>
       <c r="L6">
-        <v>-9162.519908493085</v>
+        <v>1080.8287394922</v>
       </c>
       <c r="M6">
-        <v>-5663.377786575863</v>
+        <v>-1935.280878283056</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1114.118443940771</v>
+        <v>1349.562470869032</v>
       </c>
       <c r="C7">
-        <v>816.1661146050701</v>
+        <v>869.6189963813684</v>
       </c>
       <c r="D7">
-        <v>1080.940181722027</v>
+        <v>1336.835251178783</v>
       </c>
       <c r="E7">
-        <v>1100.469213387132</v>
+        <v>1333.028780567421</v>
       </c>
       <c r="F7">
-        <v>806.1671422975041</v>
+        <v>858.9651648789934</v>
       </c>
       <c r="G7">
-        <v>1067.697422987301</v>
+        <v>1320.457483936164</v>
       </c>
       <c r="H7">
-        <v>1923.360453285898</v>
+        <v>-2267.361376171924</v>
       </c>
       <c r="I7">
-        <v>1221.499176765957</v>
+        <v>1832.553896965807</v>
       </c>
       <c r="J7">
-        <v>2530.406209467698</v>
+        <v>3946.748410795046</v>
       </c>
       <c r="K7">
-        <v>1899.797078666775</v>
+        <v>-2239.583595146847</v>
       </c>
       <c r="L7">
-        <v>1206.534408903587</v>
+        <v>1810.103006957038</v>
       </c>
       <c r="M7">
-        <v>2499.405827115874</v>
+        <v>3898.396209743958</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1183.697899857955</v>
+        <v>1436.404243533077</v>
       </c>
       <c r="C8">
-        <v>844.7807565185992</v>
+        <v>911.6310372822937</v>
       </c>
       <c r="D8">
-        <v>1154.100077609992</v>
+        <v>1433.847717613016</v>
       </c>
       <c r="E8">
-        <v>1160.592685596464</v>
+        <v>1408.366322863513</v>
       </c>
       <c r="F8">
-        <v>828.29104205202</v>
+        <v>893.8364374554623</v>
       </c>
       <c r="G8">
-        <v>1131.572598617605</v>
+        <v>1405.85969910105</v>
       </c>
       <c r="H8">
-        <v>922.358227787596</v>
+        <v>274.0632394143562</v>
       </c>
       <c r="I8">
-        <v>8490.744118228593</v>
+        <v>5866.02056536188</v>
       </c>
       <c r="J8">
-        <v>-3080.842846054197</v>
+        <v>-6157.339760990968</v>
       </c>
       <c r="K8">
-        <v>904.3542383563065</v>
+        <v>268.7136566630249</v>
       </c>
       <c r="L8">
-        <v>8325.008872677585</v>
+        <v>5751.518662434396</v>
       </c>
       <c r="M8">
-        <v>-3020.70627398407</v>
+        <v>-6037.151447337991</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1250.206622000583</v>
+        <v>1349.294433079733</v>
       </c>
       <c r="C9">
-        <v>862.9319272409786</v>
+        <v>953.6962952562624</v>
       </c>
       <c r="D9">
-        <v>1199.820909367911</v>
+        <v>1500.038694962257</v>
       </c>
       <c r="E9">
-        <v>1224.467073900571</v>
+        <v>1321.514841810445</v>
       </c>
       <c r="F9">
-        <v>845.1656816801348</v>
+        <v>934.0613715303981</v>
       </c>
       <c r="G9">
-        <v>1175.118714175042</v>
+        <v>1469.155545360092</v>
       </c>
       <c r="H9">
-        <v>-2023.56918630201</v>
+        <v>23907.55337447269</v>
       </c>
       <c r="I9">
-        <v>6963.788783124456</v>
+        <v>-1905.790294271877</v>
       </c>
       <c r="J9">
-        <v>778.1671961246934</v>
+        <v>-3879.440024577612</v>
       </c>
       <c r="K9">
-        <v>-1981.907467760498</v>
+        <v>23415.33904029237</v>
       </c>
       <c r="L9">
-        <v>6820.416661118952</v>
+        <v>-1866.553435272162</v>
       </c>
       <c r="M9">
-        <v>762.1461067927144</v>
+        <v>-3799.569200542192</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1284.68675753245</v>
+        <v>1402.225602190348</v>
       </c>
       <c r="C10">
-        <v>872.8439866376877</v>
+        <v>972.7750289829245</v>
       </c>
       <c r="D10">
-        <v>1240.505114842149</v>
+        <v>1560.182763726781</v>
       </c>
       <c r="E10">
-        <v>1256.959705211606</v>
+        <v>1371.961740272571</v>
       </c>
       <c r="F10">
-        <v>854.0056272138528</v>
+        <v>951.7798844725016</v>
       </c>
       <c r="G10">
-        <v>1213.731623154908</v>
+        <v>1526.509754437714</v>
       </c>
       <c r="H10">
-        <v>2393.059525163079</v>
+        <v>157.0214496357743</v>
       </c>
       <c r="I10">
-        <v>8391.728370549956</v>
+        <v>6176.865771777124</v>
       </c>
       <c r="J10">
-        <v>2792.097404148238</v>
+        <v>-3631.461597407838</v>
       </c>
       <c r="K10">
-        <v>2341.41075843294</v>
+        <v>153.6324974853624</v>
       </c>
       <c r="L10">
-        <v>8210.6119308978</v>
+        <v>6043.552122026538</v>
       </c>
       <c r="M10">
-        <v>2731.83630909468</v>
+        <v>-3553.084728399037</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1293.577641132945</v>
+        <v>1472.140135774107</v>
       </c>
       <c r="C11">
-        <v>848.1116435798729</v>
+        <v>1007.598500669806</v>
       </c>
       <c r="D11">
-        <v>1280.417563988777</v>
+        <v>1599.295484419334</v>
       </c>
       <c r="E11">
-        <v>1266.248536038587</v>
+        <v>1441.038583609865</v>
       </c>
       <c r="F11">
-        <v>830.1937919549459</v>
+        <v>986.3112084021344</v>
       </c>
       <c r="G11">
-        <v>1253.366488693239</v>
+        <v>1565.507551649912</v>
       </c>
       <c r="H11">
-        <v>6517.714776236279</v>
+        <v>-1977.553051039114</v>
       </c>
       <c r="I11">
-        <v>17565.04557443324</v>
+        <v>4306.150626705893</v>
       </c>
       <c r="J11">
-        <v>5154.928045263693</v>
+        <v>16049.48776303825</v>
       </c>
       <c r="K11">
-        <v>6380.01657673833</v>
+        <v>-1935.77376122843</v>
       </c>
       <c r="L11">
-        <v>17193.95306229733</v>
+        <v>4215.175613465627</v>
       </c>
       <c r="M11">
-        <v>5046.021114729952</v>
+        <v>15710.41407790364</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1318.166337113757</v>
+        <v>1488.102883444346</v>
       </c>
       <c r="C12">
-        <v>882.9687933294998</v>
+        <v>1038.335601585521</v>
       </c>
       <c r="D12">
-        <v>1315.960940137429</v>
+        <v>1630.926457568958</v>
       </c>
       <c r="E12">
-        <v>1294.464867705073</v>
+        <v>1461.345846812567</v>
       </c>
       <c r="F12">
-        <v>867.0924526472267</v>
+        <v>1019.665666840553</v>
       </c>
       <c r="G12">
-        <v>1292.299125169537</v>
+        <v>1601.601362204647</v>
       </c>
       <c r="H12">
-        <v>5552.843300264927</v>
+        <v>8424.358524965906</v>
       </c>
       <c r="I12">
-        <v>718.7192342223494</v>
+        <v>8276.8813658404</v>
       </c>
       <c r="J12">
-        <v>9376.979339365171</v>
+        <v>19124.97042586895</v>
       </c>
       <c r="K12">
-        <v>5452.999644796816</v>
+        <v>8272.883198790863</v>
       </c>
       <c r="L12">
-        <v>705.7962051146168</v>
+        <v>8128.05777281699</v>
       </c>
       <c r="M12">
-        <v>9208.375284853764</v>
+        <v>18781.09128958085</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1362.550643604331</v>
+        <v>1542.312371200572</v>
       </c>
       <c r="C13">
-        <v>907.7256573208996</v>
+        <v>1069.6251174471</v>
       </c>
       <c r="D13">
-        <v>1355.407309274322</v>
+        <v>1649.306413356255</v>
       </c>
       <c r="E13">
-        <v>1329.452247403416</v>
+        <v>1504.847293357643</v>
       </c>
       <c r="F13">
-        <v>885.6756413535903</v>
+        <v>1043.642321071867</v>
       </c>
       <c r="G13">
-        <v>1322.482435364824</v>
+        <v>1609.242289954889</v>
       </c>
       <c r="H13">
-        <v>-265.8304906133647</v>
+        <v>-428.7264433974607</v>
       </c>
       <c r="I13">
-        <v>1619.376922006833</v>
+        <v>1674.256335651784</v>
       </c>
       <c r="J13">
-        <v>1183.512656022699</v>
+        <v>6603.692008381613</v>
       </c>
       <c r="K13">
-        <v>-259.3730697887485</v>
+        <v>-418.3120358655386</v>
       </c>
       <c r="L13">
-        <v>1580.039830783995</v>
+        <v>1633.586141263482</v>
       </c>
       <c r="M13">
-        <v>1154.763360734698</v>
+        <v>6443.278437327808</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1375.584888063283</v>
+        <v>1551.67362313138</v>
       </c>
       <c r="C14">
-        <v>958.6381764026108</v>
+        <v>1128.345566884815</v>
       </c>
       <c r="D14">
-        <v>1384.30777339959</v>
+        <v>1696.695646093687</v>
       </c>
       <c r="E14">
-        <v>1337.675068313507</v>
+        <v>1508.910964226184</v>
       </c>
       <c r="F14">
-        <v>932.2190140608066</v>
+        <v>1097.249429214761</v>
       </c>
       <c r="G14">
-        <v>1346.157559172042</v>
+        <v>1649.936317264333</v>
       </c>
       <c r="H14">
-        <v>2302.41076801778</v>
+        <v>2964.503632905256</v>
       </c>
       <c r="I14">
-        <v>-878.0740549156269</v>
+        <v>-557.8133636055455</v>
       </c>
       <c r="J14">
-        <v>5499.935933873364</v>
+        <v>5816.186191300335</v>
       </c>
       <c r="K14">
-        <v>2238.958502757448</v>
+        <v>2882.804713888182</v>
       </c>
       <c r="L14">
-        <v>-853.8751636384245</v>
+        <v>-542.4405543723218</v>
       </c>
       <c r="M14">
-        <v>5348.362896325672</v>
+        <v>5655.897595477097</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1430.933142239107</v>
+        <v>1582.188953850585</v>
       </c>
       <c r="C15">
-        <v>994.7568642976113</v>
+        <v>1178.095582158593</v>
       </c>
       <c r="D15">
-        <v>1400.835536252049</v>
+        <v>1680.863041188323</v>
       </c>
       <c r="E15">
-        <v>1397.911608187435</v>
+        <v>1545.676901069418</v>
       </c>
       <c r="F15">
-        <v>971.8009366599741</v>
+        <v>1150.908761031857</v>
       </c>
       <c r="G15">
-        <v>1368.50856233854</v>
+        <v>1642.073894083977</v>
       </c>
       <c r="H15">
-        <v>689.3907135337757</v>
+        <v>1811.686710491382</v>
       </c>
       <c r="I15">
-        <v>1272.215785158953</v>
+        <v>45.94828296253194</v>
       </c>
       <c r="J15">
-        <v>5872.777328033082</v>
+        <v>9866.647828816956</v>
       </c>
       <c r="K15">
-        <v>673.4816970676115</v>
+        <v>1769.878555633888</v>
       </c>
       <c r="L15">
-        <v>1242.856959347592</v>
+        <v>44.88793797108895</v>
       </c>
       <c r="M15">
-        <v>5737.251697386165</v>
+        <v>9638.955955844258</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1473.196060695208</v>
+        <v>1561.167909210748</v>
       </c>
       <c r="C16">
-        <v>1011.770237171885</v>
+        <v>1203.109332159493</v>
       </c>
       <c r="D16">
-        <v>1411.936402421542</v>
+        <v>1731.323716693041</v>
       </c>
       <c r="E16">
-        <v>1438.163864007838</v>
+        <v>1524.043766188214</v>
       </c>
       <c r="F16">
-        <v>987.7106195169837</v>
+        <v>1174.499723509893</v>
       </c>
       <c r="G16">
-        <v>1378.360943540429</v>
+        <v>1690.153315419989</v>
       </c>
       <c r="H16">
-        <v>105.1223769145618</v>
+        <v>3761.635461922682</v>
       </c>
       <c r="I16">
-        <v>1973.841718072064</v>
+        <v>1470.624450217915</v>
       </c>
       <c r="J16">
-        <v>4202.404351480696</v>
+        <v>1205.666006941888</v>
       </c>
       <c r="K16">
-        <v>102.6225957363682</v>
+        <v>3672.184806382593</v>
       </c>
       <c r="L16">
-        <v>1926.90430550214</v>
+        <v>1435.653405719617</v>
       </c>
       <c r="M16">
-        <v>4102.472333110066</v>
+        <v>1176.995601269928</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1495.863960863639</v>
+        <v>1654.344264229087</v>
       </c>
       <c r="C17">
-        <v>1023.378466312492</v>
+        <v>1218.648997668083</v>
       </c>
       <c r="D17">
-        <v>1426.552593527362</v>
+        <v>1787.052827044966</v>
       </c>
       <c r="E17">
-        <v>1464.700128345646</v>
+        <v>1619.878758724315</v>
       </c>
       <c r="F17">
-        <v>1002.058081597649</v>
+        <v>1193.260476883332</v>
       </c>
       <c r="G17">
-        <v>1396.832747828875</v>
+        <v>1749.822559814862</v>
       </c>
       <c r="H17">
-        <v>59.74133903207134</v>
+        <v>-1783.439344247971</v>
       </c>
       <c r="I17">
-        <v>1811.595442183879</v>
+        <v>1773.694087070399</v>
       </c>
       <c r="J17">
-        <v>626.2879968801548</v>
+        <v>-2319.866272945335</v>
       </c>
       <c r="K17">
-        <v>58.49672780223644</v>
+        <v>-1746.284357909472</v>
       </c>
       <c r="L17">
-        <v>1773.853870471715</v>
+        <v>1736.742126923099</v>
       </c>
       <c r="M17">
-        <v>613.2403302784847</v>
+        <v>-2271.535725592308</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1564.394695719477</v>
+        <v>1709.618203797588</v>
       </c>
       <c r="C18">
-        <v>1031.245969780641</v>
+        <v>1270.447501137478</v>
       </c>
       <c r="D18">
-        <v>1419.356835139737</v>
+        <v>1827.029726544749</v>
       </c>
       <c r="E18">
-        <v>1547.328571766174</v>
+        <v>1690.967823392524</v>
       </c>
       <c r="F18">
-        <v>1019.996013746671</v>
+        <v>1256.588073852342</v>
       </c>
       <c r="G18">
-        <v>1403.872942392758</v>
+        <v>1807.09849316426</v>
       </c>
       <c r="H18">
-        <v>-353.9321463174891</v>
+        <v>252.4181173160966</v>
       </c>
       <c r="I18">
-        <v>3389.302418965806</v>
+        <v>-1800.385756996884</v>
       </c>
       <c r="J18">
-        <v>5996.710263494591</v>
+        <v>3989.663140879995</v>
       </c>
       <c r="K18">
-        <v>-350.0710683576619</v>
+        <v>249.6644651271938</v>
       </c>
       <c r="L18">
-        <v>3352.328210758906</v>
+        <v>-1780.745185102372</v>
       </c>
       <c r="M18">
-        <v>5931.291606074649</v>
+        <v>3946.139542979486</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1535.500037787553</v>
+        <v>1783.353024018841</v>
       </c>
       <c r="C19">
-        <v>1062.75312083473</v>
+        <v>1290.19970569185</v>
       </c>
       <c r="D19">
-        <v>1467.304725308963</v>
+        <v>1924.310597480047</v>
       </c>
       <c r="E19">
-        <v>1508.080394255632</v>
+        <v>1751.507434304219</v>
       </c>
       <c r="F19">
-        <v>1043.775386534109</v>
+        <v>1267.160425233067</v>
       </c>
       <c r="G19">
-        <v>1441.10285521416</v>
+        <v>1889.947908239332</v>
       </c>
       <c r="H19">
-        <v>3482.572789493572</v>
+        <v>1370.38142388403</v>
       </c>
       <c r="I19">
-        <v>2246.434786821126</v>
+        <v>4998.868656448633</v>
       </c>
       <c r="J19">
-        <v>1662.914367035199</v>
+        <v>-2318.800213182219</v>
       </c>
       <c r="K19">
-        <v>3420.383989681186</v>
+        <v>1345.910327028958</v>
       </c>
       <c r="L19">
-        <v>2206.319879913606</v>
+        <v>4909.603144726336</v>
       </c>
       <c r="M19">
-        <v>1633.219467623856</v>
+        <v>-2277.393066518251</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1730.975149813241</v>
+        <v>1949.034669620876</v>
       </c>
       <c r="C20">
-        <v>1057.574664910012</v>
+        <v>1365.761445068903</v>
       </c>
       <c r="D20">
-        <v>1529.312068778881</v>
+        <v>2016.648387832659</v>
       </c>
       <c r="E20">
-        <v>1698.620474115797</v>
+        <v>1912.604115048523</v>
       </c>
       <c r="F20">
-        <v>1037.806914164031</v>
+        <v>1340.233193759203</v>
       </c>
       <c r="G20">
-        <v>1500.726796465257</v>
+        <v>1978.954025443264</v>
       </c>
       <c r="H20">
-        <v>-3065.321160448262</v>
+        <v>-2352.53665832448</v>
       </c>
       <c r="I20">
-        <v>5117.311901279651</v>
+        <v>-1216.917587719904</v>
       </c>
       <c r="J20">
-        <v>1285.489872234516</v>
+        <v>1083.179720392973</v>
       </c>
       <c r="K20">
-        <v>-3008.025437823061</v>
+        <v>-2308.564010505331</v>
       </c>
       <c r="L20">
-        <v>5021.661211536107</v>
+        <v>-1194.171464584953</v>
       </c>
       <c r="M20">
-        <v>1261.462024155367</v>
+        <v>1062.933370479086</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1764.758728676951</v>
+        <v>1978.776904322917</v>
       </c>
       <c r="C21">
-        <v>1074.283089866372</v>
+        <v>1401.269234643882</v>
       </c>
       <c r="D21">
-        <v>1587.477435261815</v>
+        <v>2108.496438463682</v>
       </c>
       <c r="E21">
-        <v>1734.366787310528</v>
+        <v>1944.69923088452</v>
       </c>
       <c r="F21">
-        <v>1055.782232980039</v>
+        <v>1377.137158272288</v>
       </c>
       <c r="G21">
-        <v>1560.138558649958</v>
+        <v>2072.184789121598</v>
       </c>
       <c r="H21">
-        <v>2745.624065588519</v>
+        <v>3530.51510682259</v>
       </c>
       <c r="I21">
-        <v>4376.258217135281</v>
+        <v>3943.007929540777</v>
       </c>
       <c r="J21">
-        <v>2019.001213833032</v>
+        <v>1692.504556771934</v>
       </c>
       <c r="K21">
-        <v>2698.340069051404</v>
+        <v>3469.714042985232</v>
       </c>
       <c r="L21">
-        <v>4300.892116954996</v>
+        <v>3875.103085748456</v>
       </c>
       <c r="M21">
-        <v>1984.230814054047</v>
+        <v>1663.356946724197</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1767.69071409531</v>
+        <v>1987.999880289201</v>
       </c>
       <c r="C22">
-        <v>1122.116657017772</v>
+        <v>1373.038196102693</v>
       </c>
       <c r="D22">
-        <v>1601.089726960429</v>
+        <v>2126.171435401588</v>
       </c>
       <c r="E22">
-        <v>1708.833087654845</v>
+        <v>1921.806765518196</v>
       </c>
       <c r="F22">
-        <v>1084.75428220031</v>
+        <v>1327.321053058208</v>
       </c>
       <c r="G22">
-        <v>1547.77930319926</v>
+        <v>2055.377713912078</v>
       </c>
       <c r="H22">
-        <v>1346.672965188811</v>
+        <v>2532.009817866629</v>
       </c>
       <c r="I22">
-        <v>-3553.647167108387</v>
+        <v>6134.863430456443</v>
       </c>
       <c r="J22">
-        <v>1881.475312182044</v>
+        <v>2475.951086036453</v>
       </c>
       <c r="K22">
-        <v>1301.83368776854</v>
+        <v>2447.703164663523</v>
       </c>
       <c r="L22">
-        <v>-3435.323732021538</v>
+        <v>5930.59494775534</v>
       </c>
       <c r="M22">
-        <v>1818.829075372431</v>
+        <v>2393.510983282742</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1794.709744116753</v>
+        <v>1961.498624941393</v>
       </c>
       <c r="C23">
-        <v>1064.166512581393</v>
+        <v>1323.339665236744</v>
       </c>
       <c r="D23">
-        <v>1598.419238018968</v>
+        <v>2131.526239306882</v>
       </c>
       <c r="E23">
-        <v>1773.063025711835</v>
+        <v>1937.840198544073</v>
       </c>
       <c r="F23">
-        <v>1051.331170872626</v>
+        <v>1307.37833155516</v>
       </c>
       <c r="G23">
-        <v>1579.140058613038</v>
+        <v>2105.817041245067</v>
       </c>
       <c r="H23">
-        <v>-910.5998381672537</v>
+        <v>786.0359854375264</v>
       </c>
       <c r="I23">
-        <v>5673.723229343688</v>
+        <v>6181.7056371528</v>
       </c>
       <c r="J23">
-        <v>-993.4763175980801</v>
+        <v>-3814.382414022545</v>
       </c>
       <c r="K23">
-        <v>-899.6167260840961</v>
+        <v>776.555288244749</v>
       </c>
       <c r="L23">
-        <v>5605.290164077481</v>
+        <v>6107.145591090649</v>
       </c>
       <c r="M23">
-        <v>-981.4935988551207</v>
+        <v>-3768.375608590255</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1765.480476832563</v>
+        <v>1981.846159916559</v>
       </c>
       <c r="C24">
-        <v>1084.879775849224</v>
+        <v>1384.370266425971</v>
       </c>
       <c r="D24">
-        <v>1640.16710918077</v>
+        <v>2213.214036592531</v>
       </c>
       <c r="E24">
-        <v>1725.742974138582</v>
+        <v>1937.238690079209</v>
       </c>
       <c r="F24">
-        <v>1060.461259994096</v>
+        <v>1353.210807053039</v>
       </c>
       <c r="G24">
-        <v>1603.250164601139</v>
+        <v>2163.39892965958</v>
       </c>
       <c r="H24">
-        <v>7741.657152491347</v>
+        <v>4677.999174849413</v>
       </c>
       <c r="I24">
-        <v>4053.11654991427</v>
+        <v>2061.958234673652</v>
       </c>
       <c r="J24">
-        <v>7066.347242729336</v>
+        <v>7806.569406765373</v>
       </c>
       <c r="K24">
-        <v>7567.407634589613</v>
+        <v>4572.706588920327</v>
       </c>
       <c r="L24">
-        <v>3961.888846218451</v>
+        <v>2015.547599166528</v>
       </c>
       <c r="M24">
-        <v>6907.297626333499</v>
+        <v>7630.858841339787</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1752.74693284783</v>
+        <v>1994.097451309596</v>
       </c>
       <c r="C25">
-        <v>1109.975970281377</v>
+        <v>1441.081755277713</v>
       </c>
       <c r="D25">
-        <v>1667.231141713494</v>
+        <v>2246.235724925403</v>
       </c>
       <c r="E25">
-        <v>1705.227203698671</v>
+        <v>1940.034329584831</v>
       </c>
       <c r="F25">
-        <v>1079.882774006804</v>
+        <v>1402.011759827014</v>
       </c>
       <c r="G25">
-        <v>1622.02988031146</v>
+        <v>2185.336737596872</v>
       </c>
       <c r="H25">
-        <v>1940.91620309945</v>
+        <v>3956.390301006061</v>
       </c>
       <c r="I25">
-        <v>-1565.092578931754</v>
+        <v>-4392.411127650079</v>
       </c>
       <c r="J25">
-        <v>624.2829930544069</v>
+        <v>3091.379145881262</v>
       </c>
       <c r="K25">
-        <v>1888.294908750559</v>
+        <v>3849.126330384415</v>
       </c>
       <c r="L25">
-        <v>-1522.660454789705</v>
+        <v>-4273.325945878543</v>
       </c>
       <c r="M25">
-        <v>607.3576981436513</v>
+        <v>3007.566989684273</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1800.299346720074</v>
+        <v>2083.14626823084</v>
       </c>
       <c r="C26">
-        <v>1218.095707243476</v>
+        <v>1521.343026674846</v>
       </c>
       <c r="D26">
-        <v>1702.596832369217</v>
+        <v>2298.984644541707</v>
       </c>
       <c r="E26">
-        <v>1758.133476073881</v>
+        <v>2034.355673353743</v>
       </c>
       <c r="F26">
-        <v>1189.565970719443</v>
+        <v>1485.710756192645</v>
       </c>
       <c r="G26">
-        <v>1662.719309818818</v>
+        <v>2245.138772011708</v>
       </c>
       <c r="H26">
-        <v>800.0398014477272</v>
+        <v>-1001.054831952529</v>
       </c>
       <c r="I26">
-        <v>-7721.307158576531</v>
+        <v>-5656.605798094221</v>
       </c>
       <c r="J26">
-        <v>1605.33058975389</v>
+        <v>7322.528384324448</v>
       </c>
       <c r="K26">
-        <v>781.3015983588292</v>
+        <v>-977.6085375177954</v>
       </c>
       <c r="L26">
-        <v>-7540.461878895004</v>
+        <v>-5524.119104248838</v>
       </c>
       <c r="M26">
-        <v>1567.73119712218</v>
+        <v>7151.023137033753</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1793.345698732267</v>
+        <v>2118.656127590173</v>
       </c>
       <c r="C27">
-        <v>1220.308718389518</v>
+        <v>1539.294180844183</v>
       </c>
       <c r="D27">
-        <v>1720.462887317049</v>
+        <v>2320.401122224936</v>
       </c>
       <c r="E27">
-        <v>1778.854016318269</v>
+        <v>2101.535674033889</v>
       </c>
       <c r="F27">
-        <v>1210.447637836876</v>
+        <v>1526.855439988877</v>
       </c>
       <c r="G27">
-        <v>1706.560156914487</v>
+        <v>2301.650406085745</v>
       </c>
       <c r="H27">
-        <v>2949.533903627681</v>
+        <v>2514.37369060539</v>
       </c>
       <c r="I27">
-        <v>1967.590232627452</v>
+        <v>4818.418157652297</v>
       </c>
       <c r="J27">
-        <v>5107.938233999887</v>
+        <v>8984.528938807865</v>
       </c>
       <c r="K27">
-        <v>2925.69928622463</v>
+        <v>2494.055519368174</v>
       </c>
       <c r="L27">
-        <v>1951.690513575917</v>
+        <v>4779.481445267228</v>
       </c>
       <c r="M27">
-        <v>5066.661965442312</v>
+        <v>8911.926684756894</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1790.399645857645</v>
+        <v>2152.129873823742</v>
       </c>
       <c r="C28">
-        <v>1244.151580212779</v>
+        <v>1576.296764170463</v>
       </c>
       <c r="D28">
-        <v>1759.637005099255</v>
+        <v>2348.853717075487</v>
       </c>
       <c r="E28">
-        <v>1779.614105822358</v>
+        <v>2139.165236029623</v>
       </c>
       <c r="F28">
-        <v>1236.656691175353</v>
+        <v>1566.801000530882</v>
       </c>
       <c r="G28">
-        <v>1749.03678217697</v>
+        <v>2334.703995888286</v>
       </c>
       <c r="H28">
-        <v>20336.08654182166</v>
+        <v>16475.96513516515</v>
       </c>
       <c r="I28">
-        <v>8031.75512408848</v>
+        <v>4060.777495351349</v>
       </c>
       <c r="J28">
-        <v>1365.192611383197</v>
+        <v>63145.33754639197</v>
       </c>
       <c r="K28">
-        <v>20213.57999638901</v>
+        <v>16376.71233314608</v>
       </c>
       <c r="L28">
-        <v>7983.371057075899</v>
+        <v>4036.314980319112</v>
       </c>
       <c r="M28">
-        <v>1356.968559507394</v>
+        <v>62764.94394671491</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1998.11876399931</v>
+        <v>2263.062106196644</v>
       </c>
       <c r="C29">
-        <v>1289.118692236644</v>
+        <v>1669.37323039517</v>
       </c>
       <c r="D29">
-        <v>1843.48373410837</v>
+        <v>2440.556110388832</v>
       </c>
       <c r="E29">
-        <v>1990.126288943312</v>
+        <v>2254.009857771858</v>
       </c>
       <c r="F29">
-        <v>1283.962217467698</v>
+        <v>1662.695737473589</v>
       </c>
       <c r="G29">
-        <v>1836.109799171936</v>
+        <v>2430.793885947277</v>
       </c>
       <c r="H29">
-        <v>-52902.12797504198</v>
+        <v>-7531.367091807558</v>
       </c>
       <c r="I29">
-        <v>20411.13723207099</v>
+        <v>-36629.9171946198</v>
       </c>
       <c r="J29">
-        <v>11894.57421303775</v>
+        <v>40543.22661853476</v>
       </c>
       <c r="K29">
-        <v>-52690.51946314181</v>
+        <v>-7501.241623440327</v>
       </c>
       <c r="L29">
-        <v>20329.49268314271</v>
+        <v>-36483.39752584132</v>
       </c>
       <c r="M29">
-        <v>11846.9959161856</v>
+        <v>40381.05371206062</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2105.64004796579</v>
+        <v>2379.811540106287</v>
       </c>
       <c r="C30">
-        <v>1298.903175025548</v>
+        <v>1687.829098683538</v>
       </c>
       <c r="D30">
-        <v>1896.98415980042</v>
+        <v>2453.828161053328</v>
       </c>
       <c r="E30">
-        <v>2099.342021900089</v>
+        <v>2372.693459727106</v>
       </c>
       <c r="F30">
-        <v>1295.018120663557</v>
+        <v>1682.780756414295</v>
       </c>
       <c r="G30">
-        <v>1891.310229113081</v>
+        <v>2446.488694968422</v>
       </c>
       <c r="H30">
-        <v>-13330.1820063079</v>
+        <v>-9970.877336623209</v>
       </c>
       <c r="I30">
-        <v>26250.67203490306</v>
+        <v>30822.01896715528</v>
       </c>
       <c r="J30">
-        <v>-4736.298362490253</v>
+        <v>83233.70423640599</v>
       </c>
       <c r="K30">
-        <v>-13290.31107308864</v>
+        <v>-9941.054174100907</v>
       </c>
       <c r="L30">
-        <v>26172.15556819846</v>
+        <v>30729.82947871913</v>
       </c>
       <c r="M30">
-        <v>-4722.131966590481</v>
+        <v>82984.74998644664</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2336.096242090082</v>
+        <v>2561.503384127048</v>
       </c>
       <c r="C31">
-        <v>1290.255572361539</v>
+        <v>1732.383579065933</v>
       </c>
       <c r="D31">
-        <v>1938.130035128706</v>
+        <v>2554.035878839677</v>
       </c>
       <c r="E31">
-        <v>2310.753975164056</v>
+        <v>2533.715872070443</v>
       </c>
       <c r="F31">
-        <v>1276.258717040063</v>
+        <v>1713.590463316697</v>
       </c>
       <c r="G31">
-        <v>1917.104955852162</v>
+        <v>2526.329375223073</v>
       </c>
       <c r="H31">
-        <v>-34700.97398657471</v>
+        <v>-13307.41670394671</v>
       </c>
       <c r="I31">
-        <v>47618.05230377171</v>
+        <v>27366.85186921522</v>
       </c>
       <c r="J31">
-        <v>60128.39810003478</v>
+        <v>18297.71869584848</v>
       </c>
       <c r="K31">
-        <v>-34324.53344036926</v>
+        <v>-13163.0561677106</v>
       </c>
       <c r="L31">
-        <v>47101.48566142309</v>
+        <v>27069.97280554523</v>
       </c>
       <c r="M31">
-        <v>59476.11764727306</v>
+        <v>18099.22273366472</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2485.260880319477</v>
+        <v>2774.171861673634</v>
       </c>
       <c r="C32">
-        <v>1324.835482985214</v>
+        <v>1779.833726208158</v>
       </c>
       <c r="D32">
-        <v>1964.516820046765</v>
+        <v>2598.822710783492</v>
       </c>
       <c r="E32">
-        <v>2465.806783408953</v>
+        <v>2752.45623066249</v>
       </c>
       <c r="F32">
-        <v>1314.464950828774</v>
+        <v>1765.90156396778</v>
       </c>
       <c r="G32">
-        <v>1949.138997580645</v>
+        <v>2578.479675865422</v>
       </c>
       <c r="H32">
-        <v>-40263.35861503883</v>
+        <v>-78274.23636952441</v>
       </c>
       <c r="I32">
-        <v>-2278.830312679033</v>
+        <v>-4497.501470171551</v>
       </c>
       <c r="J32">
-        <v>54679.69138007175</v>
+        <v>43344.75995741851</v>
       </c>
       <c r="K32">
-        <v>-39948.18555347297</v>
+        <v>-77661.5221905066</v>
       </c>
       <c r="L32">
-        <v>-2260.992110622838</v>
+        <v>-4462.295979211303</v>
       </c>
       <c r="M32">
-        <v>54251.67031251738</v>
+        <v>43005.46633739958</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>1797.495622244819</v>
+        <v>2856.025082470606</v>
       </c>
       <c r="C33">
-        <v>1390.351375137456</v>
+        <v>1861.172025510221</v>
       </c>
       <c r="D33">
-        <v>1951.946034789389</v>
+        <v>2701.031152210895</v>
       </c>
       <c r="E33">
-        <v>1783.534491198257</v>
+        <v>2833.842363383456</v>
       </c>
       <c r="F33">
-        <v>1379.552529505321</v>
+        <v>1846.716320457715</v>
       </c>
       <c r="G33">
-        <v>1936.785288888112</v>
+        <v>2680.052269475277</v>
       </c>
       <c r="H33">
-        <v>236102.6226121681</v>
+        <v>3247.421891279559</v>
       </c>
       <c r="I33">
-        <v>-6298.919259607384</v>
+        <v>-17570.53486871618</v>
       </c>
       <c r="J33">
-        <v>92349.94014794713</v>
+        <v>-39163.17559540263</v>
       </c>
       <c r="K33">
-        <v>234268.8158345979</v>
+        <v>3222.199196978358</v>
       </c>
       <c r="L33">
-        <v>-6249.995614872571</v>
+        <v>-17434.06469497858</v>
       </c>
       <c r="M33">
-        <v>91632.6590594194</v>
+        <v>-38858.99559077815</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2608.781839110742</v>
+        <v>3049.401805629032</v>
       </c>
       <c r="C34">
-        <v>1454.253893958723</v>
+        <v>1942.119358450523</v>
       </c>
       <c r="D34">
-        <v>1983.385928689446</v>
+        <v>2783.786740309672</v>
       </c>
       <c r="E34">
-        <v>2598.689839733138</v>
+        <v>3037.605280268764</v>
       </c>
       <c r="F34">
-        <v>1448.628153556562</v>
+        <v>1934.606324181855</v>
       </c>
       <c r="G34">
-        <v>1975.713255851188</v>
+        <v>2773.017739380041</v>
       </c>
       <c r="H34">
-        <v>-199631.611376099</v>
+        <v>-45518.52519754879</v>
       </c>
       <c r="I34">
-        <v>-14072.22330738175</v>
+        <v>-28030.50075904484</v>
       </c>
       <c r="J34">
-        <v>34258.36578362302</v>
+        <v>-9147.319009949309</v>
       </c>
       <c r="K34">
-        <v>-198859.3420864429</v>
+        <v>-45342.43805945382</v>
       </c>
       <c r="L34">
-        <v>-14017.78530619265</v>
+        <v>-27922.06555301372</v>
       </c>
       <c r="M34">
-        <v>34125.83825641365</v>
+        <v>-9111.932862908885</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1224.805981254672</v>
+        <v>1043.634102143072</v>
       </c>
       <c r="C4">
-        <v>803.0047755131119</v>
+        <v>702.4673992950858</v>
       </c>
       <c r="D4">
-        <v>1188.546836650112</v>
+        <v>976.946861583544</v>
       </c>
       <c r="E4">
-        <v>1193.044399893124</v>
+        <v>1016.570657030772</v>
       </c>
       <c r="F4">
-        <v>782.181312939028</v>
+        <v>684.2510647914855</v>
       </c>
       <c r="G4">
-        <v>1157.725524840709</v>
+        <v>951.6127452377794</v>
       </c>
       <c r="H4">
-        <v>6146.629730454302</v>
+        <v>265.9119789794119</v>
       </c>
       <c r="I4">
-        <v>-8364.694303298549</v>
+        <v>-3941.922476787426</v>
       </c>
       <c r="J4">
-        <v>-18281.43418440297</v>
+        <v>-9689.123228074977</v>
       </c>
       <c r="K4">
-        <v>5987.235766617561</v>
+        <v>259.0163685034466</v>
       </c>
       <c r="L4">
-        <v>-8147.781647135215</v>
+        <v>-3839.700824228919</v>
       </c>
       <c r="M4">
-        <v>-17807.36133683336</v>
+        <v>-9437.865575483082</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1241.862947628754</v>
+        <v>1056.135914141084</v>
       </c>
       <c r="C5">
-        <v>834.5465094381372</v>
+        <v>753.1217758831207</v>
       </c>
       <c r="D5">
-        <v>1269.554971482133</v>
+        <v>1024.164656885799</v>
       </c>
       <c r="E5">
-        <v>1212.388352352755</v>
+        <v>1031.069397191533</v>
       </c>
       <c r="F5">
-        <v>814.7392346888142</v>
+        <v>735.2470501896921</v>
       </c>
       <c r="G5">
-        <v>1239.423128804551</v>
+        <v>999.8569514217373</v>
       </c>
       <c r="H5">
-        <v>6144.033445297677</v>
+        <v>3317.432890955881</v>
       </c>
       <c r="I5">
-        <v>-765.9369651708796</v>
+        <v>-6972.630495817394</v>
       </c>
       <c r="J5">
-        <v>-15127.62628230802</v>
+        <v>-6248.66823603856</v>
       </c>
       <c r="K5">
-        <v>5998.209866690929</v>
+        <v>3238.696350822434</v>
       </c>
       <c r="L5">
-        <v>-747.7580815038491</v>
+        <v>-6807.140847973627</v>
       </c>
       <c r="M5">
-        <v>-14768.58451927856</v>
+        <v>-6100.361236765493</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1307.327894569066</v>
+        <v>1091.240621213677</v>
       </c>
       <c r="C6">
-        <v>859.2224166106637</v>
+        <v>800.2617616716159</v>
       </c>
       <c r="D6">
-        <v>1315.242030315829</v>
+        <v>1066.71946086061</v>
       </c>
       <c r="E6">
-        <v>1280.978650182402</v>
+        <v>1069.246624196967</v>
       </c>
       <c r="F6">
-        <v>841.9047555006813</v>
+        <v>784.1324548472268</v>
       </c>
       <c r="G6">
-        <v>1288.733276216441</v>
+        <v>1045.219688781249</v>
       </c>
       <c r="H6">
-        <v>-5245.444403519761</v>
+        <v>471.9473661701297</v>
       </c>
       <c r="I6">
-        <v>1103.060976222261</v>
+        <v>-9350.989463572849</v>
       </c>
       <c r="J6">
-        <v>-1975.088871032549</v>
+        <v>-5779.871316995936</v>
       </c>
       <c r="K6">
-        <v>-5139.722268255022</v>
+        <v>462.4352487124369</v>
       </c>
       <c r="L6">
-        <v>1080.8287394922</v>
+        <v>-9162.519908493085</v>
       </c>
       <c r="M6">
-        <v>-1935.280878283056</v>
+        <v>-5663.377786575863</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1349.562470869032</v>
+        <v>1114.118443940771</v>
       </c>
       <c r="C7">
-        <v>869.6189963813684</v>
+        <v>816.1661146050701</v>
       </c>
       <c r="D7">
-        <v>1336.835251178783</v>
+        <v>1080.940181722027</v>
       </c>
       <c r="E7">
-        <v>1333.028780567421</v>
+        <v>1100.469213387132</v>
       </c>
       <c r="F7">
-        <v>858.9651648789934</v>
+        <v>806.1671422975041</v>
       </c>
       <c r="G7">
-        <v>1320.457483936164</v>
+        <v>1067.697422987301</v>
       </c>
       <c r="H7">
-        <v>-2267.361376171924</v>
+        <v>1923.360453285898</v>
       </c>
       <c r="I7">
-        <v>1832.553896965807</v>
+        <v>1221.499176765957</v>
       </c>
       <c r="J7">
-        <v>3946.748410795046</v>
+        <v>2530.406209467698</v>
       </c>
       <c r="K7">
-        <v>-2239.583595146847</v>
+        <v>1899.797078666775</v>
       </c>
       <c r="L7">
-        <v>1810.103006957038</v>
+        <v>1206.534408903587</v>
       </c>
       <c r="M7">
-        <v>3898.396209743958</v>
+        <v>2499.405827115874</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1436.404243533077</v>
+        <v>1183.697899857955</v>
       </c>
       <c r="C8">
-        <v>911.6310372822937</v>
+        <v>844.7807565185992</v>
       </c>
       <c r="D8">
-        <v>1433.847717613016</v>
+        <v>1154.100077609992</v>
       </c>
       <c r="E8">
-        <v>1408.366322863513</v>
+        <v>1160.592685596464</v>
       </c>
       <c r="F8">
-        <v>893.8364374554623</v>
+        <v>828.29104205202</v>
       </c>
       <c r="G8">
-        <v>1405.85969910105</v>
+        <v>1131.572598617605</v>
       </c>
       <c r="H8">
-        <v>274.0632394143562</v>
+        <v>922.358227787596</v>
       </c>
       <c r="I8">
-        <v>5866.02056536188</v>
+        <v>8490.744118228593</v>
       </c>
       <c r="J8">
-        <v>-6157.339760990968</v>
+        <v>-3080.842846054197</v>
       </c>
       <c r="K8">
-        <v>268.7136566630249</v>
+        <v>904.3542383563065</v>
       </c>
       <c r="L8">
-        <v>5751.518662434396</v>
+        <v>8325.008872677585</v>
       </c>
       <c r="M8">
-        <v>-6037.151447337991</v>
+        <v>-3020.70627398407</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1349.294433079733</v>
+        <v>1250.206622000583</v>
       </c>
       <c r="C9">
-        <v>953.6962952562624</v>
+        <v>862.9319272409786</v>
       </c>
       <c r="D9">
-        <v>1500.038694962257</v>
+        <v>1199.820909367911</v>
       </c>
       <c r="E9">
-        <v>1321.514841810445</v>
+        <v>1224.467073900571</v>
       </c>
       <c r="F9">
-        <v>934.0613715303981</v>
+        <v>845.1656816801348</v>
       </c>
       <c r="G9">
-        <v>1469.155545360092</v>
+        <v>1175.118714175042</v>
       </c>
       <c r="H9">
-        <v>23907.55337447269</v>
+        <v>-2023.56918630201</v>
       </c>
       <c r="I9">
-        <v>-1905.790294271877</v>
+        <v>6963.788783124456</v>
       </c>
       <c r="J9">
-        <v>-3879.440024577612</v>
+        <v>778.1671961246934</v>
       </c>
       <c r="K9">
-        <v>23415.33904029237</v>
+        <v>-1981.907467760498</v>
       </c>
       <c r="L9">
-        <v>-1866.553435272162</v>
+        <v>6820.416661118952</v>
       </c>
       <c r="M9">
-        <v>-3799.569200542192</v>
+        <v>762.1461067927144</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1402.225602190348</v>
+        <v>1284.68675753245</v>
       </c>
       <c r="C10">
-        <v>972.7750289829245</v>
+        <v>872.8439866376877</v>
       </c>
       <c r="D10">
-        <v>1560.182763726781</v>
+        <v>1240.505114842149</v>
       </c>
       <c r="E10">
-        <v>1371.961740272571</v>
+        <v>1256.959705211606</v>
       </c>
       <c r="F10">
-        <v>951.7798844725016</v>
+        <v>854.0056272138528</v>
       </c>
       <c r="G10">
-        <v>1526.509754437714</v>
+        <v>1213.731623154908</v>
       </c>
       <c r="H10">
-        <v>157.0214496357743</v>
+        <v>2393.059525163079</v>
       </c>
       <c r="I10">
-        <v>6176.865771777124</v>
+        <v>8391.728370549956</v>
       </c>
       <c r="J10">
-        <v>-3631.461597407838</v>
+        <v>2792.097404148238</v>
       </c>
       <c r="K10">
-        <v>153.6324974853624</v>
+        <v>2341.41075843294</v>
       </c>
       <c r="L10">
-        <v>6043.552122026538</v>
+        <v>8210.6119308978</v>
       </c>
       <c r="M10">
-        <v>-3553.084728399037</v>
+        <v>2731.83630909468</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1472.140135774107</v>
+        <v>1293.577641132945</v>
       </c>
       <c r="C11">
-        <v>1007.598500669806</v>
+        <v>848.1116435798729</v>
       </c>
       <c r="D11">
-        <v>1599.295484419334</v>
+        <v>1280.417563988777</v>
       </c>
       <c r="E11">
-        <v>1441.038583609865</v>
+        <v>1266.248536038587</v>
       </c>
       <c r="F11">
-        <v>986.3112084021344</v>
+        <v>830.1937919549459</v>
       </c>
       <c r="G11">
-        <v>1565.507551649912</v>
+        <v>1253.366488693239</v>
       </c>
       <c r="H11">
-        <v>-1977.553051039114</v>
+        <v>6517.714776236279</v>
       </c>
       <c r="I11">
-        <v>4306.150626705893</v>
+        <v>17565.04557443324</v>
       </c>
       <c r="J11">
-        <v>16049.48776303825</v>
+        <v>5154.928045263693</v>
       </c>
       <c r="K11">
-        <v>-1935.77376122843</v>
+        <v>6380.01657673833</v>
       </c>
       <c r="L11">
-        <v>4215.175613465627</v>
+        <v>17193.95306229733</v>
       </c>
       <c r="M11">
-        <v>15710.41407790364</v>
+        <v>5046.021114729952</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1488.102883444346</v>
+        <v>1318.166337113757</v>
       </c>
       <c r="C12">
-        <v>1038.335601585521</v>
+        <v>882.9687933294998</v>
       </c>
       <c r="D12">
-        <v>1630.926457568958</v>
+        <v>1315.960940137429</v>
       </c>
       <c r="E12">
-        <v>1461.345846812567</v>
+        <v>1294.464867705073</v>
       </c>
       <c r="F12">
-        <v>1019.665666840553</v>
+        <v>867.0924526472267</v>
       </c>
       <c r="G12">
-        <v>1601.601362204647</v>
+        <v>1292.299125169537</v>
       </c>
       <c r="H12">
-        <v>8424.358524965906</v>
+        <v>5552.843300264927</v>
       </c>
       <c r="I12">
-        <v>8276.8813658404</v>
+        <v>718.7192342223494</v>
       </c>
       <c r="J12">
-        <v>19124.97042586895</v>
+        <v>9376.979339365171</v>
       </c>
       <c r="K12">
-        <v>8272.883198790863</v>
+        <v>5452.999644796816</v>
       </c>
       <c r="L12">
-        <v>8128.05777281699</v>
+        <v>705.7962051146168</v>
       </c>
       <c r="M12">
-        <v>18781.09128958085</v>
+        <v>9208.375284853764</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1542.312371200572</v>
+        <v>1362.550643604331</v>
       </c>
       <c r="C13">
-        <v>1069.6251174471</v>
+        <v>907.7256573208996</v>
       </c>
       <c r="D13">
-        <v>1649.306413356255</v>
+        <v>1355.407309274322</v>
       </c>
       <c r="E13">
-        <v>1504.847293357643</v>
+        <v>1329.452247403416</v>
       </c>
       <c r="F13">
-        <v>1043.642321071867</v>
+        <v>885.6756413535903</v>
       </c>
       <c r="G13">
-        <v>1609.242289954889</v>
+        <v>1322.482435364824</v>
       </c>
       <c r="H13">
-        <v>-428.7264433974607</v>
+        <v>-265.8304906133647</v>
       </c>
       <c r="I13">
-        <v>1674.256335651784</v>
+        <v>1619.376922006833</v>
       </c>
       <c r="J13">
-        <v>6603.692008381613</v>
+        <v>1183.512656022699</v>
       </c>
       <c r="K13">
-        <v>-418.3120358655386</v>
+        <v>-259.3730697887485</v>
       </c>
       <c r="L13">
-        <v>1633.586141263482</v>
+        <v>1580.039830783995</v>
       </c>
       <c r="M13">
-        <v>6443.278437327808</v>
+        <v>1154.763360734698</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1551.67362313138</v>
+        <v>1375.584888063283</v>
       </c>
       <c r="C14">
-        <v>1128.345566884815</v>
+        <v>958.6381764026108</v>
       </c>
       <c r="D14">
-        <v>1696.695646093687</v>
+        <v>1384.30777339959</v>
       </c>
       <c r="E14">
-        <v>1508.910964226184</v>
+        <v>1337.675068313507</v>
       </c>
       <c r="F14">
-        <v>1097.249429214761</v>
+        <v>932.2190140608066</v>
       </c>
       <c r="G14">
-        <v>1649.936317264333</v>
+        <v>1346.157559172042</v>
       </c>
       <c r="H14">
-        <v>2964.503632905256</v>
+        <v>2302.41076801778</v>
       </c>
       <c r="I14">
-        <v>-557.8133636055455</v>
+        <v>-878.0740549156269</v>
       </c>
       <c r="J14">
-        <v>5816.186191300335</v>
+        <v>5499.935933873364</v>
       </c>
       <c r="K14">
-        <v>2882.804713888182</v>
+        <v>2238.958502757448</v>
       </c>
       <c r="L14">
-        <v>-542.4405543723218</v>
+        <v>-853.8751636384245</v>
       </c>
       <c r="M14">
-        <v>5655.897595477097</v>
+        <v>5348.362896325672</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1582.188953850585</v>
+        <v>1430.933142239107</v>
       </c>
       <c r="C15">
-        <v>1178.095582158593</v>
+        <v>994.7568642976113</v>
       </c>
       <c r="D15">
-        <v>1680.863041188323</v>
+        <v>1400.835536252049</v>
       </c>
       <c r="E15">
-        <v>1545.676901069418</v>
+        <v>1397.911608187435</v>
       </c>
       <c r="F15">
-        <v>1150.908761031857</v>
+        <v>971.8009366599741</v>
       </c>
       <c r="G15">
-        <v>1642.073894083977</v>
+        <v>1368.50856233854</v>
       </c>
       <c r="H15">
-        <v>1811.686710491382</v>
+        <v>689.3907135337757</v>
       </c>
       <c r="I15">
-        <v>45.94828296253194</v>
+        <v>1272.215785158953</v>
       </c>
       <c r="J15">
-        <v>9866.647828816956</v>
+        <v>5872.777328033082</v>
       </c>
       <c r="K15">
-        <v>1769.878555633888</v>
+        <v>673.4816970676115</v>
       </c>
       <c r="L15">
-        <v>44.88793797108895</v>
+        <v>1242.856959347592</v>
       </c>
       <c r="M15">
-        <v>9638.955955844258</v>
+        <v>5737.251697386165</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1561.167909210748</v>
+        <v>1473.196060695208</v>
       </c>
       <c r="C16">
-        <v>1203.109332159493</v>
+        <v>1011.770237171885</v>
       </c>
       <c r="D16">
-        <v>1731.323716693041</v>
+        <v>1411.936402421542</v>
       </c>
       <c r="E16">
-        <v>1524.043766188214</v>
+        <v>1438.163864007838</v>
       </c>
       <c r="F16">
-        <v>1174.499723509893</v>
+        <v>987.7106195169837</v>
       </c>
       <c r="G16">
-        <v>1690.153315419989</v>
+        <v>1378.360943540429</v>
       </c>
       <c r="H16">
-        <v>3761.635461922682</v>
+        <v>105.1223769145618</v>
       </c>
       <c r="I16">
-        <v>1470.624450217915</v>
+        <v>1973.841718072064</v>
       </c>
       <c r="J16">
-        <v>1205.666006941888</v>
+        <v>4202.404351480696</v>
       </c>
       <c r="K16">
-        <v>3672.184806382593</v>
+        <v>102.6225957363682</v>
       </c>
       <c r="L16">
-        <v>1435.653405719617</v>
+        <v>1926.90430550214</v>
       </c>
       <c r="M16">
-        <v>1176.995601269928</v>
+        <v>4102.472333110066</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1654.344264229087</v>
+        <v>1495.863960863639</v>
       </c>
       <c r="C17">
-        <v>1218.648997668083</v>
+        <v>1023.378466312492</v>
       </c>
       <c r="D17">
-        <v>1787.052827044966</v>
+        <v>1426.552593527362</v>
       </c>
       <c r="E17">
-        <v>1619.878758724315</v>
+        <v>1464.700128345646</v>
       </c>
       <c r="F17">
-        <v>1193.260476883332</v>
+        <v>1002.058081597649</v>
       </c>
       <c r="G17">
-        <v>1749.822559814862</v>
+        <v>1396.832747828875</v>
       </c>
       <c r="H17">
-        <v>-1783.439344247971</v>
+        <v>59.74133903207134</v>
       </c>
       <c r="I17">
-        <v>1773.694087070399</v>
+        <v>1811.595442183879</v>
       </c>
       <c r="J17">
-        <v>-2319.866272945335</v>
+        <v>626.2879968801548</v>
       </c>
       <c r="K17">
-        <v>-1746.284357909472</v>
+        <v>58.49672780223644</v>
       </c>
       <c r="L17">
-        <v>1736.742126923099</v>
+        <v>1773.853870471715</v>
       </c>
       <c r="M17">
-        <v>-2271.535725592308</v>
+        <v>613.2403302784847</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1709.618203797588</v>
+        <v>1564.394695719477</v>
       </c>
       <c r="C18">
-        <v>1270.447501137478</v>
+        <v>1031.245969780641</v>
       </c>
       <c r="D18">
-        <v>1827.029726544749</v>
+        <v>1419.356835139737</v>
       </c>
       <c r="E18">
-        <v>1690.967823392524</v>
+        <v>1547.328571766174</v>
       </c>
       <c r="F18">
-        <v>1256.588073852342</v>
+        <v>1019.996013746671</v>
       </c>
       <c r="G18">
-        <v>1807.09849316426</v>
+        <v>1403.872942392758</v>
       </c>
       <c r="H18">
-        <v>252.4181173160966</v>
+        <v>-353.9321463174891</v>
       </c>
       <c r="I18">
-        <v>-1800.385756996884</v>
+        <v>3389.302418965806</v>
       </c>
       <c r="J18">
-        <v>3989.663140879995</v>
+        <v>5996.710263494591</v>
       </c>
       <c r="K18">
-        <v>249.6644651271938</v>
+        <v>-350.0710683576619</v>
       </c>
       <c r="L18">
-        <v>-1780.745185102372</v>
+        <v>3352.328210758906</v>
       </c>
       <c r="M18">
-        <v>3946.139542979486</v>
+        <v>5931.291606074649</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1783.353024018841</v>
+        <v>1535.500037787553</v>
       </c>
       <c r="C19">
-        <v>1290.19970569185</v>
+        <v>1062.75312083473</v>
       </c>
       <c r="D19">
-        <v>1924.310597480047</v>
+        <v>1467.304725308963</v>
       </c>
       <c r="E19">
-        <v>1751.507434304219</v>
+        <v>1508.080394255632</v>
       </c>
       <c r="F19">
-        <v>1267.160425233067</v>
+        <v>1043.775386534109</v>
       </c>
       <c r="G19">
-        <v>1889.947908239332</v>
+        <v>1441.10285521416</v>
       </c>
       <c r="H19">
-        <v>1370.38142388403</v>
+        <v>3482.572789493572</v>
       </c>
       <c r="I19">
-        <v>4998.868656448633</v>
+        <v>2246.434786821126</v>
       </c>
       <c r="J19">
-        <v>-2318.800213182219</v>
+        <v>1662.914367035199</v>
       </c>
       <c r="K19">
-        <v>1345.910327028958</v>
+        <v>3420.383989681186</v>
       </c>
       <c r="L19">
-        <v>4909.603144726336</v>
+        <v>2206.319879913606</v>
       </c>
       <c r="M19">
-        <v>-2277.393066518251</v>
+        <v>1633.219467623856</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1949.034669620876</v>
+        <v>1730.975149813241</v>
       </c>
       <c r="C20">
-        <v>1365.761445068903</v>
+        <v>1057.574664910012</v>
       </c>
       <c r="D20">
-        <v>2016.648387832659</v>
+        <v>1529.312068778881</v>
       </c>
       <c r="E20">
-        <v>1912.604115048523</v>
+        <v>1698.620474115797</v>
       </c>
       <c r="F20">
-        <v>1340.233193759203</v>
+        <v>1037.806914164031</v>
       </c>
       <c r="G20">
-        <v>1978.954025443264</v>
+        <v>1500.726796465257</v>
       </c>
       <c r="H20">
-        <v>-2352.53665832448</v>
+        <v>-3065.321160448262</v>
       </c>
       <c r="I20">
-        <v>-1216.917587719904</v>
+        <v>5117.311901279651</v>
       </c>
       <c r="J20">
-        <v>1083.179720392973</v>
+        <v>1285.489872234516</v>
       </c>
       <c r="K20">
-        <v>-2308.564010505331</v>
+        <v>-3008.025437823061</v>
       </c>
       <c r="L20">
-        <v>-1194.171464584953</v>
+        <v>5021.661211536107</v>
       </c>
       <c r="M20">
-        <v>1062.933370479086</v>
+        <v>1261.462024155367</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1978.776904322917</v>
+        <v>1764.758728676951</v>
       </c>
       <c r="C21">
-        <v>1401.269234643882</v>
+        <v>1074.283089866372</v>
       </c>
       <c r="D21">
-        <v>2108.496438463682</v>
+        <v>1587.477435261815</v>
       </c>
       <c r="E21">
-        <v>1944.69923088452</v>
+        <v>1734.366787310528</v>
       </c>
       <c r="F21">
-        <v>1377.137158272288</v>
+        <v>1055.782232980039</v>
       </c>
       <c r="G21">
-        <v>2072.184789121598</v>
+        <v>1560.138558649958</v>
       </c>
       <c r="H21">
-        <v>3530.51510682259</v>
+        <v>2745.624065588519</v>
       </c>
       <c r="I21">
-        <v>3943.007929540777</v>
+        <v>4376.258217135281</v>
       </c>
       <c r="J21">
-        <v>1692.504556771934</v>
+        <v>2019.001213833032</v>
       </c>
       <c r="K21">
-        <v>3469.714042985232</v>
+        <v>2698.340069051404</v>
       </c>
       <c r="L21">
-        <v>3875.103085748456</v>
+        <v>4300.892116954996</v>
       </c>
       <c r="M21">
-        <v>1663.356946724197</v>
+        <v>1984.230814054047</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1987.999880289201</v>
+        <v>1767.69071409531</v>
       </c>
       <c r="C22">
-        <v>1373.038196102693</v>
+        <v>1122.116657017772</v>
       </c>
       <c r="D22">
-        <v>2126.171435401588</v>
+        <v>1601.089726960429</v>
       </c>
       <c r="E22">
-        <v>1921.806765518196</v>
+        <v>1708.833087654845</v>
       </c>
       <c r="F22">
-        <v>1327.321053058208</v>
+        <v>1084.75428220031</v>
       </c>
       <c r="G22">
-        <v>2055.377713912078</v>
+        <v>1547.77930319926</v>
       </c>
       <c r="H22">
-        <v>2532.009817866629</v>
+        <v>1346.672965188811</v>
       </c>
       <c r="I22">
-        <v>6134.863430456443</v>
+        <v>-3553.647167108387</v>
       </c>
       <c r="J22">
-        <v>2475.951086036453</v>
+        <v>1881.475312182044</v>
       </c>
       <c r="K22">
-        <v>2447.703164663523</v>
+        <v>1301.83368776854</v>
       </c>
       <c r="L22">
-        <v>5930.59494775534</v>
+        <v>-3435.323732021538</v>
       </c>
       <c r="M22">
-        <v>2393.510983282742</v>
+        <v>1818.829075372431</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1961.498624941393</v>
+        <v>1794.709744116753</v>
       </c>
       <c r="C23">
-        <v>1323.339665236744</v>
+        <v>1064.166512581393</v>
       </c>
       <c r="D23">
-        <v>2131.526239306882</v>
+        <v>1598.419238018968</v>
       </c>
       <c r="E23">
-        <v>1937.840198544073</v>
+        <v>1773.063025711835</v>
       </c>
       <c r="F23">
-        <v>1307.37833155516</v>
+        <v>1051.331170872626</v>
       </c>
       <c r="G23">
-        <v>2105.817041245067</v>
+        <v>1579.140058613038</v>
       </c>
       <c r="H23">
-        <v>786.0359854375264</v>
+        <v>-910.5998381672537</v>
       </c>
       <c r="I23">
-        <v>6181.7056371528</v>
+        <v>5673.723229343688</v>
       </c>
       <c r="J23">
-        <v>-3814.382414022545</v>
+        <v>-993.4763175980801</v>
       </c>
       <c r="K23">
-        <v>776.555288244749</v>
+        <v>-899.6167260840961</v>
       </c>
       <c r="L23">
-        <v>6107.145591090649</v>
+        <v>5605.290164077481</v>
       </c>
       <c r="M23">
-        <v>-3768.375608590255</v>
+        <v>-981.4935988551207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1981.846159916559</v>
+        <v>1765.480476832563</v>
       </c>
       <c r="C24">
-        <v>1384.370266425971</v>
+        <v>1084.879775849224</v>
       </c>
       <c r="D24">
-        <v>2213.214036592531</v>
+        <v>1640.16710918077</v>
       </c>
       <c r="E24">
-        <v>1937.238690079209</v>
+        <v>1725.742974138582</v>
       </c>
       <c r="F24">
-        <v>1353.210807053039</v>
+        <v>1060.461259994096</v>
       </c>
       <c r="G24">
-        <v>2163.39892965958</v>
+        <v>1603.250164601139</v>
       </c>
       <c r="H24">
-        <v>4677.999174849413</v>
+        <v>7741.657152491347</v>
       </c>
       <c r="I24">
-        <v>2061.958234673652</v>
+        <v>4053.11654991427</v>
       </c>
       <c r="J24">
-        <v>7806.569406765373</v>
+        <v>7066.347242729336</v>
       </c>
       <c r="K24">
-        <v>4572.706588920327</v>
+        <v>7567.407634589613</v>
       </c>
       <c r="L24">
-        <v>2015.547599166528</v>
+        <v>3961.888846218451</v>
       </c>
       <c r="M24">
-        <v>7630.858841339787</v>
+        <v>6907.297626333499</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1994.097451309596</v>
+        <v>1752.74693284783</v>
       </c>
       <c r="C25">
-        <v>1441.081755277713</v>
+        <v>1109.975970281377</v>
       </c>
       <c r="D25">
-        <v>2246.235724925403</v>
+        <v>1667.231141713494</v>
       </c>
       <c r="E25">
-        <v>1940.034329584831</v>
+        <v>1705.227203698671</v>
       </c>
       <c r="F25">
-        <v>1402.011759827014</v>
+        <v>1079.882774006804</v>
       </c>
       <c r="G25">
-        <v>2185.336737596872</v>
+        <v>1622.02988031146</v>
       </c>
       <c r="H25">
-        <v>3956.390301006061</v>
+        <v>1940.91620309945</v>
       </c>
       <c r="I25">
-        <v>-4392.411127650079</v>
+        <v>-1565.092578931754</v>
       </c>
       <c r="J25">
-        <v>3091.379145881262</v>
+        <v>624.2829930544069</v>
       </c>
       <c r="K25">
-        <v>3849.126330384415</v>
+        <v>1888.294908750559</v>
       </c>
       <c r="L25">
-        <v>-4273.325945878543</v>
+        <v>-1522.660454789705</v>
       </c>
       <c r="M25">
-        <v>3007.566989684273</v>
+        <v>607.3576981436513</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>2083.14626823084</v>
+        <v>1800.299346720074</v>
       </c>
       <c r="C26">
-        <v>1521.343026674846</v>
+        <v>1218.095707243476</v>
       </c>
       <c r="D26">
-        <v>2298.984644541707</v>
+        <v>1702.596832369217</v>
       </c>
       <c r="E26">
-        <v>2034.355673353743</v>
+        <v>1758.133476073881</v>
       </c>
       <c r="F26">
-        <v>1485.710756192645</v>
+        <v>1189.565970719443</v>
       </c>
       <c r="G26">
-        <v>2245.138772011708</v>
+        <v>1662.719309818818</v>
       </c>
       <c r="H26">
-        <v>-1001.054831952529</v>
+        <v>800.0398014477272</v>
       </c>
       <c r="I26">
-        <v>-5656.605798094221</v>
+        <v>-7721.307158576531</v>
       </c>
       <c r="J26">
-        <v>7322.528384324448</v>
+        <v>1605.33058975389</v>
       </c>
       <c r="K26">
-        <v>-977.6085375177954</v>
+        <v>781.3015983588292</v>
       </c>
       <c r="L26">
-        <v>-5524.119104248838</v>
+        <v>-7540.461878895004</v>
       </c>
       <c r="M26">
-        <v>7151.023137033753</v>
+        <v>1567.73119712218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>2118.656127590173</v>
+        <v>1793.345698732267</v>
       </c>
       <c r="C27">
-        <v>1539.294180844183</v>
+        <v>1220.308718389518</v>
       </c>
       <c r="D27">
-        <v>2320.401122224936</v>
+        <v>1720.462887317049</v>
       </c>
       <c r="E27">
-        <v>2101.535674033889</v>
+        <v>1778.854016318269</v>
       </c>
       <c r="F27">
-        <v>1526.855439988877</v>
+        <v>1210.447637836876</v>
       </c>
       <c r="G27">
-        <v>2301.650406085745</v>
+        <v>1706.560156914487</v>
       </c>
       <c r="H27">
-        <v>2514.37369060539</v>
+        <v>2949.533903627681</v>
       </c>
       <c r="I27">
-        <v>4818.418157652297</v>
+        <v>1967.590232627452</v>
       </c>
       <c r="J27">
-        <v>8984.528938807865</v>
+        <v>5107.938233999887</v>
       </c>
       <c r="K27">
-        <v>2494.055519368174</v>
+        <v>2925.69928622463</v>
       </c>
       <c r="L27">
-        <v>4779.481445267228</v>
+        <v>1951.690513575917</v>
       </c>
       <c r="M27">
-        <v>8911.926684756894</v>
+        <v>5066.661965442312</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>2152.129873823742</v>
+        <v>1790.399645857645</v>
       </c>
       <c r="C28">
-        <v>1576.296764170463</v>
+        <v>1244.151580212779</v>
       </c>
       <c r="D28">
-        <v>2348.853717075487</v>
+        <v>1759.637005099255</v>
       </c>
       <c r="E28">
-        <v>2139.165236029623</v>
+        <v>1779.614105822358</v>
       </c>
       <c r="F28">
-        <v>1566.801000530882</v>
+        <v>1236.656691175353</v>
       </c>
       <c r="G28">
-        <v>2334.703995888286</v>
+        <v>1749.03678217697</v>
       </c>
       <c r="H28">
-        <v>16475.96513516515</v>
+        <v>20336.08654182166</v>
       </c>
       <c r="I28">
-        <v>4060.777495351349</v>
+        <v>8031.75512408848</v>
       </c>
       <c r="J28">
-        <v>63145.33754639197</v>
+        <v>1365.192611383197</v>
       </c>
       <c r="K28">
-        <v>16376.71233314608</v>
+        <v>20213.57999638901</v>
       </c>
       <c r="L28">
-        <v>4036.314980319112</v>
+        <v>7983.371057075899</v>
       </c>
       <c r="M28">
-        <v>62764.94394671491</v>
+        <v>1356.968559507394</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>2263.062106196644</v>
+        <v>1998.11876399931</v>
       </c>
       <c r="C29">
-        <v>1669.37323039517</v>
+        <v>1289.118692236644</v>
       </c>
       <c r="D29">
-        <v>2440.556110388832</v>
+        <v>1843.48373410837</v>
       </c>
       <c r="E29">
-        <v>2254.009857771858</v>
+        <v>1990.126288943312</v>
       </c>
       <c r="F29">
-        <v>1662.695737473589</v>
+        <v>1283.962217467698</v>
       </c>
       <c r="G29">
-        <v>2430.793885947277</v>
+        <v>1836.109799171936</v>
       </c>
       <c r="H29">
-        <v>-7531.367091807558</v>
+        <v>-52902.12797504198</v>
       </c>
       <c r="I29">
-        <v>-36629.9171946198</v>
+        <v>20411.13723207099</v>
       </c>
       <c r="J29">
-        <v>40543.22661853476</v>
+        <v>11894.57421303775</v>
       </c>
       <c r="K29">
-        <v>-7501.241623440327</v>
+        <v>-52690.51946314181</v>
       </c>
       <c r="L29">
-        <v>-36483.39752584132</v>
+        <v>20329.49268314271</v>
       </c>
       <c r="M29">
-        <v>40381.05371206062</v>
+        <v>11846.9959161856</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2379.811540106287</v>
+        <v>2105.64004796579</v>
       </c>
       <c r="C30">
-        <v>1687.829098683538</v>
+        <v>1298.903175025548</v>
       </c>
       <c r="D30">
-        <v>2453.828161053328</v>
+        <v>1896.98415980042</v>
       </c>
       <c r="E30">
-        <v>2372.693459727106</v>
+        <v>2099.342021900089</v>
       </c>
       <c r="F30">
-        <v>1682.780756414295</v>
+        <v>1295.018120663557</v>
       </c>
       <c r="G30">
-        <v>2446.488694968422</v>
+        <v>1891.310229113081</v>
       </c>
       <c r="H30">
-        <v>-9970.877336623209</v>
+        <v>-13330.1820063079</v>
       </c>
       <c r="I30">
-        <v>30822.01896715528</v>
+        <v>26250.67203490306</v>
       </c>
       <c r="J30">
-        <v>83233.70423640599</v>
+        <v>-4736.298362490253</v>
       </c>
       <c r="K30">
-        <v>-9941.054174100907</v>
+        <v>-13290.31107308864</v>
       </c>
       <c r="L30">
-        <v>30729.82947871913</v>
+        <v>26172.15556819846</v>
       </c>
       <c r="M30">
-        <v>82984.74998644664</v>
+        <v>-4722.131966590481</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2561.503384127048</v>
+        <v>2336.096242090082</v>
       </c>
       <c r="C31">
-        <v>1732.383579065933</v>
+        <v>1290.255572361539</v>
       </c>
       <c r="D31">
-        <v>2554.035878839677</v>
+        <v>1938.130035128706</v>
       </c>
       <c r="E31">
-        <v>2533.715872070443</v>
+        <v>2310.753975164056</v>
       </c>
       <c r="F31">
-        <v>1713.590463316697</v>
+        <v>1276.258717040063</v>
       </c>
       <c r="G31">
-        <v>2526.329375223073</v>
+        <v>1917.104955852162</v>
       </c>
       <c r="H31">
-        <v>-13307.41670394671</v>
+        <v>-34700.97398657471</v>
       </c>
       <c r="I31">
-        <v>27366.85186921522</v>
+        <v>47618.05230377171</v>
       </c>
       <c r="J31">
-        <v>18297.71869584848</v>
+        <v>60128.39810003478</v>
       </c>
       <c r="K31">
-        <v>-13163.0561677106</v>
+        <v>-34324.53344036926</v>
       </c>
       <c r="L31">
-        <v>27069.97280554523</v>
+        <v>47101.48566142309</v>
       </c>
       <c r="M31">
-        <v>18099.22273366472</v>
+        <v>59476.11764727306</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2774.171861673634</v>
+        <v>2485.260880319477</v>
       </c>
       <c r="C32">
-        <v>1779.833726208158</v>
+        <v>1324.835482985214</v>
       </c>
       <c r="D32">
-        <v>2598.822710783492</v>
+        <v>1964.516820046765</v>
       </c>
       <c r="E32">
-        <v>2752.45623066249</v>
+        <v>2465.806783408953</v>
       </c>
       <c r="F32">
-        <v>1765.90156396778</v>
+        <v>1314.464950828774</v>
       </c>
       <c r="G32">
-        <v>2578.479675865422</v>
+        <v>1949.138997580645</v>
       </c>
       <c r="H32">
-        <v>-78274.23636952441</v>
+        <v>-40263.35861503883</v>
       </c>
       <c r="I32">
-        <v>-4497.501470171551</v>
+        <v>-2278.830312679033</v>
       </c>
       <c r="J32">
-        <v>43344.75995741851</v>
+        <v>54679.69138007175</v>
       </c>
       <c r="K32">
-        <v>-77661.5221905066</v>
+        <v>-39948.18555347297</v>
       </c>
       <c r="L32">
-        <v>-4462.295979211303</v>
+        <v>-2260.992110622838</v>
       </c>
       <c r="M32">
-        <v>43005.46633739958</v>
+        <v>54251.67031251738</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2856.025082470606</v>
+        <v>1797.495622244819</v>
       </c>
       <c r="C33">
-        <v>1861.172025510221</v>
+        <v>1390.351375137456</v>
       </c>
       <c r="D33">
-        <v>2701.031152210895</v>
+        <v>1951.946034789389</v>
       </c>
       <c r="E33">
-        <v>2833.842363383456</v>
+        <v>1783.534491198257</v>
       </c>
       <c r="F33">
-        <v>1846.716320457715</v>
+        <v>1379.552529505321</v>
       </c>
       <c r="G33">
-        <v>2680.052269475277</v>
+        <v>1936.785288888112</v>
       </c>
       <c r="H33">
-        <v>3247.421891279559</v>
+        <v>236102.6226121681</v>
       </c>
       <c r="I33">
-        <v>-17570.53486871618</v>
+        <v>-6298.919259607384</v>
       </c>
       <c r="J33">
-        <v>-39163.17559540263</v>
+        <v>92349.94014794713</v>
       </c>
       <c r="K33">
-        <v>3222.199196978358</v>
+        <v>234268.8158345979</v>
       </c>
       <c r="L33">
-        <v>-17434.06469497858</v>
+        <v>-6249.995614872571</v>
       </c>
       <c r="M33">
-        <v>-38858.99559077815</v>
+        <v>91632.6590594194</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>3049.401805629032</v>
+        <v>2608.781839110742</v>
       </c>
       <c r="C34">
-        <v>1942.119358450523</v>
+        <v>1454.253893958723</v>
       </c>
       <c r="D34">
-        <v>2783.786740309672</v>
+        <v>1983.385928689446</v>
       </c>
       <c r="E34">
-        <v>3037.605280268764</v>
+        <v>2598.689839733138</v>
       </c>
       <c r="F34">
-        <v>1934.606324181855</v>
+        <v>1448.628153556562</v>
       </c>
       <c r="G34">
-        <v>2773.017739380041</v>
+        <v>1975.713255851188</v>
       </c>
       <c r="H34">
-        <v>-45518.52519754879</v>
+        <v>-199631.611376099</v>
       </c>
       <c r="I34">
-        <v>-28030.50075904484</v>
+        <v>-14072.22330738175</v>
       </c>
       <c r="J34">
-        <v>-9147.319009949309</v>
+        <v>34258.36578362302</v>
       </c>
       <c r="K34">
-        <v>-45342.43805945382</v>
+        <v>-198859.3420864429</v>
       </c>
       <c r="L34">
-        <v>-27922.06555301372</v>
+        <v>-14017.78530619265</v>
       </c>
       <c r="M34">
-        <v>-9111.932862908885</v>
+        <v>34125.83825641365</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1043.634102143072</v>
+        <v>1092.973660516295</v>
       </c>
       <c r="C4">
-        <v>702.4673992950858</v>
+        <v>705.6631624283294</v>
       </c>
       <c r="D4">
-        <v>976.946861583544</v>
+        <v>969.6478214201652</v>
       </c>
       <c r="E4">
-        <v>1016.570657030772</v>
+        <v>1064.630745494803</v>
       </c>
       <c r="F4">
-        <v>684.2510647914855</v>
+        <v>687.3639556230568</v>
       </c>
       <c r="G4">
-        <v>951.6127452377794</v>
+        <v>944.5029832634024</v>
       </c>
       <c r="H4">
-        <v>265.9119789794119</v>
+        <v>5406.459987083211</v>
       </c>
       <c r="I4">
-        <v>-3941.922476787426</v>
+        <v>-7856.969397403166</v>
       </c>
       <c r="J4">
-        <v>-9689.123228074977</v>
+        <v>-15777.42989649253</v>
       </c>
       <c r="K4">
-        <v>259.0163685034466</v>
+        <v>5266.26005224799</v>
       </c>
       <c r="L4">
-        <v>-3839.700824228919</v>
+        <v>-7653.223027292225</v>
       </c>
       <c r="M4">
-        <v>-9437.865575483082</v>
+        <v>-15368.29070954945</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1056.135914141084</v>
+        <v>1072.823104767439</v>
       </c>
       <c r="C5">
-        <v>753.1217758831207</v>
+        <v>741.1539467840439</v>
       </c>
       <c r="D5">
-        <v>1024.164656885799</v>
+        <v>1024.186410321986</v>
       </c>
       <c r="E5">
-        <v>1031.069397191533</v>
+        <v>1047.360531078338</v>
       </c>
       <c r="F5">
-        <v>735.2470501896921</v>
+        <v>723.563267667334</v>
       </c>
       <c r="G5">
-        <v>999.8569514217373</v>
+        <v>999.8781885580147</v>
       </c>
       <c r="H5">
-        <v>3317.432890955881</v>
+        <v>18281.38013386884</v>
       </c>
       <c r="I5">
-        <v>-6972.630495817394</v>
+        <v>-3336.176179187504</v>
       </c>
       <c r="J5">
-        <v>-6248.66823603856</v>
+        <v>-9665.631517556349</v>
       </c>
       <c r="K5">
-        <v>3238.696350822434</v>
+        <v>17847.48661803334</v>
       </c>
       <c r="L5">
-        <v>-6807.140847973627</v>
+        <v>-3256.994782529573</v>
       </c>
       <c r="M5">
-        <v>-6100.361236765493</v>
+        <v>-9436.225706221941</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1091.240621213677</v>
+        <v>1122.945185744329</v>
       </c>
       <c r="C6">
-        <v>800.2617616716159</v>
+        <v>776.4472268867185</v>
       </c>
       <c r="D6">
-        <v>1066.71946086061</v>
+        <v>1066.843114212644</v>
       </c>
       <c r="E6">
-        <v>1069.246624196967</v>
+        <v>1100.312182000645</v>
       </c>
       <c r="F6">
-        <v>784.1324548472268</v>
+        <v>760.7979029339629</v>
       </c>
       <c r="G6">
-        <v>1045.219688781249</v>
+        <v>1045.34084989518</v>
       </c>
       <c r="H6">
-        <v>471.9473661701297</v>
+        <v>-5212.48952575091</v>
       </c>
       <c r="I6">
-        <v>-9350.989463572849</v>
+        <v>-6293.668479227716</v>
       </c>
       <c r="J6">
-        <v>-5779.871316995936</v>
+        <v>-6524.741663134935</v>
       </c>
       <c r="K6">
-        <v>462.4352487124369</v>
+        <v>-5107.431597324922</v>
       </c>
       <c r="L6">
-        <v>-9162.519908493085</v>
+        <v>-6166.819347088243</v>
       </c>
       <c r="M6">
-        <v>-5663.377786575863</v>
+        <v>-6393.235242017488</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1114.118443940771</v>
+        <v>1161.42676726013</v>
       </c>
       <c r="C7">
-        <v>816.1661146050701</v>
+        <v>784.7537177972674</v>
       </c>
       <c r="D7">
-        <v>1080.940181722027</v>
+        <v>1085.40028483191</v>
       </c>
       <c r="E7">
-        <v>1100.469213387132</v>
+        <v>1147.197955410083</v>
       </c>
       <c r="F7">
-        <v>806.1671422975041</v>
+        <v>775.139583429154</v>
       </c>
       <c r="G7">
-        <v>1067.697422987301</v>
+        <v>1072.102884711458</v>
       </c>
       <c r="H7">
-        <v>1923.360453285898</v>
+        <v>-1372.013402947064</v>
       </c>
       <c r="I7">
-        <v>1221.499176765957</v>
+        <v>3377.3291418111</v>
       </c>
       <c r="J7">
-        <v>2530.406209467698</v>
+        <v>1480.027369907737</v>
       </c>
       <c r="K7">
-        <v>1899.797078666775</v>
+        <v>-1355.204662941588</v>
       </c>
       <c r="L7">
-        <v>1206.534408903587</v>
+        <v>3335.95298080882</v>
       </c>
       <c r="M7">
-        <v>2499.405827115874</v>
+        <v>1461.895334748071</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1183.697899857955</v>
+        <v>1228.939317628728</v>
       </c>
       <c r="C8">
-        <v>844.7807565185992</v>
+        <v>821.6642672512497</v>
       </c>
       <c r="D8">
-        <v>1154.100077609992</v>
+        <v>1159.822519579082</v>
       </c>
       <c r="E8">
-        <v>1160.592685596464</v>
+        <v>1204.951012629969</v>
       </c>
       <c r="F8">
-        <v>828.29104205202</v>
+        <v>805.6257755481473</v>
       </c>
       <c r="G8">
-        <v>1131.572598617605</v>
+        <v>1137.18334126898</v>
       </c>
       <c r="H8">
-        <v>922.358227787596</v>
+        <v>3626.932597626273</v>
       </c>
       <c r="I8">
-        <v>8490.744118228593</v>
+        <v>8012.090885410757</v>
       </c>
       <c r="J8">
-        <v>-3080.842846054197</v>
+        <v>-3073.374754749608</v>
       </c>
       <c r="K8">
-        <v>904.3542383563065</v>
+        <v>3556.136615990925</v>
       </c>
       <c r="L8">
-        <v>8325.008872677585</v>
+        <v>7855.698720980818</v>
       </c>
       <c r="M8">
-        <v>-3020.70627398407</v>
+        <v>-3013.383956233475</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1250.206622000583</v>
+        <v>1241.983034744396</v>
       </c>
       <c r="C9">
-        <v>862.9319272409786</v>
+        <v>849.4422100940131</v>
       </c>
       <c r="D9">
-        <v>1199.820909367911</v>
+        <v>1207.335968068651</v>
       </c>
       <c r="E9">
-        <v>1224.467073900571</v>
+        <v>1216.412795793776</v>
       </c>
       <c r="F9">
-        <v>845.1656816801348</v>
+        <v>831.9536940038422</v>
       </c>
       <c r="G9">
-        <v>1175.118714175042</v>
+        <v>1182.479051079002</v>
       </c>
       <c r="H9">
-        <v>-2023.56918630201</v>
+        <v>11862.07720938639</v>
       </c>
       <c r="I9">
-        <v>6963.788783124456</v>
+        <v>2702.811942217993</v>
       </c>
       <c r="J9">
-        <v>778.1671961246934</v>
+        <v>966.6319601626374</v>
       </c>
       <c r="K9">
-        <v>-1981.907467760498</v>
+        <v>11617.85797272255</v>
       </c>
       <c r="L9">
-        <v>6820.416661118952</v>
+        <v>2647.165813995858</v>
       </c>
       <c r="M9">
-        <v>762.1461067927144</v>
+        <v>946.7307139239945</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1284.68675753245</v>
+        <v>1291.695686808804</v>
       </c>
       <c r="C10">
-        <v>872.8439866376877</v>
+        <v>864.2881894583994</v>
       </c>
       <c r="D10">
-        <v>1240.505114842149</v>
+        <v>1247.178018010227</v>
       </c>
       <c r="E10">
-        <v>1256.959705211606</v>
+        <v>1263.817362633074</v>
       </c>
       <c r="F10">
-        <v>854.0056272138528</v>
+        <v>845.6344875276426</v>
       </c>
       <c r="G10">
-        <v>1213.731623154908</v>
+        <v>1220.26050683015</v>
       </c>
       <c r="H10">
-        <v>2393.059525163079</v>
+        <v>-695.9946047902878</v>
       </c>
       <c r="I10">
-        <v>8391.728370549956</v>
+        <v>8054.743594229935</v>
       </c>
       <c r="J10">
-        <v>2792.097404148238</v>
+        <v>4866.887478254263</v>
       </c>
       <c r="K10">
-        <v>2341.41075843294</v>
+        <v>-680.9731384998501</v>
       </c>
       <c r="L10">
-        <v>8210.6119308978</v>
+        <v>7880.900207304109</v>
       </c>
       <c r="M10">
-        <v>2731.83630909468</v>
+        <v>4761.846741313524</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1293.577641132945</v>
+        <v>1328.840646499237</v>
       </c>
       <c r="C11">
-        <v>848.1116435798729</v>
+        <v>876.1957412919363</v>
       </c>
       <c r="D11">
-        <v>1280.417563988777</v>
+        <v>1286.716439640725</v>
       </c>
       <c r="E11">
-        <v>1266.248536038587</v>
+        <v>1300.76654833376</v>
       </c>
       <c r="F11">
-        <v>830.1937919549459</v>
+        <v>857.6845636590081</v>
       </c>
       <c r="G11">
-        <v>1253.366488693239</v>
+        <v>1259.53228950747</v>
       </c>
       <c r="H11">
-        <v>6517.714776236279</v>
+        <v>4237.826026832106</v>
       </c>
       <c r="I11">
-        <v>17565.04557443324</v>
+        <v>12306.63215313025</v>
       </c>
       <c r="J11">
-        <v>5154.928045263693</v>
+        <v>7832.306137384286</v>
       </c>
       <c r="K11">
-        <v>6380.01657673833</v>
+        <v>4148.294491053963</v>
       </c>
       <c r="L11">
-        <v>17193.95306229733</v>
+        <v>12046.63288228946</v>
       </c>
       <c r="M11">
-        <v>5046.021114729952</v>
+        <v>7666.834880960674</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1318.166337113757</v>
+        <v>1356.983635130188</v>
       </c>
       <c r="C12">
-        <v>882.9687933294998</v>
+        <v>897.0089928108279</v>
       </c>
       <c r="D12">
-        <v>1315.960940137429</v>
+        <v>1329.998069233815</v>
       </c>
       <c r="E12">
-        <v>1294.464867705073</v>
+        <v>1332.584206006132</v>
       </c>
       <c r="F12">
-        <v>867.0924526472267</v>
+        <v>880.8802004089735</v>
       </c>
       <c r="G12">
-        <v>1292.299125169537</v>
+        <v>1306.083857753816</v>
       </c>
       <c r="H12">
-        <v>5552.843300264927</v>
+        <v>7961.36568925124</v>
       </c>
       <c r="I12">
-        <v>718.7192342223494</v>
+        <v>9265.033577043803</v>
       </c>
       <c r="J12">
-        <v>9376.979339365171</v>
+        <v>9451.746628803847</v>
       </c>
       <c r="K12">
-        <v>5452.999644796816</v>
+        <v>7818.215268835934</v>
       </c>
       <c r="L12">
-        <v>705.7962051146168</v>
+        <v>9098.442378563072</v>
       </c>
       <c r="M12">
-        <v>9208.375284853764</v>
+        <v>9281.798210858551</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1362.550643604331</v>
+        <v>1380.02653438157</v>
       </c>
       <c r="C13">
-        <v>907.7256573208996</v>
+        <v>928.0191736066439</v>
       </c>
       <c r="D13">
-        <v>1355.407309274322</v>
+        <v>1351.90824000776</v>
       </c>
       <c r="E13">
-        <v>1329.452247403416</v>
+        <v>1346.503622615216</v>
       </c>
       <c r="F13">
-        <v>885.6756413535903</v>
+        <v>905.4761977295595</v>
       </c>
       <c r="G13">
-        <v>1322.482435364824</v>
+        <v>1319.068363732268</v>
       </c>
       <c r="H13">
-        <v>-265.8304906133647</v>
+        <v>1063.717865721435</v>
       </c>
       <c r="I13">
-        <v>1619.376922006833</v>
+        <v>530.9918806636111</v>
       </c>
       <c r="J13">
-        <v>1183.512656022699</v>
+        <v>4774.869465317054</v>
       </c>
       <c r="K13">
-        <v>-259.3730697887485</v>
+        <v>1037.878565339538</v>
       </c>
       <c r="L13">
-        <v>1580.039830783995</v>
+        <v>518.0932924693533</v>
       </c>
       <c r="M13">
-        <v>1154.763360734698</v>
+        <v>4658.880733366033</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1375.584888063283</v>
+        <v>1410.223745343304</v>
       </c>
       <c r="C14">
-        <v>958.6381764026108</v>
+        <v>977.7387625159473</v>
       </c>
       <c r="D14">
-        <v>1384.30777339959</v>
+        <v>1379.639399982502</v>
       </c>
       <c r="E14">
-        <v>1337.675068313507</v>
+        <v>1371.35931141652</v>
       </c>
       <c r="F14">
-        <v>932.2190140608066</v>
+        <v>950.7932060686572</v>
       </c>
       <c r="G14">
-        <v>1346.157559172042</v>
+        <v>1341.617841715268</v>
       </c>
       <c r="H14">
-        <v>2302.41076801778</v>
+        <v>2418.986690553135</v>
       </c>
       <c r="I14">
-        <v>-878.0740549156269</v>
+        <v>-9.210108352817198</v>
       </c>
       <c r="J14">
-        <v>5499.935933873364</v>
+        <v>6219.226938130596</v>
       </c>
       <c r="K14">
-        <v>2238.958502757448</v>
+        <v>2352.321703018205</v>
       </c>
       <c r="L14">
-        <v>-853.8751636384245</v>
+        <v>-8.956286469078098</v>
       </c>
       <c r="M14">
-        <v>5348.362896325672</v>
+        <v>6047.830920150619</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1430.933142239107</v>
+        <v>1437.540742594801</v>
       </c>
       <c r="C15">
-        <v>994.7568642976113</v>
+        <v>1016.75517408828</v>
       </c>
       <c r="D15">
-        <v>1400.835536252049</v>
+        <v>1389.374507953756</v>
       </c>
       <c r="E15">
-        <v>1397.911608187435</v>
+        <v>1404.366725457998</v>
       </c>
       <c r="F15">
-        <v>971.8009366599741</v>
+        <v>993.2915931477808</v>
       </c>
       <c r="G15">
-        <v>1368.50856233854</v>
+        <v>1357.31201930867</v>
       </c>
       <c r="H15">
-        <v>689.3907135337757</v>
+        <v>1172.280285956864</v>
       </c>
       <c r="I15">
-        <v>1272.215785158953</v>
+        <v>740.6911394719318</v>
       </c>
       <c r="J15">
-        <v>5872.777328033082</v>
+        <v>6799.845143595578</v>
       </c>
       <c r="K15">
-        <v>673.4816970676115</v>
+        <v>1145.227663973244</v>
       </c>
       <c r="L15">
-        <v>1242.856959347592</v>
+        <v>723.5982670225798</v>
       </c>
       <c r="M15">
-        <v>5737.251697386165</v>
+        <v>6642.925640281834</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1473.196060695208</v>
+        <v>1431.717501623342</v>
       </c>
       <c r="C16">
-        <v>1011.770237171885</v>
+        <v>1032.547962182847</v>
       </c>
       <c r="D16">
-        <v>1411.936402421542</v>
+        <v>1413.320307499732</v>
       </c>
       <c r="E16">
-        <v>1438.163864007838</v>
+        <v>1397.67165364982</v>
       </c>
       <c r="F16">
-        <v>987.7106195169837</v>
+        <v>1007.994255948211</v>
       </c>
       <c r="G16">
-        <v>1378.360943540429</v>
+        <v>1379.711939736909</v>
       </c>
       <c r="H16">
-        <v>105.1223769145618</v>
+        <v>4796.398125545883</v>
       </c>
       <c r="I16">
-        <v>1973.841718072064</v>
+        <v>2092.052577435809</v>
       </c>
       <c r="J16">
-        <v>4202.404351480696</v>
+        <v>3854.988687500129</v>
       </c>
       <c r="K16">
-        <v>102.6225957363682</v>
+        <v>4682.341098780711</v>
       </c>
       <c r="L16">
-        <v>1926.90430550214</v>
+        <v>2042.304143178887</v>
       </c>
       <c r="M16">
-        <v>4102.472333110066</v>
+        <v>3763.318117960076</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1495.863960863639</v>
+        <v>1379.566194147015</v>
       </c>
       <c r="C17">
-        <v>1023.378466312492</v>
+        <v>1038.481744679115</v>
       </c>
       <c r="D17">
-        <v>1426.552593527362</v>
+        <v>1427.775185717202</v>
       </c>
       <c r="E17">
-        <v>1464.700128345646</v>
+        <v>1350.825231768952</v>
       </c>
       <c r="F17">
-        <v>1002.058081597649</v>
+        <v>1016.846708331633</v>
       </c>
       <c r="G17">
-        <v>1396.832747828875</v>
+        <v>1398.029869348094</v>
       </c>
       <c r="H17">
-        <v>59.74133903207134</v>
+        <v>5072.929216640558</v>
       </c>
       <c r="I17">
-        <v>1811.595442183879</v>
+        <v>2538.923650619273</v>
       </c>
       <c r="J17">
-        <v>626.2879968801548</v>
+        <v>2968.848886287207</v>
       </c>
       <c r="K17">
-        <v>58.49672780223644</v>
+        <v>4967.243191293881</v>
       </c>
       <c r="L17">
-        <v>1773.853870471715</v>
+        <v>2486.029407898039</v>
       </c>
       <c r="M17">
-        <v>613.2403302784847</v>
+        <v>2906.99786782289</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1564.394695719477</v>
+        <v>1436.633804050452</v>
       </c>
       <c r="C18">
-        <v>1031.245969780641</v>
+        <v>1077.892541647423</v>
       </c>
       <c r="D18">
-        <v>1419.356835139737</v>
+        <v>1451.355685142057</v>
       </c>
       <c r="E18">
-        <v>1547.328571766174</v>
+        <v>1420.961435278992</v>
       </c>
       <c r="F18">
-        <v>1019.996013746671</v>
+        <v>1066.13371392036</v>
       </c>
       <c r="G18">
-        <v>1403.872942392758</v>
+        <v>1435.522714031417</v>
       </c>
       <c r="H18">
-        <v>-353.9321463174891</v>
+        <v>-195.2571690426774</v>
       </c>
       <c r="I18">
-        <v>3389.302418965806</v>
+        <v>-384.9544131832632</v>
       </c>
       <c r="J18">
-        <v>5996.710263494591</v>
+        <v>4633.579087862107</v>
       </c>
       <c r="K18">
-        <v>-350.0710683576619</v>
+        <v>-193.1270908349391</v>
       </c>
       <c r="L18">
-        <v>3352.328210758906</v>
+        <v>-380.7549104939912</v>
       </c>
       <c r="M18">
-        <v>5931.291606074649</v>
+        <v>4583.030952358156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1535.500037787553</v>
+        <v>1495.201260388764</v>
       </c>
       <c r="C19">
-        <v>1062.75312083473</v>
+        <v>1083.240668402103</v>
       </c>
       <c r="D19">
-        <v>1467.304725308963</v>
+        <v>1511.967174012434</v>
       </c>
       <c r="E19">
-        <v>1508.080394255632</v>
+        <v>1468.501237881822</v>
       </c>
       <c r="F19">
-        <v>1043.775386534109</v>
+        <v>1063.89708503778</v>
       </c>
       <c r="G19">
-        <v>1441.10285521416</v>
+        <v>1484.967760190783</v>
       </c>
       <c r="H19">
-        <v>3482.572789493572</v>
+        <v>314.8766443917867</v>
       </c>
       <c r="I19">
-        <v>2246.434786821126</v>
+        <v>5534.555421995951</v>
       </c>
       <c r="J19">
-        <v>1662.914367035199</v>
+        <v>1476.459748765226</v>
       </c>
       <c r="K19">
-        <v>3420.383989681186</v>
+        <v>309.2538471705049</v>
       </c>
       <c r="L19">
-        <v>2206.319879913606</v>
+        <v>5435.724075174595</v>
       </c>
       <c r="M19">
-        <v>1633.219467623856</v>
+        <v>1450.094396108704</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1730.975149813241</v>
+        <v>1624.34984123404</v>
       </c>
       <c r="C20">
-        <v>1057.574664910012</v>
+        <v>1122.463827257997</v>
       </c>
       <c r="D20">
-        <v>1529.312068778881</v>
+        <v>1580.823111019289</v>
       </c>
       <c r="E20">
-        <v>1698.620474115797</v>
+        <v>1593.988161958638</v>
       </c>
       <c r="F20">
-        <v>1037.806914164031</v>
+        <v>1101.483194972801</v>
       </c>
       <c r="G20">
-        <v>1500.726796465257</v>
+        <v>1551.275015486218</v>
       </c>
       <c r="H20">
-        <v>-3065.321160448262</v>
+        <v>-1699.222855510247</v>
       </c>
       <c r="I20">
-        <v>5117.311901279651</v>
+        <v>2959.757093634057</v>
       </c>
       <c r="J20">
-        <v>1285.489872234516</v>
+        <v>1540.051494007114</v>
       </c>
       <c r="K20">
-        <v>-3008.025437823061</v>
+        <v>-1667.461680640897</v>
       </c>
       <c r="L20">
-        <v>5021.661211536107</v>
+        <v>2904.434531136224</v>
       </c>
       <c r="M20">
-        <v>1261.462024155367</v>
+        <v>1511.265484773336</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1764.758728676951</v>
+        <v>1660.749815366196</v>
       </c>
       <c r="C21">
-        <v>1074.283089866372</v>
+        <v>1127.882121725805</v>
       </c>
       <c r="D21">
-        <v>1587.477435261815</v>
+        <v>1642.208055943625</v>
       </c>
       <c r="E21">
-        <v>1734.366787310528</v>
+        <v>1632.149072277226</v>
       </c>
       <c r="F21">
-        <v>1055.782232980039</v>
+        <v>1108.45820458931</v>
       </c>
       <c r="G21">
-        <v>1560.138558649958</v>
+        <v>1613.926631329212</v>
       </c>
       <c r="H21">
-        <v>2745.624065588519</v>
+        <v>3946.347032507273</v>
       </c>
       <c r="I21">
-        <v>4376.258217135281</v>
+        <v>5872.45498902069</v>
       </c>
       <c r="J21">
-        <v>2019.001213833032</v>
+        <v>3174.119026685436</v>
       </c>
       <c r="K21">
-        <v>2698.340069051404</v>
+        <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>4300.892116954996</v>
+        <v>5771.322009875673</v>
       </c>
       <c r="M21">
-        <v>1984.230814054047</v>
+        <v>3119.455668016915</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1767.69071409531</v>
+        <v>1756.170835786003</v>
       </c>
       <c r="C22">
-        <v>1122.116657017772</v>
+        <v>1133.734419999832</v>
       </c>
       <c r="D22">
-        <v>1601.089726960429</v>
+        <v>1659.306526926012</v>
       </c>
       <c r="E22">
-        <v>1708.833087654845</v>
+        <v>1697.696779100565</v>
       </c>
       <c r="F22">
-        <v>1084.75428220031</v>
+        <v>1095.985216226252</v>
       </c>
       <c r="G22">
-        <v>1547.77930319926</v>
+        <v>1604.057696950674</v>
       </c>
       <c r="H22">
-        <v>1346.672965188811</v>
+        <v>-2860.158721377454</v>
       </c>
       <c r="I22">
-        <v>-3553.647167108387</v>
+        <v>2018.795876448953</v>
       </c>
       <c r="J22">
-        <v>1881.475312182044</v>
+        <v>2406.011969250478</v>
       </c>
       <c r="K22">
-        <v>1301.83368776854</v>
+        <v>-2764.925911564665</v>
       </c>
       <c r="L22">
-        <v>-3435.323732021538</v>
+        <v>1951.577367799154</v>
       </c>
       <c r="M22">
-        <v>1818.829075372431</v>
+        <v>2325.900582926933</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1794.709744116753</v>
+        <v>1743.803354772767</v>
       </c>
       <c r="C23">
-        <v>1064.166512581393</v>
+        <v>1083.801851316354</v>
       </c>
       <c r="D23">
-        <v>1598.419238018968</v>
+        <v>1657.040225953047</v>
       </c>
       <c r="E23">
-        <v>1773.063025711835</v>
+        <v>1722.770638870902</v>
       </c>
       <c r="F23">
-        <v>1051.331170872626</v>
+        <v>1070.729679864073</v>
       </c>
       <c r="G23">
-        <v>1579.140058613038</v>
+        <v>1637.053995157561</v>
       </c>
       <c r="H23">
-        <v>-910.5998381672537</v>
+        <v>2037.138608400395</v>
       </c>
       <c r="I23">
-        <v>5673.723229343688</v>
+        <v>6637.372279616597</v>
       </c>
       <c r="J23">
-        <v>-993.4763175980801</v>
+        <v>-2025.279341275164</v>
       </c>
       <c r="K23">
-        <v>-899.6167260840961</v>
+        <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>5605.290164077481</v>
+        <v>6557.316254314203</v>
       </c>
       <c r="M23">
-        <v>-981.4935988551207</v>
+        <v>-2000.851629922064</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1765.480476832563</v>
+        <v>1703.610536103614</v>
       </c>
       <c r="C24">
-        <v>1084.879775849224</v>
+        <v>1115.133612501509</v>
       </c>
       <c r="D24">
-        <v>1640.16710918077</v>
+        <v>1722.315438850125</v>
       </c>
       <c r="E24">
-        <v>1725.742974138582</v>
+        <v>1665.265604422825</v>
       </c>
       <c r="F24">
-        <v>1060.461259994096</v>
+        <v>1090.034142123662</v>
       </c>
       <c r="G24">
-        <v>1603.250164601139</v>
+        <v>1683.549496496585</v>
       </c>
       <c r="H24">
-        <v>7741.657152491347</v>
+        <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>4053.11654991427</v>
+        <v>5935.042597037328</v>
       </c>
       <c r="J24">
-        <v>7066.347242729336</v>
+        <v>6111.795104486363</v>
       </c>
       <c r="K24">
-        <v>7567.407634589613</v>
+        <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>3961.888846218451</v>
+        <v>5801.456429258353</v>
       </c>
       <c r="M24">
-        <v>6907.297626333499</v>
+        <v>5974.230584449693</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1752.74693284783</v>
+        <v>1733.199337948998</v>
       </c>
       <c r="C25">
-        <v>1109.975970281377</v>
+        <v>1150.353251832997</v>
       </c>
       <c r="D25">
-        <v>1667.231141713494</v>
+        <v>1752.232666435855</v>
       </c>
       <c r="E25">
-        <v>1705.227203698671</v>
+        <v>1686.209574876346</v>
       </c>
       <c r="F25">
-        <v>1079.882774006804</v>
+        <v>1119.165363879235</v>
       </c>
       <c r="G25">
-        <v>1622.02988031146</v>
+        <v>1704.726879858867</v>
       </c>
       <c r="H25">
-        <v>1940.91620309945</v>
+        <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-1565.092578931754</v>
+        <v>-2933.256528618303</v>
       </c>
       <c r="J25">
-        <v>624.2829930544069</v>
+        <v>-49.81198962800153</v>
       </c>
       <c r="K25">
-        <v>1888.294908750559</v>
+        <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-1522.660454789705</v>
+        <v>-2853.731325548359</v>
       </c>
       <c r="M25">
-        <v>607.3576981436513</v>
+        <v>-48.46150815737786</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1800.299346720074</v>
+        <v>1757.913207544652</v>
       </c>
       <c r="C26">
-        <v>1218.095707243476</v>
+        <v>1232.588625155828</v>
       </c>
       <c r="D26">
-        <v>1702.596832369217</v>
+        <v>1782.682676262326</v>
       </c>
       <c r="E26">
-        <v>1758.133476073881</v>
+        <v>1716.740087612344</v>
       </c>
       <c r="F26">
-        <v>1189.565970719443</v>
+        <v>1203.719441470916</v>
       </c>
       <c r="G26">
-        <v>1662.719309818818</v>
+        <v>1740.929416024003</v>
       </c>
       <c r="H26">
-        <v>800.0398014477272</v>
+        <v>4480.71787517596</v>
       </c>
       <c r="I26">
-        <v>-7721.307158576531</v>
+        <v>-7196.490575759423</v>
       </c>
       <c r="J26">
-        <v>1605.33058975389</v>
+        <v>7230.133526358925</v>
       </c>
       <c r="K26">
-        <v>781.3015983588292</v>
+        <v>4375.77234449465</v>
       </c>
       <c r="L26">
-        <v>-7540.461878895004</v>
+        <v>-7027.937334168317</v>
       </c>
       <c r="M26">
-        <v>1567.73119712218</v>
+        <v>7060.792313419765</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1793.345698732267</v>
+        <v>1802.327185987571</v>
       </c>
       <c r="C27">
-        <v>1220.308718389518</v>
+        <v>1254.595957363876</v>
       </c>
       <c r="D27">
-        <v>1720.462887317049</v>
+        <v>1798.600886287158</v>
       </c>
       <c r="E27">
-        <v>1778.854016318269</v>
+        <v>1787.762925898783</v>
       </c>
       <c r="F27">
-        <v>1210.447637836876</v>
+        <v>1244.457808213461</v>
       </c>
       <c r="G27">
-        <v>1706.560156914487</v>
+        <v>1784.0667377111</v>
       </c>
       <c r="H27">
-        <v>2949.533903627681</v>
+        <v>-417.8830837027341</v>
       </c>
       <c r="I27">
-        <v>1967.590232627452</v>
+        <v>3429.481599935254</v>
       </c>
       <c r="J27">
-        <v>5107.938233999887</v>
+        <v>7217.373248504132</v>
       </c>
       <c r="K27">
-        <v>2925.69928622463</v>
+        <v>-414.5062507031166</v>
       </c>
       <c r="L27">
-        <v>1951.690513575917</v>
+        <v>3401.768617309515</v>
       </c>
       <c r="M27">
-        <v>5066.661965442312</v>
+        <v>7159.051040435412</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1790.399645857645</v>
+        <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1244.151580212779</v>
+        <v>1275.999624889278</v>
       </c>
       <c r="D28">
-        <v>1759.637005099255</v>
+        <v>1811.385833033834</v>
       </c>
       <c r="E28">
-        <v>1779.614105822358</v>
+        <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1236.656691175353</v>
+        <v>1268.312880161029</v>
       </c>
       <c r="G28">
-        <v>1749.03678217697</v>
+        <v>1800.473870184233</v>
       </c>
       <c r="H28">
-        <v>20336.08654182166</v>
+        <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>8031.75512408848</v>
+        <v>16620.81295423352</v>
       </c>
       <c r="J28">
-        <v>1365.192611383197</v>
+        <v>64612.91653140328</v>
       </c>
       <c r="K28">
-        <v>20213.57999638901</v>
+        <v>-21079.36215818928</v>
       </c>
       <c r="L28">
-        <v>7983.371057075899</v>
+        <v>16520.68757499116</v>
       </c>
       <c r="M28">
-        <v>1356.968559507394</v>
+        <v>64223.68209446712</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1998.11876399931</v>
+        <v>1977.856746520409</v>
       </c>
       <c r="C29">
-        <v>1289.118692236644</v>
+        <v>1340.832055915711</v>
       </c>
       <c r="D29">
-        <v>1843.48373410837</v>
+        <v>1886.164279961067</v>
       </c>
       <c r="E29">
-        <v>1990.126288943312</v>
+        <v>1969.945319534327</v>
       </c>
       <c r="F29">
-        <v>1283.962217467698</v>
+        <v>1335.468727692048</v>
       </c>
       <c r="G29">
-        <v>1836.109799171936</v>
+        <v>1878.619622841222</v>
       </c>
       <c r="H29">
-        <v>-52902.12797504198</v>
+        <v>-65405.66105671858</v>
       </c>
       <c r="I29">
-        <v>20411.13723207099</v>
+        <v>-8064.863141473237</v>
       </c>
       <c r="J29">
-        <v>11894.57421303775</v>
+        <v>31952.63119336948</v>
       </c>
       <c r="K29">
-        <v>-52690.51946314181</v>
+        <v>-65144.0384124917</v>
       </c>
       <c r="L29">
-        <v>20329.49268314271</v>
+        <v>-8032.603688907345</v>
       </c>
       <c r="M29">
-        <v>11846.9959161856</v>
+        <v>31824.820668596</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2105.64004796579</v>
+        <v>2004.679136249755</v>
       </c>
       <c r="C30">
-        <v>1298.903175025548</v>
+        <v>1358.533511390568</v>
       </c>
       <c r="D30">
-        <v>1896.98415980042</v>
+        <v>1902.148783732506</v>
       </c>
       <c r="E30">
-        <v>2099.342021900089</v>
+        <v>1998.683086988789</v>
       </c>
       <c r="F30">
-        <v>1295.018120663557</v>
+        <v>1354.470101087306</v>
       </c>
       <c r="G30">
-        <v>1891.310229113081</v>
+        <v>1896.459405515958</v>
       </c>
       <c r="H30">
-        <v>-13330.1820063079</v>
+        <v>33088.01454274101</v>
       </c>
       <c r="I30">
-        <v>26250.67203490306</v>
+        <v>24851.20897358424</v>
       </c>
       <c r="J30">
-        <v>-4736.298362490253</v>
+        <v>59911.5626073447</v>
       </c>
       <c r="K30">
-        <v>-13290.31107308864</v>
+        <v>32989.04740053939</v>
       </c>
       <c r="L30">
-        <v>26172.15556819846</v>
+        <v>24776.87833856853</v>
       </c>
       <c r="M30">
-        <v>-4722.131966590481</v>
+        <v>59732.36551081226</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2336.096242090082</v>
+        <v>2163.076362360478</v>
       </c>
       <c r="C31">
-        <v>1290.255572361539</v>
+        <v>1391.586771850942</v>
       </c>
       <c r="D31">
-        <v>1938.130035128706</v>
+        <v>1960.624234081546</v>
       </c>
       <c r="E31">
-        <v>2310.753975164056</v>
+        <v>2139.611036930532</v>
       </c>
       <c r="F31">
-        <v>1276.258717040063</v>
+        <v>1376.490662886089</v>
       </c>
       <c r="G31">
-        <v>1917.104955852162</v>
+        <v>1939.355134895257</v>
       </c>
       <c r="H31">
-        <v>-34700.97398657471</v>
+        <v>-4785.884914582191</v>
       </c>
       <c r="I31">
-        <v>47618.05230377171</v>
+        <v>27611.55247994559</v>
       </c>
       <c r="J31">
-        <v>60128.39810003478</v>
+        <v>53619.55080636678</v>
       </c>
       <c r="K31">
-        <v>-34324.53344036926</v>
+        <v>-4733.967030893426</v>
       </c>
       <c r="L31">
-        <v>47101.48566142309</v>
+        <v>27312.01887316117</v>
       </c>
       <c r="M31">
-        <v>59476.11764727306</v>
+        <v>53037.8791506764</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2485.260880319477</v>
+        <v>2264.818651424481</v>
       </c>
       <c r="C32">
-        <v>1324.835482985214</v>
+        <v>1426.23134600604</v>
       </c>
       <c r="D32">
-        <v>1964.516820046765</v>
+        <v>1977.624003536699</v>
       </c>
       <c r="E32">
-        <v>2465.806783408953</v>
+        <v>2247.090129691217</v>
       </c>
       <c r="F32">
-        <v>1314.464950828774</v>
+        <v>1415.067108463919</v>
       </c>
       <c r="G32">
-        <v>1949.138997580645</v>
+        <v>1962.143580808428</v>
       </c>
       <c r="H32">
-        <v>-40263.35861503883</v>
+        <v>-12395.46097991469</v>
       </c>
       <c r="I32">
-        <v>-2278.830312679033</v>
+        <v>-1508.481369139732</v>
       </c>
       <c r="J32">
-        <v>54679.69138007175</v>
+        <v>74017.0388441033</v>
       </c>
       <c r="K32">
-        <v>-39948.18555347297</v>
+        <v>-12298.43193114823</v>
       </c>
       <c r="L32">
-        <v>-2260.992110622838</v>
+        <v>-1496.673295800087</v>
       </c>
       <c r="M32">
-        <v>54251.67031251738</v>
+        <v>73437.64910755453</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>1797.495622244819</v>
+        <v>2338.88712824519</v>
       </c>
       <c r="C33">
-        <v>1390.351375137456</v>
+        <v>1474.132956453719</v>
       </c>
       <c r="D33">
-        <v>1951.946034789389</v>
+        <v>2009.029574024837</v>
       </c>
       <c r="E33">
-        <v>1783.534491198257</v>
+        <v>2320.721014627751</v>
       </c>
       <c r="F33">
-        <v>1379.552529505321</v>
+        <v>1462.683380092913</v>
       </c>
       <c r="G33">
-        <v>1936.785288888112</v>
+        <v>1993.425460828527</v>
       </c>
       <c r="H33">
-        <v>236102.6226121681</v>
+        <v>17738.8371778313</v>
       </c>
       <c r="I33">
-        <v>-6298.919259607384</v>
+        <v>13380.58956559972</v>
       </c>
       <c r="J33">
-        <v>92349.94014794713</v>
+        <v>54944.71402189336</v>
       </c>
       <c r="K33">
-        <v>234268.8158345979</v>
+        <v>17601.05980169281</v>
       </c>
       <c r="L33">
-        <v>-6249.995614872571</v>
+        <v>13276.66265635235</v>
       </c>
       <c r="M33">
-        <v>91632.6590594194</v>
+        <v>54517.95896152914</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2608.781839110742</v>
+        <v>2563.019377976294</v>
       </c>
       <c r="C34">
-        <v>1454.253893958723</v>
+        <v>1528.969550360073</v>
       </c>
       <c r="D34">
-        <v>1983.385928689446</v>
+        <v>2050.309527872628</v>
       </c>
       <c r="E34">
-        <v>2598.689839733138</v>
+        <v>2553.104409396115</v>
       </c>
       <c r="F34">
-        <v>1448.628153556562</v>
+        <v>1523.05477453663</v>
       </c>
       <c r="G34">
-        <v>1975.713255851188</v>
+        <v>2042.377962967898</v>
       </c>
       <c r="H34">
-        <v>-199631.611376099</v>
+        <v>-111753.1690086223</v>
       </c>
       <c r="I34">
-        <v>-14072.22330738175</v>
+        <v>-9043.980006151982</v>
       </c>
       <c r="J34">
-        <v>34258.36578362302</v>
+        <v>47076.40982649913</v>
       </c>
       <c r="K34">
-        <v>-198859.3420864429</v>
+        <v>-111320.855008589</v>
       </c>
       <c r="L34">
-        <v>-14017.78530619265</v>
+        <v>-9008.993623149458</v>
       </c>
       <c r="M34">
-        <v>34125.83825641365</v>
+        <v>46894.29605541016</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -483,19 +483,19 @@
         <v>944.5029832634024</v>
       </c>
       <c r="H4">
-        <v>5406.459987083211</v>
+        <v>5406.459987083209</v>
       </c>
       <c r="I4">
-        <v>-7856.969397403166</v>
+        <v>-7856.969397403171</v>
       </c>
       <c r="J4">
         <v>-15777.42989649253</v>
       </c>
       <c r="K4">
-        <v>5266.26005224799</v>
+        <v>5266.260052247988</v>
       </c>
       <c r="L4">
-        <v>-7653.223027292225</v>
+        <v>-7653.22302729223</v>
       </c>
       <c r="M4">
         <v>-15368.29070954945</v>
@@ -521,25 +521,25 @@
         <v>723.563267667334</v>
       </c>
       <c r="G5">
-        <v>999.8781885580147</v>
+        <v>999.8781885580148</v>
       </c>
       <c r="H5">
         <v>18281.38013386884</v>
       </c>
       <c r="I5">
-        <v>-3336.176179187504</v>
+        <v>-3336.176179187502</v>
       </c>
       <c r="J5">
-        <v>-9665.631517556349</v>
+        <v>-9665.631517556343</v>
       </c>
       <c r="K5">
         <v>17847.48661803334</v>
       </c>
       <c r="L5">
-        <v>-3256.994782529573</v>
+        <v>-3256.994782529571</v>
       </c>
       <c r="M5">
-        <v>-9436.225706221941</v>
+        <v>-9436.225706221938</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -568,19 +568,19 @@
         <v>-5212.48952575091</v>
       </c>
       <c r="I6">
-        <v>-6293.668479227716</v>
+        <v>-6293.668479227717</v>
       </c>
       <c r="J6">
-        <v>-6524.741663134935</v>
+        <v>-6524.741663134942</v>
       </c>
       <c r="K6">
-        <v>-5107.431597324922</v>
+        <v>-5107.431597324923</v>
       </c>
       <c r="L6">
-        <v>-6166.819347088243</v>
+        <v>-6166.819347088244</v>
       </c>
       <c r="M6">
-        <v>-6393.235242017488</v>
+        <v>-6393.235242017494</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -609,19 +609,19 @@
         <v>-1372.013402947064</v>
       </c>
       <c r="I7">
-        <v>3377.3291418111</v>
+        <v>3377.32914181111</v>
       </c>
       <c r="J7">
-        <v>1480.027369907737</v>
+        <v>1480.027369907743</v>
       </c>
       <c r="K7">
         <v>-1355.204662941588</v>
       </c>
       <c r="L7">
-        <v>3335.95298080882</v>
+        <v>3335.95298080883</v>
       </c>
       <c r="M7">
-        <v>1461.895334748071</v>
+        <v>1461.895334748077</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -647,22 +647,22 @@
         <v>1137.18334126898</v>
       </c>
       <c r="H8">
-        <v>3626.932597626273</v>
+        <v>3626.932597626272</v>
       </c>
       <c r="I8">
         <v>8012.090885410757</v>
       </c>
       <c r="J8">
-        <v>-3073.374754749608</v>
+        <v>-3073.374754749641</v>
       </c>
       <c r="K8">
-        <v>3556.136615990925</v>
+        <v>3556.136615990924</v>
       </c>
       <c r="L8">
         <v>7855.698720980818</v>
       </c>
       <c r="M8">
-        <v>-3013.383956233475</v>
+        <v>-3013.383956233507</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -694,7 +694,7 @@
         <v>2702.811942217993</v>
       </c>
       <c r="J9">
-        <v>966.6319601626374</v>
+        <v>966.6319601626534</v>
       </c>
       <c r="K9">
         <v>11617.85797272255</v>
@@ -703,7 +703,7 @@
         <v>2647.165813995858</v>
       </c>
       <c r="M9">
-        <v>946.7307139239945</v>
+        <v>946.7307139240103</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -732,19 +732,19 @@
         <v>-695.9946047902878</v>
       </c>
       <c r="I10">
-        <v>8054.743594229935</v>
+        <v>8054.743594229934</v>
       </c>
       <c r="J10">
-        <v>4866.887478254263</v>
+        <v>4866.887478254248</v>
       </c>
       <c r="K10">
-        <v>-680.9731384998501</v>
+        <v>-680.9731384998499</v>
       </c>
       <c r="L10">
-        <v>7880.900207304109</v>
+        <v>7880.900207304108</v>
       </c>
       <c r="M10">
-        <v>4761.846741313524</v>
+        <v>4761.846741313509</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -776,16 +776,16 @@
         <v>12306.63215313025</v>
       </c>
       <c r="J11">
-        <v>7832.306137384286</v>
+        <v>7832.306137384295</v>
       </c>
       <c r="K11">
         <v>4148.294491053963</v>
       </c>
       <c r="L11">
-        <v>12046.63288228946</v>
+        <v>12046.63288228947</v>
       </c>
       <c r="M11">
-        <v>7666.834880960674</v>
+        <v>7666.834880960682</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -814,19 +814,19 @@
         <v>7961.36568925124</v>
       </c>
       <c r="I12">
-        <v>9265.033577043803</v>
+        <v>9265.033577043796</v>
       </c>
       <c r="J12">
-        <v>9451.746628803847</v>
+        <v>9451.746628803829</v>
       </c>
       <c r="K12">
         <v>7818.215268835934</v>
       </c>
       <c r="L12">
-        <v>9098.442378563072</v>
+        <v>9098.442378563064</v>
       </c>
       <c r="M12">
-        <v>9281.798210858551</v>
+        <v>9281.798210858533</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -837,7 +837,7 @@
         <v>1380.02653438157</v>
       </c>
       <c r="C13">
-        <v>928.0191736066439</v>
+        <v>928.019173606644</v>
       </c>
       <c r="D13">
         <v>1351.90824000776</v>
@@ -855,19 +855,19 @@
         <v>1063.717865721435</v>
       </c>
       <c r="I13">
-        <v>530.9918806636111</v>
+        <v>530.9918806636119</v>
       </c>
       <c r="J13">
-        <v>4774.869465317054</v>
+        <v>4774.86946531706</v>
       </c>
       <c r="K13">
         <v>1037.878565339538</v>
       </c>
       <c r="L13">
-        <v>518.0932924693533</v>
+        <v>518.0932924693542</v>
       </c>
       <c r="M13">
-        <v>4658.880733366033</v>
+        <v>4658.880733366038</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -896,19 +896,19 @@
         <v>2418.986690553135</v>
       </c>
       <c r="I14">
-        <v>-9.210108352817198</v>
+        <v>-9.210108352812693</v>
       </c>
       <c r="J14">
-        <v>6219.226938130596</v>
+        <v>6219.226938130597</v>
       </c>
       <c r="K14">
         <v>2352.321703018205</v>
       </c>
       <c r="L14">
-        <v>-8.956286469078098</v>
+        <v>-8.956286469073614</v>
       </c>
       <c r="M14">
-        <v>6047.830920150619</v>
+        <v>6047.83092015062</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -937,19 +937,19 @@
         <v>1172.280285956864</v>
       </c>
       <c r="I15">
-        <v>740.6911394719318</v>
+        <v>740.6911394719303</v>
       </c>
       <c r="J15">
-        <v>6799.845143595578</v>
+        <v>6799.845143595575</v>
       </c>
       <c r="K15">
         <v>1145.227663973244</v>
       </c>
       <c r="L15">
-        <v>723.5982670225798</v>
+        <v>723.5982670225782</v>
       </c>
       <c r="M15">
-        <v>6642.925640281834</v>
+        <v>6642.925640281831</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -978,19 +978,19 @@
         <v>4796.398125545883</v>
       </c>
       <c r="I16">
-        <v>2092.052577435809</v>
+        <v>2092.05257743581</v>
       </c>
       <c r="J16">
-        <v>3854.988687500129</v>
+        <v>3854.988687500134</v>
       </c>
       <c r="K16">
         <v>4682.341098780711</v>
       </c>
       <c r="L16">
-        <v>2042.304143178887</v>
+        <v>2042.304143178888</v>
       </c>
       <c r="M16">
-        <v>3763.318117960076</v>
+        <v>3763.318117960081</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1022,13 +1022,13 @@
         <v>2538.923650619273</v>
       </c>
       <c r="J17">
-        <v>2968.848886287207</v>
+        <v>2968.848886287206</v>
       </c>
       <c r="K17">
         <v>4967.243191293881</v>
       </c>
       <c r="L17">
-        <v>2486.029407898039</v>
+        <v>2486.029407898038</v>
       </c>
       <c r="M17">
         <v>2906.99786782289</v>
@@ -1060,19 +1060,19 @@
         <v>-195.2571690426774</v>
       </c>
       <c r="I18">
-        <v>-384.9544131832632</v>
+        <v>-384.9544131832736</v>
       </c>
       <c r="J18">
-        <v>4633.579087862107</v>
+        <v>4633.579087862097</v>
       </c>
       <c r="K18">
         <v>-193.1270908349391</v>
       </c>
       <c r="L18">
-        <v>-380.7549104939912</v>
+        <v>-380.7549104940015</v>
       </c>
       <c r="M18">
-        <v>4583.030952358156</v>
+        <v>4583.030952358147</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1098,22 +1098,22 @@
         <v>1484.967760190783</v>
       </c>
       <c r="H19">
-        <v>314.8766443917867</v>
+        <v>314.876644391787</v>
       </c>
       <c r="I19">
-        <v>5534.555421995951</v>
+        <v>5534.555421995956</v>
       </c>
       <c r="J19">
-        <v>1476.459748765226</v>
+        <v>1476.459748765255</v>
       </c>
       <c r="K19">
-        <v>309.2538471705049</v>
+        <v>309.2538471705051</v>
       </c>
       <c r="L19">
-        <v>5435.724075174595</v>
+        <v>5435.724075174599</v>
       </c>
       <c r="M19">
-        <v>1450.094396108704</v>
+        <v>1450.094396108733</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1142,19 +1142,19 @@
         <v>-1699.222855510247</v>
       </c>
       <c r="I20">
-        <v>2959.757093634057</v>
+        <v>2959.757093634054</v>
       </c>
       <c r="J20">
-        <v>1540.051494007114</v>
+        <v>1540.051494007117</v>
       </c>
       <c r="K20">
         <v>-1667.461680640897</v>
       </c>
       <c r="L20">
-        <v>2904.434531136224</v>
+        <v>2904.434531136222</v>
       </c>
       <c r="M20">
-        <v>1511.265484773336</v>
+        <v>1511.265484773339</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1168,7 +1168,7 @@
         <v>1127.882121725805</v>
       </c>
       <c r="D21">
-        <v>1642.208055943625</v>
+        <v>1642.208055943626</v>
       </c>
       <c r="E21">
         <v>1632.149072277226</v>
@@ -1183,19 +1183,19 @@
         <v>3946.347032507273</v>
       </c>
       <c r="I21">
-        <v>5872.45498902069</v>
+        <v>5872.454989020696</v>
       </c>
       <c r="J21">
-        <v>3174.119026685436</v>
+        <v>3174.119026685435</v>
       </c>
       <c r="K21">
         <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>5771.322009875673</v>
+        <v>5771.322009875678</v>
       </c>
       <c r="M21">
-        <v>3119.455668016915</v>
+        <v>3119.455668016913</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1221,22 +1221,22 @@
         <v>1604.057696950674</v>
       </c>
       <c r="H22">
-        <v>-2860.158721377454</v>
+        <v>-2860.158721377456</v>
       </c>
       <c r="I22">
-        <v>2018.795876448953</v>
+        <v>2018.795876448947</v>
       </c>
       <c r="J22">
-        <v>2406.011969250478</v>
+        <v>2406.01196925049</v>
       </c>
       <c r="K22">
-        <v>-2764.925911564665</v>
+        <v>-2764.925911564666</v>
       </c>
       <c r="L22">
-        <v>1951.577367799154</v>
+        <v>1951.577367799148</v>
       </c>
       <c r="M22">
-        <v>2325.900582926933</v>
+        <v>2325.900582926945</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1262,22 +1262,22 @@
         <v>1637.053995157561</v>
       </c>
       <c r="H23">
-        <v>2037.138608400395</v>
+        <v>2037.138608400396</v>
       </c>
       <c r="I23">
-        <v>6637.372279616597</v>
+        <v>6637.372279616602</v>
       </c>
       <c r="J23">
-        <v>-2025.279341275164</v>
+        <v>-2025.279341275168</v>
       </c>
       <c r="K23">
         <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>6557.316254314203</v>
+        <v>6557.316254314208</v>
       </c>
       <c r="M23">
-        <v>-2000.851629922064</v>
+        <v>-2000.851629922068</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1306,19 +1306,19 @@
         <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>5935.042597037328</v>
+        <v>5935.042597037314</v>
       </c>
       <c r="J24">
-        <v>6111.795104486363</v>
+        <v>6111.795104486369</v>
       </c>
       <c r="K24">
         <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>5801.456429258353</v>
+        <v>5801.45642925834</v>
       </c>
       <c r="M24">
-        <v>5974.230584449693</v>
+        <v>5974.2305844497</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,7 +1326,7 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1733.199337948998</v>
+        <v>1733.199337948999</v>
       </c>
       <c r="C25">
         <v>1150.353251832997</v>
@@ -1347,19 +1347,19 @@
         <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-2933.256528618303</v>
+        <v>-2933.256528618304</v>
       </c>
       <c r="J25">
-        <v>-49.81198962800153</v>
+        <v>-49.81198962800432</v>
       </c>
       <c r="K25">
         <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-2853.731325548359</v>
+        <v>-2853.73132554836</v>
       </c>
       <c r="M25">
-        <v>-48.46150815737786</v>
+        <v>-48.46150815738043</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1373,7 +1373,7 @@
         <v>1232.588625155828</v>
       </c>
       <c r="D26">
-        <v>1782.682676262326</v>
+        <v>1782.682676262327</v>
       </c>
       <c r="E26">
         <v>1716.740087612344</v>
@@ -1385,22 +1385,22 @@
         <v>1740.929416024003</v>
       </c>
       <c r="H26">
-        <v>4480.71787517596</v>
+        <v>4480.717875175961</v>
       </c>
       <c r="I26">
-        <v>-7196.490575759423</v>
+        <v>-7196.490575759425</v>
       </c>
       <c r="J26">
-        <v>7230.133526358925</v>
+        <v>7230.13352635892</v>
       </c>
       <c r="K26">
-        <v>4375.77234449465</v>
+        <v>4375.772344494651</v>
       </c>
       <c r="L26">
-        <v>-7027.937334168317</v>
+        <v>-7027.937334168319</v>
       </c>
       <c r="M26">
-        <v>7060.792313419765</v>
+        <v>7060.792313419761</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1426,22 +1426,22 @@
         <v>1784.0667377111</v>
       </c>
       <c r="H27">
-        <v>-417.8830837027341</v>
+        <v>-417.8830837027347</v>
       </c>
       <c r="I27">
-        <v>3429.481599935254</v>
+        <v>3429.481599935249</v>
       </c>
       <c r="J27">
-        <v>7217.373248504132</v>
+        <v>7217.37324850413</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031166</v>
+        <v>-414.5062507031167</v>
       </c>
       <c r="L27">
-        <v>3401.768617309515</v>
+        <v>3401.768617309509</v>
       </c>
       <c r="M27">
-        <v>7159.051040435412</v>
+        <v>7159.05104043541</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1455,7 +1455,7 @@
         <v>1275.999624889278</v>
       </c>
       <c r="D28">
-        <v>1811.385833033834</v>
+        <v>1811.385833033835</v>
       </c>
       <c r="E28">
         <v>1825.749457555647</v>
@@ -1470,19 +1470,19 @@
         <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>16620.81295423352</v>
+        <v>16620.81295423353</v>
       </c>
       <c r="J28">
-        <v>64612.91653140328</v>
+        <v>64612.91653140326</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818928</v>
+        <v>-21079.36215818927</v>
       </c>
       <c r="L28">
         <v>16520.68757499116</v>
       </c>
       <c r="M28">
-        <v>64223.68209446712</v>
+        <v>64223.6820944671</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1508,22 +1508,22 @@
         <v>1878.619622841222</v>
       </c>
       <c r="H29">
-        <v>-65405.66105671858</v>
+        <v>-65405.66105671859</v>
       </c>
       <c r="I29">
-        <v>-8064.863141473237</v>
+        <v>-8064.863141473224</v>
       </c>
       <c r="J29">
-        <v>31952.63119336948</v>
+        <v>31952.63119336949</v>
       </c>
       <c r="K29">
         <v>-65144.0384124917</v>
       </c>
       <c r="L29">
-        <v>-8032.603688907345</v>
+        <v>-8032.603688907333</v>
       </c>
       <c r="M29">
-        <v>31824.820668596</v>
+        <v>31824.82066859601</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1549,22 +1549,22 @@
         <v>1896.459405515958</v>
       </c>
       <c r="H30">
-        <v>33088.01454274101</v>
+        <v>33088.01454274102</v>
       </c>
       <c r="I30">
-        <v>24851.20897358424</v>
+        <v>24851.20897358423</v>
       </c>
       <c r="J30">
-        <v>59911.5626073447</v>
+        <v>59911.56260734472</v>
       </c>
       <c r="K30">
-        <v>32989.04740053939</v>
+        <v>32989.0474005394</v>
       </c>
       <c r="L30">
-        <v>24776.87833856853</v>
+        <v>24776.87833856852</v>
       </c>
       <c r="M30">
-        <v>59732.36551081226</v>
+        <v>59732.36551081228</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1590,22 +1590,22 @@
         <v>1939.355134895257</v>
       </c>
       <c r="H31">
-        <v>-4785.884914582191</v>
+        <v>-4785.884914582189</v>
       </c>
       <c r="I31">
-        <v>27611.55247994559</v>
+        <v>27611.55247994565</v>
       </c>
       <c r="J31">
-        <v>53619.55080636678</v>
+        <v>53619.55080636679</v>
       </c>
       <c r="K31">
-        <v>-4733.967030893426</v>
+        <v>-4733.967030893424</v>
       </c>
       <c r="L31">
-        <v>27312.01887316117</v>
+        <v>27312.01887316123</v>
       </c>
       <c r="M31">
-        <v>53037.8791506764</v>
+        <v>53037.87915067641</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1634,19 +1634,19 @@
         <v>-12395.46097991469</v>
       </c>
       <c r="I32">
-        <v>-1508.481369139732</v>
+        <v>-1508.481369139722</v>
       </c>
       <c r="J32">
-        <v>74017.0388441033</v>
+        <v>74017.03884410328</v>
       </c>
       <c r="K32">
         <v>-12298.43193114823</v>
       </c>
       <c r="L32">
-        <v>-1496.673295800087</v>
+        <v>-1496.673295800079</v>
       </c>
       <c r="M32">
-        <v>73437.64910755453</v>
+        <v>73437.64910755452</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1675,19 +1675,19 @@
         <v>17738.8371778313</v>
       </c>
       <c r="I33">
-        <v>13380.58956559972</v>
+        <v>13380.58956559962</v>
       </c>
       <c r="J33">
-        <v>54944.71402189336</v>
+        <v>54944.71402189331</v>
       </c>
       <c r="K33">
         <v>17601.05980169281</v>
       </c>
       <c r="L33">
-        <v>13276.66265635235</v>
+        <v>13276.66265635225</v>
       </c>
       <c r="M33">
-        <v>54517.95896152914</v>
+        <v>54517.9589615291</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1716,19 +1716,19 @@
         <v>-111753.1690086223</v>
       </c>
       <c r="I34">
-        <v>-9043.980006151982</v>
+        <v>-9043.980006151993</v>
       </c>
       <c r="J34">
-        <v>47076.40982649913</v>
+        <v>47076.40982649929</v>
       </c>
       <c r="K34">
         <v>-111320.855008589</v>
       </c>
       <c r="L34">
-        <v>-9008.993623149458</v>
+        <v>-9008.993623149467</v>
       </c>
       <c r="M34">
-        <v>46894.29605541016</v>
+        <v>46894.29605541032</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1092.973660516295</v>
+        <v>1224.805981254672</v>
       </c>
       <c r="C4">
-        <v>705.6631624283294</v>
+        <v>803.0047755131119</v>
       </c>
       <c r="D4">
-        <v>969.6478214201652</v>
+        <v>1182.48637686728</v>
       </c>
       <c r="E4">
-        <v>1064.630745494803</v>
+        <v>1193.044399893124</v>
       </c>
       <c r="F4">
-        <v>687.3639556230568</v>
+        <v>782.181312939028</v>
       </c>
       <c r="G4">
-        <v>944.5029832634024</v>
+        <v>1151.822224468777</v>
       </c>
       <c r="H4">
-        <v>5406.459987083209</v>
+        <v>6146.629730454302</v>
       </c>
       <c r="I4">
-        <v>-7856.969397403171</v>
+        <v>-8364.694303298549</v>
       </c>
       <c r="J4">
-        <v>-15777.42989649253</v>
+        <v>-18457.99929625427</v>
       </c>
       <c r="K4">
-        <v>5266.260052247988</v>
+        <v>5987.235766617561</v>
       </c>
       <c r="L4">
-        <v>-7653.22302729223</v>
+        <v>-8147.781647135215</v>
       </c>
       <c r="M4">
-        <v>-15368.29070954945</v>
+        <v>-17979.34777479549</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1072.823104767439</v>
+        <v>1241.862947628754</v>
       </c>
       <c r="C5">
-        <v>741.1539467840439</v>
+        <v>834.5465094381372</v>
       </c>
       <c r="D5">
-        <v>1024.186410321986</v>
+        <v>1256.059990584825</v>
       </c>
       <c r="E5">
-        <v>1047.360531078338</v>
+        <v>1212.388352352755</v>
       </c>
       <c r="F5">
-        <v>723.563267667334</v>
+        <v>814.7392346888142</v>
       </c>
       <c r="G5">
-        <v>999.8781885580148</v>
+        <v>1226.248440175375</v>
       </c>
       <c r="H5">
-        <v>18281.38013386884</v>
+        <v>6144.033445297677</v>
       </c>
       <c r="I5">
-        <v>-3336.176179187502</v>
+        <v>-765.9369651708796</v>
       </c>
       <c r="J5">
-        <v>-9665.631517556343</v>
+        <v>-13559.33085250971</v>
       </c>
       <c r="K5">
-        <v>17847.48661803334</v>
+        <v>5998.209866690929</v>
       </c>
       <c r="L5">
-        <v>-3256.994782529571</v>
+        <v>-747.7580815038491</v>
       </c>
       <c r="M5">
-        <v>-9436.225706221938</v>
+        <v>-13237.51129113686</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1122.945185744329</v>
+        <v>1307.327894569066</v>
       </c>
       <c r="C6">
-        <v>776.4472268867185</v>
+        <v>859.2224166106637</v>
       </c>
       <c r="D6">
-        <v>1066.843114212644</v>
+        <v>1305.228089524011</v>
       </c>
       <c r="E6">
-        <v>1100.312182000645</v>
+        <v>1280.978650182402</v>
       </c>
       <c r="F6">
-        <v>760.7979029339629</v>
+        <v>841.9047555006813</v>
       </c>
       <c r="G6">
-        <v>1045.34084989518</v>
+        <v>1278.921166789419</v>
       </c>
       <c r="H6">
-        <v>-5212.48952575091</v>
+        <v>-5245.444403519761</v>
       </c>
       <c r="I6">
-        <v>-6293.668479227717</v>
+        <v>1103.060976222261</v>
       </c>
       <c r="J6">
-        <v>-6524.741663134942</v>
+        <v>-6404.508418409366</v>
       </c>
       <c r="K6">
-        <v>-5107.431597324923</v>
+        <v>-5139.722268255022</v>
       </c>
       <c r="L6">
-        <v>-6166.819347088244</v>
+        <v>1080.8287394922</v>
       </c>
       <c r="M6">
-        <v>-6393.235242017494</v>
+        <v>-6275.425302999564</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1161.42676726013</v>
+        <v>1349.562470869032</v>
       </c>
       <c r="C7">
-        <v>784.7537177972674</v>
+        <v>869.6189963813684</v>
       </c>
       <c r="D7">
-        <v>1085.40028483191</v>
+        <v>1344.584815046067</v>
       </c>
       <c r="E7">
-        <v>1147.197955410083</v>
+        <v>1333.028780567421</v>
       </c>
       <c r="F7">
-        <v>775.139583429154</v>
+        <v>858.9651648789934</v>
       </c>
       <c r="G7">
-        <v>1072.102884711458</v>
+        <v>1328.112106745349</v>
       </c>
       <c r="H7">
-        <v>-1372.013402947064</v>
+        <v>-2267.361376171924</v>
       </c>
       <c r="I7">
-        <v>3377.32914181111</v>
+        <v>1832.553896965807</v>
       </c>
       <c r="J7">
-        <v>1480.027369907743</v>
+        <v>-6803.061901582225</v>
       </c>
       <c r="K7">
-        <v>-1355.204662941588</v>
+        <v>-2239.583595146847</v>
       </c>
       <c r="L7">
-        <v>3335.95298080883</v>
+        <v>1810.103006957038</v>
       </c>
       <c r="M7">
-        <v>1461.895334748077</v>
+        <v>-6719.716579663913</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1228.939317628728</v>
+        <v>1436.404243533077</v>
       </c>
       <c r="C8">
-        <v>821.6642672512497</v>
+        <v>911.6310372822937</v>
       </c>
       <c r="D8">
-        <v>1159.822519579082</v>
+        <v>1442.308014357702</v>
       </c>
       <c r="E8">
-        <v>1204.951012629969</v>
+        <v>1408.366322863513</v>
       </c>
       <c r="F8">
-        <v>805.6257755481473</v>
+        <v>893.8364374554623</v>
       </c>
       <c r="G8">
-        <v>1137.18334126898</v>
+        <v>1414.154854918288</v>
       </c>
       <c r="H8">
-        <v>3626.932597626272</v>
+        <v>274.0632394143562</v>
       </c>
       <c r="I8">
-        <v>8012.090885410757</v>
+        <v>5866.02056536188</v>
       </c>
       <c r="J8">
-        <v>-3073.374754749641</v>
+        <v>-6132.689374478928</v>
       </c>
       <c r="K8">
-        <v>3556.136615990924</v>
+        <v>268.7136566630249</v>
       </c>
       <c r="L8">
-        <v>7855.698720980818</v>
+        <v>5751.518662434396</v>
       </c>
       <c r="M8">
-        <v>-3013.383956233507</v>
+        <v>-6012.982224526636</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1241.983034744396</v>
+        <v>1349.294433079733</v>
       </c>
       <c r="C9">
-        <v>849.4422100940131</v>
+        <v>953.6962952562624</v>
       </c>
       <c r="D9">
-        <v>1207.335968068651</v>
+        <v>1500.26234060473</v>
       </c>
       <c r="E9">
-        <v>1216.412795793776</v>
+        <v>1321.514841810445</v>
       </c>
       <c r="F9">
-        <v>831.9536940038422</v>
+        <v>934.0613715303981</v>
       </c>
       <c r="G9">
-        <v>1182.479051079002</v>
+        <v>1469.374586533456</v>
       </c>
       <c r="H9">
-        <v>11862.07720938639</v>
+        <v>23907.55337447269</v>
       </c>
       <c r="I9">
-        <v>2702.811942217993</v>
+        <v>-1905.790294271877</v>
       </c>
       <c r="J9">
-        <v>966.6319601626534</v>
+        <v>2390.106802836675</v>
       </c>
       <c r="K9">
-        <v>11617.85797272255</v>
+        <v>23415.33904029237</v>
       </c>
       <c r="L9">
-        <v>2647.165813995858</v>
+        <v>-1866.553435272162</v>
       </c>
       <c r="M9">
-        <v>946.7307139240103</v>
+        <v>2340.898721601803</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1291.695686808804</v>
+        <v>1402.225602190348</v>
       </c>
       <c r="C10">
-        <v>864.2881894583994</v>
+        <v>972.7750289829245</v>
       </c>
       <c r="D10">
-        <v>1247.178018010227</v>
+        <v>1554.353436170663</v>
       </c>
       <c r="E10">
-        <v>1263.817362633074</v>
+        <v>1371.961740272571</v>
       </c>
       <c r="F10">
-        <v>845.6344875276426</v>
+        <v>951.7798844725016</v>
       </c>
       <c r="G10">
-        <v>1220.26050683015</v>
+        <v>1520.806239706548</v>
       </c>
       <c r="H10">
-        <v>-695.9946047902878</v>
+        <v>157.0214496357743</v>
       </c>
       <c r="I10">
-        <v>8054.743594229934</v>
+        <v>6176.865771777124</v>
       </c>
       <c r="J10">
-        <v>4866.887478254248</v>
+        <v>1230.718103103318</v>
       </c>
       <c r="K10">
-        <v>-680.9731384998499</v>
+        <v>153.6324974853624</v>
       </c>
       <c r="L10">
-        <v>7880.900207304108</v>
+        <v>6043.552122026538</v>
       </c>
       <c r="M10">
-        <v>4761.846741313509</v>
+        <v>1204.155841885261</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1328.840646499237</v>
+        <v>1472.140135774107</v>
       </c>
       <c r="C11">
-        <v>876.1957412919363</v>
+        <v>1007.598500669806</v>
       </c>
       <c r="D11">
-        <v>1286.716439640725</v>
+        <v>1600.04536310889</v>
       </c>
       <c r="E11">
-        <v>1300.76654833376</v>
+        <v>1441.038583609865</v>
       </c>
       <c r="F11">
-        <v>857.6845636590081</v>
+        <v>986.3112084021344</v>
       </c>
       <c r="G11">
-        <v>1259.53228950747</v>
+        <v>1566.241587831942</v>
       </c>
       <c r="H11">
-        <v>4237.826026832106</v>
+        <v>-1977.553051039114</v>
       </c>
       <c r="I11">
-        <v>12306.63215313025</v>
+        <v>4306.150626705893</v>
       </c>
       <c r="J11">
-        <v>7832.306137384295</v>
+        <v>13159.44278942812</v>
       </c>
       <c r="K11">
-        <v>4148.294491053963</v>
+        <v>-1935.77376122843</v>
       </c>
       <c r="L11">
-        <v>12046.63288228947</v>
+        <v>4215.175613465627</v>
       </c>
       <c r="M11">
-        <v>7666.834880960682</v>
+        <v>12881.42639246837</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1356.983635130188</v>
+        <v>1488.102883444346</v>
       </c>
       <c r="C12">
-        <v>897.0089928108279</v>
+        <v>1038.335601585521</v>
       </c>
       <c r="D12">
-        <v>1329.998069233815</v>
+        <v>1632.871773752673</v>
       </c>
       <c r="E12">
-        <v>1332.584206006132</v>
+        <v>1461.345846812567</v>
       </c>
       <c r="F12">
-        <v>880.8802004089735</v>
+        <v>1019.665666840553</v>
       </c>
       <c r="G12">
-        <v>1306.083857753816</v>
+        <v>1603.511700365696</v>
       </c>
       <c r="H12">
-        <v>7961.36568925124</v>
+        <v>8424.358524965906</v>
       </c>
       <c r="I12">
-        <v>9265.033577043796</v>
+        <v>8276.8813658404</v>
       </c>
       <c r="J12">
-        <v>9451.746628803829</v>
+        <v>18690.4380201774</v>
       </c>
       <c r="K12">
-        <v>7818.215268835934</v>
+        <v>8272.883198790863</v>
       </c>
       <c r="L12">
-        <v>9098.442378563064</v>
+        <v>8128.05777281699</v>
       </c>
       <c r="M12">
-        <v>9281.798210858533</v>
+        <v>18354.37205300961</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1380.02653438157</v>
+        <v>1542.312371200572</v>
       </c>
       <c r="C13">
-        <v>928.019173606644</v>
+        <v>1069.6251174471</v>
       </c>
       <c r="D13">
-        <v>1351.90824000776</v>
+        <v>1650.655948203528</v>
       </c>
       <c r="E13">
-        <v>1346.503622615216</v>
+        <v>1504.847293357643</v>
       </c>
       <c r="F13">
-        <v>905.4761977295595</v>
+        <v>1043.642321071867</v>
       </c>
       <c r="G13">
-        <v>1319.068363732268</v>
+        <v>1610.559042579151</v>
       </c>
       <c r="H13">
-        <v>1063.717865721435</v>
+        <v>-428.7264433974607</v>
       </c>
       <c r="I13">
-        <v>530.9918806636119</v>
+        <v>1674.256335651784</v>
       </c>
       <c r="J13">
-        <v>4774.86946531706</v>
+        <v>6551.845569467272</v>
       </c>
       <c r="K13">
-        <v>1037.878565339538</v>
+        <v>-418.3120358655386</v>
       </c>
       <c r="L13">
-        <v>518.0932924693542</v>
+        <v>1633.586141263482</v>
       </c>
       <c r="M13">
-        <v>4658.880733366038</v>
+        <v>6392.691426079403</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1410.223745343304</v>
+        <v>1551.67362313138</v>
       </c>
       <c r="C14">
-        <v>977.7387625159473</v>
+        <v>1128.345566884815</v>
       </c>
       <c r="D14">
-        <v>1379.639399982502</v>
+        <v>1696.036847475811</v>
       </c>
       <c r="E14">
-        <v>1371.35931141652</v>
+        <v>1508.910964226184</v>
       </c>
       <c r="F14">
-        <v>950.7932060686572</v>
+        <v>1097.249429214761</v>
       </c>
       <c r="G14">
-        <v>1341.617841715268</v>
+        <v>1649.295674513879</v>
       </c>
       <c r="H14">
-        <v>2418.986690553135</v>
+        <v>2964.503632905256</v>
       </c>
       <c r="I14">
-        <v>-9.210108352812693</v>
+        <v>-557.8133636055455</v>
       </c>
       <c r="J14">
-        <v>6219.226938130597</v>
+        <v>6184.80438137906</v>
       </c>
       <c r="K14">
-        <v>2352.321703018205</v>
+        <v>2882.804713888182</v>
       </c>
       <c r="L14">
-        <v>-8.956286469073614</v>
+        <v>-542.4405543723218</v>
       </c>
       <c r="M14">
-        <v>6047.83092015062</v>
+        <v>6014.357016537904</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1437.540742594801</v>
+        <v>1582.188953850585</v>
       </c>
       <c r="C15">
-        <v>1016.75517408828</v>
+        <v>1178.095582158593</v>
       </c>
       <c r="D15">
-        <v>1389.374507953756</v>
+        <v>1679.763809315065</v>
       </c>
       <c r="E15">
-        <v>1404.366725457998</v>
+        <v>1545.676901069418</v>
       </c>
       <c r="F15">
-        <v>993.2915931477808</v>
+        <v>1150.908761031857</v>
       </c>
       <c r="G15">
-        <v>1357.31201930867</v>
+        <v>1641.000029100102</v>
       </c>
       <c r="H15">
-        <v>1172.280285956864</v>
+        <v>1811.686710491382</v>
       </c>
       <c r="I15">
-        <v>740.6911394719303</v>
+        <v>45.94828296253194</v>
       </c>
       <c r="J15">
-        <v>6799.845143595575</v>
+        <v>9891.763140364386</v>
       </c>
       <c r="K15">
-        <v>1145.227663973244</v>
+        <v>1769.878555633888</v>
       </c>
       <c r="L15">
-        <v>723.5982670225782</v>
+        <v>44.88793797108895</v>
       </c>
       <c r="M15">
-        <v>6642.925640281831</v>
+        <v>9663.491683279055</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1431.717501623342</v>
+        <v>1561.167909210748</v>
       </c>
       <c r="C16">
-        <v>1032.547962182847</v>
+        <v>1203.109332159493</v>
       </c>
       <c r="D16">
-        <v>1413.320307499732</v>
+        <v>1728.564775238845</v>
       </c>
       <c r="E16">
-        <v>1397.67165364982</v>
+        <v>1524.043766188214</v>
       </c>
       <c r="F16">
-        <v>1007.994255948211</v>
+        <v>1174.499723509893</v>
       </c>
       <c r="G16">
-        <v>1379.711939736909</v>
+        <v>1687.459980833916</v>
       </c>
       <c r="H16">
-        <v>4796.398125545883</v>
+        <v>3761.635461922682</v>
       </c>
       <c r="I16">
-        <v>2092.05257743581</v>
+        <v>1470.624450217915</v>
       </c>
       <c r="J16">
-        <v>3854.988687500134</v>
+        <v>1523.390030087314</v>
       </c>
       <c r="K16">
-        <v>4682.341098780711</v>
+        <v>3672.184806382593</v>
       </c>
       <c r="L16">
-        <v>2042.304143178888</v>
+        <v>1435.653405719617</v>
       </c>
       <c r="M16">
-        <v>3763.318117960081</v>
+        <v>1487.164234628417</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1379.566194147015</v>
+        <v>1654.344264229087</v>
       </c>
       <c r="C17">
-        <v>1038.481744679115</v>
+        <v>1218.648997668083</v>
       </c>
       <c r="D17">
-        <v>1427.775185717202</v>
+        <v>1779.63456801994</v>
       </c>
       <c r="E17">
-        <v>1350.825231768952</v>
+        <v>1619.878758724315</v>
       </c>
       <c r="F17">
-        <v>1016.846708331633</v>
+        <v>1193.260476883332</v>
       </c>
       <c r="G17">
-        <v>1398.029869348094</v>
+        <v>1742.558847852858</v>
       </c>
       <c r="H17">
-        <v>5072.929216640558</v>
+        <v>-1783.439344247971</v>
       </c>
       <c r="I17">
-        <v>2538.923650619273</v>
+        <v>1773.694087070399</v>
       </c>
       <c r="J17">
-        <v>2968.848886287206</v>
+        <v>-2019.570743749339</v>
       </c>
       <c r="K17">
-        <v>4967.243191293881</v>
+        <v>-1746.284357909472</v>
       </c>
       <c r="L17">
-        <v>2486.029407898038</v>
+        <v>1736.742126923099</v>
       </c>
       <c r="M17">
-        <v>2906.99786782289</v>
+        <v>-1977.496353254562</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1436.633804050452</v>
+        <v>1709.618203797588</v>
       </c>
       <c r="C18">
-        <v>1077.892541647423</v>
+        <v>1270.447501137478</v>
       </c>
       <c r="D18">
-        <v>1451.355685142057</v>
+        <v>1824.221339959996</v>
       </c>
       <c r="E18">
-        <v>1420.961435278992</v>
+        <v>1690.967823392524</v>
       </c>
       <c r="F18">
-        <v>1066.13371392036</v>
+        <v>1256.588073852342</v>
       </c>
       <c r="G18">
-        <v>1435.522714031417</v>
+        <v>1804.320743524069</v>
       </c>
       <c r="H18">
-        <v>-195.2571690426774</v>
+        <v>252.4181173160966</v>
       </c>
       <c r="I18">
-        <v>-384.9544131832736</v>
+        <v>-1800.385756996884</v>
       </c>
       <c r="J18">
-        <v>4633.579087862097</v>
+        <v>3177.733699919274</v>
       </c>
       <c r="K18">
-        <v>-193.1270908349391</v>
+        <v>249.6644651271938</v>
       </c>
       <c r="L18">
-        <v>-380.7549104940015</v>
+        <v>-1780.745185102372</v>
       </c>
       <c r="M18">
-        <v>4583.030952358147</v>
+        <v>3143.067514101973</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1495.201260388764</v>
+        <v>1783.353024018841</v>
       </c>
       <c r="C19">
-        <v>1083.240668402103</v>
+        <v>1290.19970569185</v>
       </c>
       <c r="D19">
-        <v>1511.967174012434</v>
+        <v>1913.776495838806</v>
       </c>
       <c r="E19">
-        <v>1468.501237881822</v>
+        <v>1751.507434304219</v>
       </c>
       <c r="F19">
-        <v>1063.89708503778</v>
+        <v>1267.160425233067</v>
       </c>
       <c r="G19">
-        <v>1484.967760190783</v>
+        <v>1879.60191555597</v>
       </c>
       <c r="H19">
-        <v>314.876644391787</v>
+        <v>1370.38142388403</v>
       </c>
       <c r="I19">
-        <v>5534.555421995956</v>
+        <v>4998.868656448633</v>
       </c>
       <c r="J19">
-        <v>1476.459748765255</v>
+        <v>45.41269409131763</v>
       </c>
       <c r="K19">
-        <v>309.2538471705051</v>
+        <v>1345.910327028958</v>
       </c>
       <c r="L19">
-        <v>5435.724075174599</v>
+        <v>4909.603144726336</v>
       </c>
       <c r="M19">
-        <v>1450.094396108733</v>
+        <v>44.6017531254011</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1624.34984123404</v>
+        <v>1949.034669620876</v>
       </c>
       <c r="C20">
-        <v>1122.463827257997</v>
+        <v>1365.761445068903</v>
       </c>
       <c r="D20">
-        <v>1580.823111019289</v>
+        <v>2007.488768238858</v>
       </c>
       <c r="E20">
-        <v>1593.988161958638</v>
+        <v>1912.604115048523</v>
       </c>
       <c r="F20">
-        <v>1101.483194972801</v>
+        <v>1340.233193759203</v>
       </c>
       <c r="G20">
-        <v>1551.275015486218</v>
+        <v>1969.965613692338</v>
       </c>
       <c r="H20">
-        <v>-1699.222855510247</v>
+        <v>-2352.53665832448</v>
       </c>
       <c r="I20">
-        <v>2959.757093634054</v>
+        <v>-1216.917587719904</v>
       </c>
       <c r="J20">
-        <v>1540.051494007117</v>
+        <v>809.3336671754785</v>
       </c>
       <c r="K20">
-        <v>-1667.461680640897</v>
+        <v>-2308.564010505331</v>
       </c>
       <c r="L20">
-        <v>2904.434531136222</v>
+        <v>-1194.171464584953</v>
       </c>
       <c r="M20">
-        <v>1511.265484773339</v>
+        <v>794.2059350787407</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1660.749815366196</v>
+        <v>1978.776904322917</v>
       </c>
       <c r="C21">
-        <v>1127.882121725805</v>
+        <v>1401.269234643882</v>
       </c>
       <c r="D21">
-        <v>1642.208055943626</v>
+        <v>2098.347595707098</v>
       </c>
       <c r="E21">
-        <v>1632.149072277226</v>
+        <v>1944.69923088452</v>
       </c>
       <c r="F21">
-        <v>1108.45820458931</v>
+        <v>1377.137158272288</v>
       </c>
       <c r="G21">
-        <v>1613.926631329212</v>
+        <v>2062.210725516965</v>
       </c>
       <c r="H21">
-        <v>3946.347032507273</v>
+        <v>3530.51510682259</v>
       </c>
       <c r="I21">
-        <v>5872.454989020696</v>
+        <v>3943.007929540777</v>
       </c>
       <c r="J21">
-        <v>3174.119026685435</v>
+        <v>1525.762238569472</v>
       </c>
       <c r="K21">
-        <v>3878.384684071441</v>
+        <v>3469.714042985232</v>
       </c>
       <c r="L21">
-        <v>5771.322009875678</v>
+        <v>3875.103085748456</v>
       </c>
       <c r="M21">
-        <v>3119.455668016913</v>
+        <v>1499.486195425336</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1756.170835786003</v>
+        <v>1987.999880289201</v>
       </c>
       <c r="C22">
-        <v>1133.734419999832</v>
+        <v>1373.038196102693</v>
       </c>
       <c r="D22">
-        <v>1659.306526926012</v>
+        <v>2123.465783370621</v>
       </c>
       <c r="E22">
-        <v>1697.696779100565</v>
+        <v>1921.806765518196</v>
       </c>
       <c r="F22">
-        <v>1095.985216226252</v>
+        <v>1327.321053058208</v>
       </c>
       <c r="G22">
-        <v>1604.057696950674</v>
+        <v>2052.76215018403</v>
       </c>
       <c r="H22">
-        <v>-2860.158721377456</v>
+        <v>2532.009817866629</v>
       </c>
       <c r="I22">
-        <v>2018.795876448947</v>
+        <v>6134.863430456443</v>
       </c>
       <c r="J22">
-        <v>2406.01196925049</v>
+        <v>1673.052666653169</v>
       </c>
       <c r="K22">
-        <v>-2764.925911564666</v>
+        <v>2447.703164663523</v>
       </c>
       <c r="L22">
-        <v>1951.577367799148</v>
+        <v>5930.59494775534</v>
       </c>
       <c r="M22">
-        <v>2325.900582926945</v>
+        <v>1617.346140571487</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1743.803354772767</v>
+        <v>1961.498624941393</v>
       </c>
       <c r="C23">
-        <v>1083.801851316354</v>
+        <v>1323.339665236744</v>
       </c>
       <c r="D23">
-        <v>1657.040225953047</v>
+        <v>2120.474040190733</v>
       </c>
       <c r="E23">
-        <v>1722.770638870902</v>
+        <v>1937.840198544073</v>
       </c>
       <c r="F23">
-        <v>1070.729679864073</v>
+        <v>1307.37833155516</v>
       </c>
       <c r="G23">
-        <v>1637.053995157561</v>
+        <v>2094.898147162117</v>
       </c>
       <c r="H23">
-        <v>2037.138608400396</v>
+        <v>786.0359854375264</v>
       </c>
       <c r="I23">
-        <v>6637.372279616602</v>
+        <v>6181.7056371528</v>
       </c>
       <c r="J23">
-        <v>-2025.279341275168</v>
+        <v>-2455.074655584796</v>
       </c>
       <c r="K23">
-        <v>2012.56785764118</v>
+        <v>776.555288244749</v>
       </c>
       <c r="L23">
-        <v>6557.316254314208</v>
+        <v>6107.145591090649</v>
       </c>
       <c r="M23">
-        <v>-2000.851629922068</v>
+        <v>-2425.463009519628</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1703.610536103614</v>
+        <v>1981.846159916559</v>
       </c>
       <c r="C24">
-        <v>1115.133612501509</v>
+        <v>1384.370266425971</v>
       </c>
       <c r="D24">
-        <v>1722.315438850125</v>
+        <v>2213.325295581078</v>
       </c>
       <c r="E24">
-        <v>1665.265604422825</v>
+        <v>1937.238690079209</v>
       </c>
       <c r="F24">
-        <v>1090.034142123662</v>
+        <v>1353.210807053039</v>
       </c>
       <c r="G24">
-        <v>1683.549496496585</v>
+        <v>2163.50768442652</v>
       </c>
       <c r="H24">
-        <v>11771.11757410767</v>
+        <v>4677.999174849413</v>
       </c>
       <c r="I24">
-        <v>5935.042597037314</v>
+        <v>2061.958234673652</v>
       </c>
       <c r="J24">
-        <v>6111.795104486369</v>
+        <v>5723.776470553422</v>
       </c>
       <c r="K24">
-        <v>11506.17280555862</v>
+        <v>4572.706588920327</v>
       </c>
       <c r="L24">
-        <v>5801.45642925834</v>
+        <v>2015.547599166528</v>
       </c>
       <c r="M24">
-        <v>5974.2305844497</v>
+        <v>5594.945488901094</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1733.199337948999</v>
+        <v>1994.097451309596</v>
       </c>
       <c r="C25">
-        <v>1150.353251832997</v>
+        <v>1441.081755277713</v>
       </c>
       <c r="D25">
-        <v>1752.232666435855</v>
+        <v>2247.771892298287</v>
       </c>
       <c r="E25">
-        <v>1686.209574876346</v>
+        <v>1940.034329584831</v>
       </c>
       <c r="F25">
-        <v>1119.165363879235</v>
+        <v>1402.011759827014</v>
       </c>
       <c r="G25">
-        <v>1704.726879858867</v>
+        <v>2186.831257053495</v>
       </c>
       <c r="H25">
-        <v>1143.627556650225</v>
+        <v>3956.390301006061</v>
       </c>
       <c r="I25">
-        <v>-2933.256528618304</v>
+        <v>-4392.411127650079</v>
       </c>
       <c r="J25">
-        <v>-49.81198962800432</v>
+        <v>2771.4219205295</v>
       </c>
       <c r="K25">
-        <v>1112.622012882857</v>
+        <v>3849.126330384415</v>
       </c>
       <c r="L25">
-        <v>-2853.73132554836</v>
+        <v>-4273.325945878543</v>
       </c>
       <c r="M25">
-        <v>-48.46150815738043</v>
+        <v>2696.284308502631</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1757.913207544652</v>
+        <v>2083.14626823084</v>
       </c>
       <c r="C26">
-        <v>1232.588625155828</v>
+        <v>1521.343026674846</v>
       </c>
       <c r="D26">
-        <v>1782.682676262327</v>
+        <v>2302.115604739603</v>
       </c>
       <c r="E26">
-        <v>1716.740087612344</v>
+        <v>2034.355673353743</v>
       </c>
       <c r="F26">
-        <v>1203.719441470916</v>
+        <v>1485.710756192645</v>
       </c>
       <c r="G26">
-        <v>1740.929416024003</v>
+        <v>2248.196400147943</v>
       </c>
       <c r="H26">
-        <v>4480.717875175961</v>
+        <v>-1001.054831952529</v>
       </c>
       <c r="I26">
-        <v>-7196.490575759425</v>
+        <v>-5656.605798094221</v>
       </c>
       <c r="J26">
-        <v>7230.13352635892</v>
+        <v>6840.012613936618</v>
       </c>
       <c r="K26">
-        <v>4375.772344494651</v>
+        <v>-977.6085375177954</v>
       </c>
       <c r="L26">
-        <v>-7027.937334168319</v>
+        <v>-5524.119104248838</v>
       </c>
       <c r="M26">
-        <v>7060.792313419761</v>
+        <v>6679.808652510404</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1802.327185987571</v>
+        <v>2118.656127590173</v>
       </c>
       <c r="C27">
-        <v>1254.595957363876</v>
+        <v>1539.294180844183</v>
       </c>
       <c r="D27">
-        <v>1798.600886287158</v>
+        <v>2318.017025716186</v>
       </c>
       <c r="E27">
-        <v>1787.762925898783</v>
+        <v>2101.535674033889</v>
       </c>
       <c r="F27">
-        <v>1244.457808213461</v>
+        <v>1526.855439988877</v>
       </c>
       <c r="G27">
-        <v>1784.0667377111</v>
+        <v>2299.285575003328</v>
       </c>
       <c r="H27">
-        <v>-417.8830837027347</v>
+        <v>2514.37369060539</v>
       </c>
       <c r="I27">
-        <v>3429.481599935249</v>
+        <v>4818.418157652297</v>
       </c>
       <c r="J27">
-        <v>7217.37324850413</v>
+        <v>9953.247181490447</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031167</v>
+        <v>2494.055519368174</v>
       </c>
       <c r="L27">
-        <v>3401.768617309509</v>
+        <v>4779.481445267228</v>
       </c>
       <c r="M27">
-        <v>7159.05104043541</v>
+        <v>9872.816901235979</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1836.814605783257</v>
+        <v>2152.129873823742</v>
       </c>
       <c r="C28">
-        <v>1275.999624889278</v>
+        <v>1576.296764170463</v>
       </c>
       <c r="D28">
-        <v>1811.385833033835</v>
+        <v>2345.479172334416</v>
       </c>
       <c r="E28">
-        <v>1825.749457555647</v>
+        <v>2139.165236029623</v>
       </c>
       <c r="F28">
-        <v>1268.312880161029</v>
+        <v>1566.801000530882</v>
       </c>
       <c r="G28">
-        <v>1800.473870184233</v>
+        <v>2331.349779729992</v>
       </c>
       <c r="H28">
-        <v>-21207.11586823891</v>
+        <v>16475.96513516515</v>
       </c>
       <c r="I28">
-        <v>16620.81295423353</v>
+        <v>4060.777495351349</v>
       </c>
       <c r="J28">
-        <v>64612.91653140326</v>
+        <v>61486.22268000971</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818927</v>
+        <v>16376.71233314608</v>
       </c>
       <c r="L28">
-        <v>16520.68757499116</v>
+        <v>4036.314980319112</v>
       </c>
       <c r="M28">
-        <v>64223.6820944671</v>
+        <v>61115.82374820242</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1977.856746520409</v>
+        <v>2263.062106196644</v>
       </c>
       <c r="C29">
-        <v>1340.832055915711</v>
+        <v>1669.37323039517</v>
       </c>
       <c r="D29">
-        <v>1886.164279961067</v>
+        <v>2434.071421590048</v>
       </c>
       <c r="E29">
-        <v>1969.945319534327</v>
+        <v>2254.009857771858</v>
       </c>
       <c r="F29">
-        <v>1335.468727692048</v>
+        <v>1662.695737473589</v>
       </c>
       <c r="G29">
-        <v>1878.619622841222</v>
+        <v>2424.335135903687</v>
       </c>
       <c r="H29">
-        <v>-65405.66105671859</v>
+        <v>-7531.367091807558</v>
       </c>
       <c r="I29">
-        <v>-8064.863141473224</v>
+        <v>-36629.9171946198</v>
       </c>
       <c r="J29">
-        <v>31952.63119336949</v>
+        <v>47965.71291168674</v>
       </c>
       <c r="K29">
-        <v>-65144.0384124917</v>
+        <v>-7501.241623440327</v>
       </c>
       <c r="L29">
-        <v>-8032.603688907333</v>
+        <v>-36483.39752584132</v>
       </c>
       <c r="M29">
-        <v>31824.82066859601</v>
+        <v>47773.85006003999</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2004.679136249755</v>
+        <v>2379.811540106287</v>
       </c>
       <c r="C30">
-        <v>1358.533511390568</v>
+        <v>1687.829098683538</v>
       </c>
       <c r="D30">
-        <v>1902.148783732506</v>
+        <v>2457.937861749162</v>
       </c>
       <c r="E30">
-        <v>1998.683086988789</v>
+        <v>2372.693459727106</v>
       </c>
       <c r="F30">
-        <v>1354.470101087306</v>
+        <v>1682.780756414295</v>
       </c>
       <c r="G30">
-        <v>1896.459405515958</v>
+        <v>2450.586103438845</v>
       </c>
       <c r="H30">
-        <v>33088.01454274102</v>
+        <v>-9970.877336623209</v>
       </c>
       <c r="I30">
-        <v>24851.20897358423</v>
+        <v>30822.01896715528</v>
       </c>
       <c r="J30">
-        <v>59911.56260734472</v>
+        <v>70428.50503736992</v>
       </c>
       <c r="K30">
-        <v>32989.0474005394</v>
+        <v>-9941.054174100907</v>
       </c>
       <c r="L30">
-        <v>24776.87833856852</v>
+        <v>30729.82947871913</v>
       </c>
       <c r="M30">
-        <v>59732.36551081228</v>
+        <v>70217.85148292116</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2163.076362360478</v>
+        <v>2561.503384127048</v>
       </c>
       <c r="C31">
-        <v>1391.586771850942</v>
+        <v>1732.383579065933</v>
       </c>
       <c r="D31">
-        <v>1960.624234081546</v>
+        <v>2557.212636708522</v>
       </c>
       <c r="E31">
-        <v>2139.611036930532</v>
+        <v>2533.715872070443</v>
       </c>
       <c r="F31">
-        <v>1376.490662886089</v>
+        <v>1713.590463316697</v>
       </c>
       <c r="G31">
-        <v>1939.355134895257</v>
+        <v>2529.471671221546</v>
       </c>
       <c r="H31">
-        <v>-4785.884914582189</v>
+        <v>-13307.41670394671</v>
       </c>
       <c r="I31">
-        <v>27611.55247994565</v>
+        <v>27366.85186921522</v>
       </c>
       <c r="J31">
-        <v>53619.55080636679</v>
+        <v>14320.07594580532</v>
       </c>
       <c r="K31">
-        <v>-4733.967030893424</v>
+        <v>-13163.0561677106</v>
       </c>
       <c r="L31">
-        <v>27312.01887316123</v>
+        <v>27069.97280554523</v>
       </c>
       <c r="M31">
-        <v>53037.87915067641</v>
+        <v>14164.72995428277</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2264.818651424481</v>
+        <v>2774.171861673634</v>
       </c>
       <c r="C32">
-        <v>1426.23134600604</v>
+        <v>1779.833726208158</v>
       </c>
       <c r="D32">
-        <v>1977.624003536699</v>
+        <v>2601.068787689111</v>
       </c>
       <c r="E32">
-        <v>2247.090129691217</v>
+        <v>2752.45623066249</v>
       </c>
       <c r="F32">
-        <v>1415.067108463919</v>
+        <v>1765.90156396778</v>
       </c>
       <c r="G32">
-        <v>1962.143580808428</v>
+        <v>2580.708170955732</v>
       </c>
       <c r="H32">
-        <v>-12395.46097991469</v>
+        <v>-78274.23636952441</v>
       </c>
       <c r="I32">
-        <v>-1508.481369139722</v>
+        <v>-4497.501470171551</v>
       </c>
       <c r="J32">
-        <v>74017.03884410328</v>
+        <v>39193.21239681465</v>
       </c>
       <c r="K32">
-        <v>-12298.43193114823</v>
+        <v>-77661.5221905066</v>
       </c>
       <c r="L32">
-        <v>-1496.673295800079</v>
+        <v>-4462.295979211303</v>
       </c>
       <c r="M32">
-        <v>73437.64910755452</v>
+        <v>38886.41621366933</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2338.88712824519</v>
+        <v>2856.025082470606</v>
       </c>
       <c r="C33">
-        <v>1474.132956453719</v>
+        <v>1861.172025510221</v>
       </c>
       <c r="D33">
-        <v>2009.029574024837</v>
+        <v>2705.856784011075</v>
       </c>
       <c r="E33">
-        <v>2320.721014627751</v>
+        <v>2833.842363383456</v>
       </c>
       <c r="F33">
-        <v>1462.683380092913</v>
+        <v>1846.716320457715</v>
       </c>
       <c r="G33">
-        <v>1993.425460828527</v>
+        <v>2684.840420640115</v>
       </c>
       <c r="H33">
-        <v>17738.8371778313</v>
+        <v>3247.421891279559</v>
       </c>
       <c r="I33">
-        <v>13380.58956559962</v>
+        <v>-17570.53486871618</v>
       </c>
       <c r="J33">
-        <v>54944.71402189331</v>
+        <v>-44502.90038424428</v>
       </c>
       <c r="K33">
-        <v>17601.05980169281</v>
+        <v>3222.199196978358</v>
       </c>
       <c r="L33">
-        <v>13276.66265635225</v>
+        <v>-17434.06469497858</v>
       </c>
       <c r="M33">
-        <v>54517.9589615291</v>
+        <v>-44157.24678902684</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2563.019377976294</v>
+        <v>3049.401805629032</v>
       </c>
       <c r="C34">
-        <v>1528.969550360073</v>
+        <v>1942.119358450523</v>
       </c>
       <c r="D34">
-        <v>2050.309527872628</v>
+        <v>2783.757451048856</v>
       </c>
       <c r="E34">
-        <v>2553.104409396115</v>
+        <v>3037.605280268764</v>
       </c>
       <c r="F34">
-        <v>1523.05477453663</v>
+        <v>1934.606324181855</v>
       </c>
       <c r="G34">
-        <v>2042.377962967898</v>
+        <v>2772.988563423908</v>
       </c>
       <c r="H34">
-        <v>-111753.1690086223</v>
+        <v>-45518.52519754879</v>
       </c>
       <c r="I34">
-        <v>-9043.980006151993</v>
+        <v>-28030.50075904484</v>
       </c>
       <c r="J34">
-        <v>47076.40982649929</v>
+        <v>635.8402988185344</v>
       </c>
       <c r="K34">
-        <v>-111320.855008589</v>
+        <v>-45342.43805945382</v>
       </c>
       <c r="L34">
-        <v>-9008.993623149467</v>
+        <v>-27922.06555301372</v>
       </c>
       <c r="M34">
-        <v>46894.29605541032</v>
+        <v>633.3805684555978</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1224.805981254672</v>
+        <v>1043.634102143072</v>
       </c>
       <c r="C4">
-        <v>803.0047755131119</v>
+        <v>702.4673992950858</v>
       </c>
       <c r="D4">
-        <v>1182.48637686728</v>
+        <v>970.3868732368628</v>
       </c>
       <c r="E4">
-        <v>1193.044399893124</v>
+        <v>1016.570657030772</v>
       </c>
       <c r="F4">
-        <v>782.181312939028</v>
+        <v>684.2510647914855</v>
       </c>
       <c r="G4">
-        <v>1151.822224468777</v>
+        <v>945.2228700410933</v>
       </c>
       <c r="H4">
-        <v>6146.629730454302</v>
+        <v>265.9119789794119</v>
       </c>
       <c r="I4">
-        <v>-8364.694303298549</v>
+        <v>-3941.922476787426</v>
       </c>
       <c r="J4">
-        <v>-18457.99929625427</v>
+        <v>-9198.618966077742</v>
       </c>
       <c r="K4">
-        <v>5987.235766617561</v>
+        <v>259.0163685034466</v>
       </c>
       <c r="L4">
-        <v>-8147.781647135215</v>
+        <v>-3839.700824228919</v>
       </c>
       <c r="M4">
-        <v>-17979.34777479549</v>
+        <v>-8960.081035028725</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1241.862947628754</v>
+        <v>1056.135914141084</v>
       </c>
       <c r="C5">
-        <v>834.5465094381372</v>
+        <v>753.1217758831207</v>
       </c>
       <c r="D5">
-        <v>1256.059990584825</v>
+        <v>1023.180019260271</v>
       </c>
       <c r="E5">
-        <v>1212.388352352755</v>
+        <v>1031.069397191533</v>
       </c>
       <c r="F5">
-        <v>814.7392346888142</v>
+        <v>735.2470501896921</v>
       </c>
       <c r="G5">
-        <v>1226.248440175375</v>
+        <v>998.8956833601062</v>
       </c>
       <c r="H5">
-        <v>6144.033445297677</v>
+        <v>3317.432890955881</v>
       </c>
       <c r="I5">
-        <v>-765.9369651708796</v>
+        <v>-6972.630495817394</v>
       </c>
       <c r="J5">
-        <v>-13559.33085250971</v>
+        <v>-7662.459376802145</v>
       </c>
       <c r="K5">
-        <v>5998.209866690929</v>
+        <v>3238.696350822434</v>
       </c>
       <c r="L5">
-        <v>-747.7580815038491</v>
+        <v>-6807.140847973627</v>
       </c>
       <c r="M5">
-        <v>-13237.51129113686</v>
+        <v>-7480.597208048929</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1307.327894569066</v>
+        <v>1091.240621213677</v>
       </c>
       <c r="C6">
-        <v>859.2224166106637</v>
+        <v>800.2617616716159</v>
       </c>
       <c r="D6">
-        <v>1305.228089524011</v>
+        <v>1065.552167039843</v>
       </c>
       <c r="E6">
-        <v>1280.978650182402</v>
+        <v>1069.246624196967</v>
       </c>
       <c r="F6">
-        <v>841.9047555006813</v>
+        <v>784.1324548472268</v>
       </c>
       <c r="G6">
-        <v>1278.921166789419</v>
+        <v>1044.075921812683</v>
       </c>
       <c r="H6">
-        <v>-5245.444403519761</v>
+        <v>471.9473661701297</v>
       </c>
       <c r="I6">
-        <v>1103.060976222261</v>
+        <v>-9350.989463572849</v>
       </c>
       <c r="J6">
-        <v>-6404.508418409366</v>
+        <v>-5764.048863080816</v>
       </c>
       <c r="K6">
-        <v>-5139.722268255022</v>
+        <v>462.4352487124369</v>
       </c>
       <c r="L6">
-        <v>1080.8287394922</v>
+        <v>-9162.519908493085</v>
       </c>
       <c r="M6">
-        <v>-6275.425302999564</v>
+        <v>-5647.874234832676</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1349.562470869032</v>
+        <v>1114.118443940771</v>
       </c>
       <c r="C7">
-        <v>869.6189963813684</v>
+        <v>816.1661146050701</v>
       </c>
       <c r="D7">
-        <v>1344.584815046067</v>
+        <v>1081.778989195053</v>
       </c>
       <c r="E7">
-        <v>1333.028780567421</v>
+        <v>1100.469213387132</v>
       </c>
       <c r="F7">
-        <v>858.9651648789934</v>
+        <v>806.1671422975041</v>
       </c>
       <c r="G7">
-        <v>1328.112106745349</v>
+        <v>1068.525954105374</v>
       </c>
       <c r="H7">
-        <v>-2267.361376171924</v>
+        <v>1923.360453285898</v>
       </c>
       <c r="I7">
-        <v>1832.553896965807</v>
+        <v>1221.499176765957</v>
       </c>
       <c r="J7">
-        <v>-6803.061901582225</v>
+        <v>1805.608304672797</v>
       </c>
       <c r="K7">
-        <v>-2239.583595146847</v>
+        <v>1899.797078666775</v>
       </c>
       <c r="L7">
-        <v>1810.103006957038</v>
+        <v>1206.534408903587</v>
       </c>
       <c r="M7">
-        <v>-6719.716579663913</v>
+        <v>1783.487529117846</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1436.404243533077</v>
+        <v>1183.697899857955</v>
       </c>
       <c r="C8">
-        <v>911.6310372822937</v>
+        <v>844.7807565185992</v>
       </c>
       <c r="D8">
-        <v>1442.308014357702</v>
+        <v>1157.377151653629</v>
       </c>
       <c r="E8">
-        <v>1408.366322863513</v>
+        <v>1160.592685596464</v>
       </c>
       <c r="F8">
-        <v>893.8364374554623</v>
+        <v>828.29104205202</v>
       </c>
       <c r="G8">
-        <v>1414.154854918288</v>
+        <v>1134.78570575048</v>
       </c>
       <c r="H8">
-        <v>274.0632394143562</v>
+        <v>922.358227787596</v>
       </c>
       <c r="I8">
-        <v>5866.02056536188</v>
+        <v>8490.744118228593</v>
       </c>
       <c r="J8">
-        <v>-6132.689374478928</v>
+        <v>-4160.568255767581</v>
       </c>
       <c r="K8">
-        <v>268.7136566630249</v>
+        <v>904.3542383563065</v>
       </c>
       <c r="L8">
-        <v>5751.518662434396</v>
+        <v>8325.008872677585</v>
       </c>
       <c r="M8">
-        <v>-6012.982224526636</v>
+        <v>-4079.355962486833</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1349.294433079733</v>
+        <v>1250.206622000583</v>
       </c>
       <c r="C9">
-        <v>953.6962952562624</v>
+        <v>862.9319272409786</v>
       </c>
       <c r="D9">
-        <v>1500.26234060473</v>
+        <v>1203.509313923991</v>
       </c>
       <c r="E9">
-        <v>1321.514841810445</v>
+        <v>1224.467073900571</v>
       </c>
       <c r="F9">
-        <v>934.0613715303981</v>
+        <v>845.1656816801348</v>
       </c>
       <c r="G9">
-        <v>1469.374586533456</v>
+        <v>1178.731180990262</v>
       </c>
       <c r="H9">
-        <v>23907.55337447269</v>
+        <v>-2023.56918630201</v>
       </c>
       <c r="I9">
-        <v>-1905.790294271877</v>
+        <v>6963.788783124456</v>
       </c>
       <c r="J9">
-        <v>2390.106802836675</v>
+        <v>1281.795949113148</v>
       </c>
       <c r="K9">
-        <v>23415.33904029237</v>
+        <v>-1981.907467760498</v>
       </c>
       <c r="L9">
-        <v>-1866.553435272162</v>
+        <v>6820.416661118952</v>
       </c>
       <c r="M9">
-        <v>2340.898721601803</v>
+        <v>1255.406032513759</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1402.225602190348</v>
+        <v>1284.68675753245</v>
       </c>
       <c r="C10">
-        <v>972.7750289829245</v>
+        <v>872.8439866376877</v>
       </c>
       <c r="D10">
-        <v>1554.353436170663</v>
+        <v>1241.58704071528</v>
       </c>
       <c r="E10">
-        <v>1371.961740272571</v>
+        <v>1256.959705211606</v>
       </c>
       <c r="F10">
-        <v>951.7798844725016</v>
+        <v>854.0056272138528</v>
       </c>
       <c r="G10">
-        <v>1520.806239706548</v>
+        <v>1214.790198109915</v>
       </c>
       <c r="H10">
-        <v>157.0214496357743</v>
+        <v>2393.059525163079</v>
       </c>
       <c r="I10">
-        <v>6176.865771777124</v>
+        <v>8391.728370549956</v>
       </c>
       <c r="J10">
-        <v>1230.718103103318</v>
+        <v>3477.687554034209</v>
       </c>
       <c r="K10">
-        <v>153.6324974853624</v>
+        <v>2341.41075843294</v>
       </c>
       <c r="L10">
-        <v>6043.552122026538</v>
+        <v>8210.6119308978</v>
       </c>
       <c r="M10">
-        <v>1204.155841885261</v>
+        <v>3402.62954927088</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1472.140135774107</v>
+        <v>1293.577641132945</v>
       </c>
       <c r="C11">
-        <v>1007.598500669806</v>
+        <v>848.1116435798729</v>
       </c>
       <c r="D11">
-        <v>1600.04536310889</v>
+        <v>1279.912512292018</v>
       </c>
       <c r="E11">
-        <v>1441.038583609865</v>
+        <v>1266.248536038587</v>
       </c>
       <c r="F11">
-        <v>986.3112084021344</v>
+        <v>830.1937919549459</v>
       </c>
       <c r="G11">
-        <v>1566.241587831942</v>
+        <v>1252.87210710275</v>
       </c>
       <c r="H11">
-        <v>-1977.553051039114</v>
+        <v>6517.714776236279</v>
       </c>
       <c r="I11">
-        <v>4306.150626705893</v>
+        <v>17565.04557443324</v>
       </c>
       <c r="J11">
-        <v>13159.44278942812</v>
+        <v>5734.744269149333</v>
       </c>
       <c r="K11">
-        <v>-1935.77376122843</v>
+        <v>6380.01657673833</v>
       </c>
       <c r="L11">
-        <v>4215.175613465627</v>
+        <v>17193.95306229733</v>
       </c>
       <c r="M11">
-        <v>12881.42639246837</v>
+        <v>5613.587700082799</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1488.102883444346</v>
+        <v>1318.166337113757</v>
       </c>
       <c r="C12">
-        <v>1038.335601585521</v>
+        <v>882.9687933294998</v>
       </c>
       <c r="D12">
-        <v>1632.871773752673</v>
+        <v>1326.170803217134</v>
       </c>
       <c r="E12">
-        <v>1461.345846812567</v>
+        <v>1294.464867705073</v>
       </c>
       <c r="F12">
-        <v>1019.665666840553</v>
+        <v>867.0924526472267</v>
       </c>
       <c r="G12">
-        <v>1603.511700365696</v>
+        <v>1302.325408415166</v>
       </c>
       <c r="H12">
-        <v>8424.358524965906</v>
+        <v>5552.843300264927</v>
       </c>
       <c r="I12">
-        <v>8276.8813658404</v>
+        <v>718.7192342223494</v>
       </c>
       <c r="J12">
-        <v>18690.4380201774</v>
+        <v>3548.920899032485</v>
       </c>
       <c r="K12">
-        <v>8272.883198790863</v>
+        <v>5452.999644796816</v>
       </c>
       <c r="L12">
-        <v>8128.05777281699</v>
+        <v>705.7962051146168</v>
       </c>
       <c r="M12">
-        <v>18354.37205300961</v>
+        <v>3485.109043309909</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1542.312371200572</v>
+        <v>1362.550643604331</v>
       </c>
       <c r="C13">
-        <v>1069.6251174471</v>
+        <v>907.7256573208996</v>
       </c>
       <c r="D13">
-        <v>1650.655948203528</v>
+        <v>1353.672842549139</v>
       </c>
       <c r="E13">
-        <v>1504.847293357643</v>
+        <v>1329.452247403416</v>
       </c>
       <c r="F13">
-        <v>1043.642321071867</v>
+        <v>885.6756413535903</v>
       </c>
       <c r="G13">
-        <v>1610.559042579151</v>
+        <v>1320.790101434585</v>
       </c>
       <c r="H13">
-        <v>-428.7264433974607</v>
+        <v>-265.8304906133647</v>
       </c>
       <c r="I13">
-        <v>1674.256335651784</v>
+        <v>1619.376922006833</v>
       </c>
       <c r="J13">
-        <v>6551.845569467272</v>
+        <v>2383.364465953702</v>
       </c>
       <c r="K13">
-        <v>-418.3120358655386</v>
+        <v>-259.3730697887485</v>
       </c>
       <c r="L13">
-        <v>1633.586141263482</v>
+        <v>1580.039830783995</v>
       </c>
       <c r="M13">
-        <v>6392.691426079403</v>
+        <v>2325.468972853611</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1551.67362313138</v>
+        <v>1375.584888063283</v>
       </c>
       <c r="C14">
-        <v>1128.345566884815</v>
+        <v>958.6381764026108</v>
       </c>
       <c r="D14">
-        <v>1696.036847475811</v>
+        <v>1385.92087181626</v>
       </c>
       <c r="E14">
-        <v>1508.910964226184</v>
+        <v>1337.675068313507</v>
       </c>
       <c r="F14">
-        <v>1097.249429214761</v>
+        <v>932.2190140608066</v>
       </c>
       <c r="G14">
-        <v>1649.295674513879</v>
+        <v>1347.726202120536</v>
       </c>
       <c r="H14">
-        <v>2964.503632905256</v>
+        <v>2302.41076801778</v>
       </c>
       <c r="I14">
-        <v>-557.8133636055455</v>
+        <v>-878.0740549156269</v>
       </c>
       <c r="J14">
-        <v>6184.80438137906</v>
+        <v>5272.039410181388</v>
       </c>
       <c r="K14">
-        <v>2882.804713888182</v>
+        <v>2238.958502757448</v>
       </c>
       <c r="L14">
-        <v>-542.4405543723218</v>
+        <v>-853.8751636384245</v>
       </c>
       <c r="M14">
-        <v>6014.357016537904</v>
+        <v>5126.74698549135</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1582.188953850585</v>
+        <v>1430.933142239107</v>
       </c>
       <c r="C15">
-        <v>1178.095582158593</v>
+        <v>994.7568642976113</v>
       </c>
       <c r="D15">
-        <v>1679.763809315065</v>
+        <v>1401.985663461433</v>
       </c>
       <c r="E15">
-        <v>1545.676901069418</v>
+        <v>1397.911608187435</v>
       </c>
       <c r="F15">
-        <v>1150.908761031857</v>
+        <v>971.8009366599741</v>
       </c>
       <c r="G15">
-        <v>1641.000029100102</v>
+        <v>1369.632148150785</v>
       </c>
       <c r="H15">
-        <v>1811.686710491382</v>
+        <v>689.3907135337757</v>
       </c>
       <c r="I15">
-        <v>45.94828296253194</v>
+        <v>1272.215785158953</v>
       </c>
       <c r="J15">
-        <v>9891.763140364386</v>
+        <v>5920.600758308033</v>
       </c>
       <c r="K15">
-        <v>1769.878555633888</v>
+        <v>673.4816970676115</v>
       </c>
       <c r="L15">
-        <v>44.88793797108895</v>
+        <v>1242.856959347592</v>
       </c>
       <c r="M15">
-        <v>9663.491683279055</v>
+        <v>5783.971510039386</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1561.167909210748</v>
+        <v>1473.196060695208</v>
       </c>
       <c r="C16">
-        <v>1203.109332159493</v>
+        <v>1011.770237171885</v>
       </c>
       <c r="D16">
-        <v>1728.564775238845</v>
+        <v>1418.184938546136</v>
       </c>
       <c r="E16">
-        <v>1524.043766188214</v>
+        <v>1438.163864007838</v>
       </c>
       <c r="F16">
-        <v>1174.499723509893</v>
+        <v>987.7106195169837</v>
       </c>
       <c r="G16">
-        <v>1687.459980833916</v>
+        <v>1384.460891196478</v>
       </c>
       <c r="H16">
-        <v>3761.635461922682</v>
+        <v>105.1223769145618</v>
       </c>
       <c r="I16">
-        <v>1470.624450217915</v>
+        <v>1973.841718072064</v>
       </c>
       <c r="J16">
-        <v>1523.390030087314</v>
+        <v>3609.772732793029</v>
       </c>
       <c r="K16">
-        <v>3672.184806382593</v>
+        <v>102.6225957363682</v>
       </c>
       <c r="L16">
-        <v>1435.653405719617</v>
+        <v>1926.90430550214</v>
       </c>
       <c r="M16">
-        <v>1487.164234628417</v>
+        <v>3523.933331137124</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1654.344264229087</v>
+        <v>1495.863960863639</v>
       </c>
       <c r="C17">
-        <v>1218.648997668083</v>
+        <v>1023.378466312492</v>
       </c>
       <c r="D17">
-        <v>1779.63456801994</v>
+        <v>1431.720571698535</v>
       </c>
       <c r="E17">
-        <v>1619.878758724315</v>
+        <v>1464.700128345646</v>
       </c>
       <c r="F17">
-        <v>1193.260476883332</v>
+        <v>1002.058081597649</v>
       </c>
       <c r="G17">
-        <v>1742.558847852858</v>
+        <v>1401.893059788149</v>
       </c>
       <c r="H17">
-        <v>-1783.439344247971</v>
+        <v>59.74133903207134</v>
       </c>
       <c r="I17">
-        <v>1773.694087070399</v>
+        <v>1811.595442183879</v>
       </c>
       <c r="J17">
-        <v>-2019.570743749339</v>
+        <v>1031.95571836844</v>
       </c>
       <c r="K17">
-        <v>-1746.284357909472</v>
+        <v>58.49672780223644</v>
       </c>
       <c r="L17">
-        <v>1736.742126923099</v>
+        <v>1773.853870471715</v>
       </c>
       <c r="M17">
-        <v>-1977.496353254562</v>
+        <v>1010.456640902431</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1709.618203797588</v>
+        <v>1564.394695719477</v>
       </c>
       <c r="C18">
-        <v>1270.447501137478</v>
+        <v>1031.245969780641</v>
       </c>
       <c r="D18">
-        <v>1824.221339959996</v>
+        <v>1418.695904254261</v>
       </c>
       <c r="E18">
-        <v>1690.967823392524</v>
+        <v>1547.328571766174</v>
       </c>
       <c r="F18">
-        <v>1256.588073852342</v>
+        <v>1019.996013746671</v>
       </c>
       <c r="G18">
-        <v>1804.320743524069</v>
+        <v>1403.219221662396</v>
       </c>
       <c r="H18">
-        <v>252.4181173160966</v>
+        <v>-353.9321463174891</v>
       </c>
       <c r="I18">
-        <v>-1800.385756996884</v>
+        <v>3389.302418965806</v>
       </c>
       <c r="J18">
-        <v>3177.733699919274</v>
+        <v>5913.900845114393</v>
       </c>
       <c r="K18">
-        <v>249.6644651271938</v>
+        <v>-350.0710683576619</v>
       </c>
       <c r="L18">
-        <v>-1780.745185102372</v>
+        <v>3352.328210758906</v>
       </c>
       <c r="M18">
-        <v>3143.067514101973</v>
+        <v>5849.38556316769</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1783.353024018841</v>
+        <v>1535.500037787553</v>
       </c>
       <c r="C19">
-        <v>1290.19970569185</v>
+        <v>1062.75312083473</v>
       </c>
       <c r="D19">
-        <v>1913.776495838806</v>
+        <v>1467.76495400573</v>
       </c>
       <c r="E19">
-        <v>1751.507434304219</v>
+        <v>1508.080394255632</v>
       </c>
       <c r="F19">
-        <v>1267.160425233067</v>
+        <v>1043.775386534109</v>
       </c>
       <c r="G19">
-        <v>1879.60191555597</v>
+        <v>1441.554865541342</v>
       </c>
       <c r="H19">
-        <v>1370.38142388403</v>
+        <v>3482.572789493572</v>
       </c>
       <c r="I19">
-        <v>4998.868656448633</v>
+        <v>2246.434786821126</v>
       </c>
       <c r="J19">
-        <v>45.41269409131763</v>
+        <v>1125.570227588388</v>
       </c>
       <c r="K19">
-        <v>1345.910327028958</v>
+        <v>3420.383989681186</v>
       </c>
       <c r="L19">
-        <v>4909.603144726336</v>
+        <v>2206.319879913606</v>
       </c>
       <c r="M19">
-        <v>44.6017531254011</v>
+        <v>1105.470759238595</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1949.034669620876</v>
+        <v>1730.975149813241</v>
       </c>
       <c r="C20">
-        <v>1365.761445068903</v>
+        <v>1057.574664910012</v>
       </c>
       <c r="D20">
-        <v>2007.488768238858</v>
+        <v>1531.431283759932</v>
       </c>
       <c r="E20">
-        <v>1912.604115048523</v>
+        <v>1698.620474115797</v>
       </c>
       <c r="F20">
-        <v>1340.233193759203</v>
+        <v>1037.806914164031</v>
       </c>
       <c r="G20">
-        <v>1969.965613692338</v>
+        <v>1502.806399951335</v>
       </c>
       <c r="H20">
-        <v>-2352.53665832448</v>
+        <v>-3065.321160448262</v>
       </c>
       <c r="I20">
-        <v>-1216.917587719904</v>
+        <v>5117.311901279651</v>
       </c>
       <c r="J20">
-        <v>809.3336671754785</v>
+        <v>1360.528927393736</v>
       </c>
       <c r="K20">
-        <v>-2308.564010505331</v>
+        <v>-3008.025437823061</v>
       </c>
       <c r="L20">
-        <v>-1194.171464584953</v>
+        <v>5021.661211536107</v>
       </c>
       <c r="M20">
-        <v>794.2059350787407</v>
+        <v>1335.098480152732</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1978.776904322917</v>
+        <v>1764.758728676951</v>
       </c>
       <c r="C21">
-        <v>1401.269234643882</v>
+        <v>1074.283089866372</v>
       </c>
       <c r="D21">
-        <v>2098.347595707098</v>
+        <v>1587.810116473041</v>
       </c>
       <c r="E21">
-        <v>1944.69923088452</v>
+        <v>1734.366787310528</v>
       </c>
       <c r="F21">
-        <v>1377.137158272288</v>
+        <v>1055.782232980039</v>
       </c>
       <c r="G21">
-        <v>2062.210725516965</v>
+        <v>1560.465510563631</v>
       </c>
       <c r="H21">
-        <v>3530.51510682259</v>
+        <v>2745.624065588519</v>
       </c>
       <c r="I21">
-        <v>3943.007929540777</v>
+        <v>4376.258217135281</v>
       </c>
       <c r="J21">
-        <v>1525.762238569472</v>
+        <v>2292.557630830862</v>
       </c>
       <c r="K21">
-        <v>3469.714042985232</v>
+        <v>2698.340069051404</v>
       </c>
       <c r="L21">
-        <v>3875.103085748456</v>
+        <v>4300.892116954996</v>
       </c>
       <c r="M21">
-        <v>1499.486195425336</v>
+        <v>2253.076156132282</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1987.999880289201</v>
+        <v>1767.69071409531</v>
       </c>
       <c r="C22">
-        <v>1373.038196102693</v>
+        <v>1122.116657017772</v>
       </c>
       <c r="D22">
-        <v>2123.465783370621</v>
+        <v>1600.120450056826</v>
       </c>
       <c r="E22">
-        <v>1921.806765518196</v>
+        <v>1708.833087654845</v>
       </c>
       <c r="F22">
-        <v>1327.321053058208</v>
+        <v>1084.75428220031</v>
       </c>
       <c r="G22">
-        <v>2052.76215018403</v>
+        <v>1546.842299666477</v>
       </c>
       <c r="H22">
-        <v>2532.009817866629</v>
+        <v>1346.672965188811</v>
       </c>
       <c r="I22">
-        <v>6134.863430456443</v>
+        <v>-3553.647167108387</v>
       </c>
       <c r="J22">
-        <v>1673.052666653169</v>
+        <v>1951.862007200561</v>
       </c>
       <c r="K22">
-        <v>2447.703164663523</v>
+        <v>1301.83368776854</v>
       </c>
       <c r="L22">
-        <v>5930.59494775534</v>
+        <v>-3435.323732021538</v>
       </c>
       <c r="M22">
-        <v>1617.346140571487</v>
+        <v>1886.872151244938</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1961.498624941393</v>
+        <v>1794.709744116753</v>
       </c>
       <c r="C23">
-        <v>1323.339665236744</v>
+        <v>1064.166512581393</v>
       </c>
       <c r="D23">
-        <v>2120.474040190733</v>
+        <v>1597.441347173376</v>
       </c>
       <c r="E23">
-        <v>1937.840198544073</v>
+        <v>1773.063025711835</v>
       </c>
       <c r="F23">
-        <v>1307.37833155516</v>
+        <v>1051.331170872626</v>
       </c>
       <c r="G23">
-        <v>2094.898147162117</v>
+        <v>1578.173962503522</v>
       </c>
       <c r="H23">
-        <v>786.0359854375264</v>
+        <v>-910.5998381672537</v>
       </c>
       <c r="I23">
-        <v>6181.7056371528</v>
+        <v>5673.723229343688</v>
       </c>
       <c r="J23">
-        <v>-2455.074655584796</v>
+        <v>-770.4085811385187</v>
       </c>
       <c r="K23">
-        <v>776.555288244749</v>
+        <v>-899.6167260840961</v>
       </c>
       <c r="L23">
-        <v>6107.145591090649</v>
+        <v>5605.290164077481</v>
       </c>
       <c r="M23">
-        <v>-2425.463009519628</v>
+        <v>-761.1163723747866</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1981.846159916559</v>
+        <v>1765.480476832563</v>
       </c>
       <c r="C24">
-        <v>1384.370266425971</v>
+        <v>1084.879775849224</v>
       </c>
       <c r="D24">
-        <v>2213.325295581078</v>
+        <v>1665.312255189489</v>
       </c>
       <c r="E24">
-        <v>1937.238690079209</v>
+        <v>1725.742974138582</v>
       </c>
       <c r="F24">
-        <v>1353.210807053039</v>
+        <v>1060.461259994096</v>
       </c>
       <c r="G24">
-        <v>2163.50768442652</v>
+        <v>1627.829342693263</v>
       </c>
       <c r="H24">
-        <v>4677.999174849413</v>
+        <v>7741.657152491347</v>
       </c>
       <c r="I24">
-        <v>2061.958234673652</v>
+        <v>4053.11654991427</v>
       </c>
       <c r="J24">
-        <v>5723.776470553422</v>
+        <v>4136.834268782613</v>
       </c>
       <c r="K24">
-        <v>4572.706588920327</v>
+        <v>7567.407634589613</v>
       </c>
       <c r="L24">
-        <v>2015.547599166528</v>
+        <v>3961.888846218451</v>
       </c>
       <c r="M24">
-        <v>5594.945488901094</v>
+        <v>4043.722243440239</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1994.097451309596</v>
+        <v>1752.74693284783</v>
       </c>
       <c r="C25">
-        <v>1441.081755277713</v>
+        <v>1109.975970281377</v>
       </c>
       <c r="D25">
-        <v>2247.771892298287</v>
+        <v>1657.378675952336</v>
       </c>
       <c r="E25">
-        <v>1940.034329584831</v>
+        <v>1705.227203698671</v>
       </c>
       <c r="F25">
-        <v>1402.011759827014</v>
+        <v>1079.882774006804</v>
       </c>
       <c r="G25">
-        <v>2186.831257053495</v>
+        <v>1612.444530410354</v>
       </c>
       <c r="H25">
-        <v>3956.390301006061</v>
+        <v>1940.91620309945</v>
       </c>
       <c r="I25">
-        <v>-4392.411127650079</v>
+        <v>-1565.092578931754</v>
       </c>
       <c r="J25">
-        <v>2771.4219205295</v>
+        <v>5453.500374105814</v>
       </c>
       <c r="K25">
-        <v>3849.126330384415</v>
+        <v>1888.294908750559</v>
       </c>
       <c r="L25">
-        <v>-4273.325945878543</v>
+        <v>-1522.660454789705</v>
       </c>
       <c r="M25">
-        <v>2696.284308502631</v>
+        <v>5305.647392117544</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>2083.14626823084</v>
+        <v>1800.299346720074</v>
       </c>
       <c r="C26">
-        <v>1521.343026674846</v>
+        <v>1218.095707243476</v>
       </c>
       <c r="D26">
-        <v>2302.115604739603</v>
+        <v>1696.374981813909</v>
       </c>
       <c r="E26">
-        <v>2034.355673353743</v>
+        <v>1758.133476073881</v>
       </c>
       <c r="F26">
-        <v>1485.710756192645</v>
+        <v>1189.565970719443</v>
       </c>
       <c r="G26">
-        <v>2248.196400147943</v>
+        <v>1656.643184887514</v>
       </c>
       <c r="H26">
-        <v>-1001.054831952529</v>
+        <v>800.0398014477272</v>
       </c>
       <c r="I26">
-        <v>-5656.605798094221</v>
+        <v>-7721.307158576531</v>
       </c>
       <c r="J26">
-        <v>6840.012613936618</v>
+        <v>1350.14321127175</v>
       </c>
       <c r="K26">
-        <v>-977.6085375177954</v>
+        <v>781.3015983588292</v>
       </c>
       <c r="L26">
-        <v>-5524.119104248838</v>
+        <v>-7540.461878895004</v>
       </c>
       <c r="M26">
-        <v>6679.808652510404</v>
+        <v>1318.520712433409</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>2118.656127590173</v>
+        <v>1793.345698732267</v>
       </c>
       <c r="C27">
-        <v>1539.294180844183</v>
+        <v>1220.308718389518</v>
       </c>
       <c r="D27">
-        <v>2318.017025716186</v>
+        <v>1716.752530366483</v>
       </c>
       <c r="E27">
-        <v>2101.535674033889</v>
+        <v>1778.854016318269</v>
       </c>
       <c r="F27">
-        <v>1526.855439988877</v>
+        <v>1210.447637836876</v>
       </c>
       <c r="G27">
-        <v>2299.285575003328</v>
+        <v>1702.87978264635</v>
       </c>
       <c r="H27">
-        <v>2514.37369060539</v>
+        <v>2949.533903627681</v>
       </c>
       <c r="I27">
-        <v>4818.418157652297</v>
+        <v>1967.590232627452</v>
       </c>
       <c r="J27">
-        <v>9953.247181490447</v>
+        <v>4808.20556614899</v>
       </c>
       <c r="K27">
-        <v>2494.055519368174</v>
+        <v>2925.69928622463</v>
       </c>
       <c r="L27">
-        <v>4779.481445267228</v>
+        <v>1951.690513575917</v>
       </c>
       <c r="M27">
-        <v>9872.816901235979</v>
+        <v>4769.351379755868</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>2152.129873823742</v>
+        <v>1790.399645857645</v>
       </c>
       <c r="C28">
-        <v>1576.296764170463</v>
+        <v>1244.151580212779</v>
       </c>
       <c r="D28">
-        <v>2345.479172334416</v>
+        <v>1757.860917065894</v>
       </c>
       <c r="E28">
-        <v>2139.165236029623</v>
+        <v>1779.614105822358</v>
       </c>
       <c r="F28">
-        <v>1566.801000530882</v>
+        <v>1236.656691175353</v>
       </c>
       <c r="G28">
-        <v>2331.349779729992</v>
+        <v>1747.271393469111</v>
       </c>
       <c r="H28">
-        <v>16475.96513516515</v>
+        <v>20336.08654182166</v>
       </c>
       <c r="I28">
-        <v>4060.777495351349</v>
+        <v>8031.75512408848</v>
       </c>
       <c r="J28">
-        <v>61486.22268000971</v>
+        <v>-741.4264693487446</v>
       </c>
       <c r="K28">
-        <v>16376.71233314608</v>
+        <v>20213.57999638901</v>
       </c>
       <c r="L28">
-        <v>4036.314980319112</v>
+        <v>7983.371057075899</v>
       </c>
       <c r="M28">
-        <v>61115.82374820242</v>
+        <v>-736.9600448345977</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>2263.062106196644</v>
+        <v>1998.11876399931</v>
       </c>
       <c r="C29">
-        <v>1669.37323039517</v>
+        <v>1289.118692236644</v>
       </c>
       <c r="D29">
-        <v>2434.071421590048</v>
+        <v>1844.078341579248</v>
       </c>
       <c r="E29">
-        <v>2254.009857771858</v>
+        <v>1990.126288943312</v>
       </c>
       <c r="F29">
-        <v>1662.695737473589</v>
+        <v>1283.962217467698</v>
       </c>
       <c r="G29">
-        <v>2424.335135903687</v>
+        <v>1836.702028212931</v>
       </c>
       <c r="H29">
-        <v>-7531.367091807558</v>
+        <v>-52902.12797504198</v>
       </c>
       <c r="I29">
-        <v>-36629.9171946198</v>
+        <v>20411.13723207099</v>
       </c>
       <c r="J29">
-        <v>47965.71291168674</v>
+        <v>8688.842675586207</v>
       </c>
       <c r="K29">
-        <v>-7501.241623440327</v>
+        <v>-52690.51946314181</v>
       </c>
       <c r="L29">
-        <v>-36483.39752584132</v>
+        <v>20329.49268314271</v>
       </c>
       <c r="M29">
-        <v>47773.85006003999</v>
+        <v>8654.087304883864</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2379.811540106287</v>
+        <v>2105.64004796579</v>
       </c>
       <c r="C30">
-        <v>1687.829098683538</v>
+        <v>1298.903175025548</v>
       </c>
       <c r="D30">
-        <v>2457.937861749162</v>
+        <v>1897.209461210274</v>
       </c>
       <c r="E30">
-        <v>2372.693459727106</v>
+        <v>2099.342021900089</v>
       </c>
       <c r="F30">
-        <v>1682.780756414295</v>
+        <v>1295.018120663557</v>
       </c>
       <c r="G30">
-        <v>2450.586103438845</v>
+        <v>1891.534856640353</v>
       </c>
       <c r="H30">
-        <v>-9970.877336623209</v>
+        <v>-13330.1820063079</v>
       </c>
       <c r="I30">
-        <v>30822.01896715528</v>
+        <v>26250.67203490306</v>
       </c>
       <c r="J30">
-        <v>70428.50503736992</v>
+        <v>-3705.608533793477</v>
       </c>
       <c r="K30">
-        <v>-9941.054174100907</v>
+        <v>-13290.31107308864</v>
       </c>
       <c r="L30">
-        <v>30729.82947871913</v>
+        <v>26172.15556819846</v>
       </c>
       <c r="M30">
-        <v>70217.85148292116</v>
+        <v>-3694.524958916727</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2561.503384127048</v>
+        <v>2336.096242090082</v>
       </c>
       <c r="C31">
-        <v>1732.383579065933</v>
+        <v>1290.255572361539</v>
       </c>
       <c r="D31">
-        <v>2557.212636708522</v>
+        <v>1936.864903785666</v>
       </c>
       <c r="E31">
-        <v>2533.715872070443</v>
+        <v>2310.753975164056</v>
       </c>
       <c r="F31">
-        <v>1713.590463316697</v>
+        <v>1276.258717040063</v>
       </c>
       <c r="G31">
-        <v>2529.471671221546</v>
+        <v>1915.853548813632</v>
       </c>
       <c r="H31">
-        <v>-13307.41670394671</v>
+        <v>-34700.97398657471</v>
       </c>
       <c r="I31">
-        <v>27366.85186921522</v>
+        <v>47618.05230377171</v>
       </c>
       <c r="J31">
-        <v>14320.07594580532</v>
+        <v>62417.65727268637</v>
       </c>
       <c r="K31">
-        <v>-13163.0561677106</v>
+        <v>-34324.53344036926</v>
       </c>
       <c r="L31">
-        <v>27069.97280554523</v>
+        <v>47101.48566142309</v>
       </c>
       <c r="M31">
-        <v>14164.72995428277</v>
+        <v>61740.54264744026</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2774.171861673634</v>
+        <v>2485.260880319477</v>
       </c>
       <c r="C32">
-        <v>1779.833726208158</v>
+        <v>1324.835482985214</v>
       </c>
       <c r="D32">
-        <v>2601.068787689111</v>
+        <v>1967.187508410947</v>
       </c>
       <c r="E32">
-        <v>2752.45623066249</v>
+        <v>2465.806783408953</v>
       </c>
       <c r="F32">
-        <v>1765.90156396778</v>
+        <v>1314.464950828774</v>
       </c>
       <c r="G32">
-        <v>2580.708170955732</v>
+        <v>1951.788780360764</v>
       </c>
       <c r="H32">
-        <v>-78274.23636952441</v>
+        <v>-40263.35861503883</v>
       </c>
       <c r="I32">
-        <v>-4497.501470171551</v>
+        <v>-2278.830312679033</v>
       </c>
       <c r="J32">
-        <v>39193.21239681465</v>
+        <v>47191.70223311704</v>
       </c>
       <c r="K32">
-        <v>-77661.5221905066</v>
+        <v>-39948.18555347297</v>
       </c>
       <c r="L32">
-        <v>-4462.295979211303</v>
+        <v>-2260.992110622838</v>
       </c>
       <c r="M32">
-        <v>38886.41621366933</v>
+        <v>46822.29556201633</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2856.025082470606</v>
+        <v>1797.495622244819</v>
       </c>
       <c r="C33">
-        <v>1861.172025510221</v>
+        <v>1390.351375137456</v>
       </c>
       <c r="D33">
-        <v>2705.856784011075</v>
+        <v>1952.532466404124</v>
       </c>
       <c r="E33">
-        <v>2833.842363383456</v>
+        <v>1783.534491198257</v>
       </c>
       <c r="F33">
-        <v>1846.716320457715</v>
+        <v>1379.552529505321</v>
       </c>
       <c r="G33">
-        <v>2684.840420640115</v>
+        <v>1937.367165694189</v>
       </c>
       <c r="H33">
-        <v>3247.421891279559</v>
+        <v>236102.6226121681</v>
       </c>
       <c r="I33">
-        <v>-17570.53486871618</v>
+        <v>-6298.919259607384</v>
       </c>
       <c r="J33">
-        <v>-44502.90038424428</v>
+        <v>94409.21186429204</v>
       </c>
       <c r="K33">
-        <v>3222.199196978358</v>
+        <v>234268.8158345979</v>
       </c>
       <c r="L33">
-        <v>-17434.06469497858</v>
+        <v>-6249.995614872571</v>
       </c>
       <c r="M33">
-        <v>-44157.24678902684</v>
+        <v>93675.93643233638</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>3049.401805629032</v>
+        <v>2608.781839110742</v>
       </c>
       <c r="C34">
-        <v>1942.119358450523</v>
+        <v>1454.253893958723</v>
       </c>
       <c r="D34">
-        <v>2783.757451048856</v>
+        <v>1971.858362098949</v>
       </c>
       <c r="E34">
-        <v>3037.605280268764</v>
+        <v>2598.689839733138</v>
       </c>
       <c r="F34">
-        <v>1934.606324181855</v>
+        <v>1448.628153556562</v>
       </c>
       <c r="G34">
-        <v>2772.988563423908</v>
+        <v>1964.23028332874</v>
       </c>
       <c r="H34">
-        <v>-45518.52519754879</v>
+        <v>-199631.611376099</v>
       </c>
       <c r="I34">
-        <v>-28030.50075904484</v>
+        <v>-14072.22330738175</v>
       </c>
       <c r="J34">
-        <v>635.8402988185344</v>
+        <v>58155.81077627985</v>
       </c>
       <c r="K34">
-        <v>-45342.43805945382</v>
+        <v>-198859.3420864429</v>
       </c>
       <c r="L34">
-        <v>-27922.06555301372</v>
+        <v>-14017.78530619265</v>
       </c>
       <c r="M34">
-        <v>633.3805684555978</v>
+        <v>57930.83665335421</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,40 +465,40 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1043.634102143072</v>
+        <v>1092.973660516295</v>
       </c>
       <c r="C4">
-        <v>702.4673992950858</v>
+        <v>705.6631624283294</v>
       </c>
       <c r="D4">
-        <v>970.3868732368628</v>
+        <v>963.7320561388785</v>
       </c>
       <c r="E4">
-        <v>1016.570657030772</v>
+        <v>1064.630745494803</v>
       </c>
       <c r="F4">
-        <v>684.2510647914855</v>
+        <v>687.3639556230568</v>
       </c>
       <c r="G4">
-        <v>945.2228700410933</v>
+        <v>938.7406251855202</v>
       </c>
       <c r="H4">
-        <v>265.9119789794119</v>
+        <v>5406.459987083211</v>
       </c>
       <c r="I4">
-        <v>-3941.922476787426</v>
+        <v>-7856.969397403166</v>
       </c>
       <c r="J4">
-        <v>-9198.618966077742</v>
+        <v>-15331.90922416468</v>
       </c>
       <c r="K4">
-        <v>259.0163685034466</v>
+        <v>5266.26005224799</v>
       </c>
       <c r="L4">
-        <v>-3839.700824228919</v>
+        <v>-7653.223027292225</v>
       </c>
       <c r="M4">
-        <v>-8960.081035028725</v>
+        <v>-14934.32324752508</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -506,40 +506,40 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1056.135914141084</v>
+        <v>1072.823104767439</v>
       </c>
       <c r="C5">
-        <v>753.1217758831207</v>
+        <v>741.1539467840439</v>
       </c>
       <c r="D5">
-        <v>1023.180019260271</v>
+        <v>1021.157541149983</v>
       </c>
       <c r="E5">
-        <v>1031.069397191533</v>
+        <v>1047.360531078338</v>
       </c>
       <c r="F5">
-        <v>735.2470501896921</v>
+        <v>723.563267667334</v>
       </c>
       <c r="G5">
-        <v>998.8956833601062</v>
+        <v>996.9212071037014</v>
       </c>
       <c r="H5">
-        <v>3317.432890955881</v>
+        <v>18281.38013386884</v>
       </c>
       <c r="I5">
-        <v>-6972.630495817394</v>
+        <v>-3336.176179187504</v>
       </c>
       <c r="J5">
-        <v>-7662.459376802145</v>
+        <v>-10722.70307299442</v>
       </c>
       <c r="K5">
-        <v>3238.696350822434</v>
+        <v>17847.48661803334</v>
       </c>
       <c r="L5">
-        <v>-6807.140847973627</v>
+        <v>-3256.994782529573</v>
       </c>
       <c r="M5">
-        <v>-7480.597208048929</v>
+        <v>-10468.20853803411</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -547,40 +547,40 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1091.240621213677</v>
+        <v>1122.945185744329</v>
       </c>
       <c r="C6">
-        <v>800.2617616716159</v>
+        <v>776.4472268867185</v>
       </c>
       <c r="D6">
-        <v>1065.552167039843</v>
+        <v>1064.915736525716</v>
       </c>
       <c r="E6">
-        <v>1069.246624196967</v>
+        <v>1100.312182000645</v>
       </c>
       <c r="F6">
-        <v>784.1324548472268</v>
+        <v>760.7979029339629</v>
       </c>
       <c r="G6">
-        <v>1044.075921812683</v>
+        <v>1043.452318580237</v>
       </c>
       <c r="H6">
-        <v>471.9473661701297</v>
+        <v>-5212.48952575091</v>
       </c>
       <c r="I6">
-        <v>-9350.989463572849</v>
+        <v>-6293.668479227716</v>
       </c>
       <c r="J6">
-        <v>-5764.048863080816</v>
+        <v>-7298.682438362106</v>
       </c>
       <c r="K6">
-        <v>462.4352487124369</v>
+        <v>-5107.431597324922</v>
       </c>
       <c r="L6">
-        <v>-9162.519908493085</v>
+        <v>-6166.819347088243</v>
       </c>
       <c r="M6">
-        <v>-5647.874234832676</v>
+        <v>-7151.57721092225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -588,40 +588,40 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1114.118443940771</v>
+        <v>1161.42676726013</v>
       </c>
       <c r="C7">
-        <v>816.1661146050701</v>
+        <v>784.7537177972674</v>
       </c>
       <c r="D7">
-        <v>1081.778989195053</v>
+        <v>1086.403519961628</v>
       </c>
       <c r="E7">
-        <v>1100.469213387132</v>
+        <v>1147.197955410083</v>
       </c>
       <c r="F7">
-        <v>806.1671422975041</v>
+        <v>775.139583429154</v>
       </c>
       <c r="G7">
-        <v>1068.525954105374</v>
+        <v>1073.093829058576</v>
       </c>
       <c r="H7">
-        <v>1923.360453285898</v>
+        <v>-1372.013402947064</v>
       </c>
       <c r="I7">
-        <v>1221.499176765957</v>
+        <v>3377.3291418111</v>
       </c>
       <c r="J7">
-        <v>1805.608304672797</v>
+        <v>-814.6332445073161</v>
       </c>
       <c r="K7">
-        <v>1899.797078666775</v>
+        <v>-1355.204662941588</v>
       </c>
       <c r="L7">
-        <v>1206.534408903587</v>
+        <v>3335.95298080882</v>
       </c>
       <c r="M7">
-        <v>1783.487529117846</v>
+        <v>-804.6530516190185</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -629,40 +629,40 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1183.697899857955</v>
+        <v>1228.939317628728</v>
       </c>
       <c r="C8">
-        <v>844.7807565185992</v>
+        <v>821.6642672512497</v>
       </c>
       <c r="D8">
-        <v>1157.377151653629</v>
+        <v>1162.859015114324</v>
       </c>
       <c r="E8">
-        <v>1160.592685596464</v>
+        <v>1204.951012629969</v>
       </c>
       <c r="F8">
-        <v>828.29104205202</v>
+        <v>805.6257755481473</v>
       </c>
       <c r="G8">
-        <v>1134.78570575048</v>
+        <v>1140.160565870351</v>
       </c>
       <c r="H8">
-        <v>922.358227787596</v>
+        <v>3626.932597626273</v>
       </c>
       <c r="I8">
-        <v>8490.744118228593</v>
+        <v>8012.090885410757</v>
       </c>
       <c r="J8">
-        <v>-4160.568255767581</v>
+        <v>-4186.684662935534</v>
       </c>
       <c r="K8">
-        <v>904.3542383563065</v>
+        <v>3556.136615990925</v>
       </c>
       <c r="L8">
-        <v>8325.008872677585</v>
+        <v>7855.698720980818</v>
       </c>
       <c r="M8">
-        <v>-4079.355962486833</v>
+        <v>-4104.96258993529</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -670,40 +670,40 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1250.206622000583</v>
+        <v>1241.983034744396</v>
       </c>
       <c r="C9">
-        <v>862.9319272409786</v>
+        <v>849.4422100940131</v>
       </c>
       <c r="D9">
-        <v>1203.509313923991</v>
+        <v>1209.742237367222</v>
       </c>
       <c r="E9">
-        <v>1224.467073900571</v>
+        <v>1216.412795793776</v>
       </c>
       <c r="F9">
-        <v>845.1656816801348</v>
+        <v>831.9536940038422</v>
       </c>
       <c r="G9">
-        <v>1178.731180990262</v>
+        <v>1184.835779539073</v>
       </c>
       <c r="H9">
-        <v>-2023.56918630201</v>
+        <v>11862.07720938639</v>
       </c>
       <c r="I9">
-        <v>6963.788783124456</v>
+        <v>2702.811942217993</v>
       </c>
       <c r="J9">
-        <v>1281.795949113148</v>
+        <v>1539.361313394422</v>
       </c>
       <c r="K9">
-        <v>-1981.907467760498</v>
+        <v>11617.85797272255</v>
       </c>
       <c r="L9">
-        <v>6820.416661118952</v>
+        <v>2647.165813995858</v>
       </c>
       <c r="M9">
-        <v>1255.406032513759</v>
+        <v>1507.668580471596</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -711,40 +711,40 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1284.68675753245</v>
+        <v>1291.695686808804</v>
       </c>
       <c r="C10">
-        <v>872.8439866376877</v>
+        <v>864.2881894583994</v>
       </c>
       <c r="D10">
-        <v>1241.58704071528</v>
+        <v>1248.915642522515</v>
       </c>
       <c r="E10">
-        <v>1256.959705211606</v>
+        <v>1263.817362633074</v>
       </c>
       <c r="F10">
-        <v>854.0056272138528</v>
+        <v>845.6344875276426</v>
       </c>
       <c r="G10">
-        <v>1214.790198109915</v>
+        <v>1221.960628655122</v>
       </c>
       <c r="H10">
-        <v>2393.059525163079</v>
+        <v>-695.9946047902878</v>
       </c>
       <c r="I10">
-        <v>8391.728370549956</v>
+        <v>8054.743594229935</v>
       </c>
       <c r="J10">
-        <v>3477.687554034209</v>
+        <v>5308.339336669195</v>
       </c>
       <c r="K10">
-        <v>2341.41075843294</v>
+        <v>-680.9731384998501</v>
       </c>
       <c r="L10">
-        <v>8210.6119308978</v>
+        <v>7880.900207304109</v>
       </c>
       <c r="M10">
-        <v>3402.62954927088</v>
+        <v>5193.770861777055</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -752,40 +752,40 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1293.577641132945</v>
+        <v>1328.840646499237</v>
       </c>
       <c r="C11">
-        <v>848.1116435798729</v>
+        <v>876.1957412919363</v>
       </c>
       <c r="D11">
-        <v>1279.912512292018</v>
+        <v>1288.00629935824</v>
       </c>
       <c r="E11">
-        <v>1266.248536038587</v>
+        <v>1300.76654833376</v>
       </c>
       <c r="F11">
-        <v>830.1937919549459</v>
+        <v>857.6845636590081</v>
       </c>
       <c r="G11">
-        <v>1252.87210710275</v>
+        <v>1260.794898667573</v>
       </c>
       <c r="H11">
-        <v>6517.714776236279</v>
+        <v>4237.826026832106</v>
       </c>
       <c r="I11">
-        <v>17565.04557443324</v>
+        <v>12306.63215313025</v>
       </c>
       <c r="J11">
-        <v>5734.744269149333</v>
+        <v>7910.610237548909</v>
       </c>
       <c r="K11">
-        <v>6380.01657673833</v>
+        <v>4148.294491053963</v>
       </c>
       <c r="L11">
-        <v>17193.95306229733</v>
+        <v>12046.63288228946</v>
       </c>
       <c r="M11">
-        <v>5613.587700082799</v>
+        <v>7743.484669149988</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -793,40 +793,40 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1318.166337113757</v>
+        <v>1356.983635130188</v>
       </c>
       <c r="C12">
-        <v>882.9687933294998</v>
+        <v>897.0089928108279</v>
       </c>
       <c r="D12">
-        <v>1326.170803217134</v>
+        <v>1331.949738518106</v>
       </c>
       <c r="E12">
-        <v>1294.464867705073</v>
+        <v>1332.584206006132</v>
       </c>
       <c r="F12">
-        <v>867.0924526472267</v>
+        <v>880.8802004089735</v>
       </c>
       <c r="G12">
-        <v>1302.325408415166</v>
+        <v>1308.000434782649</v>
       </c>
       <c r="H12">
-        <v>5552.843300264927</v>
+        <v>7961.36568925124</v>
       </c>
       <c r="I12">
-        <v>718.7192342223494</v>
+        <v>9265.033577043803</v>
       </c>
       <c r="J12">
-        <v>3548.920899032485</v>
+        <v>9283.926088173614</v>
       </c>
       <c r="K12">
-        <v>5452.999644796816</v>
+        <v>7818.215268835934</v>
       </c>
       <c r="L12">
-        <v>705.7962051146168</v>
+        <v>9098.442378563072</v>
       </c>
       <c r="M12">
-        <v>3485.109043309909</v>
+        <v>9116.995190322636</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -834,40 +834,40 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1362.550643604331</v>
+        <v>1380.02653438157</v>
       </c>
       <c r="C13">
-        <v>907.7256573208996</v>
+        <v>928.0191736066439</v>
       </c>
       <c r="D13">
-        <v>1353.672842549139</v>
+        <v>1352.173488493803</v>
       </c>
       <c r="E13">
-        <v>1329.452247403416</v>
+        <v>1346.503622615216</v>
       </c>
       <c r="F13">
-        <v>885.6756413535903</v>
+        <v>905.4761977295595</v>
       </c>
       <c r="G13">
-        <v>1320.790101434585</v>
+        <v>1319.327168935249</v>
       </c>
       <c r="H13">
-        <v>-265.8304906133647</v>
+        <v>1063.717865721435</v>
       </c>
       <c r="I13">
-        <v>1619.376922006833</v>
+        <v>530.9918806636111</v>
       </c>
       <c r="J13">
-        <v>2383.364465953702</v>
+        <v>5023.597175618725</v>
       </c>
       <c r="K13">
-        <v>-259.3730697887485</v>
+        <v>1037.878565339538</v>
       </c>
       <c r="L13">
-        <v>1580.039830783995</v>
+        <v>518.0932924693533</v>
       </c>
       <c r="M13">
-        <v>2325.468972853611</v>
+        <v>4901.566474996408</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -875,40 +875,40 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1375.584888063283</v>
+        <v>1410.223745343304</v>
       </c>
       <c r="C14">
-        <v>958.6381764026108</v>
+        <v>977.7387625159473</v>
       </c>
       <c r="D14">
-        <v>1385.92087181626</v>
+        <v>1379.993922173811</v>
       </c>
       <c r="E14">
-        <v>1337.675068313507</v>
+        <v>1371.35931141652</v>
       </c>
       <c r="F14">
-        <v>932.2190140608066</v>
+        <v>950.7932060686572</v>
       </c>
       <c r="G14">
-        <v>1347.726202120536</v>
+        <v>1341.962593609966</v>
       </c>
       <c r="H14">
-        <v>2302.41076801778</v>
+        <v>2418.986690553135</v>
       </c>
       <c r="I14">
-        <v>-878.0740549156269</v>
+        <v>-9.210108352817198</v>
       </c>
       <c r="J14">
-        <v>5272.039410181388</v>
+        <v>6217.379001782169</v>
       </c>
       <c r="K14">
-        <v>2238.958502757448</v>
+        <v>2352.321703018205</v>
       </c>
       <c r="L14">
-        <v>-853.8751636384245</v>
+        <v>-8.956286469078098</v>
       </c>
       <c r="M14">
-        <v>5126.74698549135</v>
+        <v>6046.033911181873</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -916,40 +916,40 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1430.933142239107</v>
+        <v>1437.540742594801</v>
       </c>
       <c r="C15">
-        <v>994.7568642976113</v>
+        <v>1016.75517408828</v>
       </c>
       <c r="D15">
-        <v>1401.985663461433</v>
+        <v>1389.709230293428</v>
       </c>
       <c r="E15">
-        <v>1397.911608187435</v>
+        <v>1404.366725457998</v>
       </c>
       <c r="F15">
-        <v>971.8009366599741</v>
+        <v>993.2915931477808</v>
       </c>
       <c r="G15">
-        <v>1369.632148150785</v>
+        <v>1357.639017286656</v>
       </c>
       <c r="H15">
-        <v>689.3907135337757</v>
+        <v>1172.280285956864</v>
       </c>
       <c r="I15">
-        <v>1272.215785158953</v>
+        <v>740.6911394719318</v>
       </c>
       <c r="J15">
-        <v>5920.600758308033</v>
+        <v>6806.234755800778</v>
       </c>
       <c r="K15">
-        <v>673.4816970676115</v>
+        <v>1145.227663973244</v>
       </c>
       <c r="L15">
-        <v>1242.856959347592</v>
+        <v>723.5982670225798</v>
       </c>
       <c r="M15">
-        <v>5783.971510039386</v>
+        <v>6649.167799897683</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -957,40 +957,40 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1473.196060695208</v>
+        <v>1431.717501623342</v>
       </c>
       <c r="C16">
-        <v>1011.770237171885</v>
+        <v>1032.547962182847</v>
       </c>
       <c r="D16">
-        <v>1418.184938546136</v>
+        <v>1414.121875207429</v>
       </c>
       <c r="E16">
-        <v>1438.163864007838</v>
+        <v>1397.67165364982</v>
       </c>
       <c r="F16">
-        <v>987.7106195169837</v>
+        <v>1007.994255948211</v>
       </c>
       <c r="G16">
-        <v>1384.460891196478</v>
+        <v>1380.494446385225</v>
       </c>
       <c r="H16">
-        <v>105.1223769145618</v>
+        <v>4796.398125545883</v>
       </c>
       <c r="I16">
-        <v>1973.841718072064</v>
+        <v>2092.052577435809</v>
       </c>
       <c r="J16">
-        <v>3609.772732793029</v>
+        <v>3816.062000246611</v>
       </c>
       <c r="K16">
-        <v>102.6225957363682</v>
+        <v>4682.341098780711</v>
       </c>
       <c r="L16">
-        <v>1926.90430550214</v>
+        <v>2042.304143178887</v>
       </c>
       <c r="M16">
-        <v>3523.933331137124</v>
+        <v>3725.31709661121</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -998,40 +998,40 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1495.863960863639</v>
+        <v>1379.566194147015</v>
       </c>
       <c r="C17">
-        <v>1023.378466312492</v>
+        <v>1038.481744679115</v>
       </c>
       <c r="D17">
-        <v>1431.720571698535</v>
+        <v>1426.146085254422</v>
       </c>
       <c r="E17">
-        <v>1464.700128345646</v>
+        <v>1350.825231768952</v>
       </c>
       <c r="F17">
-        <v>1002.058081597649</v>
+        <v>1016.846708331633</v>
       </c>
       <c r="G17">
-        <v>1401.893059788149</v>
+        <v>1396.434708478288</v>
       </c>
       <c r="H17">
-        <v>59.74133903207134</v>
+        <v>5072.929216640558</v>
       </c>
       <c r="I17">
-        <v>1811.595442183879</v>
+        <v>2538.923650619273</v>
       </c>
       <c r="J17">
-        <v>1031.95571836844</v>
+        <v>3409.969453900905</v>
       </c>
       <c r="K17">
-        <v>58.49672780223644</v>
+        <v>4967.243191293881</v>
       </c>
       <c r="L17">
-        <v>1773.853870471715</v>
+        <v>2486.029407898039</v>
       </c>
       <c r="M17">
-        <v>1010.456640902431</v>
+        <v>3338.928423611303</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1039,40 +1039,40 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1564.394695719477</v>
+        <v>1436.633804050452</v>
       </c>
       <c r="C18">
-        <v>1031.245969780641</v>
+        <v>1077.892541647423</v>
       </c>
       <c r="D18">
-        <v>1418.695904254261</v>
+        <v>1449.405881814395</v>
       </c>
       <c r="E18">
-        <v>1547.328571766174</v>
+        <v>1420.961435278992</v>
       </c>
       <c r="F18">
-        <v>1019.996013746671</v>
+        <v>1066.13371392036</v>
       </c>
       <c r="G18">
-        <v>1403.219221662396</v>
+        <v>1433.594181285511</v>
       </c>
       <c r="H18">
-        <v>-353.9321463174891</v>
+        <v>-195.2571690426774</v>
       </c>
       <c r="I18">
-        <v>3389.302418965806</v>
+        <v>-384.9544131832632</v>
       </c>
       <c r="J18">
-        <v>5913.900845114393</v>
+        <v>4657.821772742173</v>
       </c>
       <c r="K18">
-        <v>-350.0710683576619</v>
+        <v>-193.1270908349391</v>
       </c>
       <c r="L18">
-        <v>3352.328210758906</v>
+        <v>-380.7549104939912</v>
       </c>
       <c r="M18">
-        <v>5849.38556316769</v>
+        <v>4607.009171584985</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1535.500037787553</v>
+        <v>1495.201260388764</v>
       </c>
       <c r="C19">
-        <v>1062.75312083473</v>
+        <v>1083.240668402103</v>
       </c>
       <c r="D19">
-        <v>1467.76495400573</v>
+        <v>1511.098013370575</v>
       </c>
       <c r="E19">
-        <v>1508.080394255632</v>
+        <v>1468.501237881822</v>
       </c>
       <c r="F19">
-        <v>1043.775386534109</v>
+        <v>1063.89708503778</v>
       </c>
       <c r="G19">
-        <v>1441.554865541342</v>
+        <v>1484.114120274671</v>
       </c>
       <c r="H19">
-        <v>3482.572789493572</v>
+        <v>314.8766443917867</v>
       </c>
       <c r="I19">
-        <v>2246.434786821126</v>
+        <v>5534.555421995951</v>
       </c>
       <c r="J19">
-        <v>1125.570227588388</v>
+        <v>1290.00733018486</v>
       </c>
       <c r="K19">
-        <v>3420.383989681186</v>
+        <v>309.2538471705049</v>
       </c>
       <c r="L19">
-        <v>2206.319879913606</v>
+        <v>5435.724075174595</v>
       </c>
       <c r="M19">
-        <v>1105.470759238595</v>
+        <v>1266.971485002988</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1730.975149813241</v>
+        <v>1624.34984123404</v>
       </c>
       <c r="C20">
-        <v>1057.574664910012</v>
+        <v>1122.463827257997</v>
       </c>
       <c r="D20">
-        <v>1531.431283759932</v>
+        <v>1579.579444309969</v>
       </c>
       <c r="E20">
-        <v>1698.620474115797</v>
+        <v>1593.988161958638</v>
       </c>
       <c r="F20">
-        <v>1037.806914164031</v>
+        <v>1101.483194972801</v>
       </c>
       <c r="G20">
-        <v>1502.806399951335</v>
+        <v>1550.054594883615</v>
       </c>
       <c r="H20">
-        <v>-3065.321160448262</v>
+        <v>-1699.222855510247</v>
       </c>
       <c r="I20">
-        <v>5117.311901279651</v>
+        <v>2959.757093634057</v>
       </c>
       <c r="J20">
-        <v>1360.528927393736</v>
+        <v>1578.809290164077</v>
       </c>
       <c r="K20">
-        <v>-3008.025437823061</v>
+        <v>-1667.461680640897</v>
       </c>
       <c r="L20">
-        <v>5021.661211536107</v>
+        <v>2904.434531136224</v>
       </c>
       <c r="M20">
-        <v>1335.098480152732</v>
+        <v>1549.298836142319</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1162,40 +1162,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1764.758728676951</v>
+        <v>1660.749815366196</v>
       </c>
       <c r="C21">
-        <v>1074.283089866372</v>
+        <v>1127.882121725805</v>
       </c>
       <c r="D21">
-        <v>1587.810116473041</v>
+        <v>1639.133859534206</v>
       </c>
       <c r="E21">
-        <v>1734.366787310528</v>
+        <v>1632.149072277226</v>
       </c>
       <c r="F21">
-        <v>1055.782232980039</v>
+        <v>1108.45820458931</v>
       </c>
       <c r="G21">
-        <v>1560.465510563631</v>
+        <v>1610.905377452676</v>
       </c>
       <c r="H21">
-        <v>2745.624065588519</v>
+        <v>3946.347032507273</v>
       </c>
       <c r="I21">
-        <v>4376.258217135281</v>
+        <v>5872.45498902069</v>
       </c>
       <c r="J21">
-        <v>2292.557630830862</v>
+        <v>3352.863145189499</v>
       </c>
       <c r="K21">
-        <v>2698.340069051404</v>
+        <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>4300.892116954996</v>
+        <v>5771.322009875673</v>
       </c>
       <c r="M21">
-        <v>2253.076156132282</v>
+        <v>3295.121529600702</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1203,40 +1203,40 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1767.69071409531</v>
+        <v>1756.170835786003</v>
       </c>
       <c r="C22">
-        <v>1122.116657017772</v>
+        <v>1133.734419999832</v>
       </c>
       <c r="D22">
-        <v>1600.120450056826</v>
+        <v>1657.695212079799</v>
       </c>
       <c r="E22">
-        <v>1708.833087654845</v>
+        <v>1697.696779100565</v>
       </c>
       <c r="F22">
-        <v>1084.75428220031</v>
+        <v>1095.985216226252</v>
       </c>
       <c r="G22">
-        <v>1546.842299666477</v>
+        <v>1602.500032987242</v>
       </c>
       <c r="H22">
-        <v>1346.672965188811</v>
+        <v>-2860.158721377454</v>
       </c>
       <c r="I22">
-        <v>-3553.647167108387</v>
+        <v>2018.795876448953</v>
       </c>
       <c r="J22">
-        <v>1951.862007200561</v>
+        <v>1888.696529775703</v>
       </c>
       <c r="K22">
-        <v>1301.83368776854</v>
+        <v>-2764.925911564665</v>
       </c>
       <c r="L22">
-        <v>-3435.323732021538</v>
+        <v>1951.577367799154</v>
       </c>
       <c r="M22">
-        <v>1886.872151244938</v>
+        <v>1825.809852868632</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1794.709744116753</v>
+        <v>1743.803354772767</v>
       </c>
       <c r="C23">
-        <v>1064.166512581393</v>
+        <v>1083.801851316354</v>
       </c>
       <c r="D23">
-        <v>1597.441347173376</v>
+        <v>1656.245897720326</v>
       </c>
       <c r="E23">
-        <v>1773.063025711835</v>
+        <v>1722.770638870902</v>
       </c>
       <c r="F23">
-        <v>1051.331170872626</v>
+        <v>1070.729679864073</v>
       </c>
       <c r="G23">
-        <v>1578.173962503522</v>
+        <v>1636.269247638172</v>
       </c>
       <c r="H23">
-        <v>-910.5998381672537</v>
+        <v>2037.138608400395</v>
       </c>
       <c r="I23">
-        <v>5673.723229343688</v>
+        <v>6637.372279616597</v>
       </c>
       <c r="J23">
-        <v>-770.4085811385187</v>
+        <v>-2066.50023291606</v>
       </c>
       <c r="K23">
-        <v>-899.6167260840961</v>
+        <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>5605.290164077481</v>
+        <v>6557.316254314203</v>
       </c>
       <c r="M23">
-        <v>-761.1163723747866</v>
+        <v>-2041.575339755888</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1765.480476832563</v>
+        <v>1703.610536103614</v>
       </c>
       <c r="C24">
-        <v>1084.879775849224</v>
+        <v>1115.133612501509</v>
       </c>
       <c r="D24">
-        <v>1665.312255189489</v>
+        <v>1721.006890329727</v>
       </c>
       <c r="E24">
-        <v>1725.742974138582</v>
+        <v>1665.265604422825</v>
       </c>
       <c r="F24">
-        <v>1060.461259994096</v>
+        <v>1090.034142123662</v>
       </c>
       <c r="G24">
-        <v>1627.829342693263</v>
+        <v>1682.270400836775</v>
       </c>
       <c r="H24">
-        <v>7741.657152491347</v>
+        <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>4053.11654991427</v>
+        <v>5935.042597037328</v>
       </c>
       <c r="J24">
-        <v>4136.834268782613</v>
+        <v>6254.696254192204</v>
       </c>
       <c r="K24">
-        <v>7567.407634589613</v>
+        <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>3961.888846218451</v>
+        <v>5801.456429258353</v>
       </c>
       <c r="M24">
-        <v>4043.722243440239</v>
+        <v>6113.915309564084</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1752.74693284783</v>
+        <v>1733.199337948998</v>
       </c>
       <c r="C25">
-        <v>1109.975970281377</v>
+        <v>1150.353251832997</v>
       </c>
       <c r="D25">
-        <v>1657.378675952336</v>
+        <v>1751.34946888745</v>
       </c>
       <c r="E25">
-        <v>1705.227203698671</v>
+        <v>1686.209574876346</v>
       </c>
       <c r="F25">
-        <v>1079.882774006804</v>
+        <v>1119.165363879235</v>
       </c>
       <c r="G25">
-        <v>1612.444530410354</v>
+        <v>1703.867627186643</v>
       </c>
       <c r="H25">
-        <v>1940.91620309945</v>
+        <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-1565.092578931754</v>
+        <v>-2933.256528618303</v>
       </c>
       <c r="J25">
-        <v>5453.500374105814</v>
+        <v>-162.4156417819009</v>
       </c>
       <c r="K25">
-        <v>1888.294908750559</v>
+        <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-1522.660454789705</v>
+        <v>-2853.731325548359</v>
       </c>
       <c r="M25">
-        <v>5305.647392117544</v>
+        <v>-158.0122980005356</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1367,40 +1367,40 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1800.299346720074</v>
+        <v>1757.913207544652</v>
       </c>
       <c r="C26">
-        <v>1218.095707243476</v>
+        <v>1232.588625155828</v>
       </c>
       <c r="D26">
-        <v>1696.374981813909</v>
+        <v>1782.911431362114</v>
       </c>
       <c r="E26">
-        <v>1758.133476073881</v>
+        <v>1716.740087612344</v>
       </c>
       <c r="F26">
-        <v>1189.565970719443</v>
+        <v>1203.719441470916</v>
       </c>
       <c r="G26">
-        <v>1656.643184887514</v>
+        <v>1741.152813315955</v>
       </c>
       <c r="H26">
-        <v>800.0398014477272</v>
+        <v>4480.71787517596</v>
       </c>
       <c r="I26">
-        <v>-7721.307158576531</v>
+        <v>-7196.490575759423</v>
       </c>
       <c r="J26">
-        <v>1350.14321127175</v>
+        <v>7165.8036794255</v>
       </c>
       <c r="K26">
-        <v>781.3015983588292</v>
+        <v>4375.77234449465</v>
       </c>
       <c r="L26">
-        <v>-7540.461878895004</v>
+        <v>-7027.937334168317</v>
       </c>
       <c r="M26">
-        <v>1318.520712433409</v>
+        <v>6997.969173695576</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1793.345698732267</v>
+        <v>1802.327185987571</v>
       </c>
       <c r="C27">
-        <v>1220.308718389518</v>
+        <v>1254.595957363876</v>
       </c>
       <c r="D27">
-        <v>1716.752530366483</v>
+        <v>1799.113801425157</v>
       </c>
       <c r="E27">
-        <v>1778.854016318269</v>
+        <v>1787.762925898783</v>
       </c>
       <c r="F27">
-        <v>1210.447637836876</v>
+        <v>1244.457808213461</v>
       </c>
       <c r="G27">
-        <v>1702.87978264635</v>
+        <v>1784.575508080307</v>
       </c>
       <c r="H27">
-        <v>2949.533903627681</v>
+        <v>-417.8830837027341</v>
       </c>
       <c r="I27">
-        <v>1967.590232627452</v>
+        <v>3429.481599935254</v>
       </c>
       <c r="J27">
-        <v>4808.20556614899</v>
+        <v>7064.945752198114</v>
       </c>
       <c r="K27">
-        <v>2925.69928622463</v>
+        <v>-414.5062507031166</v>
       </c>
       <c r="L27">
-        <v>1951.690513575917</v>
+        <v>3401.768617309515</v>
       </c>
       <c r="M27">
-        <v>4769.351379755868</v>
+        <v>7007.855281473281</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1790.399645857645</v>
+        <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1244.151580212779</v>
+        <v>1275.999624889278</v>
       </c>
       <c r="D28">
-        <v>1757.860917065894</v>
+        <v>1810.690693847011</v>
       </c>
       <c r="E28">
-        <v>1779.614105822358</v>
+        <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1236.656691175353</v>
+        <v>1268.312880161029</v>
       </c>
       <c r="G28">
-        <v>1747.271393469111</v>
+        <v>1799.782918582873</v>
       </c>
       <c r="H28">
-        <v>20336.08654182166</v>
+        <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>8031.75512408848</v>
+        <v>16620.81295423352</v>
       </c>
       <c r="J28">
-        <v>-741.4264693487446</v>
+        <v>65895.07056436871</v>
       </c>
       <c r="K28">
-        <v>20213.57999638901</v>
+        <v>-21079.36215818928</v>
       </c>
       <c r="L28">
-        <v>7983.371057075899</v>
+        <v>16520.68757499116</v>
       </c>
       <c r="M28">
-        <v>-736.9600448345977</v>
+        <v>65498.11230795686</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1998.11876399931</v>
+        <v>1977.856746520409</v>
       </c>
       <c r="C29">
-        <v>1289.118692236644</v>
+        <v>1340.832055915711</v>
       </c>
       <c r="D29">
-        <v>1844.078341579248</v>
+        <v>1884.93726127349</v>
       </c>
       <c r="E29">
-        <v>1990.126288943312</v>
+        <v>1969.945319534327</v>
       </c>
       <c r="F29">
-        <v>1283.962217467698</v>
+        <v>1335.468727692048</v>
       </c>
       <c r="G29">
-        <v>1836.702028212931</v>
+        <v>1877.397512228396</v>
       </c>
       <c r="H29">
-        <v>-52902.12797504198</v>
+        <v>-65405.66105671858</v>
       </c>
       <c r="I29">
-        <v>20411.13723207099</v>
+        <v>-8064.863141473237</v>
       </c>
       <c r="J29">
-        <v>8688.842675586207</v>
+        <v>32014.01229969479</v>
       </c>
       <c r="K29">
-        <v>-52690.51946314181</v>
+        <v>-65144.0384124917</v>
       </c>
       <c r="L29">
-        <v>20329.49268314271</v>
+        <v>-8032.603688907345</v>
       </c>
       <c r="M29">
-        <v>8654.087304883864</v>
+        <v>31885.956250496</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2105.64004796579</v>
+        <v>2004.679136249755</v>
       </c>
       <c r="C30">
-        <v>1298.903175025548</v>
+        <v>1358.533511390568</v>
       </c>
       <c r="D30">
-        <v>1897.209461210274</v>
+        <v>1901.99230516461</v>
       </c>
       <c r="E30">
-        <v>2099.342021900089</v>
+        <v>1998.683086988789</v>
       </c>
       <c r="F30">
-        <v>1295.018120663557</v>
+        <v>1354.470101087306</v>
       </c>
       <c r="G30">
-        <v>1891.534856640353</v>
+        <v>1896.303394979671</v>
       </c>
       <c r="H30">
-        <v>-13330.1820063079</v>
+        <v>33088.01454274101</v>
       </c>
       <c r="I30">
-        <v>26250.67203490306</v>
+        <v>24851.20897358424</v>
       </c>
       <c r="J30">
-        <v>-3705.608533793477</v>
+        <v>59441.16076002013</v>
       </c>
       <c r="K30">
-        <v>-13290.31107308864</v>
+        <v>32989.04740053939</v>
       </c>
       <c r="L30">
-        <v>26172.15556819846</v>
+        <v>24776.87833856853</v>
       </c>
       <c r="M30">
-        <v>-3694.524958916727</v>
+        <v>59263.3706480759</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2336.096242090082</v>
+        <v>2163.076362360478</v>
       </c>
       <c r="C31">
-        <v>1290.255572361539</v>
+        <v>1391.586771850942</v>
       </c>
       <c r="D31">
-        <v>1936.864903785666</v>
+        <v>1962.104918381626</v>
       </c>
       <c r="E31">
-        <v>2310.753975164056</v>
+        <v>2139.611036930532</v>
       </c>
       <c r="F31">
-        <v>1276.258717040063</v>
+        <v>1376.490662886089</v>
       </c>
       <c r="G31">
-        <v>1915.853548813632</v>
+        <v>1940.819756545138</v>
       </c>
       <c r="H31">
-        <v>-34700.97398657471</v>
+        <v>-4785.884914582191</v>
       </c>
       <c r="I31">
-        <v>47618.05230377171</v>
+        <v>27611.55247994559</v>
       </c>
       <c r="J31">
-        <v>62417.65727268637</v>
+        <v>51477.65997764355</v>
       </c>
       <c r="K31">
-        <v>-34324.53344036926</v>
+        <v>-4733.967030893426</v>
       </c>
       <c r="L31">
-        <v>47101.48566142309</v>
+        <v>27312.01887316117</v>
       </c>
       <c r="M31">
-        <v>61740.54264744026</v>
+        <v>50919.22382403992</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2485.260880319477</v>
+        <v>2264.818651424481</v>
       </c>
       <c r="C32">
-        <v>1324.835482985214</v>
+        <v>1426.23134600604</v>
       </c>
       <c r="D32">
-        <v>1967.187508410947</v>
+        <v>1977.12359634629</v>
       </c>
       <c r="E32">
-        <v>2465.806783408953</v>
+        <v>2247.090129691217</v>
       </c>
       <c r="F32">
-        <v>1314.464950828774</v>
+        <v>1415.067108463919</v>
       </c>
       <c r="G32">
-        <v>1951.788780360764</v>
+        <v>1961.647090699743</v>
       </c>
       <c r="H32">
-        <v>-40263.35861503883</v>
+        <v>-12395.46097991469</v>
       </c>
       <c r="I32">
-        <v>-2278.830312679033</v>
+        <v>-1508.481369139732</v>
       </c>
       <c r="J32">
-        <v>47191.70223311704</v>
+        <v>76147.5004635459</v>
       </c>
       <c r="K32">
-        <v>-39948.18555347297</v>
+        <v>-12298.43193114823</v>
       </c>
       <c r="L32">
-        <v>-2260.992110622838</v>
+        <v>-1496.673295800087</v>
       </c>
       <c r="M32">
-        <v>46822.29556201633</v>
+        <v>75551.43392371385</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1654,40 +1654,40 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>1797.495622244819</v>
+        <v>2338.88712824519</v>
       </c>
       <c r="C33">
-        <v>1390.351375137456</v>
+        <v>1474.132956453719</v>
       </c>
       <c r="D33">
-        <v>1952.532466404124</v>
+        <v>2011.481386787425</v>
       </c>
       <c r="E33">
-        <v>1783.534491198257</v>
+        <v>2320.721014627751</v>
       </c>
       <c r="F33">
-        <v>1379.552529505321</v>
+        <v>1462.683380092913</v>
       </c>
       <c r="G33">
-        <v>1937.367165694189</v>
+        <v>1995.858230385192</v>
       </c>
       <c r="H33">
-        <v>236102.6226121681</v>
+        <v>17738.8371778313</v>
       </c>
       <c r="I33">
-        <v>-6298.919259607384</v>
+        <v>13380.58956559972</v>
       </c>
       <c r="J33">
-        <v>94409.21186429204</v>
+        <v>50343.44377562305</v>
       </c>
       <c r="K33">
-        <v>234268.8158345979</v>
+        <v>17601.05980169281</v>
       </c>
       <c r="L33">
-        <v>-6249.995614872571</v>
+        <v>13276.66265635235</v>
       </c>
       <c r="M33">
-        <v>93675.93643233638</v>
+        <v>49952.42673658908</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1695,40 +1695,40 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2608.781839110742</v>
+        <v>2563.019377976294</v>
       </c>
       <c r="C34">
-        <v>1454.253893958723</v>
+        <v>1528.969550360073</v>
       </c>
       <c r="D34">
-        <v>1971.858362098949</v>
+        <v>2049.965104237474</v>
       </c>
       <c r="E34">
-        <v>2598.689839733138</v>
+        <v>2553.104409396115</v>
       </c>
       <c r="F34">
-        <v>1448.628153556562</v>
+        <v>1523.05477453663</v>
       </c>
       <c r="G34">
-        <v>1964.23028332874</v>
+        <v>2042.034871725917</v>
       </c>
       <c r="H34">
-        <v>-199631.611376099</v>
+        <v>-111753.1690086223</v>
       </c>
       <c r="I34">
-        <v>-14072.22330738175</v>
+        <v>-9043.980006151982</v>
       </c>
       <c r="J34">
-        <v>58155.81077627985</v>
+        <v>50219.24391970062</v>
       </c>
       <c r="K34">
-        <v>-198859.3420864429</v>
+        <v>-111320.855008589</v>
       </c>
       <c r="L34">
-        <v>-14017.78530619265</v>
+        <v>-9008.993623149458</v>
       </c>
       <c r="M34">
-        <v>57930.83665335421</v>
+        <v>50024.97218306735</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -468,7 +468,7 @@
         <v>1092.973660516295</v>
       </c>
       <c r="C4">
-        <v>705.6631624283294</v>
+        <v>702.0667851984792</v>
       </c>
       <c r="D4">
         <v>963.7320561388785</v>
@@ -477,7 +477,7 @@
         <v>1064.630745494803</v>
       </c>
       <c r="F4">
-        <v>687.3639556230568</v>
+        <v>683.8608393910632</v>
       </c>
       <c r="G4">
         <v>938.7406251855202</v>
@@ -486,7 +486,7 @@
         <v>5406.459987083211</v>
       </c>
       <c r="I4">
-        <v>-7856.969397403166</v>
+        <v>-6799.274474971793</v>
       </c>
       <c r="J4">
         <v>-15331.90922416468</v>
@@ -495,7 +495,7 @@
         <v>5266.26005224799</v>
       </c>
       <c r="L4">
-        <v>-7653.223027292225</v>
+        <v>-6622.956174162152</v>
       </c>
       <c r="M4">
         <v>-14934.32324752508</v>
@@ -509,7 +509,7 @@
         <v>1072.823104767439</v>
       </c>
       <c r="C5">
-        <v>741.1539467840439</v>
+        <v>734.4324696969463</v>
       </c>
       <c r="D5">
         <v>1021.157541149983</v>
@@ -518,7 +518,7 @@
         <v>1047.360531078338</v>
       </c>
       <c r="F5">
-        <v>723.563267667334</v>
+        <v>717.0013193085695</v>
       </c>
       <c r="G5">
         <v>996.9212071037014</v>
@@ -527,7 +527,7 @@
         <v>18281.38013386884</v>
       </c>
       <c r="I5">
-        <v>-3336.176179187504</v>
+        <v>-2096.24726489407</v>
       </c>
       <c r="J5">
         <v>-10722.70307299442</v>
@@ -536,7 +536,7 @@
         <v>17847.48661803334</v>
       </c>
       <c r="L5">
-        <v>-3256.994782529573</v>
+        <v>-2046.494560822217</v>
       </c>
       <c r="M5">
         <v>-10468.20853803411</v>
@@ -550,7 +550,7 @@
         <v>1122.945185744329</v>
       </c>
       <c r="C6">
-        <v>776.4472268867185</v>
+        <v>767.7704770039612</v>
       </c>
       <c r="D6">
         <v>1064.915736525716</v>
@@ -559,7 +559,7 @@
         <v>1100.312182000645</v>
       </c>
       <c r="F6">
-        <v>760.7979029339629</v>
+        <v>752.2960332814008</v>
       </c>
       <c r="G6">
         <v>1043.452318580237</v>
@@ -568,7 +568,7 @@
         <v>-5212.48952575091</v>
       </c>
       <c r="I6">
-        <v>-6293.668479227716</v>
+        <v>-6095.056829318273</v>
       </c>
       <c r="J6">
         <v>-7298.682438362106</v>
@@ -577,7 +577,7 @@
         <v>-5107.431597324922</v>
       </c>
       <c r="L6">
-        <v>-6166.819347088243</v>
+        <v>-5972.210722680851</v>
       </c>
       <c r="M6">
         <v>-7151.57721092225</v>
@@ -591,7 +591,7 @@
         <v>1161.42676726013</v>
       </c>
       <c r="C7">
-        <v>784.7537177972674</v>
+        <v>771.4875798375053</v>
       </c>
       <c r="D7">
         <v>1086.403519961628</v>
@@ -600,7 +600,7 @@
         <v>1147.197955410083</v>
       </c>
       <c r="F7">
-        <v>775.139583429154</v>
+        <v>762.0359708961577</v>
       </c>
       <c r="G7">
         <v>1073.093829058576</v>
@@ -609,7 +609,7 @@
         <v>-1372.013402947064</v>
       </c>
       <c r="I7">
-        <v>3377.3291418111</v>
+        <v>5130.984035381776</v>
       </c>
       <c r="J7">
         <v>-814.6332445073161</v>
@@ -618,7 +618,7 @@
         <v>-1355.204662941588</v>
       </c>
       <c r="L7">
-        <v>3335.95298080882</v>
+        <v>5068.123587781387</v>
       </c>
       <c r="M7">
         <v>-804.6530516190185</v>
@@ -632,7 +632,7 @@
         <v>1228.939317628728</v>
       </c>
       <c r="C8">
-        <v>821.6642672512497</v>
+        <v>814.4323620066197</v>
       </c>
       <c r="D8">
         <v>1162.859015114324</v>
@@ -641,7 +641,7 @@
         <v>1204.951012629969</v>
       </c>
       <c r="F8">
-        <v>805.6257755481473</v>
+        <v>798.535033619103</v>
       </c>
       <c r="G8">
         <v>1140.160565870351</v>
@@ -650,7 +650,7 @@
         <v>3626.932597626273</v>
       </c>
       <c r="I8">
-        <v>8012.090885410757</v>
+        <v>4043.695753545321</v>
       </c>
       <c r="J8">
         <v>-4186.684662935534</v>
@@ -659,7 +659,7 @@
         <v>3556.136615990925</v>
       </c>
       <c r="L8">
-        <v>7855.698720980818</v>
+        <v>3964.764755352996</v>
       </c>
       <c r="M8">
         <v>-4104.96258993529</v>
@@ -673,7 +673,7 @@
         <v>1241.983034744396</v>
       </c>
       <c r="C9">
-        <v>849.4422100940131</v>
+        <v>849.1104336258727</v>
       </c>
       <c r="D9">
         <v>1209.742237367222</v>
@@ -682,7 +682,7 @@
         <v>1216.412795793776</v>
       </c>
       <c r="F9">
-        <v>831.9536940038422</v>
+        <v>831.6287482276929</v>
       </c>
       <c r="G9">
         <v>1184.835779539073</v>
@@ -691,7 +691,7 @@
         <v>11862.07720938639</v>
       </c>
       <c r="I9">
-        <v>2702.811942217993</v>
+        <v>-1133.329043734982</v>
       </c>
       <c r="J9">
         <v>1539.361313394422</v>
@@ -700,7 +700,7 @@
         <v>11617.85797272255</v>
       </c>
       <c r="L9">
-        <v>2647.165813995858</v>
+        <v>-1109.995798716908</v>
       </c>
       <c r="M9">
         <v>1507.668580471596</v>
@@ -714,7 +714,7 @@
         <v>1291.695686808804</v>
       </c>
       <c r="C10">
-        <v>864.2881894583994</v>
+        <v>868.1633193265845</v>
       </c>
       <c r="D10">
         <v>1248.915642522515</v>
@@ -723,7 +723,7 @@
         <v>1263.817362633074</v>
       </c>
       <c r="F10">
-        <v>845.6344875276426</v>
+        <v>849.425981499392</v>
       </c>
       <c r="G10">
         <v>1221.960628655122</v>
@@ -732,7 +732,7 @@
         <v>-695.9946047902878</v>
       </c>
       <c r="I10">
-        <v>8054.743594229935</v>
+        <v>6659.350308895232</v>
       </c>
       <c r="J10">
         <v>5308.339336669195</v>
@@ -741,7 +741,7 @@
         <v>-680.9731384998501</v>
       </c>
       <c r="L10">
-        <v>7880.900207304109</v>
+        <v>6515.623323811163</v>
       </c>
       <c r="M10">
         <v>5193.770861777055</v>
@@ -755,7 +755,7 @@
         <v>1328.840646499237</v>
       </c>
       <c r="C11">
-        <v>876.1957412919363</v>
+        <v>877.4646557226804</v>
       </c>
       <c r="D11">
         <v>1288.00629935824</v>
@@ -764,7 +764,7 @@
         <v>1300.76654833376</v>
       </c>
       <c r="F11">
-        <v>857.6845636590081</v>
+        <v>858.9266700383985</v>
       </c>
       <c r="G11">
         <v>1260.794898667573</v>
@@ -773,7 +773,7 @@
         <v>4237.826026832106</v>
       </c>
       <c r="I11">
-        <v>12306.63215313025</v>
+        <v>13132.88274120652</v>
       </c>
       <c r="J11">
         <v>7910.610237548909</v>
@@ -782,7 +782,7 @@
         <v>4148.294491053963</v>
       </c>
       <c r="L11">
-        <v>12046.63288228946</v>
+        <v>12855.4274720261</v>
       </c>
       <c r="M11">
         <v>7743.484669149988</v>
@@ -796,7 +796,7 @@
         <v>1356.983635130188</v>
       </c>
       <c r="C12">
-        <v>897.0089928108279</v>
+        <v>897.3108798073555</v>
       </c>
       <c r="D12">
         <v>1331.949738518106</v>
@@ -805,7 +805,7 @@
         <v>1332.584206006132</v>
       </c>
       <c r="F12">
-        <v>880.8802004089735</v>
+        <v>881.1766592852316</v>
       </c>
       <c r="G12">
         <v>1308.000434782649</v>
@@ -814,7 +814,7 @@
         <v>7961.36568925124</v>
       </c>
       <c r="I12">
-        <v>9265.033577043803</v>
+        <v>10029.63809001416</v>
       </c>
       <c r="J12">
         <v>9283.926088173614</v>
@@ -823,7 +823,7 @@
         <v>7818.215268835934</v>
       </c>
       <c r="L12">
-        <v>9098.442378563072</v>
+        <v>9849.29881591985</v>
       </c>
       <c r="M12">
         <v>9116.995190322636</v>
@@ -837,7 +837,7 @@
         <v>1380.02653438157</v>
       </c>
       <c r="C13">
-        <v>928.0191736066439</v>
+        <v>923.8802231890853</v>
       </c>
       <c r="D13">
         <v>1352.173488493803</v>
@@ -846,7 +846,7 @@
         <v>1346.503622615216</v>
       </c>
       <c r="F13">
-        <v>905.4761977295595</v>
+        <v>901.4377886176907</v>
       </c>
       <c r="G13">
         <v>1319.327168935249</v>
@@ -855,7 +855,7 @@
         <v>1063.717865721435</v>
       </c>
       <c r="I13">
-        <v>530.9918806636111</v>
+        <v>1623.133955516373</v>
       </c>
       <c r="J13">
         <v>5023.597175618725</v>
@@ -864,7 +864,7 @@
         <v>1037.878565339538</v>
       </c>
       <c r="L13">
-        <v>518.0932924693533</v>
+        <v>1583.705600321643</v>
       </c>
       <c r="M13">
         <v>4901.566474996408</v>
@@ -878,7 +878,7 @@
         <v>1410.223745343304</v>
       </c>
       <c r="C14">
-        <v>977.7387625159473</v>
+        <v>973.680063778</v>
       </c>
       <c r="D14">
         <v>1379.993922173811</v>
@@ -887,7 +887,7 @@
         <v>1371.35931141652</v>
       </c>
       <c r="F14">
-        <v>950.7932060686572</v>
+        <v>946.8463612329369</v>
       </c>
       <c r="G14">
         <v>1341.962593609966</v>
@@ -896,7 +896,7 @@
         <v>2418.986690553135</v>
       </c>
       <c r="I14">
-        <v>-9.210108352817198</v>
+        <v>-30.37138314237896</v>
       </c>
       <c r="J14">
         <v>6217.379001782169</v>
@@ -905,7 +905,7 @@
         <v>2352.321703018205</v>
       </c>
       <c r="L14">
-        <v>-8.956286469078098</v>
+        <v>-29.53437652034496</v>
       </c>
       <c r="M14">
         <v>6046.033911181873</v>
@@ -919,7 +919,7 @@
         <v>1437.540742594801</v>
       </c>
       <c r="C15">
-        <v>1016.75517408828</v>
+        <v>1012.063446244572</v>
       </c>
       <c r="D15">
         <v>1389.709230293428</v>
@@ -928,7 +928,7 @@
         <v>1404.366725457998</v>
       </c>
       <c r="F15">
-        <v>993.2915931477808</v>
+        <v>988.70813594662</v>
       </c>
       <c r="G15">
         <v>1357.639017286656</v>
@@ -937,7 +937,7 @@
         <v>1172.280285956864</v>
       </c>
       <c r="I15">
-        <v>740.6911394719318</v>
+        <v>804.3118157608108</v>
       </c>
       <c r="J15">
         <v>6806.234755800778</v>
@@ -946,7 +946,7 @@
         <v>1145.227663973244</v>
       </c>
       <c r="L15">
-        <v>723.5982670225798</v>
+        <v>785.7507738586382</v>
       </c>
       <c r="M15">
         <v>6649.167799897683</v>
@@ -960,7 +960,7 @@
         <v>1431.717501623342</v>
       </c>
       <c r="C16">
-        <v>1032.547962182847</v>
+        <v>1028.800559973454</v>
       </c>
       <c r="D16">
         <v>1414.121875207429</v>
@@ -969,7 +969,7 @@
         <v>1397.67165364982</v>
       </c>
       <c r="F16">
-        <v>1007.994255948211</v>
+        <v>1004.335965931532</v>
       </c>
       <c r="G16">
         <v>1380.494446385225</v>
@@ -978,7 +978,7 @@
         <v>4796.398125545883</v>
       </c>
       <c r="I16">
-        <v>2092.052577435809</v>
+        <v>1950.182381113202</v>
       </c>
       <c r="J16">
         <v>3816.062000246611</v>
@@ -987,7 +987,7 @@
         <v>4682.341098780711</v>
       </c>
       <c r="L16">
-        <v>2042.304143178887</v>
+        <v>1903.807581061699</v>
       </c>
       <c r="M16">
         <v>3725.31709661121</v>
@@ -1001,7 +1001,7 @@
         <v>1379.566194147015</v>
       </c>
       <c r="C17">
-        <v>1038.481744679115</v>
+        <v>1034.424306205597</v>
       </c>
       <c r="D17">
         <v>1426.146085254422</v>
@@ -1010,7 +1010,7 @@
         <v>1350.825231768952</v>
       </c>
       <c r="F17">
-        <v>1016.846708331633</v>
+        <v>1012.873799826314</v>
       </c>
       <c r="G17">
         <v>1396.434708478288</v>
@@ -1019,7 +1019,7 @@
         <v>5072.929216640558</v>
       </c>
       <c r="I17">
-        <v>2538.923650619273</v>
+        <v>2672.518710933281</v>
       </c>
       <c r="J17">
         <v>3409.969453900905</v>
@@ -1028,7 +1028,7 @@
         <v>4967.243191293881</v>
       </c>
       <c r="L17">
-        <v>2486.029407898039</v>
+        <v>2616.841237788838</v>
       </c>
       <c r="M17">
         <v>3338.928423611303</v>
@@ -1042,7 +1042,7 @@
         <v>1436.633804050452</v>
       </c>
       <c r="C18">
-        <v>1077.892541647423</v>
+        <v>1070.785805354523</v>
       </c>
       <c r="D18">
         <v>1449.405881814395</v>
@@ -1051,7 +1051,7 @@
         <v>1420.961435278992</v>
       </c>
       <c r="F18">
-        <v>1066.13371392036</v>
+        <v>1059.104505659746</v>
       </c>
       <c r="G18">
         <v>1433.594181285511</v>
@@ -1060,7 +1060,7 @@
         <v>-195.2571690426774</v>
       </c>
       <c r="I18">
-        <v>-384.9544131832632</v>
+        <v>-81.54339819468802</v>
       </c>
       <c r="J18">
         <v>4657.821772742173</v>
@@ -1069,7 +1069,7 @@
         <v>-193.1270908349391</v>
       </c>
       <c r="L18">
-        <v>-380.7549104939912</v>
+        <v>-80.65383385074588</v>
       </c>
       <c r="M18">
         <v>4607.009171584985</v>
@@ -1083,7 +1083,7 @@
         <v>1495.201260388764</v>
       </c>
       <c r="C19">
-        <v>1083.240668402103</v>
+        <v>1077.039053610122</v>
       </c>
       <c r="D19">
         <v>1511.098013370575</v>
@@ -1092,7 +1092,7 @@
         <v>1468.501237881822</v>
       </c>
       <c r="F19">
-        <v>1063.89708503778</v>
+        <v>1057.806213367084</v>
       </c>
       <c r="G19">
         <v>1484.114120274671</v>
@@ -1101,7 +1101,7 @@
         <v>314.8766443917867</v>
       </c>
       <c r="I19">
-        <v>5534.555421995951</v>
+        <v>5564.953058909564</v>
       </c>
       <c r="J19">
         <v>1290.00733018486</v>
@@ -1110,7 +1110,7 @@
         <v>309.2538471705049</v>
       </c>
       <c r="L19">
-        <v>5435.724075174595</v>
+        <v>5465.578897143321</v>
       </c>
       <c r="M19">
         <v>1266.971485002988</v>
@@ -1124,7 +1124,7 @@
         <v>1624.34984123404</v>
       </c>
       <c r="C20">
-        <v>1122.463827257997</v>
+        <v>1119.396959354157</v>
       </c>
       <c r="D20">
         <v>1579.579444309969</v>
@@ -1133,7 +1133,7 @@
         <v>1593.988161958638</v>
       </c>
       <c r="F20">
-        <v>1101.483194972801</v>
+        <v>1098.473651702678</v>
       </c>
       <c r="G20">
         <v>1550.054594883615</v>
@@ -1142,7 +1142,7 @@
         <v>-1699.222855510247</v>
       </c>
       <c r="I20">
-        <v>2959.757093634057</v>
+        <v>2557.194652232623</v>
       </c>
       <c r="J20">
         <v>1578.809290164077</v>
@@ -1151,7 +1151,7 @@
         <v>-1667.461680640897</v>
       </c>
       <c r="L20">
-        <v>2904.434531136224</v>
+        <v>2509.39662134977</v>
       </c>
       <c r="M20">
         <v>1549.298836142319</v>
@@ -1165,7 +1165,7 @@
         <v>1660.749815366196</v>
       </c>
       <c r="C21">
-        <v>1127.882121725805</v>
+        <v>1123.327473930971</v>
       </c>
       <c r="D21">
         <v>1639.133859534206</v>
@@ -1174,7 +1174,7 @@
         <v>1632.149072277226</v>
       </c>
       <c r="F21">
-        <v>1108.45820458931</v>
+        <v>1103.981995045822</v>
       </c>
       <c r="G21">
         <v>1610.905377452676</v>
@@ -1183,7 +1183,7 @@
         <v>3946.347032507273</v>
       </c>
       <c r="I21">
-        <v>5872.45498902069</v>
+        <v>5859.68323359138</v>
       </c>
       <c r="J21">
         <v>3352.863145189499</v>
@@ -1192,7 +1192,7 @@
         <v>3878.384684071441</v>
       </c>
       <c r="L21">
-        <v>5771.322009875673</v>
+        <v>5758.770204310242</v>
       </c>
       <c r="M21">
         <v>3295.121529600702</v>
@@ -1206,7 +1206,7 @@
         <v>1756.170835786003</v>
       </c>
       <c r="C22">
-        <v>1133.734419999832</v>
+        <v>1128.734056302769</v>
       </c>
       <c r="D22">
         <v>1657.695212079799</v>
@@ -1215,7 +1215,7 @@
         <v>1697.696779100565</v>
       </c>
       <c r="F22">
-        <v>1095.985216226252</v>
+        <v>1091.151346325984</v>
       </c>
       <c r="G22">
         <v>1602.500032987242</v>
@@ -1224,7 +1224,7 @@
         <v>-2860.158721377454</v>
       </c>
       <c r="I22">
-        <v>2018.795876448953</v>
+        <v>2152.306191096605</v>
       </c>
       <c r="J22">
         <v>1888.696529775703</v>
@@ -1233,7 +1233,7 @@
         <v>-2764.925911564665</v>
       </c>
       <c r="L22">
-        <v>1951.577367799154</v>
+        <v>2080.642277963533</v>
       </c>
       <c r="M22">
         <v>1825.809852868632</v>
@@ -1247,7 +1247,7 @@
         <v>1743.803354772767</v>
       </c>
       <c r="C23">
-        <v>1083.801851316354</v>
+        <v>1083.882071283436</v>
       </c>
       <c r="D23">
         <v>1656.245897720326</v>
@@ -1256,7 +1256,7 @@
         <v>1722.770638870902</v>
       </c>
       <c r="F23">
-        <v>1070.729679864073</v>
+        <v>1070.808932265763</v>
       </c>
       <c r="G23">
         <v>1636.269247638172</v>
@@ -1265,7 +1265,7 @@
         <v>2037.138608400395</v>
       </c>
       <c r="I23">
-        <v>6637.372279616597</v>
+        <v>6084.792820664589</v>
       </c>
       <c r="J23">
         <v>-2066.50023291606</v>
@@ -1274,7 +1274,7 @@
         <v>2012.56785764118</v>
       </c>
       <c r="L23">
-        <v>6557.316254314203</v>
+        <v>6011.401679187275</v>
       </c>
       <c r="M23">
         <v>-2041.575339755888</v>
@@ -1288,7 +1288,7 @@
         <v>1703.610536103614</v>
       </c>
       <c r="C24">
-        <v>1115.133612501509</v>
+        <v>1115.965163542977</v>
       </c>
       <c r="D24">
         <v>1721.006890329727</v>
@@ -1297,7 +1297,7 @@
         <v>1665.265604422825</v>
       </c>
       <c r="F24">
-        <v>1090.034142123662</v>
+        <v>1090.846976582202</v>
       </c>
       <c r="G24">
         <v>1682.270400836775</v>
@@ -1306,7 +1306,7 @@
         <v>11771.11757410767</v>
       </c>
       <c r="I24">
-        <v>5935.042597037328</v>
+        <v>5972.723121450281</v>
       </c>
       <c r="J24">
         <v>6254.696254192204</v>
@@ -1315,7 +1315,7 @@
         <v>11506.17280555862</v>
       </c>
       <c r="L24">
-        <v>5801.456429258353</v>
+        <v>5838.288838973908</v>
       </c>
       <c r="M24">
         <v>6113.915309564084</v>
@@ -1329,7 +1329,7 @@
         <v>1733.199337948998</v>
       </c>
       <c r="C25">
-        <v>1150.353251832997</v>
+        <v>1145.884434590324</v>
       </c>
       <c r="D25">
         <v>1751.34946888745</v>
@@ -1338,7 +1338,7 @@
         <v>1686.209574876346</v>
       </c>
       <c r="F25">
-        <v>1119.165363879235</v>
+        <v>1114.817703308417</v>
       </c>
       <c r="G25">
         <v>1703.867627186643</v>
@@ -1347,7 +1347,7 @@
         <v>1143.627556650225</v>
       </c>
       <c r="I25">
-        <v>-2933.256528618303</v>
+        <v>-1825.994737906204</v>
       </c>
       <c r="J25">
         <v>-162.4156417819009</v>
@@ -1356,7 +1356,7 @@
         <v>1112.622012882857</v>
       </c>
       <c r="L25">
-        <v>-2853.731325548359</v>
+        <v>-1776.48914542908</v>
       </c>
       <c r="M25">
         <v>-158.0122980005356</v>
@@ -1370,7 +1370,7 @@
         <v>1757.913207544652</v>
       </c>
       <c r="C26">
-        <v>1232.588625155828</v>
+        <v>1231.778239569347</v>
       </c>
       <c r="D26">
         <v>1782.911431362114</v>
@@ -1379,7 +1379,7 @@
         <v>1716.740087612344</v>
       </c>
       <c r="F26">
-        <v>1203.719441470916</v>
+        <v>1202.928036402245</v>
       </c>
       <c r="G26">
         <v>1741.152813315955</v>
@@ -1388,7 +1388,7 @@
         <v>4480.71787517596</v>
       </c>
       <c r="I26">
-        <v>-7196.490575759423</v>
+        <v>-7411.550921239946</v>
       </c>
       <c r="J26">
         <v>7165.8036794255</v>
@@ -1397,7 +1397,7 @@
         <v>4375.77234449465</v>
       </c>
       <c r="L26">
-        <v>-7027.937334168317</v>
+        <v>-7237.960624713959</v>
       </c>
       <c r="M26">
         <v>6997.969173695576</v>
@@ -1411,7 +1411,7 @@
         <v>1802.327185987571</v>
       </c>
       <c r="C27">
-        <v>1254.595957363876</v>
+        <v>1255.68318622785</v>
       </c>
       <c r="D27">
         <v>1799.113801425157</v>
@@ -1420,7 +1420,7 @@
         <v>1787.762925898783</v>
       </c>
       <c r="F27">
-        <v>1244.457808213461</v>
+        <v>1245.536251389645</v>
       </c>
       <c r="G27">
         <v>1784.575508080307</v>
@@ -1429,7 +1429,7 @@
         <v>-417.8830837027341</v>
       </c>
       <c r="I27">
-        <v>3429.481599935254</v>
+        <v>2559.53813149466</v>
       </c>
       <c r="J27">
         <v>7064.945752198114</v>
@@ -1438,7 +1438,7 @@
         <v>-414.5062507031166</v>
       </c>
       <c r="L27">
-        <v>3401.768617309515</v>
+        <v>2538.854995078541</v>
       </c>
       <c r="M27">
         <v>7007.855281473281</v>
@@ -1452,7 +1452,7 @@
         <v>1836.814605783257</v>
       </c>
       <c r="C28">
-        <v>1275.999624889278</v>
+        <v>1272.632200680287</v>
       </c>
       <c r="D28">
         <v>1810.690693847011</v>
@@ -1461,7 +1461,7 @@
         <v>1825.749457555647</v>
       </c>
       <c r="F28">
-        <v>1268.312880161029</v>
+        <v>1264.965741640045</v>
       </c>
       <c r="G28">
         <v>1799.782918582873</v>
@@ -1470,7 +1470,7 @@
         <v>-21207.11586823891</v>
       </c>
       <c r="I28">
-        <v>16620.81295423352</v>
+        <v>20239.81333588553</v>
       </c>
       <c r="J28">
         <v>65895.07056436871</v>
@@ -1479,7 +1479,7 @@
         <v>-21079.36215818928</v>
       </c>
       <c r="L28">
-        <v>16520.68757499116</v>
+        <v>20117.88674952477</v>
       </c>
       <c r="M28">
         <v>65498.11230795686</v>
@@ -1493,7 +1493,7 @@
         <v>1977.856746520409</v>
       </c>
       <c r="C29">
-        <v>1340.832055915711</v>
+        <v>1337.116201933452</v>
       </c>
       <c r="D29">
         <v>1884.93726127349</v>
@@ -1502,7 +1502,7 @@
         <v>1969.945319534327</v>
       </c>
       <c r="F29">
-        <v>1335.468727692048</v>
+        <v>1331.767737125718</v>
       </c>
       <c r="G29">
         <v>1877.397512228396</v>
@@ -1511,7 +1511,7 @@
         <v>-65405.66105671858</v>
       </c>
       <c r="I29">
-        <v>-8064.863141473237</v>
+        <v>-7723.353357510684</v>
       </c>
       <c r="J29">
         <v>32014.01229969479</v>
@@ -1520,7 +1520,7 @@
         <v>-65144.0384124917</v>
       </c>
       <c r="L29">
-        <v>-8032.603688907345</v>
+        <v>-7692.459944080639</v>
       </c>
       <c r="M29">
         <v>31885.956250496</v>
@@ -1534,7 +1534,7 @@
         <v>2004.679136249755</v>
       </c>
       <c r="C30">
-        <v>1358.533511390568</v>
+        <v>1359.187267444317</v>
       </c>
       <c r="D30">
         <v>1901.99230516461</v>
@@ -1543,7 +1543,7 @@
         <v>1998.683086988789</v>
       </c>
       <c r="F30">
-        <v>1354.470101087306</v>
+        <v>1355.1219017391</v>
       </c>
       <c r="G30">
         <v>1896.303394979671</v>
@@ -1552,7 +1552,7 @@
         <v>33088.01454274101</v>
       </c>
       <c r="I30">
-        <v>24851.20897358424</v>
+        <v>22258.61833355265</v>
       </c>
       <c r="J30">
         <v>59441.16076002013</v>
@@ -1561,7 +1561,7 @@
         <v>32989.04740053939</v>
       </c>
       <c r="L30">
-        <v>24776.87833856853</v>
+        <v>22192.04220693186</v>
       </c>
       <c r="M30">
         <v>59263.3706480759</v>
@@ -1575,7 +1575,7 @@
         <v>2163.076362360478</v>
       </c>
       <c r="C31">
-        <v>1391.586771850942</v>
+        <v>1387.382223307848</v>
       </c>
       <c r="D31">
         <v>1962.104918381626</v>
@@ -1584,7 +1584,7 @@
         <v>2139.611036930532</v>
       </c>
       <c r="F31">
-        <v>1376.490662886089</v>
+        <v>1372.331725816343</v>
       </c>
       <c r="G31">
         <v>1940.819756545138</v>
@@ -1593,7 +1593,7 @@
         <v>-4785.884914582191</v>
       </c>
       <c r="I31">
-        <v>27611.55247994559</v>
+        <v>29691.6712298475</v>
       </c>
       <c r="J31">
         <v>51477.65997764355</v>
@@ -1602,7 +1602,7 @@
         <v>-4733.967030893426</v>
       </c>
       <c r="L31">
-        <v>27312.01887316117</v>
+        <v>29369.57223228505</v>
       </c>
       <c r="M31">
         <v>50919.22382403992</v>
@@ -1616,7 +1616,7 @@
         <v>2264.818651424481</v>
       </c>
       <c r="C32">
-        <v>1426.23134600604</v>
+        <v>1421.638781356038</v>
       </c>
       <c r="D32">
         <v>1977.12359634629</v>
@@ -1625,7 +1625,7 @@
         <v>2247.090129691217</v>
       </c>
       <c r="F32">
-        <v>1415.067108463919</v>
+        <v>1410.510493439357</v>
       </c>
       <c r="G32">
         <v>1961.647090699743</v>
@@ -1634,7 +1634,7 @@
         <v>-12395.46097991469</v>
       </c>
       <c r="I32">
-        <v>-1508.481369139732</v>
+        <v>-1368.286419846504</v>
       </c>
       <c r="J32">
         <v>76147.5004635459</v>
@@ -1643,7 +1643,7 @@
         <v>-12298.43193114823</v>
       </c>
       <c r="L32">
-        <v>-1496.673295800087</v>
+        <v>-1357.57576293968</v>
       </c>
       <c r="M32">
         <v>75551.43392371385</v>
@@ -1657,7 +1657,7 @@
         <v>2338.88712824519</v>
       </c>
       <c r="C33">
-        <v>1474.132956453719</v>
+        <v>1468.848645560932</v>
       </c>
       <c r="D33">
         <v>2011.481386787425</v>
@@ -1666,7 +1666,7 @@
         <v>2320.721014627751</v>
       </c>
       <c r="F33">
-        <v>1462.683380092913</v>
+        <v>1457.440112391527</v>
       </c>
       <c r="G33">
         <v>1995.858230385192</v>
@@ -1675,7 +1675,7 @@
         <v>17738.8371778313</v>
       </c>
       <c r="I33">
-        <v>13380.58956559972</v>
+        <v>11115.84421709312</v>
       </c>
       <c r="J33">
         <v>50343.44377562305</v>
@@ -1684,7 +1684,7 @@
         <v>17601.05980169281</v>
       </c>
       <c r="L33">
-        <v>13276.66265635235</v>
+        <v>11029.50756297977</v>
       </c>
       <c r="M33">
         <v>49952.42673658908</v>
@@ -1698,7 +1698,7 @@
         <v>2563.019377976294</v>
       </c>
       <c r="C34">
-        <v>1528.969550360073</v>
+        <v>1524.209248735817</v>
       </c>
       <c r="D34">
         <v>2049.965104237474</v>
@@ -1707,7 +1707,7 @@
         <v>2553.104409396115</v>
       </c>
       <c r="F34">
-        <v>1523.05477453663</v>
+        <v>1518.312888005698</v>
       </c>
       <c r="G34">
         <v>2042.034871725917</v>
@@ -1716,7 +1716,7 @@
         <v>-111753.1690086223</v>
       </c>
       <c r="I34">
-        <v>-9043.980006151982</v>
+        <v>-10485.7936106362</v>
       </c>
       <c r="J34">
         <v>50219.24391970062</v>
@@ -1725,7 +1725,7 @@
         <v>-111320.855008589</v>
       </c>
       <c r="L34">
-        <v>-9008.993623149458</v>
+        <v>-10445.22961214244</v>
       </c>
       <c r="M34">
         <v>50024.97218306735</v>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -465,7 +465,7 @@
         <v>1990</v>
       </c>
       <c r="B4">
-        <v>1092.973660516295</v>
+        <v>1084.212575158087</v>
       </c>
       <c r="C4">
         <v>702.0667851984792</v>
@@ -474,7 +474,7 @@
         <v>963.7320561388785</v>
       </c>
       <c r="E4">
-        <v>1064.630745494803</v>
+        <v>1056.096851977326</v>
       </c>
       <c r="F4">
         <v>683.8608393910632</v>
@@ -483,7 +483,7 @@
         <v>938.7406251855202</v>
       </c>
       <c r="H4">
-        <v>5406.459987083211</v>
+        <v>7737.76716593667</v>
       </c>
       <c r="I4">
         <v>-6799.274474971793</v>
@@ -492,7 +492,7 @@
         <v>-15331.90922416468</v>
       </c>
       <c r="K4">
-        <v>5266.26005224799</v>
+        <v>7537.111939591473</v>
       </c>
       <c r="L4">
         <v>-6622.956174162152</v>
@@ -506,7 +506,7 @@
         <v>1991</v>
       </c>
       <c r="B5">
-        <v>1072.823104767439</v>
+        <v>1065.103571927342</v>
       </c>
       <c r="C5">
         <v>734.4324696969463</v>
@@ -515,7 +515,7 @@
         <v>1021.157541149983</v>
       </c>
       <c r="E5">
-        <v>1047.360531078338</v>
+        <v>1039.824214998686</v>
       </c>
       <c r="F5">
         <v>717.0013193085695</v>
@@ -524,7 +524,7 @@
         <v>996.9212071037014</v>
       </c>
       <c r="H5">
-        <v>18281.38013386884</v>
+        <v>17939.52804889024</v>
       </c>
       <c r="I5">
         <v>-2096.24726489407</v>
@@ -533,7 +533,7 @@
         <v>-10722.70307299442</v>
       </c>
       <c r="K5">
-        <v>17847.48661803334</v>
+        <v>17513.74811102101</v>
       </c>
       <c r="L5">
         <v>-2046.494560822217</v>
@@ -547,7 +547,7 @@
         <v>1992</v>
       </c>
       <c r="B6">
-        <v>1122.945185744329</v>
+        <v>1118.78617397507</v>
       </c>
       <c r="C6">
         <v>767.7704770039612</v>
@@ -556,7 +556,7 @@
         <v>1064.915736525716</v>
       </c>
       <c r="E6">
-        <v>1100.312182000645</v>
+        <v>1096.236995274797</v>
       </c>
       <c r="F6">
         <v>752.2960332814008</v>
@@ -565,7 +565,7 @@
         <v>1043.452318580237</v>
       </c>
       <c r="H6">
-        <v>-5212.48952575091</v>
+        <v>-5457.850451693113</v>
       </c>
       <c r="I6">
         <v>-6095.056829318273</v>
@@ -574,7 +574,7 @@
         <v>-7298.682438362106</v>
       </c>
       <c r="K6">
-        <v>-5107.431597324922</v>
+        <v>-5347.847264294646</v>
       </c>
       <c r="L6">
         <v>-5972.210722680851</v>
@@ -588,7 +588,7 @@
         <v>1993</v>
       </c>
       <c r="B7">
-        <v>1161.42676726013</v>
+        <v>1157.766015625934</v>
       </c>
       <c r="C7">
         <v>771.4875798375053</v>
@@ -597,7 +597,7 @@
         <v>1086.403519961628</v>
       </c>
       <c r="E7">
-        <v>1147.197955410083</v>
+        <v>1143.582052187945</v>
       </c>
       <c r="F7">
         <v>762.0359708961577</v>
@@ -606,7 +606,7 @@
         <v>1073.093829058576</v>
       </c>
       <c r="H7">
-        <v>-1372.013402947064</v>
+        <v>-1492.901182419606</v>
       </c>
       <c r="I7">
         <v>5130.984035381776</v>
@@ -615,7 +615,7 @@
         <v>-814.6332445073161</v>
       </c>
       <c r="K7">
-        <v>-1355.204662941588</v>
+        <v>-1474.611428270514</v>
       </c>
       <c r="L7">
         <v>5068.123587781387</v>
@@ -629,7 +629,7 @@
         <v>1994</v>
       </c>
       <c r="B8">
-        <v>1228.939317628728</v>
+        <v>1222.03810044007</v>
       </c>
       <c r="C8">
         <v>814.4323620066197</v>
@@ -638,7 +638,7 @@
         <v>1162.859015114324</v>
       </c>
       <c r="E8">
-        <v>1204.951012629969</v>
+        <v>1198.184503884933</v>
       </c>
       <c r="F8">
         <v>798.535033619103</v>
@@ -647,7 +647,7 @@
         <v>1140.160565870351</v>
       </c>
       <c r="H8">
-        <v>3626.932597626273</v>
+        <v>4892.830231144669</v>
       </c>
       <c r="I8">
         <v>4043.695753545321</v>
@@ -656,7 +656,7 @@
         <v>-4186.684662935534</v>
       </c>
       <c r="K8">
-        <v>3556.136615990925</v>
+        <v>4797.324535942145</v>
       </c>
       <c r="L8">
         <v>3964.764755352996</v>
@@ -670,7 +670,7 @@
         <v>1995</v>
       </c>
       <c r="B9">
-        <v>1241.983034744396</v>
+        <v>1236.84641488698</v>
       </c>
       <c r="C9">
         <v>849.1104336258727</v>
@@ -679,7 +679,7 @@
         <v>1209.742237367222</v>
       </c>
       <c r="E9">
-        <v>1216.412795793776</v>
+        <v>1211.381929874601</v>
       </c>
       <c r="F9">
         <v>831.6287482276929</v>
@@ -688,7 +688,7 @@
         <v>1184.835779539073</v>
       </c>
       <c r="H9">
-        <v>11862.07720938639</v>
+        <v>11497.81890683196</v>
       </c>
       <c r="I9">
         <v>-1133.329043734982</v>
@@ -697,7 +697,7 @@
         <v>1539.361313394422</v>
       </c>
       <c r="K9">
-        <v>11617.85797272255</v>
+        <v>11261.09910580895</v>
       </c>
       <c r="L9">
         <v>-1109.995798716908</v>
@@ -711,7 +711,7 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>1291.695686808804</v>
+        <v>1286.986735178404</v>
       </c>
       <c r="C10">
         <v>868.1633193265845</v>
@@ -720,7 +720,7 @@
         <v>1248.915642522515</v>
       </c>
       <c r="E10">
-        <v>1263.817362633074</v>
+        <v>1259.210043052251</v>
       </c>
       <c r="F10">
         <v>849.425981499392</v>
@@ -729,7 +729,7 @@
         <v>1221.960628655122</v>
       </c>
       <c r="H10">
-        <v>-695.9946047902878</v>
+        <v>-1097.903603550327</v>
       </c>
       <c r="I10">
         <v>6659.350308895232</v>
@@ -738,7 +738,7 @@
         <v>5308.339336669195</v>
       </c>
       <c r="K10">
-        <v>-680.9731384998501</v>
+        <v>-1074.207842322622</v>
       </c>
       <c r="L10">
         <v>6515.623323811163</v>
@@ -752,7 +752,7 @@
         <v>1997</v>
       </c>
       <c r="B11">
-        <v>1328.840646499237</v>
+        <v>1323.306692700375</v>
       </c>
       <c r="C11">
         <v>877.4646557226804</v>
@@ -761,7 +761,7 @@
         <v>1288.00629935824</v>
       </c>
       <c r="E11">
-        <v>1300.76654833376</v>
+        <v>1295.349509051775</v>
       </c>
       <c r="F11">
         <v>858.9266700383985</v>
@@ -770,7 +770,7 @@
         <v>1260.794898667573</v>
       </c>
       <c r="H11">
-        <v>4237.826026832106</v>
+        <v>3945.303123573664</v>
       </c>
       <c r="I11">
         <v>13132.88274120652</v>
@@ -779,7 +779,7 @@
         <v>7910.610237548909</v>
       </c>
       <c r="K11">
-        <v>4148.294491053963</v>
+        <v>3861.951649131967</v>
       </c>
       <c r="L11">
         <v>12855.4274720261</v>
@@ -793,7 +793,7 @@
         <v>1998</v>
       </c>
       <c r="B12">
-        <v>1356.983635130188</v>
+        <v>1351.633332812763</v>
       </c>
       <c r="C12">
         <v>897.3108798073555</v>
@@ -802,7 +802,7 @@
         <v>1331.949738518106</v>
       </c>
       <c r="E12">
-        <v>1332.584206006132</v>
+        <v>1327.33010552844</v>
       </c>
       <c r="F12">
         <v>881.1766592852316</v>
@@ -811,7 +811,7 @@
         <v>1308.000434782649</v>
       </c>
       <c r="H12">
-        <v>7961.36568925124</v>
+        <v>7720.619553931263</v>
       </c>
       <c r="I12">
         <v>10029.63809001416</v>
@@ -820,7 +820,7 @@
         <v>9283.926088173614</v>
       </c>
       <c r="K12">
-        <v>7818.215268835934</v>
+        <v>7581.797902200826</v>
       </c>
       <c r="L12">
         <v>9849.29881591985</v>
@@ -834,7 +834,7 @@
         <v>1999</v>
       </c>
       <c r="B13">
-        <v>1380.02653438157</v>
+        <v>1379.486150100158</v>
       </c>
       <c r="C13">
         <v>923.8802231890853</v>
@@ -843,7 +843,7 @@
         <v>1352.173488493803</v>
       </c>
       <c r="E13">
-        <v>1346.503622615216</v>
+        <v>1345.976365077482</v>
       </c>
       <c r="F13">
         <v>901.4377886176907</v>
@@ -852,7 +852,7 @@
         <v>1319.327168935249</v>
       </c>
       <c r="H13">
-        <v>1063.717865721435</v>
+        <v>672.2703038587071</v>
       </c>
       <c r="I13">
         <v>1623.133955516373</v>
@@ -861,7 +861,7 @@
         <v>5023.597175618725</v>
       </c>
       <c r="K13">
-        <v>1037.878565339538</v>
+        <v>655.9398511333944</v>
       </c>
       <c r="L13">
         <v>1583.705600321643</v>
@@ -875,7 +875,7 @@
         <v>2000</v>
       </c>
       <c r="B14">
-        <v>1410.223745343304</v>
+        <v>1410.501822325374</v>
       </c>
       <c r="C14">
         <v>973.680063778</v>
@@ -884,7 +884,7 @@
         <v>1379.993922173811</v>
       </c>
       <c r="E14">
-        <v>1371.35931141652</v>
+        <v>1371.629724859713</v>
       </c>
       <c r="F14">
         <v>946.8463612329369</v>
@@ -893,7 +893,7 @@
         <v>1341.962593609966</v>
       </c>
       <c r="H14">
-        <v>2418.986690553135</v>
+        <v>2295.063931269141</v>
       </c>
       <c r="I14">
         <v>-30.37138314237896</v>
@@ -902,7 +902,7 @@
         <v>6217.379001782169</v>
       </c>
       <c r="K14">
-        <v>2352.321703018205</v>
+        <v>2231.814137887707</v>
       </c>
       <c r="L14">
         <v>-29.53437652034496</v>
@@ -916,7 +916,7 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>1437.540742594801</v>
+        <v>1435.316733837632</v>
       </c>
       <c r="C15">
         <v>1012.063446244572</v>
@@ -925,7 +925,7 @@
         <v>1389.709230293428</v>
       </c>
       <c r="E15">
-        <v>1404.366725457998</v>
+        <v>1402.194039979841</v>
       </c>
       <c r="F15">
         <v>988.70813594662</v>
@@ -934,7 +934,7 @@
         <v>1357.639017286656</v>
       </c>
       <c r="H15">
-        <v>1172.280285956864</v>
+        <v>1449.604019776655</v>
       </c>
       <c r="I15">
         <v>804.3118157608108</v>
@@ -943,7 +943,7 @@
         <v>6806.234755800778</v>
       </c>
       <c r="K15">
-        <v>1145.227663973244</v>
+        <v>1416.151619320271</v>
       </c>
       <c r="L15">
         <v>785.7507738586382</v>
@@ -957,7 +957,7 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>1431.717501623342</v>
+        <v>1443.54340353639</v>
       </c>
       <c r="C16">
         <v>1028.800559973454</v>
@@ -966,7 +966,7 @@
         <v>1414.121875207429</v>
       </c>
       <c r="E16">
-        <v>1397.67165364982</v>
+        <v>1409.21633887157</v>
       </c>
       <c r="F16">
         <v>1004.335965931532</v>
@@ -975,7 +975,7 @@
         <v>1380.494446385225</v>
       </c>
       <c r="H16">
-        <v>4796.398125545883</v>
+        <v>3337.011026829137</v>
       </c>
       <c r="I16">
         <v>1950.182381113202</v>
@@ -984,7 +984,7 @@
         <v>3816.062000246611</v>
       </c>
       <c r="K16">
-        <v>4682.341098780711</v>
+        <v>3257.657823437705</v>
       </c>
       <c r="L16">
         <v>1903.807581061699</v>
@@ -998,7 +998,7 @@
         <v>2003</v>
       </c>
       <c r="B17">
-        <v>1379.566194147015</v>
+        <v>1395.487883421133</v>
       </c>
       <c r="C17">
         <v>1034.424306205597</v>
@@ -1007,7 +1007,7 @@
         <v>1426.146085254422</v>
       </c>
       <c r="E17">
-        <v>1350.825231768952</v>
+        <v>1366.415219183193</v>
       </c>
       <c r="F17">
         <v>1012.873799826314</v>
@@ -1016,7 +1016,7 @@
         <v>1396.434708478288</v>
       </c>
       <c r="H17">
-        <v>5072.929216640558</v>
+        <v>5024.194240598817</v>
       </c>
       <c r="I17">
         <v>2672.518710933281</v>
@@ -1025,7 +1025,7 @@
         <v>3409.969453900905</v>
       </c>
       <c r="K17">
-        <v>4967.243191293881</v>
+        <v>4919.523527253008</v>
       </c>
       <c r="L17">
         <v>2616.841237788838</v>
@@ -1039,7 +1039,7 @@
         <v>2004</v>
       </c>
       <c r="B18">
-        <v>1436.633804050452</v>
+        <v>1450.742677999634</v>
       </c>
       <c r="C18">
         <v>1070.785805354523</v>
@@ -1048,7 +1048,7 @@
         <v>1449.405881814395</v>
       </c>
       <c r="E18">
-        <v>1420.961435278992</v>
+        <v>1434.916394239638</v>
       </c>
       <c r="F18">
         <v>1059.104505659746</v>
@@ -1057,7 +1057,7 @@
         <v>1433.594181285511</v>
       </c>
       <c r="H18">
-        <v>-195.2571690426774</v>
+        <v>114.8484109696458</v>
       </c>
       <c r="I18">
         <v>-81.54339819468802</v>
@@ -1066,7 +1066,7 @@
         <v>4657.821772742173</v>
       </c>
       <c r="K18">
-        <v>-193.1270908349391</v>
+        <v>113.5955192136133</v>
       </c>
       <c r="L18">
         <v>-80.65383385074588</v>
@@ -1080,7 +1080,7 @@
         <v>2005</v>
       </c>
       <c r="B19">
-        <v>1495.201260388764</v>
+        <v>1512.690372880316</v>
       </c>
       <c r="C19">
         <v>1077.039053610122</v>
@@ -1089,7 +1089,7 @@
         <v>1511.098013370575</v>
       </c>
       <c r="E19">
-        <v>1468.501237881822</v>
+        <v>1485.678044793167</v>
       </c>
       <c r="F19">
         <v>1057.806213367084</v>
@@ -1098,7 +1098,7 @@
         <v>1484.114120274671</v>
       </c>
       <c r="H19">
-        <v>314.8766443917867</v>
+        <v>561.7290459505458</v>
       </c>
       <c r="I19">
         <v>5564.953058909564</v>
@@ -1107,7 +1107,7 @@
         <v>1290.00733018486</v>
       </c>
       <c r="K19">
-        <v>309.2538471705049</v>
+        <v>551.6981701300004</v>
       </c>
       <c r="L19">
         <v>5465.578897143321</v>
@@ -1121,7 +1121,7 @@
         <v>2006</v>
       </c>
       <c r="B20">
-        <v>1624.34984123404</v>
+        <v>1644.101758681256</v>
       </c>
       <c r="C20">
         <v>1119.396959354157</v>
@@ -1130,7 +1130,7 @@
         <v>1579.579444309969</v>
       </c>
       <c r="E20">
-        <v>1593.988161958638</v>
+        <v>1613.370884687214</v>
       </c>
       <c r="F20">
         <v>1098.473651702678</v>
@@ -1139,7 +1139,7 @@
         <v>1550.054594883615</v>
       </c>
       <c r="H20">
-        <v>-1699.222855510247</v>
+        <v>-1794.313287836119</v>
       </c>
       <c r="I20">
         <v>2557.194652232623</v>
@@ -1148,7 +1148,7 @@
         <v>1578.809290164077</v>
       </c>
       <c r="K20">
-        <v>-1667.461680640897</v>
+        <v>-1760.774721708341</v>
       </c>
       <c r="L20">
         <v>2509.39662134977</v>
@@ -1162,7 +1162,7 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>1660.749815366196</v>
+        <v>1663.57603542016</v>
       </c>
       <c r="C21">
         <v>1123.327473930971</v>
@@ -1171,7 +1171,7 @@
         <v>1639.133859534206</v>
       </c>
       <c r="E21">
-        <v>1632.149072277226</v>
+        <v>1634.926620344038</v>
       </c>
       <c r="F21">
         <v>1103.981995045822</v>
@@ -1180,7 +1180,7 @@
         <v>1610.905377452676</v>
       </c>
       <c r="H21">
-        <v>3946.347032507273</v>
+        <v>5506.370842293803</v>
       </c>
       <c r="I21">
         <v>5859.68323359138</v>
@@ -1189,7 +1189,7 @@
         <v>3352.863145189499</v>
       </c>
       <c r="K21">
-        <v>3878.384684071441</v>
+        <v>5411.542412173933</v>
       </c>
       <c r="L21">
         <v>5758.770204310242</v>
@@ -1203,7 +1203,7 @@
         <v>2008</v>
       </c>
       <c r="B22">
-        <v>1756.170835786003</v>
+        <v>1762.668132812928</v>
       </c>
       <c r="C22">
         <v>1128.734056302769</v>
@@ -1212,7 +1212,7 @@
         <v>1657.695212079799</v>
       </c>
       <c r="E22">
-        <v>1697.696779100565</v>
+        <v>1703.977739933475</v>
       </c>
       <c r="F22">
         <v>1091.151346325984</v>
@@ -1221,7 +1221,7 @@
         <v>1602.500032987242</v>
       </c>
       <c r="H22">
-        <v>-2860.158721377454</v>
+        <v>-3140.282955866742</v>
       </c>
       <c r="I22">
         <v>2152.306191096605</v>
@@ -1230,7 +1230,7 @@
         <v>1888.696529775703</v>
       </c>
       <c r="K22">
-        <v>-2764.925911564665</v>
+        <v>-3035.723035027672</v>
       </c>
       <c r="L22">
         <v>2080.642277963533</v>
@@ -1244,7 +1244,7 @@
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1743.803354772767</v>
+        <v>1741.236311488417</v>
       </c>
       <c r="C23">
         <v>1083.882071283436</v>
@@ -1253,7 +1253,7 @@
         <v>1656.245897720326</v>
       </c>
       <c r="E23">
-        <v>1722.770638870902</v>
+        <v>1720.234557731429</v>
       </c>
       <c r="F23">
         <v>1070.808932265763</v>
@@ -1262,7 +1262,7 @@
         <v>1636.269247638172</v>
       </c>
       <c r="H23">
-        <v>2037.138608400395</v>
+        <v>4538.443417435782</v>
       </c>
       <c r="I23">
         <v>6084.792820664589</v>
@@ -1271,7 +1271,7 @@
         <v>-2066.50023291606</v>
       </c>
       <c r="K23">
-        <v>2012.56785764118</v>
+        <v>4483.703420076358</v>
       </c>
       <c r="L23">
         <v>6011.401679187275</v>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B24">
-        <v>1703.610536103614</v>
+        <v>1697.492319821167</v>
       </c>
       <c r="C24">
         <v>1115.965163542977</v>
@@ -1294,7 +1294,7 @@
         <v>1721.006890329727</v>
       </c>
       <c r="E24">
-        <v>1665.265604422825</v>
+        <v>1659.285097188537</v>
       </c>
       <c r="F24">
         <v>1090.846976582202</v>
@@ -1303,7 +1303,7 @@
         <v>1682.270400836775</v>
       </c>
       <c r="H24">
-        <v>11771.11757410767</v>
+        <v>12023.42267828514</v>
       </c>
       <c r="I24">
         <v>5972.723121450281</v>
@@ -1312,7 +1312,7 @@
         <v>6254.696254192204</v>
       </c>
       <c r="K24">
-        <v>11506.17280555862</v>
+        <v>11752.79901671602</v>
       </c>
       <c r="L24">
         <v>5838.288838973908</v>
@@ -1326,7 +1326,7 @@
         <v>2011</v>
       </c>
       <c r="B25">
-        <v>1733.199337948998</v>
+        <v>1719.830384619137</v>
       </c>
       <c r="C25">
         <v>1145.884434590324</v>
@@ -1335,7 +1335,7 @@
         <v>1751.34946888745</v>
       </c>
       <c r="E25">
-        <v>1686.209574876346</v>
+        <v>1673.203074921433</v>
       </c>
       <c r="F25">
         <v>1114.817703308417</v>
@@ -1344,7 +1344,7 @@
         <v>1703.867627186643</v>
       </c>
       <c r="H25">
-        <v>1143.627556650225</v>
+        <v>1999.770734899487</v>
       </c>
       <c r="I25">
         <v>-1825.994737906204</v>
@@ -1353,7 +1353,7 @@
         <v>-162.4156417819009</v>
       </c>
       <c r="K25">
-        <v>1112.622012882857</v>
+        <v>1945.553801523692</v>
       </c>
       <c r="L25">
         <v>-1776.48914542908</v>
@@ -1367,7 +1367,7 @@
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>1757.913207544652</v>
+        <v>1736.327633566158</v>
       </c>
       <c r="C26">
         <v>1231.778239569347</v>
@@ -1376,7 +1376,7 @@
         <v>1782.911431362114</v>
       </c>
       <c r="E26">
-        <v>1716.740087612344</v>
+        <v>1695.660082067154</v>
       </c>
       <c r="F26">
         <v>1202.928036402245</v>
@@ -1385,7 +1385,7 @@
         <v>1741.152813315955</v>
       </c>
       <c r="H26">
-        <v>4480.71787517596</v>
+        <v>5008.140941164905</v>
       </c>
       <c r="I26">
         <v>-7411.550921239946</v>
@@ -1394,7 +1394,7 @@
         <v>7165.8036794255</v>
       </c>
       <c r="K26">
-        <v>4375.77234449465</v>
+        <v>4890.842324416644</v>
       </c>
       <c r="L26">
         <v>-7237.960624713959</v>
@@ -1408,7 +1408,7 @@
         <v>2013</v>
       </c>
       <c r="B27">
-        <v>1802.327185987571</v>
+        <v>1804.209119872245</v>
       </c>
       <c r="C27">
         <v>1255.68318622785</v>
@@ -1417,7 +1417,7 @@
         <v>1799.113801425157</v>
       </c>
       <c r="E27">
-        <v>1787.762925898783</v>
+        <v>1789.629652236913</v>
       </c>
       <c r="F27">
         <v>1245.536251389645</v>
@@ -1426,7 +1426,7 @@
         <v>1784.575508080307</v>
       </c>
       <c r="H27">
-        <v>-417.8830837027341</v>
+        <v>-2035.068686611993</v>
       </c>
       <c r="I27">
         <v>2559.53813149466</v>
@@ -1435,7 +1435,7 @@
         <v>7064.945752198114</v>
       </c>
       <c r="K27">
-        <v>-414.5062507031166</v>
+        <v>-2018.623687124219</v>
       </c>
       <c r="L27">
         <v>2538.854995078541</v>
@@ -1449,7 +1449,7 @@
         <v>2014</v>
       </c>
       <c r="B28">
-        <v>1836.814605783257</v>
+        <v>1850.464047338944</v>
       </c>
       <c r="C28">
         <v>1272.632200680287</v>
@@ -1458,7 +1458,7 @@
         <v>1810.690693847011</v>
       </c>
       <c r="E28">
-        <v>1825.749457555647</v>
+        <v>1839.316673559794</v>
       </c>
       <c r="F28">
         <v>1264.965741640045</v>
@@ -1467,7 +1467,7 @@
         <v>1799.782918582873</v>
       </c>
       <c r="H28">
-        <v>-21207.11586823891</v>
+        <v>-36278.77118265911</v>
       </c>
       <c r="I28">
         <v>20239.81333588553</v>
@@ -1476,7 +1476,7 @@
         <v>65895.07056436871</v>
       </c>
       <c r="K28">
-        <v>-21079.36215818928</v>
+        <v>-36060.22436830574</v>
       </c>
       <c r="L28">
         <v>20117.88674952477</v>
@@ -1490,7 +1490,7 @@
         <v>2015</v>
       </c>
       <c r="B29">
-        <v>1977.856746520409</v>
+        <v>1981.979332591518</v>
       </c>
       <c r="C29">
         <v>1337.116201933452</v>
@@ -1499,7 +1499,7 @@
         <v>1884.93726127349</v>
       </c>
       <c r="E29">
-        <v>1969.945319534327</v>
+        <v>1974.051415261151</v>
       </c>
       <c r="F29">
         <v>1331.767737125718</v>
@@ -1508,7 +1508,7 @@
         <v>1877.397512228396</v>
       </c>
       <c r="H29">
-        <v>-65405.66105671858</v>
+        <v>-54875.06177709535</v>
       </c>
       <c r="I29">
         <v>-7723.353357510684</v>
@@ -1517,7 +1517,7 @@
         <v>32014.01229969479</v>
       </c>
       <c r="K29">
-        <v>-65144.0384124917</v>
+        <v>-54655.56152998697</v>
       </c>
       <c r="L29">
         <v>-7692.459944080639</v>
@@ -1531,7 +1531,7 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>2004.679136249755</v>
+        <v>2016.624149069962</v>
       </c>
       <c r="C30">
         <v>1359.187267444317</v>
@@ -1540,7 +1540,7 @@
         <v>1901.99230516461</v>
       </c>
       <c r="E30">
-        <v>1998.683086988789</v>
+        <v>2010.592371954099</v>
       </c>
       <c r="F30">
         <v>1355.1219017391</v>
@@ -1549,7 +1549,7 @@
         <v>1896.303394979671</v>
       </c>
       <c r="H30">
-        <v>33088.01454274101</v>
+        <v>34467.87992463969</v>
       </c>
       <c r="I30">
         <v>22258.61833355265</v>
@@ -1558,7 +1558,7 @@
         <v>59441.16076002013</v>
       </c>
       <c r="K30">
-        <v>32989.04740053939</v>
+        <v>34364.78556793588</v>
       </c>
       <c r="L30">
         <v>22192.04220693186</v>
@@ -1572,7 +1572,7 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>2163.076362360478</v>
+        <v>2177.332770413053</v>
       </c>
       <c r="C31">
         <v>1387.382223307848</v>
@@ -1581,7 +1581,7 @@
         <v>1962.104918381626</v>
       </c>
       <c r="E31">
-        <v>2139.611036930532</v>
+        <v>2153.712789668927</v>
       </c>
       <c r="F31">
         <v>1372.331725816343</v>
@@ -1590,7 +1590,7 @@
         <v>1940.819756545138</v>
       </c>
       <c r="H31">
-        <v>-4785.884914582191</v>
+        <v>-7646.915047244514</v>
       </c>
       <c r="I31">
         <v>29691.6712298475</v>
@@ -1599,7 +1599,7 @@
         <v>51477.65997764355</v>
       </c>
       <c r="K31">
-        <v>-4733.967030893426</v>
+        <v>-7563.960347520957</v>
       </c>
       <c r="L31">
         <v>29369.57223228505</v>
@@ -1613,7 +1613,7 @@
         <v>2018</v>
       </c>
       <c r="B32">
-        <v>2264.818651424481</v>
+        <v>2178.171505437505</v>
       </c>
       <c r="C32">
         <v>1421.638781356038</v>
@@ -1622,7 +1622,7 @@
         <v>1977.12359634629</v>
       </c>
       <c r="E32">
-        <v>2247.090129691217</v>
+        <v>2161.121239250127</v>
       </c>
       <c r="F32">
         <v>1410.510493439357</v>
@@ -1631,7 +1631,7 @@
         <v>1961.647090699743</v>
       </c>
       <c r="H32">
-        <v>-12395.46097991469</v>
+        <v>25907.03047439679</v>
       </c>
       <c r="I32">
         <v>-1368.286419846504</v>
@@ -1640,7 +1640,7 @@
         <v>76147.5004635459</v>
       </c>
       <c r="K32">
-        <v>-12298.43193114823</v>
+        <v>25704.23571530171</v>
       </c>
       <c r="L32">
         <v>-1357.57576293968</v>
@@ -1654,7 +1654,7 @@
         <v>2019</v>
       </c>
       <c r="B33">
-        <v>2338.88712824519</v>
+        <v>2213.735753523487</v>
       </c>
       <c r="C33">
         <v>1468.848645560932</v>
@@ -1663,7 +1663,7 @@
         <v>2011.481386787425</v>
       </c>
       <c r="E33">
-        <v>2320.721014627751</v>
+        <v>2196.54168941845</v>
       </c>
       <c r="F33">
         <v>1457.440112391527</v>
@@ -1672,7 +1672,7 @@
         <v>1995.858230385192</v>
       </c>
       <c r="H33">
-        <v>17738.8371778313</v>
+        <v>44060.59779519092</v>
       </c>
       <c r="I33">
         <v>11115.84421709312</v>
@@ -1681,7 +1681,7 @@
         <v>50343.44377562305</v>
       </c>
       <c r="K33">
-        <v>17601.05980169281</v>
+        <v>43718.37955988846</v>
       </c>
       <c r="L33">
         <v>11029.50756297977</v>
@@ -1695,7 +1695,7 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>2563.019377976294</v>
+        <v>2505.093913896077</v>
       </c>
       <c r="C34">
         <v>1524.209248735817</v>
@@ -1704,7 +1704,7 @@
         <v>2049.965104237474</v>
       </c>
       <c r="E34">
-        <v>2553.104409396115</v>
+        <v>2495.403028349091</v>
       </c>
       <c r="F34">
         <v>1518.312888005698</v>
@@ -1713,7 +1713,7 @@
         <v>2042.034871725917</v>
       </c>
       <c r="H34">
-        <v>-111753.1690086223</v>
+        <v>-130615.3117736262</v>
       </c>
       <c r="I34">
         <v>-10485.7936106362</v>
@@ -1722,7 +1722,7 @@
         <v>50219.24391970062</v>
       </c>
       <c r="K34">
-        <v>-111320.855008589</v>
+        <v>-130110.030103322</v>
       </c>
       <c r="L34">
         <v>-10445.22961214244</v>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7A209-DDD5-4CDE-B218-BBE391B05E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,10 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,13 +132,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,37 +429,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -460,1275 +500,1275 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>1084.212575158087</v>
+      </c>
+      <c r="C3">
+        <v>702.06678519847924</v>
+      </c>
+      <c r="D3">
+        <v>963.73205613887853</v>
+      </c>
+      <c r="E3">
+        <v>1056.096851977326</v>
+      </c>
+      <c r="F3">
+        <v>683.86083939106322</v>
+      </c>
+      <c r="G3">
+        <v>938.74062518552023</v>
+      </c>
+      <c r="H3">
+        <v>7737.7671659366697</v>
+      </c>
+      <c r="I3">
+        <v>-6799.2744749717931</v>
+      </c>
+      <c r="J3">
+        <v>-15331.909224164679</v>
+      </c>
+      <c r="K3">
+        <v>7537.1119395914729</v>
+      </c>
+      <c r="L3">
+        <v>-6622.9561741621519</v>
+      </c>
+      <c r="M3">
+        <v>-14934.323247525081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B4">
-        <v>1084.212575158087</v>
+        <v>1065.103571927342</v>
       </c>
       <c r="C4">
-        <v>702.0667851984792</v>
+        <v>734.43246969694633</v>
       </c>
       <c r="D4">
-        <v>963.7320561388785</v>
+        <v>1021.157541149983</v>
       </c>
       <c r="E4">
-        <v>1056.096851977326</v>
+        <v>1039.8242149986861</v>
       </c>
       <c r="F4">
-        <v>683.8608393910632</v>
+        <v>717.00131930856946</v>
       </c>
       <c r="G4">
-        <v>938.7406251855202</v>
+        <v>996.92120710370136</v>
       </c>
       <c r="H4">
-        <v>7737.76716593667</v>
+        <v>17939.528048890239</v>
       </c>
       <c r="I4">
-        <v>-6799.274474971793</v>
+        <v>-2096.2472648940702</v>
       </c>
       <c r="J4">
-        <v>-15331.90922416468</v>
+        <v>-10722.70307299442</v>
       </c>
       <c r="K4">
-        <v>7537.111939591473</v>
+        <v>17513.74811102101</v>
       </c>
       <c r="L4">
-        <v>-6622.956174162152</v>
+        <v>-2046.494560822217</v>
       </c>
       <c r="M4">
-        <v>-14934.32324752508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-10468.20853803411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B5">
-        <v>1065.103571927342</v>
+        <v>1118.7861739750699</v>
       </c>
       <c r="C5">
-        <v>734.4324696969463</v>
+        <v>767.77047700396122</v>
       </c>
       <c r="D5">
-        <v>1021.157541149983</v>
+        <v>1064.9157365257161</v>
       </c>
       <c r="E5">
-        <v>1039.824214998686</v>
+        <v>1096.236995274797</v>
       </c>
       <c r="F5">
-        <v>717.0013193085695</v>
+        <v>752.29603328140081</v>
       </c>
       <c r="G5">
-        <v>996.9212071037014</v>
+        <v>1043.452318580237</v>
       </c>
       <c r="H5">
-        <v>17939.52804889024</v>
+        <v>-5457.8504516931134</v>
       </c>
       <c r="I5">
-        <v>-2096.24726489407</v>
+        <v>-6095.0568293182732</v>
       </c>
       <c r="J5">
-        <v>-10722.70307299442</v>
+        <v>-7298.682438362106</v>
       </c>
       <c r="K5">
-        <v>17513.74811102101</v>
+        <v>-5347.8472642946463</v>
       </c>
       <c r="L5">
-        <v>-2046.494560822217</v>
+        <v>-5972.2107226808512</v>
       </c>
       <c r="M5">
-        <v>-10468.20853803411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-7151.5772109222498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B6">
-        <v>1118.78617397507</v>
+        <v>1157.766015625934</v>
       </c>
       <c r="C6">
-        <v>767.7704770039612</v>
+        <v>771.48757983750534</v>
       </c>
       <c r="D6">
-        <v>1064.915736525716</v>
+        <v>1086.403519961628</v>
       </c>
       <c r="E6">
-        <v>1096.236995274797</v>
+        <v>1143.582052187945</v>
       </c>
       <c r="F6">
-        <v>752.2960332814008</v>
+        <v>762.03597089615766</v>
       </c>
       <c r="G6">
-        <v>1043.452318580237</v>
+        <v>1073.0938290585759</v>
       </c>
       <c r="H6">
-        <v>-5457.850451693113</v>
+        <v>-1492.9011824196059</v>
       </c>
       <c r="I6">
-        <v>-6095.056829318273</v>
+        <v>5130.9840353817763</v>
       </c>
       <c r="J6">
-        <v>-7298.682438362106</v>
+        <v>-814.63324450731614</v>
       </c>
       <c r="K6">
-        <v>-5347.847264294646</v>
+        <v>-1474.6114282705139</v>
       </c>
       <c r="L6">
-        <v>-5972.210722680851</v>
+        <v>5068.123587781387</v>
       </c>
       <c r="M6">
-        <v>-7151.57721092225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-804.65305161901847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B7">
-        <v>1157.766015625934</v>
+        <v>1222.0381004400699</v>
       </c>
       <c r="C7">
-        <v>771.4875798375053</v>
+        <v>814.43236200661966</v>
       </c>
       <c r="D7">
-        <v>1086.403519961628</v>
+        <v>1162.8590151143239</v>
       </c>
       <c r="E7">
-        <v>1143.582052187945</v>
+        <v>1198.1845038849331</v>
       </c>
       <c r="F7">
-        <v>762.0359708961577</v>
+        <v>798.53503361910305</v>
       </c>
       <c r="G7">
-        <v>1073.093829058576</v>
+        <v>1140.1605658703511</v>
       </c>
       <c r="H7">
-        <v>-1492.901182419606</v>
+        <v>4892.8302311446687</v>
       </c>
       <c r="I7">
-        <v>5130.984035381776</v>
+        <v>4043.6957535453212</v>
       </c>
       <c r="J7">
-        <v>-814.6332445073161</v>
+        <v>-4186.6846629355341</v>
       </c>
       <c r="K7">
-        <v>-1474.611428270514</v>
+        <v>4797.3245359421453</v>
       </c>
       <c r="L7">
-        <v>5068.123587781387</v>
+        <v>3964.764755352996</v>
       </c>
       <c r="M7">
-        <v>-804.6530516190185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-4104.9625899352905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B8">
-        <v>1222.03810044007</v>
+        <v>1236.84641488698</v>
       </c>
       <c r="C8">
-        <v>814.4323620066197</v>
+        <v>849.1104336258727</v>
       </c>
       <c r="D8">
-        <v>1162.859015114324</v>
+        <v>1209.7422373672221</v>
       </c>
       <c r="E8">
-        <v>1198.184503884933</v>
+        <v>1211.3819298746009</v>
       </c>
       <c r="F8">
-        <v>798.535033619103</v>
+        <v>831.62874822769288</v>
       </c>
       <c r="G8">
-        <v>1140.160565870351</v>
+        <v>1184.835779539073</v>
       </c>
       <c r="H8">
-        <v>4892.830231144669</v>
+        <v>11497.818906831961</v>
       </c>
       <c r="I8">
-        <v>4043.695753545321</v>
+        <v>-1133.329043734982</v>
       </c>
       <c r="J8">
-        <v>-4186.684662935534</v>
+        <v>1539.361313394422</v>
       </c>
       <c r="K8">
-        <v>4797.324535942145</v>
+        <v>11261.099105808949</v>
       </c>
       <c r="L8">
-        <v>3964.764755352996</v>
+        <v>-1109.995798716908</v>
       </c>
       <c r="M8">
-        <v>-4104.96258993529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1507.668580471596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B9">
-        <v>1236.84641488698</v>
+        <v>1286.9867351784039</v>
       </c>
       <c r="C9">
-        <v>849.1104336258727</v>
+        <v>868.16331932658454</v>
       </c>
       <c r="D9">
-        <v>1209.742237367222</v>
+        <v>1248.9156425225151</v>
       </c>
       <c r="E9">
-        <v>1211.381929874601</v>
+        <v>1259.210043052251</v>
       </c>
       <c r="F9">
-        <v>831.6287482276929</v>
+        <v>849.42598149939204</v>
       </c>
       <c r="G9">
-        <v>1184.835779539073</v>
+        <v>1221.960628655122</v>
       </c>
       <c r="H9">
-        <v>11497.81890683196</v>
+        <v>-1097.903603550327</v>
       </c>
       <c r="I9">
-        <v>-1133.329043734982</v>
+        <v>6659.350308895232</v>
       </c>
       <c r="J9">
-        <v>1539.361313394422</v>
+        <v>5308.3393366691953</v>
       </c>
       <c r="K9">
-        <v>11261.09910580895</v>
+        <v>-1074.2078423226219</v>
       </c>
       <c r="L9">
-        <v>-1109.995798716908</v>
+        <v>6515.6233238111627</v>
       </c>
       <c r="M9">
-        <v>1507.668580471596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5193.770861777055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B10">
-        <v>1286.986735178404</v>
+        <v>1323.3066927003749</v>
       </c>
       <c r="C10">
-        <v>868.1633193265845</v>
+        <v>877.46465572268039</v>
       </c>
       <c r="D10">
-        <v>1248.915642522515</v>
+        <v>1288.0062993582401</v>
       </c>
       <c r="E10">
-        <v>1259.210043052251</v>
+        <v>1295.3495090517749</v>
       </c>
       <c r="F10">
-        <v>849.425981499392</v>
+        <v>858.92667003839847</v>
       </c>
       <c r="G10">
-        <v>1221.960628655122</v>
+        <v>1260.7948986675731</v>
       </c>
       <c r="H10">
-        <v>-1097.903603550327</v>
+        <v>3945.3031235736639</v>
       </c>
       <c r="I10">
-        <v>6659.350308895232</v>
+        <v>13132.88274120652</v>
       </c>
       <c r="J10">
-        <v>5308.339336669195</v>
+        <v>7910.610237548909</v>
       </c>
       <c r="K10">
-        <v>-1074.207842322622</v>
+        <v>3861.9516491319669</v>
       </c>
       <c r="L10">
-        <v>6515.623323811163</v>
+        <v>12855.4274720261</v>
       </c>
       <c r="M10">
-        <v>5193.770861777055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7743.4846691499879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B11">
-        <v>1323.306692700375</v>
+        <v>1351.633332812763</v>
       </c>
       <c r="C11">
-        <v>877.4646557226804</v>
+        <v>897.31087980735549</v>
       </c>
       <c r="D11">
-        <v>1288.00629935824</v>
+        <v>1331.949738518106</v>
       </c>
       <c r="E11">
-        <v>1295.349509051775</v>
+        <v>1327.3301055284401</v>
       </c>
       <c r="F11">
-        <v>858.9266700383985</v>
+        <v>881.17665928523161</v>
       </c>
       <c r="G11">
-        <v>1260.794898667573</v>
+        <v>1308.0004347826491</v>
       </c>
       <c r="H11">
-        <v>3945.303123573664</v>
+        <v>7720.619553931263</v>
       </c>
       <c r="I11">
-        <v>13132.88274120652</v>
+        <v>10029.638090014159</v>
       </c>
       <c r="J11">
-        <v>7910.610237548909</v>
+        <v>9283.9260881736136</v>
       </c>
       <c r="K11">
-        <v>3861.951649131967</v>
+        <v>7581.7979022008258</v>
       </c>
       <c r="L11">
-        <v>12855.4274720261</v>
+        <v>9849.2988159198503</v>
       </c>
       <c r="M11">
-        <v>7743.484669149988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9116.9951903226356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B12">
-        <v>1351.633332812763</v>
+        <v>1379.4861501001581</v>
       </c>
       <c r="C12">
-        <v>897.3108798073555</v>
+        <v>923.88022318908531</v>
       </c>
       <c r="D12">
-        <v>1331.949738518106</v>
+        <v>1352.173488493803</v>
       </c>
       <c r="E12">
-        <v>1327.33010552844</v>
+        <v>1345.9763650774819</v>
       </c>
       <c r="F12">
-        <v>881.1766592852316</v>
+        <v>901.43778861769067</v>
       </c>
       <c r="G12">
-        <v>1308.000434782649</v>
+        <v>1319.3271689352489</v>
       </c>
       <c r="H12">
-        <v>7720.619553931263</v>
+        <v>672.27030385870705</v>
       </c>
       <c r="I12">
-        <v>10029.63809001416</v>
+        <v>1623.1339555163729</v>
       </c>
       <c r="J12">
-        <v>9283.926088173614</v>
+        <v>5023.5971756187246</v>
       </c>
       <c r="K12">
-        <v>7581.797902200826</v>
+        <v>655.93985113339443</v>
       </c>
       <c r="L12">
-        <v>9849.29881591985</v>
+        <v>1583.705600321643</v>
       </c>
       <c r="M12">
-        <v>9116.995190322636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4901.566474996408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B13">
-        <v>1379.486150100158</v>
+        <v>1410.501822325374</v>
       </c>
       <c r="C13">
-        <v>923.8802231890853</v>
+        <v>973.68006377799998</v>
       </c>
       <c r="D13">
-        <v>1352.173488493803</v>
+        <v>1379.9939221738109</v>
       </c>
       <c r="E13">
-        <v>1345.976365077482</v>
+        <v>1371.629724859713</v>
       </c>
       <c r="F13">
-        <v>901.4377886176907</v>
+        <v>946.84636123293694</v>
       </c>
       <c r="G13">
-        <v>1319.327168935249</v>
+        <v>1341.962593609966</v>
       </c>
       <c r="H13">
-        <v>672.2703038587071</v>
+        <v>2295.063931269141</v>
       </c>
       <c r="I13">
-        <v>1623.133955516373</v>
+        <v>-30.37138314237896</v>
       </c>
       <c r="J13">
-        <v>5023.597175618725</v>
+        <v>6217.3790017821693</v>
       </c>
       <c r="K13">
-        <v>655.9398511333944</v>
+        <v>2231.8141378877071</v>
       </c>
       <c r="L13">
-        <v>1583.705600321643</v>
+        <v>-29.53437652034496</v>
       </c>
       <c r="M13">
-        <v>4901.566474996408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6046.033911181873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>1410.501822325374</v>
+        <v>1435.316733837632</v>
       </c>
       <c r="C14">
-        <v>973.680063778</v>
+        <v>1012.063446244572</v>
       </c>
       <c r="D14">
-        <v>1379.993922173811</v>
+        <v>1389.7092302934279</v>
       </c>
       <c r="E14">
-        <v>1371.629724859713</v>
+        <v>1402.1940399798409</v>
       </c>
       <c r="F14">
-        <v>946.8463612329369</v>
+        <v>988.70813594662002</v>
       </c>
       <c r="G14">
-        <v>1341.962593609966</v>
+        <v>1357.6390172866561</v>
       </c>
       <c r="H14">
-        <v>2295.063931269141</v>
+        <v>1449.6040197766549</v>
       </c>
       <c r="I14">
-        <v>-30.37138314237896</v>
+        <v>804.31181576081076</v>
       </c>
       <c r="J14">
-        <v>6217.379001782169</v>
+        <v>6806.2347558007777</v>
       </c>
       <c r="K14">
-        <v>2231.814137887707</v>
+        <v>1416.151619320271</v>
       </c>
       <c r="L14">
-        <v>-29.53437652034496</v>
+        <v>785.75077385863824</v>
       </c>
       <c r="M14">
-        <v>6046.033911181873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6649.1677998976829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>1435.316733837632</v>
+        <v>1443.5434035363901</v>
       </c>
       <c r="C15">
-        <v>1012.063446244572</v>
+        <v>1028.800559973454</v>
       </c>
       <c r="D15">
-        <v>1389.709230293428</v>
+        <v>1414.121875207429</v>
       </c>
       <c r="E15">
-        <v>1402.194039979841</v>
+        <v>1409.2163388715701</v>
       </c>
       <c r="F15">
-        <v>988.70813594662</v>
+        <v>1004.335965931532</v>
       </c>
       <c r="G15">
-        <v>1357.639017286656</v>
+        <v>1380.494446385225</v>
       </c>
       <c r="H15">
-        <v>1449.604019776655</v>
+        <v>3337.0110268291369</v>
       </c>
       <c r="I15">
-        <v>804.3118157608108</v>
+        <v>1950.1823811132019</v>
       </c>
       <c r="J15">
-        <v>6806.234755800778</v>
+        <v>3816.0620002466112</v>
       </c>
       <c r="K15">
-        <v>1416.151619320271</v>
+        <v>3257.6578234377048</v>
       </c>
       <c r="L15">
-        <v>785.7507738586382</v>
+        <v>1903.807581061699</v>
       </c>
       <c r="M15">
-        <v>6649.167799897683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3725.3170966112102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B16">
-        <v>1443.54340353639</v>
+        <v>1395.4878834211329</v>
       </c>
       <c r="C16">
-        <v>1028.800559973454</v>
+        <v>1034.4243062055971</v>
       </c>
       <c r="D16">
-        <v>1414.121875207429</v>
+        <v>1426.1460852544219</v>
       </c>
       <c r="E16">
-        <v>1409.21633887157</v>
+        <v>1366.4152191831929</v>
       </c>
       <c r="F16">
-        <v>1004.335965931532</v>
+        <v>1012.873799826314</v>
       </c>
       <c r="G16">
-        <v>1380.494446385225</v>
+        <v>1396.434708478288</v>
       </c>
       <c r="H16">
-        <v>3337.011026829137</v>
+        <v>5024.1942405988166</v>
       </c>
       <c r="I16">
-        <v>1950.182381113202</v>
+        <v>2672.518710933281</v>
       </c>
       <c r="J16">
-        <v>3816.062000246611</v>
+        <v>3409.9694539009051</v>
       </c>
       <c r="K16">
-        <v>3257.657823437705</v>
+        <v>4919.5235272530081</v>
       </c>
       <c r="L16">
-        <v>1903.807581061699</v>
+        <v>2616.841237788838</v>
       </c>
       <c r="M16">
-        <v>3725.31709661121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3338.9284236113031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
-        <v>1395.487883421133</v>
+        <v>1450.742677999634</v>
       </c>
       <c r="C17">
-        <v>1034.424306205597</v>
+        <v>1070.7858053545231</v>
       </c>
       <c r="D17">
-        <v>1426.146085254422</v>
+        <v>1449.4058818143949</v>
       </c>
       <c r="E17">
-        <v>1366.415219183193</v>
+        <v>1434.9163942396381</v>
       </c>
       <c r="F17">
-        <v>1012.873799826314</v>
+        <v>1059.1045056597461</v>
       </c>
       <c r="G17">
-        <v>1396.434708478288</v>
+        <v>1433.594181285511</v>
       </c>
       <c r="H17">
-        <v>5024.194240598817</v>
+        <v>114.8484109696458</v>
       </c>
       <c r="I17">
-        <v>2672.518710933281</v>
+        <v>-81.543398194688024</v>
       </c>
       <c r="J17">
-        <v>3409.969453900905</v>
+        <v>4657.8217727421734</v>
       </c>
       <c r="K17">
-        <v>4919.523527253008</v>
+        <v>113.5955192136133</v>
       </c>
       <c r="L17">
-        <v>2616.841237788838</v>
+        <v>-80.653833850745883</v>
       </c>
       <c r="M17">
-        <v>3338.928423611303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4607.0091715849849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B18">
-        <v>1450.742677999634</v>
+        <v>1512.6903728803161</v>
       </c>
       <c r="C18">
-        <v>1070.785805354523</v>
+        <v>1077.039053610122</v>
       </c>
       <c r="D18">
-        <v>1449.405881814395</v>
+        <v>1511.098013370575</v>
       </c>
       <c r="E18">
-        <v>1434.916394239638</v>
+        <v>1485.6780447931669</v>
       </c>
       <c r="F18">
-        <v>1059.104505659746</v>
+        <v>1057.806213367084</v>
       </c>
       <c r="G18">
-        <v>1433.594181285511</v>
+        <v>1484.114120274671</v>
       </c>
       <c r="H18">
-        <v>114.8484109696458</v>
+        <v>561.72904595054581</v>
       </c>
       <c r="I18">
-        <v>-81.54339819468802</v>
+        <v>5564.9530589095639</v>
       </c>
       <c r="J18">
-        <v>4657.821772742173</v>
+        <v>1290.0073301848599</v>
       </c>
       <c r="K18">
-        <v>113.5955192136133</v>
+        <v>551.69817013000045</v>
       </c>
       <c r="L18">
-        <v>-80.65383385074588</v>
+        <v>5465.5788971433212</v>
       </c>
       <c r="M18">
-        <v>4607.009171584985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1266.9714850029879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19">
-        <v>1512.690372880316</v>
+        <v>1644.1017586812559</v>
       </c>
       <c r="C19">
-        <v>1077.039053610122</v>
+        <v>1119.3969593541569</v>
       </c>
       <c r="D19">
-        <v>1511.098013370575</v>
+        <v>1579.5794443099689</v>
       </c>
       <c r="E19">
-        <v>1485.678044793167</v>
+        <v>1613.3708846872139</v>
       </c>
       <c r="F19">
-        <v>1057.806213367084</v>
+        <v>1098.4736517026779</v>
       </c>
       <c r="G19">
-        <v>1484.114120274671</v>
+        <v>1550.054594883615</v>
       </c>
       <c r="H19">
-        <v>561.7290459505458</v>
+        <v>-1794.3132878361189</v>
       </c>
       <c r="I19">
-        <v>5564.953058909564</v>
+        <v>2557.194652232623</v>
       </c>
       <c r="J19">
-        <v>1290.00733018486</v>
+        <v>1578.8092901640771</v>
       </c>
       <c r="K19">
-        <v>551.6981701300004</v>
+        <v>-1760.7747217083411</v>
       </c>
       <c r="L19">
-        <v>5465.578897143321</v>
+        <v>2509.3966213497702</v>
       </c>
       <c r="M19">
-        <v>1266.971485002988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1549.298836142319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B20">
-        <v>1644.101758681256</v>
+        <v>1663.57603542016</v>
       </c>
       <c r="C20">
-        <v>1119.396959354157</v>
+        <v>1123.3274739309711</v>
       </c>
       <c r="D20">
-        <v>1579.579444309969</v>
+        <v>1639.1338595342061</v>
       </c>
       <c r="E20">
-        <v>1613.370884687214</v>
+        <v>1634.9266203440379</v>
       </c>
       <c r="F20">
-        <v>1098.473651702678</v>
+        <v>1103.981995045822</v>
       </c>
       <c r="G20">
-        <v>1550.054594883615</v>
+        <v>1610.905377452676</v>
       </c>
       <c r="H20">
-        <v>-1794.313287836119</v>
+        <v>5506.3708422938034</v>
       </c>
       <c r="I20">
-        <v>2557.194652232623</v>
+        <v>5859.6832335913796</v>
       </c>
       <c r="J20">
-        <v>1578.809290164077</v>
+        <v>3352.8631451894989</v>
       </c>
       <c r="K20">
-        <v>-1760.774721708341</v>
+        <v>5411.5424121739334</v>
       </c>
       <c r="L20">
-        <v>2509.39662134977</v>
+        <v>5758.7702043102418</v>
       </c>
       <c r="M20">
-        <v>1549.298836142319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3295.1215296007022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B21">
-        <v>1663.57603542016</v>
+        <v>1762.668132812928</v>
       </c>
       <c r="C21">
-        <v>1123.327473930971</v>
+        <v>1128.734056302769</v>
       </c>
       <c r="D21">
-        <v>1639.133859534206</v>
+        <v>1657.6952120797989</v>
       </c>
       <c r="E21">
-        <v>1634.926620344038</v>
+        <v>1703.977739933475</v>
       </c>
       <c r="F21">
-        <v>1103.981995045822</v>
+        <v>1091.1513463259839</v>
       </c>
       <c r="G21">
-        <v>1610.905377452676</v>
+        <v>1602.5000329872421</v>
       </c>
       <c r="H21">
-        <v>5506.370842293803</v>
+        <v>-3140.2829558667422</v>
       </c>
       <c r="I21">
-        <v>5859.68323359138</v>
+        <v>2152.3061910966048</v>
       </c>
       <c r="J21">
-        <v>3352.863145189499</v>
+        <v>1888.6965297757031</v>
       </c>
       <c r="K21">
-        <v>5411.542412173933</v>
+        <v>-3035.7230350276718</v>
       </c>
       <c r="L21">
-        <v>5758.770204310242</v>
+        <v>2080.6422779635332</v>
       </c>
       <c r="M21">
-        <v>3295.121529600702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1825.8098528686321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>1762.668132812928</v>
+        <v>1741.236311488417</v>
       </c>
       <c r="C22">
-        <v>1128.734056302769</v>
+        <v>1083.8820712834361</v>
       </c>
       <c r="D22">
-        <v>1657.695212079799</v>
+        <v>1656.245897720326</v>
       </c>
       <c r="E22">
-        <v>1703.977739933475</v>
+        <v>1720.234557731429</v>
       </c>
       <c r="F22">
-        <v>1091.151346325984</v>
+        <v>1070.8089322657629</v>
       </c>
       <c r="G22">
-        <v>1602.500032987242</v>
+        <v>1636.2692476381719</v>
       </c>
       <c r="H22">
-        <v>-3140.282955866742</v>
+        <v>4538.4434174357821</v>
       </c>
       <c r="I22">
-        <v>2152.306191096605</v>
+        <v>6084.7928206645893</v>
       </c>
       <c r="J22">
-        <v>1888.696529775703</v>
+        <v>-2066.5002329160602</v>
       </c>
       <c r="K22">
-        <v>-3035.723035027672</v>
+        <v>4483.7034200763583</v>
       </c>
       <c r="L22">
-        <v>2080.642277963533</v>
+        <v>6011.4016791872746</v>
       </c>
       <c r="M22">
-        <v>1825.809852868632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>-2041.5753397558881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B23">
-        <v>1741.236311488417</v>
+        <v>1697.492319821167</v>
       </c>
       <c r="C23">
-        <v>1083.882071283436</v>
+        <v>1115.9651635429771</v>
       </c>
       <c r="D23">
-        <v>1656.245897720326</v>
+        <v>1721.006890329727</v>
       </c>
       <c r="E23">
-        <v>1720.234557731429</v>
+        <v>1659.2850971885371</v>
       </c>
       <c r="F23">
-        <v>1070.808932265763</v>
+        <v>1090.8469765822019</v>
       </c>
       <c r="G23">
-        <v>1636.269247638172</v>
+        <v>1682.270400836775</v>
       </c>
       <c r="H23">
-        <v>4538.443417435782</v>
+        <v>12023.42267828514</v>
       </c>
       <c r="I23">
-        <v>6084.792820664589</v>
+        <v>5972.7231214502808</v>
       </c>
       <c r="J23">
-        <v>-2066.50023291606</v>
+        <v>6254.6962541922039</v>
       </c>
       <c r="K23">
-        <v>4483.703420076358</v>
+        <v>11752.799016716021</v>
       </c>
       <c r="L23">
-        <v>6011.401679187275</v>
+        <v>5838.2888389739082</v>
       </c>
       <c r="M23">
-        <v>-2041.575339755888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6113.9153095640841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B24">
-        <v>1697.492319821167</v>
+        <v>1719.830384619137</v>
       </c>
       <c r="C24">
-        <v>1115.965163542977</v>
+        <v>1145.884434590324</v>
       </c>
       <c r="D24">
-        <v>1721.006890329727</v>
+        <v>1751.34946888745</v>
       </c>
       <c r="E24">
-        <v>1659.285097188537</v>
+        <v>1673.203074921433</v>
       </c>
       <c r="F24">
-        <v>1090.846976582202</v>
+        <v>1114.8177033084171</v>
       </c>
       <c r="G24">
-        <v>1682.270400836775</v>
+        <v>1703.8676271866429</v>
       </c>
       <c r="H24">
-        <v>12023.42267828514</v>
+        <v>1999.770734899487</v>
       </c>
       <c r="I24">
-        <v>5972.723121450281</v>
+        <v>-1825.9947379062039</v>
       </c>
       <c r="J24">
-        <v>6254.696254192204</v>
+        <v>-162.41564178190089</v>
       </c>
       <c r="K24">
-        <v>11752.79901671602</v>
+        <v>1945.5538015236921</v>
       </c>
       <c r="L24">
-        <v>5838.288838973908</v>
+        <v>-1776.4891454290801</v>
       </c>
       <c r="M24">
-        <v>6113.915309564084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-158.01229800053559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25">
-        <v>1719.830384619137</v>
+        <v>1736.3276335661581</v>
       </c>
       <c r="C25">
-        <v>1145.884434590324</v>
+        <v>1231.7782395693471</v>
       </c>
       <c r="D25">
-        <v>1751.34946888745</v>
+        <v>1782.9114313621139</v>
       </c>
       <c r="E25">
-        <v>1673.203074921433</v>
+        <v>1695.660082067154</v>
       </c>
       <c r="F25">
-        <v>1114.817703308417</v>
+        <v>1202.928036402245</v>
       </c>
       <c r="G25">
-        <v>1703.867627186643</v>
+        <v>1741.152813315955</v>
       </c>
       <c r="H25">
-        <v>1999.770734899487</v>
+        <v>5008.1409411649047</v>
       </c>
       <c r="I25">
-        <v>-1825.994737906204</v>
+        <v>-7411.5509212399456</v>
       </c>
       <c r="J25">
-        <v>-162.4156417819009</v>
+        <v>7165.8036794255004</v>
       </c>
       <c r="K25">
-        <v>1945.553801523692</v>
+        <v>4890.8423244166443</v>
       </c>
       <c r="L25">
-        <v>-1776.48914542908</v>
+        <v>-7237.9606247139591</v>
       </c>
       <c r="M25">
-        <v>-158.0122980005356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6997.9691736955756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26">
-        <v>1736.327633566158</v>
+        <v>1804.2091198722451</v>
       </c>
       <c r="C26">
-        <v>1231.778239569347</v>
+        <v>1255.68318622785</v>
       </c>
       <c r="D26">
-        <v>1782.911431362114</v>
+        <v>1799.1138014251569</v>
       </c>
       <c r="E26">
-        <v>1695.660082067154</v>
+        <v>1789.629652236913</v>
       </c>
       <c r="F26">
-        <v>1202.928036402245</v>
+        <v>1245.536251389645</v>
       </c>
       <c r="G26">
-        <v>1741.152813315955</v>
+        <v>1784.5755080803069</v>
       </c>
       <c r="H26">
-        <v>5008.140941164905</v>
+        <v>-2035.0686866119929</v>
       </c>
       <c r="I26">
-        <v>-7411.550921239946</v>
+        <v>2559.5381314946599</v>
       </c>
       <c r="J26">
-        <v>7165.8036794255</v>
+        <v>7064.945752198114</v>
       </c>
       <c r="K26">
-        <v>4890.842324416644</v>
+        <v>-2018.623687124219</v>
       </c>
       <c r="L26">
-        <v>-7237.960624713959</v>
+        <v>2538.8549950785409</v>
       </c>
       <c r="M26">
-        <v>6997.969173695576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>7007.8552814732811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27">
-        <v>1804.209119872245</v>
+        <v>1850.4640473389441</v>
       </c>
       <c r="C27">
-        <v>1255.68318622785</v>
+        <v>1272.632200680287</v>
       </c>
       <c r="D27">
-        <v>1799.113801425157</v>
+        <v>1810.6906938470111</v>
       </c>
       <c r="E27">
-        <v>1789.629652236913</v>
+        <v>1839.316673559794</v>
       </c>
       <c r="F27">
-        <v>1245.536251389645</v>
+        <v>1264.9657416400451</v>
       </c>
       <c r="G27">
-        <v>1784.575508080307</v>
+        <v>1799.782918582873</v>
       </c>
       <c r="H27">
-        <v>-2035.068686611993</v>
+        <v>-36278.771182659111</v>
       </c>
       <c r="I27">
-        <v>2559.53813149466</v>
+        <v>20239.81333588553</v>
       </c>
       <c r="J27">
-        <v>7064.945752198114</v>
+        <v>65895.070564368711</v>
       </c>
       <c r="K27">
-        <v>-2018.623687124219</v>
+        <v>-36060.224368305739</v>
       </c>
       <c r="L27">
-        <v>2538.854995078541</v>
+        <v>20117.886749524769</v>
       </c>
       <c r="M27">
-        <v>7007.855281473281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>65498.112307956857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28">
-        <v>1850.464047338944</v>
+        <v>1981.979332591518</v>
       </c>
       <c r="C28">
-        <v>1272.632200680287</v>
+        <v>1337.116201933452</v>
       </c>
       <c r="D28">
-        <v>1810.690693847011</v>
+        <v>1884.9372612734901</v>
       </c>
       <c r="E28">
-        <v>1839.316673559794</v>
+        <v>1974.0514152611511</v>
       </c>
       <c r="F28">
-        <v>1264.965741640045</v>
+        <v>1331.767737125718</v>
       </c>
       <c r="G28">
-        <v>1799.782918582873</v>
+        <v>1877.397512228396</v>
       </c>
       <c r="H28">
-        <v>-36278.77118265911</v>
+        <v>-54875.061777095347</v>
       </c>
       <c r="I28">
-        <v>20239.81333588553</v>
+        <v>-7723.353357510684</v>
       </c>
       <c r="J28">
-        <v>65895.07056436871</v>
+        <v>32014.01229969479</v>
       </c>
       <c r="K28">
-        <v>-36060.22436830574</v>
+        <v>-54655.561529986968</v>
       </c>
       <c r="L28">
-        <v>20117.88674952477</v>
+        <v>-7692.4599440806387</v>
       </c>
       <c r="M28">
-        <v>65498.11230795686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>31885.956250496001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B29">
-        <v>1981.979332591518</v>
+        <v>2016.624149069962</v>
       </c>
       <c r="C29">
-        <v>1337.116201933452</v>
+        <v>1359.1872674443171</v>
       </c>
       <c r="D29">
-        <v>1884.93726127349</v>
+        <v>1901.9923051646099</v>
       </c>
       <c r="E29">
-        <v>1974.051415261151</v>
+        <v>2010.592371954099</v>
       </c>
       <c r="F29">
-        <v>1331.767737125718</v>
+        <v>1355.1219017390999</v>
       </c>
       <c r="G29">
-        <v>1877.397512228396</v>
+        <v>1896.3033949796711</v>
       </c>
       <c r="H29">
-        <v>-54875.06177709535</v>
+        <v>34467.879924639688</v>
       </c>
       <c r="I29">
-        <v>-7723.353357510684</v>
+        <v>22258.618333552651</v>
       </c>
       <c r="J29">
-        <v>32014.01229969479</v>
+        <v>59441.160760020131</v>
       </c>
       <c r="K29">
-        <v>-54655.56152998697</v>
+        <v>34364.785567935884</v>
       </c>
       <c r="L29">
-        <v>-7692.459944080639</v>
+        <v>22192.042206931859</v>
       </c>
       <c r="M29">
-        <v>31885.956250496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>59263.370648075899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30">
-        <v>2016.624149069962</v>
+        <v>2177.3327704130529</v>
       </c>
       <c r="C30">
-        <v>1359.187267444317</v>
+        <v>1387.3822233078481</v>
       </c>
       <c r="D30">
-        <v>1901.99230516461</v>
+        <v>1962.104918381626</v>
       </c>
       <c r="E30">
-        <v>2010.592371954099</v>
+        <v>2153.7127896689271</v>
       </c>
       <c r="F30">
-        <v>1355.1219017391</v>
+        <v>1372.3317258163429</v>
       </c>
       <c r="G30">
-        <v>1896.303394979671</v>
+        <v>1940.819756545138</v>
       </c>
       <c r="H30">
-        <v>34467.87992463969</v>
+        <v>-7646.9150472445144</v>
       </c>
       <c r="I30">
-        <v>22258.61833355265</v>
+        <v>29691.671229847499</v>
       </c>
       <c r="J30">
-        <v>59441.16076002013</v>
+        <v>51477.659977643547</v>
       </c>
       <c r="K30">
-        <v>34364.78556793588</v>
+        <v>-7563.9603475209569</v>
       </c>
       <c r="L30">
-        <v>22192.04220693186</v>
+        <v>29369.572232285049</v>
       </c>
       <c r="M30">
-        <v>59263.3706480759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>50919.223824039917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B31">
-        <v>2177.332770413053</v>
+        <v>2178.1715054375049</v>
       </c>
       <c r="C31">
-        <v>1387.382223307848</v>
+        <v>1421.638781356038</v>
       </c>
       <c r="D31">
-        <v>1962.104918381626</v>
+        <v>1977.12359634629</v>
       </c>
       <c r="E31">
-        <v>2153.712789668927</v>
+        <v>2161.121239250127</v>
       </c>
       <c r="F31">
-        <v>1372.331725816343</v>
+        <v>1410.5104934393571</v>
       </c>
       <c r="G31">
-        <v>1940.819756545138</v>
+        <v>1961.6470906997431</v>
       </c>
       <c r="H31">
-        <v>-7646.915047244514</v>
+        <v>25907.03047439679</v>
       </c>
       <c r="I31">
-        <v>29691.6712298475</v>
+        <v>-1368.286419846504</v>
       </c>
       <c r="J31">
-        <v>51477.65997764355</v>
+        <v>76147.500463545904</v>
       </c>
       <c r="K31">
-        <v>-7563.960347520957</v>
+        <v>25704.235715301711</v>
       </c>
       <c r="L31">
-        <v>29369.57223228505</v>
+        <v>-1357.5757629396801</v>
       </c>
       <c r="M31">
-        <v>50919.22382403992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>75551.433923713848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32">
-        <v>2178.171505437505</v>
+        <v>2213.7357535234869</v>
       </c>
       <c r="C32">
-        <v>1421.638781356038</v>
+        <v>1468.848645560932</v>
       </c>
       <c r="D32">
-        <v>1977.12359634629</v>
+        <v>2011.481386787425</v>
       </c>
       <c r="E32">
-        <v>2161.121239250127</v>
+        <v>2196.54168941845</v>
       </c>
       <c r="F32">
-        <v>1410.510493439357</v>
+        <v>1457.440112391527</v>
       </c>
       <c r="G32">
-        <v>1961.647090699743</v>
+        <v>1995.858230385192</v>
       </c>
       <c r="H32">
-        <v>25907.03047439679</v>
+        <v>44060.597795190923</v>
       </c>
       <c r="I32">
-        <v>-1368.286419846504</v>
+        <v>11115.844217093119</v>
       </c>
       <c r="J32">
-        <v>76147.5004635459</v>
+        <v>50343.443775623047</v>
       </c>
       <c r="K32">
-        <v>25704.23571530171</v>
+        <v>43718.379559888461</v>
       </c>
       <c r="L32">
-        <v>-1357.57576293968</v>
+        <v>11029.50756297977</v>
       </c>
       <c r="M32">
-        <v>75551.43392371385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>49952.426736589077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33">
-        <v>2213.735753523487</v>
+        <v>2505.0939138960771</v>
       </c>
       <c r="C33">
-        <v>1468.848645560932</v>
+        <v>1524.209248735817</v>
       </c>
       <c r="D33">
-        <v>2011.481386787425</v>
+        <v>2049.965104237474</v>
       </c>
       <c r="E33">
-        <v>2196.54168941845</v>
+        <v>2495.4030283490911</v>
       </c>
       <c r="F33">
-        <v>1457.440112391527</v>
+        <v>1518.3128880056979</v>
       </c>
       <c r="G33">
-        <v>1995.858230385192</v>
+        <v>2042.0348717259169</v>
       </c>
       <c r="H33">
-        <v>44060.59779519092</v>
+        <v>-130615.31177362621</v>
       </c>
       <c r="I33">
-        <v>11115.84421709312</v>
+        <v>-10485.793610636199</v>
       </c>
       <c r="J33">
-        <v>50343.44377562305</v>
+        <v>50219.243919700617</v>
       </c>
       <c r="K33">
-        <v>43718.37955988846</v>
+        <v>-130110.030103322</v>
       </c>
       <c r="L33">
-        <v>11029.50756297977</v>
+        <v>-10445.229612142441</v>
       </c>
       <c r="M33">
-        <v>49952.42673658908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B34">
-        <v>2505.093913896077</v>
-      </c>
-      <c r="C34">
-        <v>1524.209248735817</v>
-      </c>
-      <c r="D34">
-        <v>2049.965104237474</v>
-      </c>
-      <c r="E34">
-        <v>2495.403028349091</v>
-      </c>
-      <c r="F34">
-        <v>1518.312888005698</v>
-      </c>
-      <c r="G34">
-        <v>2042.034871725917</v>
-      </c>
-      <c r="H34">
-        <v>-130615.3117736262</v>
-      </c>
-      <c r="I34">
-        <v>-10485.7936106362</v>
-      </c>
-      <c r="J34">
-        <v>50219.24391970062</v>
-      </c>
-      <c r="K34">
-        <v>-130110.030103322</v>
-      </c>
-      <c r="L34">
-        <v>-10445.22961214244</v>
-      </c>
-      <c r="M34">
-        <v>50024.97218306735</v>
+        <v>50024.972183067352</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_nominal.xlsx
+++ b/gis/output/all_nominal.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CBB7D-5432-4EE6-B3CA-EB54B7F0D0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,10 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,13 +132,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,37 +429,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -460,1275 +503,1275 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>1084.2125750705179</v>
+      </c>
+      <c r="C3">
+        <v>702.06678517920921</v>
+      </c>
+      <c r="D3">
+        <v>963.73205611961896</v>
+      </c>
+      <c r="E3">
+        <v>1056.0968518920281</v>
+      </c>
+      <c r="F3">
+        <v>683.86083937229284</v>
+      </c>
+      <c r="G3">
+        <v>938.74062516676008</v>
+      </c>
+      <c r="H3">
+        <v>7737.7672033080999</v>
+      </c>
+      <c r="I3">
+        <v>-6799.2744736813074</v>
+      </c>
+      <c r="J3">
+        <v>-15331.909209443709</v>
+      </c>
+      <c r="K3">
+        <v>7537.1119759937883</v>
+      </c>
+      <c r="L3">
+        <v>-6622.9561729051293</v>
+      </c>
+      <c r="M3">
+        <v>-14934.323233185851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B4">
-        <v>1084.212575070518</v>
+        <v>1065.1035719589111</v>
       </c>
       <c r="C4">
-        <v>702.0667851792092</v>
+        <v>734.43246970857649</v>
       </c>
       <c r="D4">
-        <v>963.732056119619</v>
+        <v>1021.15754110905</v>
       </c>
       <c r="E4">
-        <v>1056.096851892028</v>
+        <v>1039.8242150295059</v>
       </c>
       <c r="F4">
-        <v>683.8608393722928</v>
+        <v>717.0013193199236</v>
       </c>
       <c r="G4">
-        <v>938.7406251667601</v>
+        <v>996.92120706374078</v>
       </c>
       <c r="H4">
-        <v>7737.7672033081</v>
+        <v>17939.52804632573</v>
       </c>
       <c r="I4">
-        <v>-6799.274473681307</v>
+        <v>-2096.2472588231608</v>
       </c>
       <c r="J4">
-        <v>-15331.90920944371</v>
+        <v>-10722.70305903436</v>
       </c>
       <c r="K4">
-        <v>7537.111975993788</v>
+        <v>17513.74810851736</v>
       </c>
       <c r="L4">
-        <v>-6622.956172905129</v>
+        <v>-2046.494554895396</v>
       </c>
       <c r="M4">
-        <v>-14934.32323318585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-10468.20852440538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B5">
-        <v>1065.103571958911</v>
+        <v>1118.7861740675401</v>
       </c>
       <c r="C5">
-        <v>734.4324697085765</v>
+        <v>767.77047709358294</v>
       </c>
       <c r="D5">
-        <v>1021.15754110905</v>
+        <v>1064.9157366767499</v>
       </c>
       <c r="E5">
-        <v>1039.824215029506</v>
+        <v>1096.236995365404</v>
       </c>
       <c r="F5">
-        <v>717.0013193199236</v>
+        <v>752.29603336921616</v>
       </c>
       <c r="G5">
-        <v>996.9212070637408</v>
+        <v>1043.4523187282259</v>
       </c>
       <c r="H5">
-        <v>17939.52804632573</v>
+        <v>-5457.8504518463606</v>
       </c>
       <c r="I5">
-        <v>-2096.247258823161</v>
+        <v>-6095.056838159443</v>
       </c>
       <c r="J5">
-        <v>-10722.70305903436</v>
+        <v>-7298.6824952023626</v>
       </c>
       <c r="K5">
-        <v>17513.74810851736</v>
+        <v>-5347.8472644448066</v>
       </c>
       <c r="L5">
-        <v>-2046.494554895396</v>
+        <v>-5972.2107313438273</v>
       </c>
       <c r="M5">
-        <v>-10468.20852440538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-7151.5772666168887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B6">
-        <v>1118.78617406754</v>
+        <v>1157.7660154748289</v>
       </c>
       <c r="C6">
-        <v>767.7704770935829</v>
+        <v>771.48757971697148</v>
       </c>
       <c r="D6">
-        <v>1064.91573667675</v>
+        <v>1086.4035197822129</v>
       </c>
       <c r="E6">
-        <v>1096.236995365404</v>
+        <v>1143.5820520386901</v>
       </c>
       <c r="F6">
-        <v>752.2960333692162</v>
+        <v>762.03597077710049</v>
       </c>
       <c r="G6">
-        <v>1043.452318728226</v>
+        <v>1073.0938288813591</v>
       </c>
       <c r="H6">
-        <v>-5457.850451846361</v>
+        <v>-1493.0318847495801</v>
       </c>
       <c r="I6">
-        <v>-6095.056838159443</v>
+        <v>5130.9840342727884</v>
       </c>
       <c r="J6">
-        <v>-7298.682495202363</v>
+        <v>-814.63321439470371</v>
       </c>
       <c r="K6">
-        <v>-5347.847264444807</v>
+        <v>-1474.7405293468289</v>
       </c>
       <c r="L6">
-        <v>-5972.210731343827</v>
+        <v>5068.1235866859861</v>
       </c>
       <c r="M6">
-        <v>-7151.577266616889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-804.65302187532006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B7">
-        <v>1157.766015474829</v>
+        <v>1222.038100613546</v>
       </c>
       <c r="C7">
-        <v>771.4875797169715</v>
+        <v>814.43236216029743</v>
       </c>
       <c r="D7">
-        <v>1086.403519782213</v>
+        <v>1162.859015310376</v>
       </c>
       <c r="E7">
-        <v>1143.58205203869</v>
+        <v>1198.184504055024</v>
       </c>
       <c r="F7">
-        <v>762.0359707771005</v>
+        <v>798.53503376978119</v>
       </c>
       <c r="G7">
-        <v>1073.093828881359</v>
+        <v>1140.160566062576</v>
       </c>
       <c r="H7">
-        <v>-1493.03188474958</v>
+        <v>4892.830228919508</v>
       </c>
       <c r="I7">
-        <v>5130.984034272788</v>
+        <v>4043.6957586540088</v>
       </c>
       <c r="J7">
-        <v>-814.6332143947037</v>
+        <v>-4186.6847076784306</v>
       </c>
       <c r="K7">
-        <v>-1474.740529346829</v>
+        <v>4797.3245337604176</v>
       </c>
       <c r="L7">
-        <v>5068.123586685986</v>
+        <v>3964.764760361963</v>
       </c>
       <c r="M7">
-        <v>-804.6530218753201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-4104.9626338048274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B8">
-        <v>1222.038100613546</v>
+        <v>1236.8464148621269</v>
       </c>
       <c r="C8">
-        <v>814.4323621602974</v>
+        <v>849.11043353995308</v>
       </c>
       <c r="D8">
-        <v>1162.859015310376</v>
+        <v>1209.742237272683</v>
       </c>
       <c r="E8">
-        <v>1198.184504055024</v>
+        <v>1211.3819298502599</v>
       </c>
       <c r="F8">
-        <v>798.5350337697812</v>
+        <v>831.62874814354223</v>
       </c>
       <c r="G8">
-        <v>1140.160566062576</v>
+        <v>1184.835779446481</v>
       </c>
       <c r="H8">
-        <v>4892.830228919508</v>
+        <v>11497.81890744969</v>
       </c>
       <c r="I8">
-        <v>4043.695758654009</v>
+        <v>-1133.3290142128551</v>
       </c>
       <c r="J8">
-        <v>-4186.684707678431</v>
+        <v>1539.361326480009</v>
       </c>
       <c r="K8">
-        <v>4797.324533760418</v>
+        <v>11261.09910641396</v>
       </c>
       <c r="L8">
-        <v>3964.764760361963</v>
+        <v>-1109.9957698025901</v>
       </c>
       <c r="M8">
-        <v>-4104.962633804827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1507.6685932877731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B9">
-        <v>1236.846414862127</v>
+        <v>1286.9867351175881</v>
       </c>
       <c r="C9">
-        <v>849.1104335399531</v>
+        <v>868.16331928342038</v>
       </c>
       <c r="D9">
-        <v>1209.742237272683</v>
+        <v>1248.9156424044661</v>
       </c>
       <c r="E9">
-        <v>1211.38192985026</v>
+        <v>1259.210042992748</v>
       </c>
       <c r="F9">
-        <v>831.6287481435422</v>
+        <v>849.42598145715965</v>
       </c>
       <c r="G9">
-        <v>1184.835779446481</v>
+        <v>1221.960628539621</v>
       </c>
       <c r="H9">
-        <v>11497.81890744969</v>
+        <v>-1097.903605881156</v>
       </c>
       <c r="I9">
-        <v>-1133.329014212855</v>
+        <v>6659.3502883343745</v>
       </c>
       <c r="J9">
-        <v>1539.361326480009</v>
+        <v>5308.3393294614161</v>
       </c>
       <c r="K9">
-        <v>11261.09910641396</v>
+        <v>-1074.207844603146</v>
       </c>
       <c r="L9">
-        <v>-1109.99576980259</v>
+        <v>6515.6233036940639</v>
       </c>
       <c r="M9">
-        <v>1507.668593287773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5193.7708547248394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B10">
-        <v>1286.986735117588</v>
+        <v>1323.306692691554</v>
       </c>
       <c r="C10">
-        <v>868.1633192834204</v>
+        <v>877.46465575820241</v>
       </c>
       <c r="D10">
-        <v>1248.915642404466</v>
+        <v>1288.006299268164</v>
       </c>
       <c r="E10">
-        <v>1259.210042992748</v>
+        <v>1295.34950904314</v>
       </c>
       <c r="F10">
-        <v>849.4259814571597</v>
+        <v>858.92667007316993</v>
       </c>
       <c r="G10">
-        <v>1221.960628539621</v>
+        <v>1260.7948985794001</v>
       </c>
       <c r="H10">
-        <v>-1097.903605881156</v>
+        <v>3945.3031269288981</v>
       </c>
       <c r="I10">
-        <v>6659.350288334374</v>
+        <v>13132.88272990869</v>
       </c>
       <c r="J10">
-        <v>5308.339329461416</v>
+        <v>7910.6102751201679</v>
       </c>
       <c r="K10">
-        <v>-1074.207844603146</v>
+        <v>3861.951652416315</v>
       </c>
       <c r="L10">
-        <v>6515.623303694064</v>
+        <v>12855.42746096695</v>
       </c>
       <c r="M10">
-        <v>5193.770854724839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7743.4847059274889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B11">
-        <v>1323.306692691554</v>
+        <v>1351.6333327694099</v>
       </c>
       <c r="C11">
-        <v>877.4646557582024</v>
+        <v>897.31087974591674</v>
       </c>
       <c r="D11">
-        <v>1288.006299268164</v>
+        <v>1331.9497384717649</v>
       </c>
       <c r="E11">
-        <v>1295.34950904314</v>
+        <v>1327.3301054858659</v>
       </c>
       <c r="F11">
-        <v>858.9266700731699</v>
+        <v>881.17665922489755</v>
       </c>
       <c r="G11">
-        <v>1260.7948985794</v>
+        <v>1308.0004347371409</v>
       </c>
       <c r="H11">
-        <v>3945.303126928898</v>
+        <v>7720.4668544190481</v>
       </c>
       <c r="I11">
-        <v>13132.88272990869</v>
+        <v>10029.638101532741</v>
       </c>
       <c r="J11">
-        <v>7910.610275120168</v>
+        <v>9283.9260239239884</v>
       </c>
       <c r="K11">
-        <v>3861.951652416315</v>
+        <v>7581.6479483229941</v>
       </c>
       <c r="L11">
-        <v>12855.42746096695</v>
+        <v>9849.2988272313232</v>
       </c>
       <c r="M11">
-        <v>7743.484705927489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9116.9951272282597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B12">
-        <v>1351.63333276941</v>
+        <v>1379.486150116232</v>
       </c>
       <c r="C12">
-        <v>897.3108797459167</v>
+        <v>923.88022321814219</v>
       </c>
       <c r="D12">
-        <v>1331.949738471765</v>
+        <v>1352.173488474368</v>
       </c>
       <c r="E12">
-        <v>1327.330105485866</v>
+        <v>1345.976365093165</v>
       </c>
       <c r="F12">
-        <v>881.1766592248975</v>
+        <v>901.43778864604167</v>
       </c>
       <c r="G12">
-        <v>1308.000434737141</v>
+        <v>1319.3271689162871</v>
       </c>
       <c r="H12">
-        <v>7720.466854419048</v>
+        <v>672.27030327563614</v>
       </c>
       <c r="I12">
-        <v>10029.63810153274</v>
+        <v>1623.1339551770609</v>
       </c>
       <c r="J12">
-        <v>9283.926023923988</v>
+        <v>5023.5971795098094</v>
       </c>
       <c r="K12">
-        <v>7581.647948322994</v>
+        <v>2049.2794549631112</v>
       </c>
       <c r="L12">
-        <v>9849.298827231323</v>
+        <v>4947.7941399317997</v>
       </c>
       <c r="M12">
-        <v>9116.99512722826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15313.41551131875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B13">
-        <v>1379.486150116232</v>
+        <v>1410.501822149816</v>
       </c>
       <c r="C13">
-        <v>923.8802232181422</v>
+        <v>973.68006368993963</v>
       </c>
       <c r="D13">
-        <v>1352.173488474368</v>
+        <v>1379.993921986297</v>
       </c>
       <c r="E13">
-        <v>1345.976365093165</v>
+        <v>1371.629724688994</v>
       </c>
       <c r="F13">
-        <v>901.4377886460417</v>
+        <v>946.84636114730347</v>
       </c>
       <c r="G13">
-        <v>1319.327168916287</v>
+        <v>1341.9625934276189</v>
       </c>
       <c r="H13">
-        <v>672.2703032756361</v>
+        <v>2295.0639334827638</v>
       </c>
       <c r="I13">
-        <v>1623.133955177061</v>
+        <v>-30.371391602414729</v>
       </c>
       <c r="J13">
-        <v>5023.597179509809</v>
+        <v>6217.3789940820197</v>
       </c>
       <c r="K13">
-        <v>655.939850564487</v>
+        <v>2231.8141400403251</v>
       </c>
       <c r="L13">
-        <v>1583.705599990573</v>
+        <v>-29.534384747230209</v>
       </c>
       <c r="M13">
-        <v>4901.566478792973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6046.0339036939313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>1410.501822149816</v>
+        <v>1435.316733920926</v>
       </c>
       <c r="C14">
-        <v>973.6800636899396</v>
+        <v>1012.063446338161</v>
       </c>
       <c r="D14">
-        <v>1379.993921986297</v>
+        <v>1389.709230420553</v>
       </c>
       <c r="E14">
-        <v>1371.629724688994</v>
+        <v>1402.194040061212</v>
       </c>
       <c r="F14">
-        <v>946.8463611473035</v>
+        <v>988.70813603805004</v>
       </c>
       <c r="G14">
-        <v>1341.962593427619</v>
+        <v>1357.6390174108481</v>
       </c>
       <c r="H14">
-        <v>2295.063933482764</v>
+        <v>1449.60402293635</v>
       </c>
       <c r="I14">
-        <v>-30.37139160241473</v>
+        <v>804.31182318528317</v>
       </c>
       <c r="J14">
-        <v>6217.37899408202</v>
+        <v>6806.2347596480149</v>
       </c>
       <c r="K14">
-        <v>2231.814140040325</v>
+        <v>1416.1516224070499</v>
       </c>
       <c r="L14">
-        <v>-29.53438474723018</v>
+        <v>785.75078111177675</v>
       </c>
       <c r="M14">
-        <v>6046.033903693931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6649.1678036561379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>1435.316733920926</v>
+        <v>1443.5434034588909</v>
       </c>
       <c r="C15">
-        <v>1012.063446338161</v>
+        <v>1028.8005599515211</v>
       </c>
       <c r="D15">
-        <v>1389.709230420553</v>
+        <v>1414.1218750502539</v>
       </c>
       <c r="E15">
-        <v>1402.194040061212</v>
+        <v>1409.2163387959131</v>
       </c>
       <c r="F15">
-        <v>988.70813603805</v>
+        <v>1004.335965910121</v>
       </c>
       <c r="G15">
-        <v>1357.639017410848</v>
+        <v>1380.4944462317869</v>
       </c>
       <c r="H15">
-        <v>1449.60402293635</v>
+        <v>3337.0110344263621</v>
       </c>
       <c r="I15">
-        <v>804.3118231852832</v>
+        <v>1950.182378198801</v>
       </c>
       <c r="J15">
-        <v>6806.234759648015</v>
+        <v>3816.0620140429442</v>
       </c>
       <c r="K15">
-        <v>1416.15162240705</v>
+        <v>3257.6578308542698</v>
       </c>
       <c r="L15">
-        <v>785.7507811117767</v>
+        <v>1903.8075782166011</v>
       </c>
       <c r="M15">
-        <v>6649.167803656138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3725.3171100794689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B16">
-        <v>1443.543403458891</v>
+        <v>1395.487883369367</v>
       </c>
       <c r="C16">
-        <v>1028.800559951521</v>
+        <v>1034.4243062793239</v>
       </c>
       <c r="D16">
-        <v>1414.121875050254</v>
+        <v>1426.146085383137</v>
       </c>
       <c r="E16">
-        <v>1409.216338795913</v>
+        <v>1366.4152191325049</v>
       </c>
       <c r="F16">
-        <v>1004.335965910121</v>
+        <v>1012.873799898505</v>
       </c>
       <c r="G16">
-        <v>1380.494446231787</v>
+        <v>1396.4347086043219</v>
       </c>
       <c r="H16">
-        <v>3337.011034426362</v>
+        <v>5024.1942417033069</v>
       </c>
       <c r="I16">
-        <v>1950.182378198801</v>
+        <v>2672.518709859381</v>
       </c>
       <c r="J16">
-        <v>3816.062014042944</v>
+        <v>3409.9694309896349</v>
       </c>
       <c r="K16">
-        <v>3257.65783085427</v>
+        <v>4919.52352833449</v>
       </c>
       <c r="L16">
-        <v>1903.807578216601</v>
+        <v>2616.8412367373098</v>
       </c>
       <c r="M16">
-        <v>3725.317110079469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3338.928401177352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
-        <v>1395.487883369367</v>
+        <v>1450.7426780087769</v>
       </c>
       <c r="C17">
-        <v>1034.424306279324</v>
+        <v>1070.785805448</v>
       </c>
       <c r="D17">
-        <v>1426.146085383137</v>
+        <v>1449.405881825182</v>
       </c>
       <c r="E17">
-        <v>1366.415219132505</v>
+        <v>1434.9163942486809</v>
       </c>
       <c r="F17">
-        <v>1012.873799898505</v>
+        <v>1059.1045057522031</v>
       </c>
       <c r="G17">
-        <v>1396.434708604322</v>
+        <v>1433.5941812961801</v>
       </c>
       <c r="H17">
-        <v>5024.194241703307</v>
+        <v>114.848410487595</v>
       </c>
       <c r="I17">
-        <v>2672.518709859381</v>
+        <v>-81.543401052902041</v>
       </c>
       <c r="J17">
-        <v>3409.969430989635</v>
+        <v>4657.8217934450904</v>
       </c>
       <c r="K17">
-        <v>4919.52352833449</v>
+        <v>113.59551873682121</v>
       </c>
       <c r="L17">
-        <v>2616.84123673731</v>
+        <v>-80.653836677779495</v>
       </c>
       <c r="M17">
-        <v>3338.928401177352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4607.0091920620534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B18">
-        <v>1450.742678008777</v>
+        <v>1512.690372625229</v>
       </c>
       <c r="C18">
-        <v>1070.785805448</v>
+        <v>1077.039053359927</v>
       </c>
       <c r="D18">
-        <v>1449.405881825182</v>
+        <v>1511.098013251647</v>
       </c>
       <c r="E18">
-        <v>1434.916394248681</v>
+        <v>1485.678044542635</v>
       </c>
       <c r="F18">
-        <v>1059.104505752203</v>
+        <v>1057.8062131213569</v>
       </c>
       <c r="G18">
-        <v>1433.59418129618</v>
+        <v>1484.114120157868</v>
       </c>
       <c r="H18">
-        <v>114.848410487595</v>
+        <v>561.72904717349775</v>
       </c>
       <c r="I18">
-        <v>-81.54340105290204</v>
+        <v>5564.9530616001384</v>
       </c>
       <c r="J18">
-        <v>4657.82179344509</v>
+        <v>1290.007273949552</v>
       </c>
       <c r="K18">
-        <v>113.5955187368212</v>
+        <v>551.69817133111371</v>
       </c>
       <c r="L18">
-        <v>-80.65383667777941</v>
+        <v>5465.5788997858508</v>
       </c>
       <c r="M18">
-        <v>4607.009192062053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1266.971429771881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19">
-        <v>1512.690372625229</v>
+        <v>1644.101758560834</v>
       </c>
       <c r="C19">
-        <v>1077.039053359927</v>
+        <v>1119.3969593965789</v>
       </c>
       <c r="D19">
-        <v>1511.098013251647</v>
+        <v>1579.579444289076</v>
       </c>
       <c r="E19">
-        <v>1485.678044542635</v>
+        <v>1613.370884569043</v>
       </c>
       <c r="F19">
-        <v>1057.806213121357</v>
+        <v>1098.4736517443071</v>
       </c>
       <c r="G19">
-        <v>1484.114120157868</v>
+        <v>1550.054594863112</v>
       </c>
       <c r="H19">
-        <v>561.7290471734977</v>
+        <v>-1794.313286809255</v>
       </c>
       <c r="I19">
-        <v>5564.953061600138</v>
+        <v>2557.1946384563562</v>
       </c>
       <c r="J19">
-        <v>1290.007273949552</v>
+        <v>1578.80928699079</v>
       </c>
       <c r="K19">
-        <v>551.6981713311137</v>
+        <v>-1760.774720700671</v>
       </c>
       <c r="L19">
-        <v>5465.57889978585</v>
+        <v>2509.3966078310041</v>
       </c>
       <c r="M19">
-        <v>1266.971429771882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1549.2988330283449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B20">
-        <v>1644.101758560834</v>
+        <v>1663.5760351142519</v>
       </c>
       <c r="C20">
-        <v>1119.396959396579</v>
+        <v>1123.327473674208</v>
       </c>
       <c r="D20">
-        <v>1579.579444289076</v>
+        <v>1639.133859023844</v>
       </c>
       <c r="E20">
-        <v>1613.370884569043</v>
+        <v>1634.9266200433981</v>
       </c>
       <c r="F20">
-        <v>1098.473651744307</v>
+        <v>1103.9819947934809</v>
       </c>
       <c r="G20">
-        <v>1550.054594863112</v>
+        <v>1610.905376951102</v>
       </c>
       <c r="H20">
-        <v>-1794.313286809255</v>
+        <v>5506.3708322426164</v>
       </c>
       <c r="I20">
-        <v>2557.194638456356</v>
+        <v>5859.6832422996631</v>
       </c>
       <c r="J20">
-        <v>1578.80928699079</v>
+        <v>3352.8631990454542</v>
       </c>
       <c r="K20">
-        <v>-1760.774720700671</v>
+        <v>5411.5424022958423</v>
       </c>
       <c r="L20">
-        <v>2509.396607831004</v>
+        <v>5758.7702128685551</v>
       </c>
       <c r="M20">
-        <v>1549.298833028345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3295.121582529172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B21">
-        <v>1663.576035114252</v>
+        <v>1762.6681329292769</v>
       </c>
       <c r="C21">
-        <v>1123.327473674208</v>
+        <v>1128.734056466159</v>
       </c>
       <c r="D21">
-        <v>1639.133859023844</v>
+        <v>1657.6952124243869</v>
       </c>
       <c r="E21">
-        <v>1634.926620043398</v>
+        <v>1703.9777400459491</v>
       </c>
       <c r="F21">
-        <v>1103.981994793481</v>
+        <v>1091.151346483934</v>
       </c>
       <c r="G21">
-        <v>1610.905376951102</v>
+        <v>1602.5000333203559</v>
       </c>
       <c r="H21">
-        <v>5506.370832242616</v>
+        <v>-3140.282962535654</v>
       </c>
       <c r="I21">
-        <v>5859.683242299663</v>
+        <v>2152.3061829507642</v>
       </c>
       <c r="J21">
-        <v>3352.863199045454</v>
+        <v>1888.6964475802499</v>
       </c>
       <c r="K21">
-        <v>5411.542402295842</v>
+        <v>-3035.723041474535</v>
       </c>
       <c r="L21">
-        <v>5758.770212868555</v>
+        <v>2080.642270088917</v>
       </c>
       <c r="M21">
-        <v>3295.121582529172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1825.8097734099861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>1762.668132929277</v>
+        <v>1741.2363115112121</v>
       </c>
       <c r="C22">
-        <v>1128.734056466159</v>
+        <v>1083.8820711721139</v>
       </c>
       <c r="D22">
-        <v>1657.695212424387</v>
+        <v>1656.2458978480181</v>
       </c>
       <c r="E22">
-        <v>1703.977740045949</v>
+        <v>1720.23455775395</v>
       </c>
       <c r="F22">
-        <v>1091.151346483934</v>
+        <v>1070.8089321557841</v>
       </c>
       <c r="G22">
-        <v>1602.500033320356</v>
+        <v>1636.269247764325</v>
       </c>
       <c r="H22">
-        <v>-3140.282962535654</v>
+        <v>4538.4434056880218</v>
       </c>
       <c r="I22">
-        <v>2152.306182950764</v>
+        <v>6084.7928372635779</v>
       </c>
       <c r="J22">
-        <v>1888.69644758025</v>
+        <v>-2066.500248986672</v>
       </c>
       <c r="K22">
-        <v>-3035.723041474535</v>
+        <v>3477.143883239466</v>
       </c>
       <c r="L22">
-        <v>2080.642270088917</v>
+        <v>4661.8847705258286</v>
       </c>
       <c r="M22">
-        <v>1825.809773409986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>-1583.2562088294951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B23">
-        <v>1741.236311511212</v>
+        <v>1697.492319518439</v>
       </c>
       <c r="C23">
-        <v>1083.882071172114</v>
+        <v>1115.9651633319711</v>
       </c>
       <c r="D23">
-        <v>1656.245897848018</v>
+        <v>1721.006889958958</v>
       </c>
       <c r="E23">
-        <v>1720.23455775395</v>
+        <v>1659.2850968926221</v>
       </c>
       <c r="F23">
-        <v>1070.808932155784</v>
+        <v>1090.846976375946</v>
       </c>
       <c r="G23">
-        <v>1636.269247764325</v>
+        <v>1682.2704004743509</v>
       </c>
       <c r="H23">
-        <v>4538.443405688022</v>
+        <v>12023.422685549551</v>
       </c>
       <c r="I23">
-        <v>6084.792837263578</v>
+        <v>5972.7231127919094</v>
       </c>
       <c r="J23">
-        <v>-2066.500248986672</v>
+        <v>6254.6962844002846</v>
       </c>
       <c r="K23">
-        <v>4483.703408470293</v>
+        <v>11752.79902381693</v>
       </c>
       <c r="L23">
-        <v>6011.401695586056</v>
+        <v>5838.2888305104198</v>
       </c>
       <c r="M23">
-        <v>-2041.575355632666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6113.9153390922402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B24">
-        <v>1697.492319518439</v>
+        <v>1719.8303845188541</v>
       </c>
       <c r="C24">
-        <v>1115.965163331971</v>
+        <v>1145.884434478656</v>
       </c>
       <c r="D24">
-        <v>1721.006889958958</v>
+        <v>1751.3494687367679</v>
       </c>
       <c r="E24">
-        <v>1659.285096892622</v>
+        <v>1673.203074823869</v>
       </c>
       <c r="F24">
-        <v>1090.846976375946</v>
+        <v>1114.817703199777</v>
       </c>
       <c r="G24">
-        <v>1682.270400474351</v>
+        <v>1703.867627040047</v>
       </c>
       <c r="H24">
-        <v>12023.42268554955</v>
+        <v>1999.7707301916471</v>
       </c>
       <c r="I24">
-        <v>5972.723112791909</v>
+        <v>-1825.9947533877889</v>
       </c>
       <c r="J24">
-        <v>6254.696284400285</v>
+        <v>-162.41565659181009</v>
       </c>
       <c r="K24">
-        <v>11752.79902381693</v>
+        <v>1945.553796943489</v>
       </c>
       <c r="L24">
-        <v>5838.288830510419</v>
+        <v>-1776.489160490936</v>
       </c>
       <c r="M24">
-        <v>6113.91533909224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-158.01231240892531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25">
-        <v>1719.830384518854</v>
+        <v>1736.327633407328</v>
       </c>
       <c r="C25">
-        <v>1145.884434478656</v>
+        <v>1231.778239417873</v>
       </c>
       <c r="D25">
-        <v>1751.349468736768</v>
+        <v>1782.911430883272</v>
       </c>
       <c r="E25">
-        <v>1673.203074823869</v>
+        <v>1695.6600819120449</v>
       </c>
       <c r="F25">
-        <v>1114.817703199777</v>
+        <v>1202.9280362543179</v>
       </c>
       <c r="G25">
-        <v>1703.867627040047</v>
+        <v>1741.152812848328</v>
       </c>
       <c r="H25">
-        <v>1999.770730191647</v>
+        <v>5008.1409369946095</v>
       </c>
       <c r="I25">
-        <v>-1825.994753387789</v>
+        <v>-7411.5509252901047</v>
       </c>
       <c r="J25">
-        <v>-162.4156565918101</v>
+        <v>7165.8037226634606</v>
       </c>
       <c r="K25">
-        <v>1945.553796943489</v>
+        <v>4890.8423203440234</v>
       </c>
       <c r="L25">
-        <v>-1776.489160490936</v>
+        <v>-7237.9606286692569</v>
       </c>
       <c r="M25">
-        <v>-158.012312408925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6997.9692159208353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26">
-        <v>1736.327633407328</v>
+        <v>1804.2091197820521</v>
       </c>
       <c r="C26">
-        <v>1231.778239417873</v>
+        <v>1255.6831861519281</v>
       </c>
       <c r="D26">
-        <v>1782.911430883272</v>
+        <v>1799.113801274626</v>
       </c>
       <c r="E26">
-        <v>1695.660081912045</v>
+        <v>1789.6296521474501</v>
       </c>
       <c r="F26">
-        <v>1202.928036254318</v>
+        <v>1245.5362513143371</v>
       </c>
       <c r="G26">
-        <v>1741.152812848328</v>
+        <v>1784.575507930992</v>
       </c>
       <c r="H26">
-        <v>5008.14093699461</v>
+        <v>-2035.0686839574139</v>
       </c>
       <c r="I26">
-        <v>-7411.550925290105</v>
+        <v>2559.5381440752221</v>
       </c>
       <c r="J26">
-        <v>7165.803722663461</v>
+        <v>7064.9457217287909</v>
       </c>
       <c r="K26">
-        <v>4890.842320344023</v>
+        <v>-2018.62368449109</v>
       </c>
       <c r="L26">
-        <v>-7237.960628669257</v>
+        <v>2538.8550075574431</v>
       </c>
       <c r="M26">
-        <v>6997.969215920835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>7007.8552512501747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27">
-        <v>1804.209119782052</v>
+        <v>1850.4640470873851</v>
       </c>
       <c r="C27">
-        <v>1255.683186151928</v>
+        <v>1272.632200434246</v>
       </c>
       <c r="D27">
-        <v>1799.113801274626</v>
+        <v>1810.6906933916671</v>
       </c>
       <c r="E27">
-        <v>1789.62965214745</v>
+        <v>1839.3166733097501</v>
       </c>
       <c r="F27">
-        <v>1245.536251314337</v>
+        <v>1264.9657413954851</v>
       </c>
       <c r="G27">
-        <v>1784.575507930992</v>
+        <v>1799.782918130272</v>
       </c>
       <c r="H27">
-        <v>-2035.068683957414</v>
+        <v>-16390.05893270766</v>
       </c>
       <c r="I27">
-        <v>2559.538144075222</v>
+        <v>9143.9627489190043</v>
       </c>
       <c r="J27">
-        <v>7064.945721728791</v>
+        <v>29770.139736207879</v>
       </c>
       <c r="K27">
-        <v>-2018.623684491091</v>
+        <v>-4491.7472500352078</v>
       </c>
       <c r="L27">
-        <v>2538.855007557443</v>
+        <v>2505.9317785562171</v>
       </c>
       <c r="M27">
-        <v>7007.855251250175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8158.6005176849512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28">
-        <v>1850.464047087385</v>
+        <v>1981.979332477895</v>
       </c>
       <c r="C28">
-        <v>1272.632200434246</v>
+        <v>1337.1162017786189</v>
       </c>
       <c r="D28">
-        <v>1810.690693391667</v>
+        <v>1884.937260951815</v>
       </c>
       <c r="E28">
-        <v>1839.31667330975</v>
+        <v>1974.0514151479831</v>
       </c>
       <c r="F28">
-        <v>1264.965741395485</v>
+        <v>1331.767736971505</v>
       </c>
       <c r="G28">
-        <v>1799.782918130272</v>
+        <v>1877.3975119080069</v>
       </c>
       <c r="H28">
-        <v>-16160.94570927164</v>
+        <v>-24791.509377015609</v>
       </c>
       <c r="I28">
-        <v>9016.141196294629</v>
+        <v>-3489.2642266393441</v>
       </c>
       <c r="J28">
-        <v>29353.98914729865</v>
+        <v>14463.321894441049</v>
       </c>
       <c r="K28">
-        <v>-16063.59061463747</v>
+        <v>-24692.343339507552</v>
       </c>
       <c r="L28">
-        <v>8961.827092702493</v>
+        <v>-3475.307169732786</v>
       </c>
       <c r="M28">
-        <v>29177.15788737516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14405.468606863289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B29">
-        <v>1981.979332477895</v>
+        <v>2016.6241490698719</v>
       </c>
       <c r="C29">
-        <v>1337.116201778619</v>
+        <v>1359.1872673429971</v>
       </c>
       <c r="D29">
-        <v>1884.937260951815</v>
+        <v>1901.992304993139</v>
       </c>
       <c r="E29">
-        <v>1974.051415147983</v>
+        <v>2010.5923719540101</v>
       </c>
       <c r="F29">
-        <v>1331.767736971505</v>
+        <v>1355.121901638083</v>
       </c>
       <c r="G29">
-        <v>1877.397511908007</v>
+        <v>1896.3033948087129</v>
       </c>
       <c r="H29">
-        <v>-24444.9540259621</v>
+        <v>15571.932672525019</v>
       </c>
       <c r="I29">
-        <v>-3440.488528048656</v>
+        <v>10056.02052077197</v>
       </c>
       <c r="J29">
-        <v>14261.14212715447</v>
+        <v>26854.386068006541</v>
       </c>
       <c r="K29">
-        <v>-24347.17420985824</v>
+        <v>15525.356602716871</v>
       </c>
       <c r="L29">
-        <v>-3426.726573936462</v>
+        <v>10025.94269269389</v>
       </c>
       <c r="M29">
-        <v>14204.09755864586</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>26774.063876377411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30">
-        <v>2016.624149069872</v>
+        <v>2177.3327702074739</v>
       </c>
       <c r="C30">
-        <v>1359.187267342997</v>
+        <v>1387.3822231242291</v>
       </c>
       <c r="D30">
-        <v>1901.992304993139</v>
+        <v>1962.104917761174</v>
       </c>
       <c r="E30">
-        <v>2010.59237195401</v>
+        <v>2153.7127894655782</v>
       </c>
       <c r="F30">
-        <v>1355.121901638083</v>
+        <v>1372.331725634715</v>
       </c>
       <c r="G30">
-        <v>1896.303394808713</v>
+        <v>1940.8197559314181</v>
       </c>
       <c r="H30">
-        <v>15354.25586584733</v>
+        <v>-3459.5721973809982</v>
       </c>
       <c r="I30">
-        <v>9915.449502332553</v>
+        <v>13414.13243425857</v>
       </c>
       <c r="J30">
-        <v>26478.9941929256</v>
+        <v>23256.628047977811</v>
       </c>
       <c r="K30">
-        <v>15308.33087322765</v>
+        <v>-3422.0423214725279</v>
       </c>
       <c r="L30">
-        <v>9885.792125954689</v>
+        <v>13268.614232309021</v>
       </c>
       <c r="M30">
-        <v>26399.7948085001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>23004.337211165432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B31">
-        <v>2177.332770207474</v>
+        <v>2178.1715056535322</v>
       </c>
       <c r="C31">
-        <v>1387.382223124229</v>
+        <v>1421.6387811073059</v>
       </c>
       <c r="D31">
-        <v>1962.104917761174</v>
+        <v>1977.123595973186</v>
       </c>
       <c r="E31">
-        <v>2153.712789465578</v>
+        <v>2161.1212394644631</v>
       </c>
       <c r="F31">
-        <v>1372.331725634715</v>
+        <v>1410.5104931925721</v>
       </c>
       <c r="G31">
-        <v>1940.819755931418</v>
+        <v>1961.647090329561</v>
       </c>
       <c r="H31">
-        <v>-3411.211557489104</v>
+        <v>11704.30363531701</v>
       </c>
       <c r="I31">
-        <v>13226.61906812433</v>
+        <v>-618.0737266247537</v>
       </c>
       <c r="J31">
-        <v>22931.52848365035</v>
+        <v>34401.992507409028</v>
       </c>
       <c r="K31">
-        <v>-3374.206303906873</v>
+        <v>11612.68482016776</v>
       </c>
       <c r="L31">
-        <v>13083.13503484093</v>
+        <v>-613.23557612279785</v>
       </c>
       <c r="M31">
-        <v>22682.76436795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>34132.700980932248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32">
-        <v>2178.171505653532</v>
+        <v>2213.7357535809888</v>
       </c>
       <c r="C32">
-        <v>1421.638781107306</v>
+        <v>1468.8486455121511</v>
       </c>
       <c r="D32">
-        <v>1977.123595973186</v>
+        <v>2011.4813868085239</v>
       </c>
       <c r="E32">
-        <v>2161.121239464463</v>
+        <v>2196.5416894755058</v>
       </c>
       <c r="F32">
-        <v>1410.510493192572</v>
+        <v>1457.4401123431251</v>
       </c>
       <c r="G32">
-        <v>1961.647090329561</v>
+        <v>1995.8582304061281</v>
       </c>
       <c r="H32">
-        <v>11540.69161018818</v>
+        <v>19905.740270251441</v>
       </c>
       <c r="I32">
-        <v>-609.4338026068169</v>
+        <v>5021.927020876441</v>
       </c>
       <c r="J32">
-        <v>33921.09421239039</v>
+        <v>22744.210375193619</v>
       </c>
       <c r="K32">
-        <v>11450.35351539218</v>
+        <v>19751.13257883201</v>
       </c>
       <c r="L32">
-        <v>-604.6632836040255</v>
+        <v>4982.9217624618668</v>
       </c>
       <c r="M32">
-        <v>33655.56705612901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22567.556314027061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33">
-        <v>2213.735753580989</v>
+        <v>2505.093914431302</v>
       </c>
       <c r="C33">
-        <v>1468.848645512151</v>
+        <v>1524.209248915542</v>
       </c>
       <c r="D33">
-        <v>2011.481386808524</v>
+        <v>2049.9651041586649</v>
       </c>
       <c r="E33">
-        <v>2196.541689475506</v>
+        <v>2495.4030288822441</v>
       </c>
       <c r="F33">
-        <v>1457.440112343125</v>
+        <v>1518.3128881847281</v>
       </c>
       <c r="G33">
-        <v>1995.858230406128</v>
+        <v>2042.034871647413</v>
       </c>
       <c r="H33">
-        <v>19627.48206892818</v>
+        <v>-59009.406534373797</v>
       </c>
       <c r="I33">
-        <v>4951.726547996055</v>
+        <v>-4737.2822629872553</v>
       </c>
       <c r="J33">
-        <v>22426.27379089198</v>
+        <v>22688.099636109841</v>
       </c>
       <c r="K33">
-        <v>19475.03560625689</v>
+        <v>-58781.13030019826</v>
       </c>
       <c r="L33">
-        <v>4913.266535972786</v>
+        <v>-4718.9562194167074</v>
       </c>
       <c r="M33">
-        <v>22252.08914008894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B34">
-        <v>2505.093914431302</v>
-      </c>
-      <c r="C34">
-        <v>1524.209248915542</v>
-      </c>
-      <c r="D34">
-        <v>2049.965104158665</v>
-      </c>
-      <c r="E34">
-        <v>2495.403028882244</v>
-      </c>
-      <c r="F34">
-        <v>1518.312888184728</v>
-      </c>
-      <c r="G34">
-        <v>2042.034871647413</v>
-      </c>
-      <c r="H34">
-        <v>-58184.52631889409</v>
-      </c>
-      <c r="I34">
-        <v>-4671.060779949549</v>
-      </c>
-      <c r="J34">
-        <v>22370.94741215454</v>
-      </c>
-      <c r="K34">
-        <v>-57959.4411106972</v>
-      </c>
-      <c r="L34">
-        <v>-4652.990912328856</v>
-      </c>
-      <c r="M34">
-        <v>22284.40602951564</v>
+        <v>22600.331358987562</v>
       </c>
     </row>
   </sheetData>
